--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1919749.196565156</v>
+        <v>1908314.34594904</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11817315.17210658</v>
+        <v>11735561.5870001</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7753165.260332657</v>
+        <v>8349300.999220044</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6134370.910803177</v>
+        <v>6001326.919776329</v>
       </c>
     </row>
     <row r="11">
@@ -8690,28 +8692,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>12.37773535116068</v>
+        <v>139.3754212341753</v>
       </c>
       <c r="L11" t="n">
-        <v>150.5945153458709</v>
+        <v>36.91723437975128</v>
       </c>
       <c r="M11" t="n">
-        <v>135.5760840273101</v>
+        <v>118.9285460638318</v>
       </c>
       <c r="N11" t="n">
-        <v>133.1094343034323</v>
+        <v>116.1925217712398</v>
       </c>
       <c r="O11" t="n">
-        <v>139.1614251295725</v>
+        <v>123.1872643325851</v>
       </c>
       <c r="P11" t="n">
-        <v>153.6205525518575</v>
+        <v>139.9869758869004</v>
       </c>
       <c r="Q11" t="n">
-        <v>164.0219772781927</v>
+        <v>8.714516593657862</v>
       </c>
       <c r="R11" t="n">
-        <v>42.6246581962135</v>
+        <v>30.65761212335729</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8848,7 +8850,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>28.90092881299373</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>135.2378249631526</v>
+        <v>36.91723437975128</v>
       </c>
       <c r="K14" t="n">
-        <v>151.4354142988742</v>
+        <v>139.3754212341753</v>
       </c>
       <c r="L14" t="n">
-        <v>150.5945153458709</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>118.9285460638318</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>116.1925217712398</v>
       </c>
       <c r="O14" t="n">
-        <v>139.1614251295725</v>
+        <v>123.1872643325851</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>139.9869758869004</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>8.714516593657862</v>
       </c>
       <c r="R14" t="n">
-        <v>13.93345769848894</v>
+        <v>30.65761212335729</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9091,13 +9093,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>100.9755221274599</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>11.22669135937895</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9167,25 +9169,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>150.594515345871</v>
+        <v>135.6330275315772</v>
       </c>
       <c r="M17" t="n">
-        <v>135.5760840273101</v>
+        <v>118.9285460638318</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>139.1614251295725</v>
+        <v>123.1872643325851</v>
       </c>
       <c r="P17" t="n">
-        <v>153.6205525518575</v>
+        <v>94.26907481154076</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>13.93345769848894</v>
+        <v>10.34976871702593</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9319,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>13.19529067015326</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9331,7 +9333,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>90.63765504816519</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -9401,28 +9403,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>139.3754212341755</v>
       </c>
       <c r="L20" t="n">
-        <v>150.594515345871</v>
+        <v>135.6330275315774</v>
       </c>
       <c r="M20" t="n">
-        <v>135.5760840273101</v>
+        <v>73.8221996411972</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>139.1614251295725</v>
+        <v>123.1872643325853</v>
       </c>
       <c r="P20" t="n">
-        <v>153.6205525518575</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>13.93345769848894</v>
+        <v>10.34976871702601</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9574,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>103.8329457183203</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9638,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>151.4354142988742</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>95.51355888418479</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>135.5760840273101</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>66.92072612149471</v>
       </c>
       <c r="O23" t="n">
-        <v>139.1614251295725</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>139.9869758869006</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>153.7837289870419</v>
       </c>
       <c r="R23" t="n">
-        <v>13.93345769848894</v>
+        <v>10.34976871702601</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9799,16 +9801,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>98.89102193996044</v>
+        <v>92.56829551028666</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>94.30909361902987</v>
       </c>
       <c r="N25" t="n">
-        <v>90.63765504816519</v>
+        <v>84.12973930946524</v>
       </c>
       <c r="O25" t="n">
-        <v>104.2368162005166</v>
+        <v>98.22570267914156</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>19.27190769220805</v>
+        <v>127.1910744831159</v>
       </c>
       <c r="K26" t="n">
-        <v>151.4354142988742</v>
+        <v>130.0890933528357</v>
       </c>
       <c r="L26" t="n">
-        <v>150.594515345871</v>
+        <v>25.62262288781861</v>
       </c>
       <c r="M26" t="n">
-        <v>112.8321387982284</v>
+        <v>118.928546063832</v>
       </c>
       <c r="N26" t="n">
-        <v>133.1094343034323</v>
+        <v>116.19252177124</v>
       </c>
       <c r="O26" t="n">
-        <v>139.1614251295725</v>
+        <v>123.1872643325853</v>
       </c>
       <c r="P26" t="n">
-        <v>153.6205525518575</v>
+        <v>139.9869758869006</v>
       </c>
       <c r="Q26" t="n">
-        <v>48.05606000724818</v>
+        <v>43.77332434328306</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>11.78415714825226</v>
+        <v>14.59014577943555</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10036,22 +10038,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>98.89102193996044</v>
+        <v>92.56829551028666</v>
       </c>
       <c r="M28" t="n">
-        <v>100.9755221274599</v>
+        <v>94.30909361902987</v>
       </c>
       <c r="N28" t="n">
-        <v>90.63765504816519</v>
+        <v>84.12973930946524</v>
       </c>
       <c r="O28" t="n">
-        <v>104.2368162005166</v>
+        <v>98.22570267914156</v>
       </c>
       <c r="P28" t="n">
-        <v>108.4471200234438</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.26651800546776</v>
+        <v>17.66090594488752</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>127.1910744831159</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>130.0890933528357</v>
       </c>
       <c r="L29" t="n">
-        <v>39.74539804532721</v>
+        <v>135.6330275315774</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>118.928546063832</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>116.19252177124</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>123.1872643325853</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>29.97657124314179</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>43.77332434328305</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>14.59014577943555</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10273,22 +10275,22 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>98.89102193996044</v>
+        <v>92.56829551028665</v>
       </c>
       <c r="M31" t="n">
-        <v>100.9755221274599</v>
+        <v>94.30909361902985</v>
       </c>
       <c r="N31" t="n">
-        <v>90.63765504816519</v>
+        <v>84.12973930946524</v>
       </c>
       <c r="O31" t="n">
-        <v>104.2368162005166</v>
+        <v>98.22570267914155</v>
       </c>
       <c r="P31" t="n">
-        <v>108.4471200234438</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>17.66090594488751</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>41.57918879380414</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,19 +10360,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>103.8983050575755</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>123.1872643325853</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>139.9869758869006</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>8.316651711809619</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10507,22 +10509,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>100.8856500941302</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>98.89102193996044</v>
+        <v>92.56829551028665</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>94.30909361902985</v>
       </c>
       <c r="N34" t="n">
-        <v>90.63765504816519</v>
+        <v>84.12973930946524</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>98.22570267914155</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>103.3035739539574</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>39.74539804532662</v>
+        <v>79.72073757242283</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10595,19 +10597,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>116.19252177124</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>139.9869758869006</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>8.316651711809619</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10747,19 +10749,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>98.89102193996044</v>
+        <v>92.56829551028665</v>
       </c>
       <c r="M37" t="n">
-        <v>100.9755221274599</v>
+        <v>94.30909361902985</v>
       </c>
       <c r="N37" t="n">
-        <v>90.63765504816519</v>
+        <v>84.12973930946524</v>
       </c>
       <c r="O37" t="n">
-        <v>104.2368162005166</v>
+        <v>98.22570267914155</v>
       </c>
       <c r="P37" t="n">
-        <v>108.4471200234438</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>41.57918879380439</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10835,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>123.1872643325853</v>
       </c>
       <c r="P38" t="n">
-        <v>39.74539804532728</v>
+        <v>139.9869758869006</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>8.316651711809619</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10984,19 +10986,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>98.89102193996044</v>
+        <v>92.56829551028665</v>
       </c>
       <c r="M40" t="n">
-        <v>100.9755221274599</v>
+        <v>94.30909361902985</v>
       </c>
       <c r="N40" t="n">
-        <v>90.63765504816519</v>
+        <v>84.12973930946524</v>
       </c>
       <c r="O40" t="n">
-        <v>104.2368162005166</v>
+        <v>98.22570267914155</v>
       </c>
       <c r="P40" t="n">
-        <v>108.4471200234438</v>
+        <v>103.3035739539574</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>34.13305015116764</v>
+        <v>127.1910744831159</v>
       </c>
       <c r="K41" t="n">
-        <v>151.4354142988742</v>
+        <v>61.66780966667118</v>
       </c>
       <c r="L41" t="n">
-        <v>150.594515345871</v>
+        <v>135.6330275315774</v>
       </c>
       <c r="M41" t="n">
-        <v>135.5760840273101</v>
+        <v>118.928546063832</v>
       </c>
       <c r="N41" t="n">
-        <v>133.1094343034323</v>
+        <v>116.19252177124</v>
       </c>
       <c r="O41" t="n">
-        <v>139.1614251295725</v>
+        <v>119.8088236398588</v>
       </c>
       <c r="P41" t="n">
-        <v>153.6205525518575</v>
+        <v>139.9869758869006</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.57549912375176</v>
+        <v>153.7837289870419</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>17.05444726773279</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>5.311573061664397</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>18.93692997750578</v>
       </c>
       <c r="R42" t="n">
-        <v>18.30359626475583</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4324794343914817</v>
+        <v>29.16462941110605</v>
       </c>
       <c r="K43" t="n">
-        <v>100.8856500941302</v>
+        <v>18.23707950918485</v>
       </c>
       <c r="L43" t="n">
-        <v>98.89102193996044</v>
+        <v>92.56829551028665</v>
       </c>
       <c r="M43" t="n">
-        <v>100.9755221274599</v>
+        <v>94.30909361902985</v>
       </c>
       <c r="N43" t="n">
-        <v>90.63765504816519</v>
+        <v>84.12973930946524</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>98.22570267914155</v>
       </c>
       <c r="P43" t="n">
-        <v>108.4471200234438</v>
+        <v>25.59596238645316</v>
       </c>
       <c r="Q43" t="n">
-        <v>21.78595712197133</v>
+        <v>49.96369902114205</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>135.2378249631526</v>
+        <v>127.1910744831159</v>
       </c>
       <c r="K44" t="n">
-        <v>151.4354142988742</v>
+        <v>139.3754212341755</v>
       </c>
       <c r="L44" t="n">
-        <v>150.594515345871</v>
+        <v>135.6330275315774</v>
       </c>
       <c r="M44" t="n">
-        <v>135.5760840273101</v>
+        <v>118.928546063832</v>
       </c>
       <c r="N44" t="n">
-        <v>133.1094343034323</v>
+        <v>64.60699513480755</v>
       </c>
       <c r="O44" t="n">
-        <v>139.1614251295725</v>
+        <v>123.1872643325853</v>
       </c>
       <c r="P44" t="n">
-        <v>153.6205525518575</v>
+        <v>62.27936431939632</v>
       </c>
       <c r="Q44" t="n">
-        <v>164.0219772781928</v>
+        <v>153.7837289870419</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>99.55464829538748</v>
+        <v>17.05444726773279</v>
       </c>
       <c r="K45" t="n">
-        <v>91.21048336898382</v>
+        <v>5.311573061664397</v>
       </c>
       <c r="L45" t="n">
-        <v>75.85330535110219</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>68.9648374822616</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>56.23594473555531</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>73.88914042388907</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>78.83089911254507</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.1197991304619</v>
+        <v>18.93692997750578</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,25 +11457,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>100.8856500941302</v>
+        <v>95.94469107668912</v>
       </c>
       <c r="L46" t="n">
-        <v>98.89102193996044</v>
+        <v>92.56829551028665</v>
       </c>
       <c r="M46" t="n">
-        <v>100.9755221274599</v>
+        <v>94.30909361902985</v>
       </c>
       <c r="N46" t="n">
-        <v>90.63765504816519</v>
+        <v>84.12973930946524</v>
       </c>
       <c r="O46" t="n">
-        <v>104.2368162005166</v>
+        <v>98.22570267914155</v>
       </c>
       <c r="P46" t="n">
-        <v>108.4471200234438</v>
+        <v>103.3035739539574</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>49.96369902114205</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>243.6761627157671</v>
+        <v>237.6646292700967</v>
       </c>
       <c r="C11" t="n">
-        <v>226.2152128232941</v>
+        <v>220.2036793776237</v>
       </c>
       <c r="D11" t="n">
-        <v>215.6253626729695</v>
+        <v>209.6138292272991</v>
       </c>
       <c r="E11" t="n">
-        <v>242.8726911245483</v>
+        <v>236.8611576788779</v>
       </c>
       <c r="F11" t="n">
-        <v>267.8183667939979</v>
+        <v>261.8068333483276</v>
       </c>
       <c r="G11" t="n">
-        <v>275.7053383410437</v>
+        <v>269.5989964242025</v>
       </c>
       <c r="H11" t="n">
-        <v>194.8897133996619</v>
+        <v>187.9072226986131</v>
       </c>
       <c r="I11" t="n">
-        <v>50.61064659526187</v>
+        <v>40.94400956477735</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.6635159799475</v>
+        <v>49.49153449747139</v>
       </c>
       <c r="T11" t="n">
-        <v>81.67554532544901</v>
+        <v>75.24898779722822</v>
       </c>
       <c r="U11" t="n">
-        <v>112.2447963420128</v>
+        <v>106.2256782186487</v>
       </c>
       <c r="V11" t="n">
-        <v>188.6945795224214</v>
+        <v>182.683046076751</v>
       </c>
       <c r="W11" t="n">
-        <v>210.1832897696995</v>
+        <v>204.1717563240291</v>
       </c>
       <c r="X11" t="n">
-        <v>230.6734217307555</v>
+        <v>224.6618882850852</v>
       </c>
       <c r="Y11" t="n">
-        <v>247.1802597083401</v>
+        <v>241.1687262626697</v>
       </c>
     </row>
     <row r="12">
@@ -23334,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.47550470215384</v>
+        <v>21.46397125648346</v>
       </c>
       <c r="C12" t="n">
-        <v>33.65082004060224</v>
+        <v>27.63928659493186</v>
       </c>
       <c r="D12" t="n">
-        <v>8.387386616925255</v>
+        <v>2.375853171254874</v>
       </c>
       <c r="E12" t="n">
-        <v>18.58740150768745</v>
+        <v>12.57586806201707</v>
       </c>
       <c r="F12" t="n">
-        <v>6.011533445670381</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23385,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>27.26160870584962</v>
+        <v>20.30784340633136</v>
       </c>
       <c r="T12" t="n">
-        <v>59.94308070559632</v>
+        <v>53.72708183520664</v>
       </c>
       <c r="U12" t="n">
-        <v>86.8647047267078</v>
+        <v>80.84983397813124</v>
       </c>
       <c r="V12" t="n">
-        <v>93.74290820171177</v>
+        <v>87.73137475604139</v>
       </c>
       <c r="W12" t="n">
-        <v>112.6373042132061</v>
+        <v>106.6257707675357</v>
       </c>
       <c r="X12" t="n">
-        <v>66.71530625576398</v>
+        <v>60.7037728100936</v>
       </c>
       <c r="Y12" t="n">
-        <v>66.62501682959086</v>
+        <v>60.61348338392048</v>
       </c>
     </row>
     <row r="13">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.7743012342238</v>
+        <v>34.76276778855342</v>
       </c>
       <c r="C13" t="n">
-        <v>28.18914215091434</v>
+        <v>22.17760870524396</v>
       </c>
       <c r="D13" t="n">
-        <v>9.557794070498858</v>
+        <v>3.546260624828477</v>
       </c>
       <c r="E13" t="n">
-        <v>7.376283698855673</v>
+        <v>1.364750253185292</v>
       </c>
       <c r="F13" t="n">
-        <v>6.363369075217747</v>
+        <v>0.3518356295473666</v>
       </c>
       <c r="G13" t="n">
-        <v>28.69120049772457</v>
+        <v>22.63713923578512</v>
       </c>
       <c r="H13" t="n">
-        <v>21.01700524214201</v>
+        <v>14.62736084818858</v>
       </c>
       <c r="I13" t="n">
-        <v>9.112191322522222</v>
+        <v>1.821730456687892</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>27.35001997672515</v>
+        <v>19.42628126499344</v>
       </c>
       <c r="S13" t="n">
-        <v>80.73977787779796</v>
+        <v>73.98710057951143</v>
       </c>
       <c r="T13" t="n">
-        <v>87.85348357947953</v>
+        <v>81.66024037338684</v>
       </c>
       <c r="U13" t="n">
-        <v>147.2481449589762</v>
+        <v>141.2342918142367</v>
       </c>
       <c r="V13" t="n">
-        <v>113.0799643761145</v>
+        <v>107.0684309304441</v>
       </c>
       <c r="W13" t="n">
-        <v>147.4653193888775</v>
+        <v>141.4537859432071</v>
       </c>
       <c r="X13" t="n">
-        <v>86.65197644132365</v>
+        <v>80.64044299565327</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.52697440438129</v>
+        <v>73.51544095871091</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>214.9849622180425</v>
+        <v>237.6646292700967</v>
       </c>
       <c r="C14" t="n">
-        <v>197.5240123255695</v>
+        <v>220.2036793776237</v>
       </c>
       <c r="D14" t="n">
-        <v>186.9341621752449</v>
+        <v>209.6138292272991</v>
       </c>
       <c r="E14" t="n">
-        <v>214.1814906268237</v>
+        <v>236.8611576788779</v>
       </c>
       <c r="F14" t="n">
-        <v>239.1271662962734</v>
+        <v>261.8068333483276</v>
       </c>
       <c r="G14" t="n">
-        <v>247.0141378433192</v>
+        <v>269.5989964242025</v>
       </c>
       <c r="H14" t="n">
-        <v>166.1985129019373</v>
+        <v>187.9072226986131</v>
       </c>
       <c r="I14" t="n">
-        <v>21.9194460975373</v>
+        <v>40.94400956477735</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>28.97231548222294</v>
+        <v>49.49153449747139</v>
       </c>
       <c r="T14" t="n">
-        <v>52.98434482772444</v>
+        <v>75.24898779722822</v>
       </c>
       <c r="U14" t="n">
-        <v>83.5535958442882</v>
+        <v>106.2256782186487</v>
       </c>
       <c r="V14" t="n">
-        <v>160.0033790246968</v>
+        <v>182.683046076751</v>
       </c>
       <c r="W14" t="n">
-        <v>181.4920892719749</v>
+        <v>204.1717563240291</v>
       </c>
       <c r="X14" t="n">
-        <v>201.982221233031</v>
+        <v>224.6618882850852</v>
       </c>
       <c r="Y14" t="n">
-        <v>218.4890592106155</v>
+        <v>241.1687262626697</v>
       </c>
     </row>
     <row r="15">
@@ -23571,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>21.46397125648346</v>
       </c>
       <c r="C15" t="n">
-        <v>4.959619542877675</v>
+        <v>27.63928659493186</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2.375853171254874</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>12.57586806201707</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23622,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>20.30784340633136</v>
       </c>
       <c r="T15" t="n">
-        <v>31.25188020787175</v>
+        <v>53.72708183520664</v>
       </c>
       <c r="U15" t="n">
-        <v>58.17350422898323</v>
+        <v>80.84983397813124</v>
       </c>
       <c r="V15" t="n">
-        <v>65.0517077039872</v>
+        <v>87.73137475604139</v>
       </c>
       <c r="W15" t="n">
-        <v>83.94610371548154</v>
+        <v>106.6257707675357</v>
       </c>
       <c r="X15" t="n">
-        <v>38.02410575803941</v>
+        <v>60.7037728100936</v>
       </c>
       <c r="Y15" t="n">
-        <v>37.9338163318663</v>
+        <v>60.61348338392048</v>
       </c>
     </row>
     <row r="16">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.08310073649923</v>
+        <v>34.76276778855342</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>22.17760870524396</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3.546260624828477</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.364750253185292</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.3518356295473666</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>22.63713923578512</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>14.62736084818858</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.821730456687892</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>19.42628126499344</v>
       </c>
       <c r="S16" t="n">
-        <v>52.0485773800734</v>
+        <v>73.98710057951143</v>
       </c>
       <c r="T16" t="n">
-        <v>59.16228308175496</v>
+        <v>81.66024037338684</v>
       </c>
       <c r="U16" t="n">
-        <v>118.5569444612517</v>
+        <v>141.2342918142367</v>
       </c>
       <c r="V16" t="n">
-        <v>84.38876387838994</v>
+        <v>107.0684309304441</v>
       </c>
       <c r="W16" t="n">
-        <v>118.7741188911529</v>
+        <v>141.4537859432071</v>
       </c>
       <c r="X16" t="n">
-        <v>57.96077594359909</v>
+        <v>80.64044299565327</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.83577390665673</v>
+        <v>73.51544095871091</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>214.9849622180425</v>
+        <v>217.3567858637653</v>
       </c>
       <c r="C17" t="n">
-        <v>197.5240123255695</v>
+        <v>199.8958359712923</v>
       </c>
       <c r="D17" t="n">
-        <v>186.9341621752449</v>
+        <v>189.3059858209677</v>
       </c>
       <c r="E17" t="n">
-        <v>214.1814906268237</v>
+        <v>216.5533142725465</v>
       </c>
       <c r="F17" t="n">
-        <v>239.1271662962734</v>
+        <v>241.4989899419962</v>
       </c>
       <c r="G17" t="n">
-        <v>247.0141378433192</v>
+        <v>249.2911530178712</v>
       </c>
       <c r="H17" t="n">
-        <v>166.1985129019373</v>
+        <v>167.5993792922817</v>
       </c>
       <c r="I17" t="n">
-        <v>21.91944609753733</v>
+        <v>20.636166158446</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>28.97231548222294</v>
+        <v>29.18369109114005</v>
       </c>
       <c r="T17" t="n">
-        <v>52.98434482772444</v>
+        <v>54.94114439089685</v>
       </c>
       <c r="U17" t="n">
-        <v>83.5535958442882</v>
+        <v>85.91783481231735</v>
       </c>
       <c r="V17" t="n">
-        <v>160.0033790246968</v>
+        <v>162.3752026704197</v>
       </c>
       <c r="W17" t="n">
-        <v>181.4920892719749</v>
+        <v>183.8639129176978</v>
       </c>
       <c r="X17" t="n">
-        <v>201.982221233031</v>
+        <v>204.3540448787538</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.4890592106155</v>
+        <v>220.8608828563383</v>
       </c>
     </row>
     <row r="18">
@@ -23808,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1.156127850152103</v>
       </c>
       <c r="C18" t="n">
-        <v>4.959619542877675</v>
+        <v>7.331443188600502</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23862,22 +23864,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>31.25188020787175</v>
+        <v>33.41923842887527</v>
       </c>
       <c r="U18" t="n">
-        <v>58.17350422898323</v>
+        <v>60.54199057179989</v>
       </c>
       <c r="V18" t="n">
-        <v>65.0517077039872</v>
+        <v>67.42353134971003</v>
       </c>
       <c r="W18" t="n">
-        <v>83.94610371548154</v>
+        <v>86.31792736120437</v>
       </c>
       <c r="X18" t="n">
-        <v>38.02410575803941</v>
+        <v>40.39592940376224</v>
       </c>
       <c r="Y18" t="n">
-        <v>37.9338163318663</v>
+        <v>40.30563997758912</v>
       </c>
     </row>
     <row r="19">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12.08310073649923</v>
+        <v>14.45492438222206</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.869765298912597</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.32929582945377</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>52.04857738007343</v>
+        <v>53.67925717318008</v>
       </c>
       <c r="T19" t="n">
-        <v>59.16228308175496</v>
+        <v>61.35239696705548</v>
       </c>
       <c r="U19" t="n">
-        <v>118.5569444612517</v>
+        <v>120.9264484079053</v>
       </c>
       <c r="V19" t="n">
-        <v>84.38876387838994</v>
+        <v>86.76058752411276</v>
       </c>
       <c r="W19" t="n">
-        <v>118.7741188911529</v>
+        <v>121.1459425368758</v>
       </c>
       <c r="X19" t="n">
-        <v>57.96077594359909</v>
+        <v>60.33259958932192</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.83577390665673</v>
+        <v>53.20759755237955</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>214.9849622180425</v>
+        <v>217.3567858637653</v>
       </c>
       <c r="C20" t="n">
-        <v>197.5240123255695</v>
+        <v>199.8958359712923</v>
       </c>
       <c r="D20" t="n">
-        <v>186.9341621752449</v>
+        <v>189.3059858209677</v>
       </c>
       <c r="E20" t="n">
-        <v>214.1814906268237</v>
+        <v>216.5533142725465</v>
       </c>
       <c r="F20" t="n">
-        <v>239.1271662962734</v>
+        <v>241.4989899419962</v>
       </c>
       <c r="G20" t="n">
-        <v>247.0141378433192</v>
+        <v>249.2911530178712</v>
       </c>
       <c r="H20" t="n">
-        <v>166.1985129019373</v>
+        <v>167.5993792922817</v>
       </c>
       <c r="I20" t="n">
-        <v>21.91944609753733</v>
+        <v>20.63616615844603</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>28.97231548222294</v>
+        <v>29.18369109114005</v>
       </c>
       <c r="T20" t="n">
-        <v>52.98434482772444</v>
+        <v>54.94114439089688</v>
       </c>
       <c r="U20" t="n">
-        <v>83.5535958442882</v>
+        <v>85.91783481231735</v>
       </c>
       <c r="V20" t="n">
-        <v>160.0033790246968</v>
+        <v>162.3752026704197</v>
       </c>
       <c r="W20" t="n">
-        <v>181.4920892719749</v>
+        <v>183.8639129176978</v>
       </c>
       <c r="X20" t="n">
-        <v>201.982221233031</v>
+        <v>204.3540448787538</v>
       </c>
       <c r="Y20" t="n">
-        <v>218.4890592106155</v>
+        <v>220.8608828563383</v>
       </c>
     </row>
     <row r="21">
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1.156127850152103</v>
       </c>
       <c r="C21" t="n">
-        <v>4.959619542877675</v>
+        <v>7.331443188600502</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24099,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>31.25188020787175</v>
+        <v>33.41923842887527</v>
       </c>
       <c r="U21" t="n">
-        <v>58.17350422898323</v>
+        <v>60.54199057179989</v>
       </c>
       <c r="V21" t="n">
-        <v>65.0517077039872</v>
+        <v>67.42353134971003</v>
       </c>
       <c r="W21" t="n">
-        <v>83.94610371548154</v>
+        <v>86.31792736120437</v>
       </c>
       <c r="X21" t="n">
-        <v>38.02410575803941</v>
+        <v>40.39592940376224</v>
       </c>
       <c r="Y21" t="n">
-        <v>37.9338163318663</v>
+        <v>40.30563997758912</v>
       </c>
     </row>
     <row r="22">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12.08310073649923</v>
+        <v>14.45492438222206</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.869765298912597</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2.32929582945377</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>52.04857738007343</v>
+        <v>53.67925717318008</v>
       </c>
       <c r="T22" t="n">
-        <v>59.16228308175496</v>
+        <v>61.35239696705548</v>
       </c>
       <c r="U22" t="n">
-        <v>118.5569444612517</v>
+        <v>120.9264484079053</v>
       </c>
       <c r="V22" t="n">
-        <v>84.38876387838994</v>
+        <v>86.76058752411276</v>
       </c>
       <c r="W22" t="n">
-        <v>118.7741188911529</v>
+        <v>121.1459425368758</v>
       </c>
       <c r="X22" t="n">
-        <v>57.96077594359909</v>
+        <v>60.33259958932192</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.83577390665673</v>
+        <v>53.20759755237955</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>214.9849622180425</v>
+        <v>217.3567858637653</v>
       </c>
       <c r="C23" t="n">
-        <v>197.5240123255695</v>
+        <v>199.8958359712923</v>
       </c>
       <c r="D23" t="n">
-        <v>186.9341621752449</v>
+        <v>189.3059858209677</v>
       </c>
       <c r="E23" t="n">
-        <v>214.1814906268237</v>
+        <v>216.5533142725465</v>
       </c>
       <c r="F23" t="n">
-        <v>239.1271662962734</v>
+        <v>241.4989899419962</v>
       </c>
       <c r="G23" t="n">
-        <v>247.0141378433192</v>
+        <v>249.2911530178712</v>
       </c>
       <c r="H23" t="n">
-        <v>166.1985129019373</v>
+        <v>167.5993792922817</v>
       </c>
       <c r="I23" t="n">
-        <v>21.91944609753733</v>
+        <v>20.63616615844603</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>28.97231548222294</v>
+        <v>29.18369109114005</v>
       </c>
       <c r="T23" t="n">
-        <v>52.98434482772444</v>
+        <v>54.94114439089688</v>
       </c>
       <c r="U23" t="n">
-        <v>83.5535958442882</v>
+        <v>85.91783481231735</v>
       </c>
       <c r="V23" t="n">
-        <v>160.0033790246968</v>
+        <v>162.3752026704197</v>
       </c>
       <c r="W23" t="n">
-        <v>181.4920892719749</v>
+        <v>183.8639129176978</v>
       </c>
       <c r="X23" t="n">
-        <v>201.982221233031</v>
+        <v>204.3540448787538</v>
       </c>
       <c r="Y23" t="n">
-        <v>218.4890592106155</v>
+        <v>220.8608828563383</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1.156127850152103</v>
       </c>
       <c r="C24" t="n">
-        <v>4.959619542877675</v>
+        <v>7.331443188600502</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24336,22 +24338,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>31.25188020787175</v>
+        <v>33.41923842887527</v>
       </c>
       <c r="U24" t="n">
-        <v>58.17350422898323</v>
+        <v>60.54199057179989</v>
       </c>
       <c r="V24" t="n">
-        <v>65.0517077039872</v>
+        <v>67.42353134971003</v>
       </c>
       <c r="W24" t="n">
-        <v>83.94610371548154</v>
+        <v>86.31792736120437</v>
       </c>
       <c r="X24" t="n">
-        <v>38.02410575803941</v>
+        <v>40.39592940376224</v>
       </c>
       <c r="Y24" t="n">
-        <v>37.9338163318663</v>
+        <v>40.30563997758912</v>
       </c>
     </row>
     <row r="25">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12.08310073649923</v>
+        <v>14.45492438222206</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.869765298912597</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.32929582945377</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>52.04857738007343</v>
+        <v>53.67925717318008</v>
       </c>
       <c r="T25" t="n">
-        <v>59.16228308175496</v>
+        <v>61.35239696705548</v>
       </c>
       <c r="U25" t="n">
-        <v>118.5569444612517</v>
+        <v>120.9264484079053</v>
       </c>
       <c r="V25" t="n">
-        <v>84.38876387838994</v>
+        <v>86.76058752411276</v>
       </c>
       <c r="W25" t="n">
-        <v>118.7741188911529</v>
+        <v>121.1459425368758</v>
       </c>
       <c r="X25" t="n">
-        <v>57.96077594359909</v>
+        <v>60.33259958932192</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.83577390665673</v>
+        <v>53.20759755237955</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>266.767924392536</v>
+        <v>272.7234370197218</v>
       </c>
       <c r="C26" t="n">
-        <v>249.306974500063</v>
+        <v>255.2624871272487</v>
       </c>
       <c r="D26" t="n">
-        <v>238.7171243497384</v>
+        <v>244.6726369769241</v>
       </c>
       <c r="E26" t="n">
-        <v>265.9644528013172</v>
+        <v>271.919965428503</v>
       </c>
       <c r="F26" t="n">
-        <v>290.9101284707668</v>
+        <v>296.8656410979526</v>
       </c>
       <c r="G26" t="n">
-        <v>298.7971000178127</v>
+        <v>304.6578041738276</v>
       </c>
       <c r="H26" t="n">
-        <v>217.9814750764308</v>
+        <v>222.9660304482381</v>
       </c>
       <c r="I26" t="n">
-        <v>73.70240827203082</v>
+        <v>76.00281731440246</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.75527765671643</v>
+        <v>84.55034224709648</v>
       </c>
       <c r="T26" t="n">
-        <v>104.7673070022179</v>
+        <v>110.3077955468533</v>
       </c>
       <c r="U26" t="n">
-        <v>135.3365580187817</v>
+        <v>141.2844859682738</v>
       </c>
       <c r="V26" t="n">
-        <v>211.7863411991903</v>
+        <v>217.7418538263761</v>
       </c>
       <c r="W26" t="n">
-        <v>233.2750514464684</v>
+        <v>239.2305640736542</v>
       </c>
       <c r="X26" t="n">
-        <v>253.7651834075245</v>
+        <v>259.7206960347102</v>
       </c>
       <c r="Y26" t="n">
-        <v>270.272021385109</v>
+        <v>276.2275340122948</v>
       </c>
     </row>
     <row r="27">
@@ -24519,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>50.56726637892277</v>
+        <v>56.52277900610854</v>
       </c>
       <c r="C27" t="n">
-        <v>56.74258171737117</v>
+        <v>62.69809434455694</v>
       </c>
       <c r="D27" t="n">
-        <v>31.47914829369418</v>
+        <v>37.43466092087995</v>
       </c>
       <c r="E27" t="n">
-        <v>41.67916318445637</v>
+        <v>47.63467581164214</v>
       </c>
       <c r="F27" t="n">
-        <v>29.10329512243931</v>
+        <v>35.05880774962507</v>
       </c>
       <c r="G27" t="n">
-        <v>21.0888241126527</v>
+        <v>26.99360973566435</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24570,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>50.35337038261855</v>
+        <v>55.36665115595643</v>
       </c>
       <c r="T27" t="n">
-        <v>83.03484238236524</v>
+        <v>88.78588958483171</v>
       </c>
       <c r="U27" t="n">
-        <v>109.9564664034767</v>
+        <v>115.9086417277563</v>
       </c>
       <c r="V27" t="n">
-        <v>116.8346698784807</v>
+        <v>122.7901825056665</v>
       </c>
       <c r="W27" t="n">
-        <v>135.729065889975</v>
+        <v>141.6845785171608</v>
       </c>
       <c r="X27" t="n">
-        <v>89.8070679325329</v>
+        <v>95.76258055971867</v>
       </c>
       <c r="Y27" t="n">
-        <v>89.71677850635979</v>
+        <v>95.67229113354556</v>
       </c>
     </row>
     <row r="28">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>63.86606291099272</v>
+        <v>69.82157553817849</v>
       </c>
       <c r="C28" t="n">
-        <v>51.28090382768326</v>
+        <v>57.23641645486903</v>
       </c>
       <c r="D28" t="n">
-        <v>32.64955574726778</v>
+        <v>38.60506837445355</v>
       </c>
       <c r="E28" t="n">
-        <v>30.4680453756246</v>
+        <v>36.42355800281037</v>
       </c>
       <c r="F28" t="n">
-        <v>29.45513075198667</v>
+        <v>35.41064337917244</v>
       </c>
       <c r="G28" t="n">
-        <v>51.78296217449349</v>
+        <v>57.6959469854102</v>
       </c>
       <c r="H28" t="n">
-        <v>44.10876691891093</v>
+        <v>49.68616859781368</v>
       </c>
       <c r="I28" t="n">
-        <v>32.20395299929115</v>
+        <v>36.88053820631298</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>50.44178165349408</v>
+        <v>54.48508901461854</v>
       </c>
       <c r="S28" t="n">
-        <v>103.8315395545669</v>
+        <v>109.0459083291365</v>
       </c>
       <c r="T28" t="n">
-        <v>110.9452452562485</v>
+        <v>116.7190481230119</v>
       </c>
       <c r="U28" t="n">
-        <v>170.3399066357452</v>
+        <v>176.2930995638617</v>
       </c>
       <c r="V28" t="n">
-        <v>136.1717260528834</v>
+        <v>142.1272386800692</v>
       </c>
       <c r="W28" t="n">
-        <v>170.5570810656464</v>
+        <v>176.5125936928322</v>
       </c>
       <c r="X28" t="n">
-        <v>109.7437381180926</v>
+        <v>115.6992507452783</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.6187360811502</v>
+        <v>108.574248708336</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>186.0126467358196</v>
+        <v>272.7234370197218</v>
       </c>
       <c r="C29" t="n">
-        <v>168.5516968433465</v>
+        <v>255.2624871272487</v>
       </c>
       <c r="D29" t="n">
-        <v>157.961846693022</v>
+        <v>244.6726369769241</v>
       </c>
       <c r="E29" t="n">
-        <v>185.2091751446008</v>
+        <v>271.919965428503</v>
       </c>
       <c r="F29" t="n">
-        <v>210.1548508140504</v>
+        <v>296.8656410979526</v>
       </c>
       <c r="G29" t="n">
-        <v>218.0418223610962</v>
+        <v>304.6578041738276</v>
       </c>
       <c r="H29" t="n">
-        <v>137.2261974197144</v>
+        <v>222.9660304482381</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>76.00281731440246</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>84.55034224709648</v>
       </c>
       <c r="T29" t="n">
-        <v>24.0120293455015</v>
+        <v>110.3077955468533</v>
       </c>
       <c r="U29" t="n">
-        <v>54.58128036206526</v>
+        <v>141.2844859682738</v>
       </c>
       <c r="V29" t="n">
-        <v>131.0310635424739</v>
+        <v>217.7418538263761</v>
       </c>
       <c r="W29" t="n">
-        <v>152.519773789752</v>
+        <v>239.2305640736542</v>
       </c>
       <c r="X29" t="n">
-        <v>173.009905750808</v>
+        <v>259.7206960347102</v>
       </c>
       <c r="Y29" t="n">
-        <v>189.5167437283926</v>
+        <v>276.2275340122948</v>
       </c>
     </row>
     <row r="30">
@@ -24756,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>56.52277900610854</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>62.69809434455694</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>37.43466092087995</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>47.63467581164214</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>35.05880774962507</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>26.99360973566435</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24807,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>55.36665115595643</v>
       </c>
       <c r="T30" t="n">
-        <v>2.279564725648811</v>
+        <v>88.78588958483171</v>
       </c>
       <c r="U30" t="n">
-        <v>29.20118874676029</v>
+        <v>115.9086417277563</v>
       </c>
       <c r="V30" t="n">
-        <v>36.07939222176427</v>
+        <v>122.7901825056665</v>
       </c>
       <c r="W30" t="n">
-        <v>54.9737882332586</v>
+        <v>141.6845785171608</v>
       </c>
       <c r="X30" t="n">
-        <v>9.051790275816472</v>
+        <v>95.76258055971867</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.961500849643357</v>
+        <v>95.67229113354556</v>
       </c>
     </row>
     <row r="31">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>69.82157553817849</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.23641645486903</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>38.60506837445355</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>36.42355800281037</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>35.41064337917244</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.6959469854102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>49.68616859781368</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>36.88053820631298</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.48508901461854</v>
       </c>
       <c r="S31" t="n">
-        <v>23.07626189785049</v>
+        <v>109.0459083291365</v>
       </c>
       <c r="T31" t="n">
-        <v>30.18996759953203</v>
+        <v>116.7190481230119</v>
       </c>
       <c r="U31" t="n">
-        <v>89.58462897902874</v>
+        <v>176.2930995638617</v>
       </c>
       <c r="V31" t="n">
-        <v>55.416448396167</v>
+        <v>142.1272386800692</v>
       </c>
       <c r="W31" t="n">
-        <v>89.80180340893</v>
+        <v>176.5125936928322</v>
       </c>
       <c r="X31" t="n">
-        <v>28.98846046137615</v>
+        <v>115.6992507452783</v>
       </c>
       <c r="Y31" t="n">
-        <v>21.86345842443379</v>
+        <v>108.574248708336</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>186.0126467358196</v>
+        <v>215.323668858549</v>
       </c>
       <c r="C32" t="n">
-        <v>168.5516968433465</v>
+        <v>197.8627189660759</v>
       </c>
       <c r="D32" t="n">
-        <v>157.961846693022</v>
+        <v>187.2728688157513</v>
       </c>
       <c r="E32" t="n">
-        <v>185.2091751446008</v>
+        <v>214.5201972673302</v>
       </c>
       <c r="F32" t="n">
-        <v>210.1548508140504</v>
+        <v>239.4658729367798</v>
       </c>
       <c r="G32" t="n">
-        <v>218.0418223610962</v>
+        <v>247.2580360126548</v>
       </c>
       <c r="H32" t="n">
-        <v>137.2261974197144</v>
+        <v>165.5662622870653</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>18.60304915322965</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>27.15057408592367</v>
       </c>
       <c r="T32" t="n">
-        <v>24.0120293455015</v>
+        <v>52.9080273856805</v>
       </c>
       <c r="U32" t="n">
-        <v>54.58128036206526</v>
+        <v>83.88471780710097</v>
       </c>
       <c r="V32" t="n">
-        <v>131.0310635424739</v>
+        <v>160.3420856652033</v>
       </c>
       <c r="W32" t="n">
-        <v>152.519773789752</v>
+        <v>181.8307959124814</v>
       </c>
       <c r="X32" t="n">
-        <v>173.009905750808</v>
+        <v>202.3209278735374</v>
       </c>
       <c r="Y32" t="n">
-        <v>189.5167437283926</v>
+        <v>218.827765851122</v>
       </c>
     </row>
     <row r="33">
@@ -24996,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>5.29832618338412</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25047,22 +25049,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.279564725648811</v>
+        <v>31.38612142365889</v>
       </c>
       <c r="U33" t="n">
-        <v>29.20118874676029</v>
+        <v>58.5088735665835</v>
       </c>
       <c r="V33" t="n">
-        <v>36.07939222176427</v>
+        <v>65.39041434449365</v>
       </c>
       <c r="W33" t="n">
-        <v>54.9737882332586</v>
+        <v>84.28481035598799</v>
       </c>
       <c r="X33" t="n">
-        <v>9.051790275816472</v>
+        <v>38.36281239854586</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.961500849643357</v>
+        <v>38.27252297237274</v>
       </c>
     </row>
     <row r="34">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>12.42180737700568</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.2961788242373871</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>23.07626189785049</v>
+        <v>51.64614016796369</v>
       </c>
       <c r="T34" t="n">
-        <v>30.18996759953203</v>
+        <v>59.3192799618391</v>
       </c>
       <c r="U34" t="n">
-        <v>89.58462897902874</v>
+        <v>118.8933314026889</v>
       </c>
       <c r="V34" t="n">
-        <v>55.416448396167</v>
+        <v>84.72747051889638</v>
       </c>
       <c r="W34" t="n">
-        <v>89.80180340893</v>
+        <v>119.1128255316594</v>
       </c>
       <c r="X34" t="n">
-        <v>28.98846046137615</v>
+        <v>58.29948258410553</v>
       </c>
       <c r="Y34" t="n">
-        <v>21.86345842443379</v>
+        <v>51.17448054716317</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>186.0126467358196</v>
+        <v>215.323668858549</v>
       </c>
       <c r="C35" t="n">
-        <v>168.5516968433465</v>
+        <v>197.8627189660759</v>
       </c>
       <c r="D35" t="n">
-        <v>157.961846693022</v>
+        <v>187.2728688157513</v>
       </c>
       <c r="E35" t="n">
-        <v>185.2091751446008</v>
+        <v>214.5201972673302</v>
       </c>
       <c r="F35" t="n">
-        <v>210.1548508140504</v>
+        <v>239.4658729367798</v>
       </c>
       <c r="G35" t="n">
-        <v>218.0418223610962</v>
+        <v>247.2580360126548</v>
       </c>
       <c r="H35" t="n">
-        <v>137.2261974197144</v>
+        <v>165.5662622870653</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>18.60304915322965</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>27.15057408592367</v>
       </c>
       <c r="T35" t="n">
-        <v>24.0120293455015</v>
+        <v>52.9080273856805</v>
       </c>
       <c r="U35" t="n">
-        <v>54.58128036206526</v>
+        <v>83.88471780710097</v>
       </c>
       <c r="V35" t="n">
-        <v>131.0310635424739</v>
+        <v>160.3420856652033</v>
       </c>
       <c r="W35" t="n">
-        <v>152.519773789752</v>
+        <v>181.8307959124814</v>
       </c>
       <c r="X35" t="n">
-        <v>173.009905750808</v>
+        <v>202.3209278735374</v>
       </c>
       <c r="Y35" t="n">
-        <v>189.5167437283926</v>
+        <v>218.827765851122</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>5.29832618338412</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25284,22 +25286,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>2.279564725648811</v>
+        <v>31.38612142365889</v>
       </c>
       <c r="U36" t="n">
-        <v>29.20118874676029</v>
+        <v>58.5088735665835</v>
       </c>
       <c r="V36" t="n">
-        <v>36.07939222176427</v>
+        <v>65.39041434449365</v>
       </c>
       <c r="W36" t="n">
-        <v>54.9737882332586</v>
+        <v>84.28481035598799</v>
       </c>
       <c r="X36" t="n">
-        <v>9.051790275816472</v>
+        <v>38.36281239854586</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.961500849643357</v>
+        <v>38.27252297237274</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>12.42180737700568</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.2961788242373871</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>23.07626189785049</v>
+        <v>51.64614016796369</v>
       </c>
       <c r="T37" t="n">
-        <v>30.18996759953203</v>
+        <v>59.3192799618391</v>
       </c>
       <c r="U37" t="n">
-        <v>89.58462897902874</v>
+        <v>118.8933314026889</v>
       </c>
       <c r="V37" t="n">
-        <v>55.416448396167</v>
+        <v>84.72747051889638</v>
       </c>
       <c r="W37" t="n">
-        <v>89.80180340893</v>
+        <v>119.1128255316594</v>
       </c>
       <c r="X37" t="n">
-        <v>28.98846046137615</v>
+        <v>58.29948258410553</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.86345842443379</v>
+        <v>51.17448054716317</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>186.0126467358196</v>
+        <v>215.323668858549</v>
       </c>
       <c r="C38" t="n">
-        <v>168.5516968433465</v>
+        <v>197.8627189660759</v>
       </c>
       <c r="D38" t="n">
-        <v>157.961846693022</v>
+        <v>187.2728688157513</v>
       </c>
       <c r="E38" t="n">
-        <v>185.2091751446008</v>
+        <v>214.5201972673302</v>
       </c>
       <c r="F38" t="n">
-        <v>210.1548508140504</v>
+        <v>239.4658729367798</v>
       </c>
       <c r="G38" t="n">
-        <v>218.0418223610962</v>
+        <v>247.2580360126548</v>
       </c>
       <c r="H38" t="n">
-        <v>137.2261974197144</v>
+        <v>165.5662622870653</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>18.60304915322965</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>27.15057408592367</v>
       </c>
       <c r="T38" t="n">
-        <v>24.0120293455015</v>
+        <v>52.9080273856805</v>
       </c>
       <c r="U38" t="n">
-        <v>54.58128036206526</v>
+        <v>83.88471780710097</v>
       </c>
       <c r="V38" t="n">
-        <v>131.0310635424739</v>
+        <v>160.3420856652033</v>
       </c>
       <c r="W38" t="n">
-        <v>152.519773789752</v>
+        <v>181.8307959124814</v>
       </c>
       <c r="X38" t="n">
-        <v>173.009905750808</v>
+        <v>202.3209278735374</v>
       </c>
       <c r="Y38" t="n">
-        <v>189.5167437283926</v>
+        <v>218.827765851122</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>5.29832618338412</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25521,22 +25523,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>2.279564725648811</v>
+        <v>31.38612142365889</v>
       </c>
       <c r="U39" t="n">
-        <v>29.20118874676029</v>
+        <v>58.5088735665835</v>
       </c>
       <c r="V39" t="n">
-        <v>36.07939222176427</v>
+        <v>65.39041434449365</v>
       </c>
       <c r="W39" t="n">
-        <v>54.9737882332586</v>
+        <v>84.28481035598799</v>
       </c>
       <c r="X39" t="n">
-        <v>9.051790275816472</v>
+        <v>38.36281239854586</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.961500849643357</v>
+        <v>38.27252297237274</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>12.42180737700568</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.2961788242373871</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>23.07626189785049</v>
+        <v>51.64614016796369</v>
       </c>
       <c r="T40" t="n">
-        <v>30.18996759953203</v>
+        <v>59.3192799618391</v>
       </c>
       <c r="U40" t="n">
-        <v>89.58462897902874</v>
+        <v>118.8933314026889</v>
       </c>
       <c r="V40" t="n">
-        <v>55.416448396167</v>
+        <v>84.72747051889638</v>
       </c>
       <c r="W40" t="n">
-        <v>89.80180340893</v>
+        <v>119.1128255316594</v>
       </c>
       <c r="X40" t="n">
-        <v>28.98846046137615</v>
+        <v>58.29948258410553</v>
       </c>
       <c r="Y40" t="n">
-        <v>21.86345842443379</v>
+        <v>51.17448054716317</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>273.2873635090396</v>
+        <v>305.0262300959763</v>
       </c>
       <c r="C41" t="n">
-        <v>255.8264136165666</v>
+        <v>287.5652802035033</v>
       </c>
       <c r="D41" t="n">
-        <v>245.236563466242</v>
+        <v>276.9754300531787</v>
       </c>
       <c r="E41" t="n">
-        <v>272.4838919178208</v>
+        <v>304.2227585047575</v>
       </c>
       <c r="F41" t="n">
-        <v>297.4295675872704</v>
+        <v>329.1684341742072</v>
       </c>
       <c r="G41" t="n">
-        <v>305.3165391343163</v>
+        <v>336.9605972500821</v>
       </c>
       <c r="H41" t="n">
-        <v>224.5009141929344</v>
+        <v>255.2688235244927</v>
       </c>
       <c r="I41" t="n">
-        <v>80.2218473885344</v>
+        <v>108.305610390657</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>6.519439116503577</v>
+        <v>32.30279307625452</v>
       </c>
       <c r="S41" t="n">
-        <v>87.27471677322001</v>
+        <v>116.853135323351</v>
       </c>
       <c r="T41" t="n">
-        <v>111.2867461187215</v>
+        <v>142.6105886231078</v>
       </c>
       <c r="U41" t="n">
-        <v>141.8559971352853</v>
+        <v>173.5872790445283</v>
       </c>
       <c r="V41" t="n">
-        <v>218.3057803156939</v>
+        <v>250.0446469026306</v>
       </c>
       <c r="W41" t="n">
-        <v>239.794490562972</v>
+        <v>271.5333571499087</v>
       </c>
       <c r="X41" t="n">
-        <v>260.284622524028</v>
+        <v>292.0234891109648</v>
       </c>
       <c r="Y41" t="n">
-        <v>276.7914605016126</v>
+        <v>308.5303270885493</v>
       </c>
     </row>
     <row r="42">
@@ -25704,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>57.08670549542634</v>
+        <v>88.82557208236307</v>
       </c>
       <c r="C42" t="n">
-        <v>63.26202083387474</v>
+        <v>95.00088742081147</v>
       </c>
       <c r="D42" t="n">
-        <v>37.99858741019776</v>
+        <v>69.73745399713448</v>
       </c>
       <c r="E42" t="n">
-        <v>48.19860230095995</v>
+        <v>79.93746888789667</v>
       </c>
       <c r="F42" t="n">
-        <v>35.62273423894288</v>
+        <v>67.36160082587961</v>
       </c>
       <c r="G42" t="n">
-        <v>27.60826322915628</v>
+        <v>59.29640281191888</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>31.24895052030791</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.371269044369257</v>
       </c>
       <c r="S42" t="n">
-        <v>56.87280949912213</v>
+        <v>87.66944423221096</v>
       </c>
       <c r="T42" t="n">
-        <v>89.55428149886882</v>
+        <v>121.0886826610862</v>
       </c>
       <c r="U42" t="n">
-        <v>116.4759055199803</v>
+        <v>148.2114348040108</v>
       </c>
       <c r="V42" t="n">
-        <v>123.3541089949843</v>
+        <v>155.092975581921</v>
       </c>
       <c r="W42" t="n">
-        <v>142.2485050064786</v>
+        <v>173.9873715934153</v>
       </c>
       <c r="X42" t="n">
-        <v>96.32650704903648</v>
+        <v>128.0653736359732</v>
       </c>
       <c r="Y42" t="n">
-        <v>96.23621762286336</v>
+        <v>127.9750842098001</v>
       </c>
     </row>
     <row r="43">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.3855020274963</v>
+        <v>102.124368614433</v>
       </c>
       <c r="C43" t="n">
-        <v>57.80034294418684</v>
+        <v>89.53920953112356</v>
       </c>
       <c r="D43" t="n">
-        <v>39.16899486377136</v>
+        <v>70.90786145070808</v>
       </c>
       <c r="E43" t="n">
-        <v>36.98748449212817</v>
+        <v>68.7263510790649</v>
       </c>
       <c r="F43" t="n">
-        <v>35.97456986849025</v>
+        <v>67.71343645542697</v>
       </c>
       <c r="G43" t="n">
-        <v>58.30240129099707</v>
+        <v>89.99874006166473</v>
       </c>
       <c r="H43" t="n">
-        <v>50.62820603541451</v>
+        <v>81.98896167406821</v>
       </c>
       <c r="I43" t="n">
-        <v>38.72339211579472</v>
+        <v>69.18333128256751</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>56.96122076999765</v>
+        <v>86.78788209087307</v>
       </c>
       <c r="S43" t="n">
-        <v>110.3509786710705</v>
+        <v>141.348701405391</v>
       </c>
       <c r="T43" t="n">
-        <v>117.464684372752</v>
+        <v>149.0218411992664</v>
       </c>
       <c r="U43" t="n">
-        <v>176.8593457522487</v>
+        <v>208.5958926401163</v>
       </c>
       <c r="V43" t="n">
-        <v>142.691165169387</v>
+        <v>174.4300317563237</v>
       </c>
       <c r="W43" t="n">
-        <v>177.07652018215</v>
+        <v>208.8153867690867</v>
       </c>
       <c r="X43" t="n">
-        <v>116.2631772345962</v>
+        <v>148.0020438215329</v>
       </c>
       <c r="Y43" t="n">
-        <v>109.1381751976538</v>
+        <v>140.8770417845905</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>305.0262300959763</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>287.5652802035033</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>276.9754300531787</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>304.2227585047575</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>329.1684341742072</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7630172887572</v>
+        <v>336.9605972500821</v>
       </c>
       <c r="H44" t="n">
-        <v>333.9473923473754</v>
+        <v>255.2688235244927</v>
       </c>
       <c r="I44" t="n">
-        <v>189.6683255429754</v>
+        <v>108.305610390657</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>115.9659172709446</v>
+        <v>32.30279307625452</v>
       </c>
       <c r="S44" t="n">
-        <v>196.721194927661</v>
+        <v>116.853135323351</v>
       </c>
       <c r="T44" t="n">
-        <v>220.7332242731625</v>
+        <v>142.6105886231078</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3024752897263</v>
+        <v>173.5872790445283</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>250.0446469026306</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>271.5333571499087</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>292.0234891109648</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>308.5303270885493</v>
       </c>
     </row>
     <row r="45">
@@ -25941,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>88.82557208236307</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>95.00088742081147</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>69.73745399713448</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>79.93746888789667</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>67.36160082587961</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0547413835973</v>
+        <v>59.29640281191888</v>
       </c>
       <c r="H45" t="n">
-        <v>109.446478154441</v>
+        <v>31.24895052030791</v>
       </c>
       <c r="I45" t="n">
-        <v>79.45413342174413</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.228404607876</v>
+        <v>1.371269044369257</v>
       </c>
       <c r="S45" t="n">
-        <v>166.3192876535631</v>
+        <v>87.66944423221096</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0007596533098</v>
+        <v>121.0886826610862</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9223836744213</v>
+        <v>148.2114348040108</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>155.092975581921</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>173.9873715934153</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>128.0653736359732</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>127.9750842098001</v>
       </c>
     </row>
     <row r="46">
@@ -26020,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>102.124368614433</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>89.53920953112356</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>70.90786145070808</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>68.7263510790649</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>67.71343645542697</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7488794454381</v>
+        <v>89.99874006166473</v>
       </c>
       <c r="H46" t="n">
-        <v>160.0746841898555</v>
+        <v>81.98896167406821</v>
       </c>
       <c r="I46" t="n">
-        <v>148.1698702702357</v>
+        <v>69.18333128256751</v>
       </c>
       <c r="J46" t="n">
-        <v>76.24271626610914</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.88947689866087</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>166.4076989244386</v>
+        <v>86.78788209087307</v>
       </c>
       <c r="S46" t="n">
-        <v>219.7974568255115</v>
+        <v>141.348701405391</v>
       </c>
       <c r="T46" t="n">
-        <v>226.911162527193</v>
+        <v>149.0218411992664</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3058239066897</v>
+        <v>208.5958926401163</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>174.4300317563237</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>208.8153867690867</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>148.0020438215329</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>140.8770417845905</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>484069.2640205235</v>
+        <v>483460.844093447</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>512611.61217782</v>
+        <v>483460.844093447</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>512611.6121778199</v>
+        <v>502732.8742310798</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>512611.61217782</v>
+        <v>502732.8742310798</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>512611.61217782</v>
+        <v>502732.8742310798</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>454584.1029447451</v>
+        <v>438998.8953535791</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>528498.9730489171</v>
+        <v>438998.8953535791</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>528498.9730489171</v>
+        <v>504249.5793047868</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>528498.9730489171</v>
+        <v>504249.5793047868</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>528498.9730489171</v>
+        <v>504249.5793047869</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>445485.9648800998</v>
+        <v>391948.1418378446</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>271506.4905923748</v>
+        <v>391948.1418378446</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>778312.5217811862</v>
+      </c>
+      <c r="C2" t="n">
+        <v>778312.5217811862</v>
+      </c>
+      <c r="D2" t="n">
         <v>778312.5217811865</v>
       </c>
-      <c r="C2" t="n">
-        <v>778312.5217811863</v>
-      </c>
-      <c r="D2" t="n">
-        <v>778312.5217811866</v>
-      </c>
       <c r="E2" t="n">
-        <v>519310.6155574481</v>
+        <v>531930.3287780063</v>
       </c>
       <c r="F2" t="n">
-        <v>571850.1698436548</v>
+        <v>531930.3287780061</v>
       </c>
       <c r="G2" t="n">
-        <v>571850.1698436548</v>
+        <v>568497.9099683563</v>
       </c>
       <c r="H2" t="n">
-        <v>571850.169843655</v>
+        <v>568497.909968356</v>
       </c>
       <c r="I2" t="n">
-        <v>571850.1698436553</v>
+        <v>568497.9099683561</v>
       </c>
       <c r="J2" t="n">
-        <v>472682.6638684644</v>
+        <v>461340.3421665317</v>
       </c>
       <c r="K2" t="n">
-        <v>616281.4082409567</v>
+        <v>461340.3421665317</v>
       </c>
       <c r="L2" t="n">
-        <v>616281.4082409565</v>
+        <v>571883.7273462536</v>
       </c>
       <c r="M2" t="n">
-        <v>616281.4082409566</v>
+        <v>571883.7273462537</v>
       </c>
       <c r="N2" t="n">
-        <v>616281.4082409566</v>
+        <v>571883.7273462538</v>
       </c>
       <c r="O2" t="n">
-        <v>459002.5336039574</v>
+        <v>392243.5108429767</v>
       </c>
       <c r="P2" t="n">
-        <v>215182.7309277538</v>
+        <v>392243.5108429767</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>219107.339355033</v>
+        <v>242863.7068898826</v>
       </c>
       <c r="F3" t="n">
-        <v>22952.96039817965</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>16246.27472506509</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69819.77341857599</v>
+        <v>71762.04898994188</v>
       </c>
       <c r="K3" t="n">
-        <v>87557.18252355279</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>62166.08925400332</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>269243.7692842236</v>
+        <v>267626.5212482426</v>
       </c>
       <c r="F4" t="n">
-        <v>299447.4647168185</v>
+        <v>267626.5212482426</v>
       </c>
       <c r="G4" t="n">
-        <v>299447.4647168185</v>
+        <v>288596.825657342</v>
       </c>
       <c r="H4" t="n">
-        <v>299447.4647168185</v>
+        <v>288596.825657342</v>
       </c>
       <c r="I4" t="n">
-        <v>299447.4647168185</v>
+        <v>288596.825657342</v>
       </c>
       <c r="J4" t="n">
-        <v>242078.0272912022</v>
+        <v>226515.5815559416</v>
       </c>
       <c r="K4" t="n">
-        <v>324274.005089658</v>
+        <v>226515.5815559416</v>
       </c>
       <c r="L4" t="n">
-        <v>324274.005089658</v>
+        <v>290515.2509856166</v>
       </c>
       <c r="M4" t="n">
-        <v>324274.005089658</v>
+        <v>290515.2509856166</v>
       </c>
       <c r="N4" t="n">
-        <v>324274.005089658</v>
+        <v>290515.2509856166</v>
       </c>
       <c r="O4" t="n">
-        <v>234069.0641063065</v>
+        <v>185967.9957158582</v>
       </c>
       <c r="P4" t="n">
-        <v>90299.98033742417</v>
+        <v>185967.9957158583</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>14617.2078690456</v>
+        <v>15636.71411133138</v>
       </c>
       <c r="F5" t="n">
-        <v>17029.24840368881</v>
+        <v>15636.71411133138</v>
       </c>
       <c r="G5" t="n">
-        <v>17029.2484036888</v>
+        <v>17343.97419865825</v>
       </c>
       <c r="H5" t="n">
-        <v>17029.2484036888</v>
+        <v>17343.97419865824</v>
       </c>
       <c r="I5" t="n">
-        <v>17029.2484036888</v>
+        <v>17343.97419865824</v>
       </c>
       <c r="J5" t="n">
-        <v>12675.90655664131</v>
+        <v>12689.35520262814</v>
       </c>
       <c r="K5" t="n">
-        <v>19464.9219939638</v>
+        <v>12689.35520262814</v>
       </c>
       <c r="L5" t="n">
-        <v>19464.9219939638</v>
+        <v>17514.89631216978</v>
       </c>
       <c r="M5" t="n">
-        <v>19464.9219939638</v>
+        <v>17514.89631216978</v>
       </c>
       <c r="N5" t="n">
-        <v>19464.9219939638</v>
+        <v>17514.89631216978</v>
       </c>
       <c r="O5" t="n">
-        <v>12127.82382955597</v>
+        <v>9973.691691500502</v>
       </c>
       <c r="P5" t="n">
-        <v>2926.76785759027</v>
+        <v>9973.691691500502</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277068.9618494552</v>
+        <v>277068.961849455</v>
       </c>
       <c r="C6" t="n">
-        <v>277068.9618494551</v>
+        <v>277068.961849455</v>
       </c>
       <c r="D6" t="n">
         <v>277068.9618494553</v>
       </c>
       <c r="E6" t="n">
-        <v>16342.29904914596</v>
+        <v>5803.386528549661</v>
       </c>
       <c r="F6" t="n">
-        <v>232420.4963249679</v>
+        <v>248667.0934184321</v>
       </c>
       <c r="G6" t="n">
-        <v>255373.4567231476</v>
+        <v>246310.8353872909</v>
       </c>
       <c r="H6" t="n">
-        <v>255373.4567231477</v>
+        <v>262557.1101123558</v>
       </c>
       <c r="I6" t="n">
-        <v>255373.4567231481</v>
+        <v>262557.1101123559</v>
       </c>
       <c r="J6" t="n">
-        <v>148108.956602045</v>
+        <v>150373.35641802</v>
       </c>
       <c r="K6" t="n">
-        <v>184985.2986337822</v>
+        <v>222135.405407962</v>
       </c>
       <c r="L6" t="n">
-        <v>272542.4811573347</v>
+        <v>201687.4907944639</v>
       </c>
       <c r="M6" t="n">
-        <v>272542.4811573348</v>
+        <v>263853.5800484673</v>
       </c>
       <c r="N6" t="n">
-        <v>272542.4811573348</v>
+        <v>263853.5800484674</v>
       </c>
       <c r="O6" t="n">
-        <v>212805.6456680949</v>
+        <v>196301.823435618</v>
       </c>
       <c r="P6" t="n">
-        <v>121955.9827327393</v>
+        <v>196301.823435618</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F2" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G2" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="H2" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="I2" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="J2" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="K2" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="L2" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="M2" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="N2" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="O2" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>134.2554063114803</v>
+        <v>157.8390135152289</v>
       </c>
       <c r="F3" t="n">
-        <v>134.2554063114803</v>
+        <v>157.8390135152289</v>
       </c>
       <c r="G3" t="n">
-        <v>134.2554063114802</v>
+        <v>157.8390135152289</v>
       </c>
       <c r="H3" t="n">
-        <v>134.2554063114802</v>
+        <v>157.8390135152286</v>
       </c>
       <c r="I3" t="n">
-        <v>134.2554063114802</v>
+        <v>157.8390135152286</v>
       </c>
       <c r="J3" t="n">
-        <v>134.2554063114802</v>
+        <v>157.8390135152286</v>
       </c>
       <c r="K3" t="n">
-        <v>134.2554063114802</v>
+        <v>157.8390135152287</v>
       </c>
       <c r="L3" t="n">
-        <v>134.2554063114802</v>
+        <v>157.8390135152287</v>
       </c>
       <c r="M3" t="n">
-        <v>134.2554063114802</v>
+        <v>157.8390135152287</v>
       </c>
       <c r="N3" t="n">
-        <v>134.2554063114802</v>
+        <v>157.8390135152287</v>
       </c>
       <c r="O3" t="n">
-        <v>134.2554063114802</v>
+        <v>157.8390135152287</v>
       </c>
       <c r="P3" t="n">
-        <v>134.2554063114802</v>
+        <v>157.8390135152287</v>
       </c>
     </row>
     <row r="4">
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F2" t="n">
-        <v>28.69120049772457</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>20.30784340633136</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>87.27471677321999</v>
+        <v>89.70256123742735</v>
       </c>
       <c r="K2" t="n">
-        <v>109.446478154441</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>77.70761156750416</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>134.2554063114803</v>
+        <v>157.8390135152289</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="K2" t="n">
-        <v>28.69120049772457</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>20.30784340633136</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>87.27471677321999</v>
+        <v>89.70256123742735</v>
       </c>
       <c r="P2" t="n">
-        <v>109.446478154441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,37 +28089,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C11" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D11" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E11" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F11" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G11" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H11" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I11" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J11" t="n">
-        <v>135.2378249631526</v>
+        <v>127.1910744831158</v>
       </c>
       <c r="K11" t="n">
-        <v>139.0576789477135</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>98.71579315182596</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28132,31 +28134,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="R11" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S11" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T11" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U11" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V11" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W11" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X11" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y11" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="12">
@@ -28166,76 +28168,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C12" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D12" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E12" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F12" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0547413835973</v>
+        <v>137.0040143794232</v>
       </c>
       <c r="H12" t="n">
-        <v>109.446478154441</v>
+        <v>108.9565620878122</v>
       </c>
       <c r="I12" t="n">
-        <v>89.57988057032905</v>
+        <v>87.83335871608918</v>
       </c>
       <c r="J12" t="n">
-        <v>99.55464829538748</v>
+        <v>94.76205883523701</v>
       </c>
       <c r="K12" t="n">
-        <v>91.2104833689838</v>
+        <v>83.01918462916859</v>
       </c>
       <c r="L12" t="n">
-        <v>75.85330535110219</v>
+        <v>64.83909332637033</v>
       </c>
       <c r="M12" t="n">
-        <v>68.96483748226159</v>
+        <v>56.11177155621857</v>
       </c>
       <c r="N12" t="n">
-        <v>56.23594473555529</v>
+        <v>43.04269639994124</v>
       </c>
       <c r="O12" t="n">
-        <v>73.88914042388906</v>
+        <v>61.81989570708006</v>
       </c>
       <c r="P12" t="n">
-        <v>78.83089911254507</v>
+        <v>69.14426618389594</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.1197991304619</v>
+        <v>96.64454154500999</v>
       </c>
       <c r="R12" t="n">
-        <v>127.7500744191968</v>
+        <v>124.6005504231943</v>
       </c>
       <c r="S12" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T12" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U12" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V12" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W12" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X12" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y12" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C13" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D13" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E13" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F13" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G13" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H13" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J13" t="n">
-        <v>109.8789575888325</v>
+        <v>106.8722409786103</v>
       </c>
       <c r="K13" t="n">
-        <v>71.98472128113644</v>
+        <v>95.94469107668907</v>
       </c>
       <c r="L13" t="n">
-        <v>98.89102193996044</v>
+        <v>92.56829551028659</v>
       </c>
       <c r="M13" t="n">
-        <v>100.9755221274599</v>
+        <v>94.30909361902978</v>
       </c>
       <c r="N13" t="n">
-        <v>90.63765504816519</v>
+        <v>84.12973930946517</v>
       </c>
       <c r="O13" t="n">
-        <v>104.2368162005166</v>
+        <v>98.22570267914148</v>
       </c>
       <c r="P13" t="n">
-        <v>108.4471200234438</v>
+        <v>103.3035739539574</v>
       </c>
       <c r="Q13" t="n">
-        <v>131.2324352764123</v>
+        <v>127.6713105886463</v>
       </c>
       <c r="R13" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S13" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T13" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U13" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V13" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W13" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X13" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.0576789477135</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C14" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D14" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E14" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F14" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G14" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H14" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I14" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>90.27384010336451</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>135.6330275315772</v>
       </c>
       <c r="M14" t="n">
-        <v>135.5760840273101</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>133.1094343034323</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>153.6205525518575</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>164.0219772781927</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="R14" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S14" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T14" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U14" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V14" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W14" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X14" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y14" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="15">
@@ -28403,76 +28405,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C15" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0547413835973</v>
+        <v>137.0040143794232</v>
       </c>
       <c r="H15" t="n">
-        <v>109.446478154441</v>
+        <v>108.9565620878122</v>
       </c>
       <c r="I15" t="n">
-        <v>89.57988057032905</v>
+        <v>87.83335871608918</v>
       </c>
       <c r="J15" t="n">
-        <v>99.55464829538748</v>
+        <v>94.76205883523701</v>
       </c>
       <c r="K15" t="n">
-        <v>91.2104833689838</v>
+        <v>83.01918462916859</v>
       </c>
       <c r="L15" t="n">
-        <v>75.85330535110219</v>
+        <v>64.83909332637033</v>
       </c>
       <c r="M15" t="n">
-        <v>68.96483748226159</v>
+        <v>56.11177155621857</v>
       </c>
       <c r="N15" t="n">
-        <v>56.23594473555529</v>
+        <v>43.04269639994124</v>
       </c>
       <c r="O15" t="n">
-        <v>73.88914042388906</v>
+        <v>61.81989570708006</v>
       </c>
       <c r="P15" t="n">
-        <v>78.83089911254507</v>
+        <v>69.14426618389594</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.1197991304619</v>
+        <v>96.64454154500999</v>
       </c>
       <c r="R15" t="n">
-        <v>127.7500744191968</v>
+        <v>124.6005504231943</v>
       </c>
       <c r="S15" t="n">
-        <v>166.3192876535631</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T15" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U15" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V15" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W15" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X15" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y15" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G16" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H16" t="n">
-        <v>160.0746841898555</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I16" t="n">
-        <v>148.1698702702357</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J16" t="n">
-        <v>109.8789575888325</v>
+        <v>106.8722409786103</v>
       </c>
       <c r="K16" t="n">
-        <v>100.8856500941302</v>
+        <v>95.94469107668907</v>
       </c>
       <c r="L16" t="n">
-        <v>98.89102193996044</v>
+        <v>92.56829551028659</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>94.30909361902978</v>
       </c>
       <c r="N16" t="n">
-        <v>90.63765504816519</v>
+        <v>84.12973930946517</v>
       </c>
       <c r="O16" t="n">
-        <v>93.01012484113768</v>
+        <v>98.22570267914148</v>
       </c>
       <c r="P16" t="n">
-        <v>108.4471200234438</v>
+        <v>103.3035739539574</v>
       </c>
       <c r="Q16" t="n">
-        <v>131.2324352764123</v>
+        <v>127.6713105886463</v>
       </c>
       <c r="R16" t="n">
-        <v>166.4076989244386</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S16" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T16" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U16" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V16" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W16" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X16" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y16" t="n">
-        <v>167.7488794454381</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="17">
@@ -28561,34 +28563,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="C17" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="D17" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="E17" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="F17" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="G17" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="H17" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="I17" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="J17" t="n">
-        <v>135.2378249631526</v>
+        <v>127.1910744831158</v>
       </c>
       <c r="K17" t="n">
-        <v>151.4354142988742</v>
+        <v>139.3754212341753</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28597,40 +28599,40 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>133.1094343034323</v>
+        <v>116.1925217712398</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>45.71790107535971</v>
       </c>
       <c r="Q17" t="n">
-        <v>164.0219772781928</v>
+        <v>153.7837289870417</v>
       </c>
       <c r="R17" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="S17" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="T17" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="U17" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="V17" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="W17" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="X17" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="Y17" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
     </row>
     <row r="18">
@@ -28640,10 +28642,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="C18" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -28655,61 +28657,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0547413835973</v>
+        <v>137.0040143794232</v>
       </c>
       <c r="H18" t="n">
-        <v>109.446478154441</v>
+        <v>108.9565620878122</v>
       </c>
       <c r="I18" t="n">
-        <v>89.57988057032905</v>
+        <v>87.83335871608918</v>
       </c>
       <c r="J18" t="n">
-        <v>99.55464829538748</v>
+        <v>94.76205883523701</v>
       </c>
       <c r="K18" t="n">
-        <v>91.21048336898382</v>
+        <v>83.01918462916859</v>
       </c>
       <c r="L18" t="n">
-        <v>75.85330535110219</v>
+        <v>64.83909332637033</v>
       </c>
       <c r="M18" t="n">
-        <v>68.9648374822616</v>
+        <v>56.11177155621857</v>
       </c>
       <c r="N18" t="n">
-        <v>56.23594473555531</v>
+        <v>43.04269639994124</v>
       </c>
       <c r="O18" t="n">
-        <v>73.88914042388907</v>
+        <v>61.81989570708006</v>
       </c>
       <c r="P18" t="n">
-        <v>78.83089911254507</v>
+        <v>69.14426618389594</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.1197991304619</v>
+        <v>96.64454154500999</v>
       </c>
       <c r="R18" t="n">
-        <v>127.7500744191968</v>
+        <v>124.6005504231943</v>
       </c>
       <c r="S18" t="n">
-        <v>166.3192876535631</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="T18" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="U18" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="V18" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="W18" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="X18" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="Y18" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
     </row>
     <row r="19">
@@ -28719,10 +28721,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28734,61 +28736,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="H19" t="n">
-        <v>160.0746841898555</v>
+        <v>159.6965732415725</v>
       </c>
       <c r="I19" t="n">
-        <v>148.1698702702357</v>
+        <v>146.8909428500718</v>
       </c>
       <c r="J19" t="n">
-        <v>96.68366691867922</v>
+        <v>106.8722409786103</v>
       </c>
       <c r="K19" t="n">
-        <v>100.8856500941302</v>
+        <v>95.94469107668907</v>
       </c>
       <c r="L19" t="n">
-        <v>98.89102193996044</v>
+        <v>92.56829551028659</v>
       </c>
       <c r="M19" t="n">
-        <v>100.9755221274599</v>
+        <v>94.30909361902978</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>84.12973930946517</v>
       </c>
       <c r="O19" t="n">
-        <v>104.2368162005166</v>
+        <v>98.22570267914148</v>
       </c>
       <c r="P19" t="n">
-        <v>108.4471200234438</v>
+        <v>103.3035739539574</v>
       </c>
       <c r="Q19" t="n">
-        <v>131.2324352764123</v>
+        <v>127.6713105886463</v>
       </c>
       <c r="R19" t="n">
-        <v>166.4076989244386</v>
+        <v>164.4954936583773</v>
       </c>
       <c r="S19" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="T19" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="U19" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="V19" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="W19" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="X19" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="Y19" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
     </row>
     <row r="20">
@@ -28798,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="C20" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="D20" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="E20" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="F20" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="G20" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="H20" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="I20" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="J20" t="n">
-        <v>135.2378249631526</v>
+        <v>127.1910744831159</v>
       </c>
       <c r="K20" t="n">
-        <v>151.4354142988742</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>45.10634642263478</v>
       </c>
       <c r="N20" t="n">
-        <v>133.1094343034323</v>
+        <v>116.19252177124</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>139.9869758869006</v>
       </c>
       <c r="Q20" t="n">
-        <v>164.0219772781928</v>
+        <v>153.7837289870419</v>
       </c>
       <c r="R20" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="S20" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="T20" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="U20" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="V20" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="W20" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="X20" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="Y20" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
     </row>
     <row r="21">
@@ -28877,10 +28879,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="C21" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -28892,61 +28894,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0547413835973</v>
+        <v>137.0040143794232</v>
       </c>
       <c r="H21" t="n">
-        <v>109.446478154441</v>
+        <v>108.9565620878122</v>
       </c>
       <c r="I21" t="n">
-        <v>89.57988057032905</v>
+        <v>87.83335871608919</v>
       </c>
       <c r="J21" t="n">
-        <v>99.55464829538748</v>
+        <v>94.76205883523707</v>
       </c>
       <c r="K21" t="n">
-        <v>91.21048336898382</v>
+        <v>83.01918462916868</v>
       </c>
       <c r="L21" t="n">
-        <v>75.85330535110219</v>
+        <v>64.83909332637046</v>
       </c>
       <c r="M21" t="n">
-        <v>68.9648374822616</v>
+        <v>56.11177155621873</v>
       </c>
       <c r="N21" t="n">
-        <v>56.23594473555531</v>
+        <v>43.04269639994139</v>
       </c>
       <c r="O21" t="n">
-        <v>73.88914042388907</v>
+        <v>61.81989570708022</v>
       </c>
       <c r="P21" t="n">
-        <v>78.83089911254507</v>
+        <v>69.14426618389605</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.1197991304619</v>
+        <v>96.64454154501006</v>
       </c>
       <c r="R21" t="n">
-        <v>127.7500744191968</v>
+        <v>124.6005504231944</v>
       </c>
       <c r="S21" t="n">
-        <v>166.3192876535631</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="T21" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="U21" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="V21" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="W21" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="X21" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="Y21" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
     </row>
     <row r="22">
@@ -28956,10 +28958,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28971,61 +28973,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="H22" t="n">
-        <v>160.0746841898555</v>
+        <v>159.6965732415725</v>
       </c>
       <c r="I22" t="n">
-        <v>148.1698702702357</v>
+        <v>146.8909428500718</v>
       </c>
       <c r="J22" t="n">
-        <v>109.8789575888325</v>
+        <v>106.8722409786103</v>
       </c>
       <c r="K22" t="n">
-        <v>100.8856500941302</v>
+        <v>95.94469107668914</v>
       </c>
       <c r="L22" t="n">
-        <v>98.89102193996044</v>
+        <v>92.56829551028666</v>
       </c>
       <c r="M22" t="n">
-        <v>100.9755221274599</v>
+        <v>94.30909361902987</v>
       </c>
       <c r="N22" t="n">
-        <v>90.63765504816519</v>
+        <v>84.12973930946524</v>
       </c>
       <c r="O22" t="n">
-        <v>104.2368162005166</v>
+        <v>98.22570267914156</v>
       </c>
       <c r="P22" t="n">
-        <v>4.6141743051235</v>
+        <v>103.3035739539574</v>
       </c>
       <c r="Q22" t="n">
-        <v>131.2324352764123</v>
+        <v>127.6713105886463</v>
       </c>
       <c r="R22" t="n">
-        <v>166.4076989244386</v>
+        <v>164.4954936583773</v>
       </c>
       <c r="S22" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="T22" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="U22" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="V22" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="W22" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="X22" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="Y22" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
     </row>
     <row r="23">
@@ -29035,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="C23" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="D23" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="E23" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="F23" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="G23" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="H23" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="I23" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="J23" t="n">
-        <v>135.2378249631526</v>
+        <v>127.1910744831159</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>139.3754212341755</v>
       </c>
       <c r="L23" t="n">
-        <v>55.08095646168618</v>
+        <v>135.6330275315774</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>118.928546063832</v>
       </c>
       <c r="N23" t="n">
-        <v>133.1094343034323</v>
+        <v>49.27179564974531</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>123.1872643325853</v>
       </c>
       <c r="P23" t="n">
-        <v>153.6205525518575</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>164.0219772781928</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="S23" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="T23" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="U23" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="V23" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="W23" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="X23" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="Y23" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
     </row>
     <row r="24">
@@ -29114,10 +29116,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="C24" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -29129,61 +29131,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0547413835973</v>
+        <v>137.0040143794232</v>
       </c>
       <c r="H24" t="n">
-        <v>109.446478154441</v>
+        <v>108.9565620878122</v>
       </c>
       <c r="I24" t="n">
-        <v>89.57988057032905</v>
+        <v>87.83335871608919</v>
       </c>
       <c r="J24" t="n">
-        <v>99.55464829538748</v>
+        <v>94.76205883523707</v>
       </c>
       <c r="K24" t="n">
-        <v>91.21048336898382</v>
+        <v>83.01918462916868</v>
       </c>
       <c r="L24" t="n">
-        <v>75.85330535110219</v>
+        <v>64.83909332637046</v>
       </c>
       <c r="M24" t="n">
-        <v>68.9648374822616</v>
+        <v>56.11177155621873</v>
       </c>
       <c r="N24" t="n">
-        <v>56.23594473555531</v>
+        <v>43.04269639994139</v>
       </c>
       <c r="O24" t="n">
-        <v>73.88914042388907</v>
+        <v>61.81989570708022</v>
       </c>
       <c r="P24" t="n">
-        <v>78.83089911254507</v>
+        <v>69.14426618389605</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.1197991304619</v>
+        <v>96.64454154501006</v>
       </c>
       <c r="R24" t="n">
-        <v>127.7500744191968</v>
+        <v>124.6005504231944</v>
       </c>
       <c r="S24" t="n">
-        <v>166.3192876535631</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="T24" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="U24" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="V24" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="W24" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="X24" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="Y24" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
     </row>
     <row r="25">
@@ -29193,10 +29195,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -29208,25 +29210,25 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="H25" t="n">
-        <v>160.0746841898555</v>
+        <v>159.6965732415725</v>
       </c>
       <c r="I25" t="n">
-        <v>148.1698702702357</v>
+        <v>146.8909428500718</v>
       </c>
       <c r="J25" t="n">
-        <v>109.8789575888325</v>
+        <v>106.8722409786103</v>
       </c>
       <c r="K25" t="n">
-        <v>100.8856500941302</v>
+        <v>95.94469107668914</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>100.9755221274599</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,34 +29237,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>108.4471200234438</v>
+        <v>103.3035739539574</v>
       </c>
       <c r="Q25" t="n">
-        <v>131.2324352764123</v>
+        <v>127.6713105886463</v>
       </c>
       <c r="R25" t="n">
-        <v>166.4076989244386</v>
+        <v>164.4954936583773</v>
       </c>
       <c r="S25" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="T25" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="U25" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="V25" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="W25" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="X25" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="Y25" t="n">
-        <v>167.7488794454381</v>
+        <v>165.3770557997152</v>
       </c>
     </row>
     <row r="26">
@@ -29272,40 +29274,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="C26" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="D26" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="E26" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="F26" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="G26" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="H26" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="I26" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="J26" t="n">
-        <v>115.9659172709446</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>9.286327881339737</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="M26" t="n">
-        <v>22.74394522908167</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -29317,31 +29319,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="R26" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="S26" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="T26" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="U26" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="V26" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="W26" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="X26" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="Y26" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
     </row>
     <row r="27">
@@ -29351,76 +29353,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="C27" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="D27" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="E27" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="F27" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="G27" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="H27" t="n">
-        <v>109.446478154441</v>
+        <v>108.9565620878122</v>
       </c>
       <c r="I27" t="n">
-        <v>89.57988057032905</v>
+        <v>87.83335871608919</v>
       </c>
       <c r="J27" t="n">
-        <v>99.55464829538748</v>
+        <v>94.76205883523707</v>
       </c>
       <c r="K27" t="n">
-        <v>91.21048336898382</v>
+        <v>83.01918462916868</v>
       </c>
       <c r="L27" t="n">
-        <v>75.85330535110219</v>
+        <v>64.83909332637046</v>
       </c>
       <c r="M27" t="n">
-        <v>68.9648374822616</v>
+        <v>56.11177155621873</v>
       </c>
       <c r="N27" t="n">
-        <v>56.23594473555531</v>
+        <v>43.04269639994139</v>
       </c>
       <c r="O27" t="n">
-        <v>73.88914042388907</v>
+        <v>61.81989570708022</v>
       </c>
       <c r="P27" t="n">
-        <v>78.83089911254507</v>
+        <v>69.14426618389605</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.1197991304619</v>
+        <v>96.64454154501006</v>
       </c>
       <c r="R27" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="S27" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="T27" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="U27" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="V27" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="W27" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="X27" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="Y27" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
     </row>
     <row r="28">
@@ -29430,34 +29432,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="C28" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="D28" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="E28" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="F28" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="G28" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="H28" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="I28" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="J28" t="n">
-        <v>109.8789575888325</v>
+        <v>106.8722409786103</v>
       </c>
       <c r="K28" t="n">
-        <v>100.8856500941302</v>
+        <v>95.94469107668914</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -29472,34 +29474,34 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>103.3035739539574</v>
       </c>
       <c r="Q28" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="R28" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="S28" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="T28" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="U28" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="V28" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="W28" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="X28" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.9659172709446</v>
+        <v>110.0104046437588</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="C29" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="D29" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="E29" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="F29" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="G29" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="H29" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="I29" t="n">
-        <v>189.6683255429754</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="J29" t="n">
-        <v>135.2378249631526</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>151.4354142988742</v>
+        <v>9.286327881339737</v>
       </c>
       <c r="L29" t="n">
-        <v>110.8491173005438</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>135.5760840273101</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>133.1094343034323</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>139.1614251295725</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>153.6205525518575</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="Q29" t="n">
-        <v>164.0219772781928</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="R29" t="n">
-        <v>181.682337143927</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="S29" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="T29" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="U29" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="V29" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="W29" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="X29" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="Y29" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
     </row>
     <row r="30">
@@ -29588,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0547413835973</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="H30" t="n">
-        <v>109.446478154441</v>
+        <v>108.9565620878122</v>
       </c>
       <c r="I30" t="n">
-        <v>89.57988057032905</v>
+        <v>87.83335871608919</v>
       </c>
       <c r="J30" t="n">
-        <v>99.55464829538748</v>
+        <v>94.76205883523707</v>
       </c>
       <c r="K30" t="n">
-        <v>91.21048336898382</v>
+        <v>83.01918462916868</v>
       </c>
       <c r="L30" t="n">
-        <v>75.85330535110219</v>
+        <v>64.83909332637045</v>
       </c>
       <c r="M30" t="n">
-        <v>68.9648374822616</v>
+        <v>56.11177155621871</v>
       </c>
       <c r="N30" t="n">
-        <v>56.23594473555531</v>
+        <v>43.04269639994138</v>
       </c>
       <c r="O30" t="n">
-        <v>73.88914042388907</v>
+        <v>61.81989570708021</v>
       </c>
       <c r="P30" t="n">
-        <v>78.83089911254507</v>
+        <v>69.14426618389604</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.1197991304619</v>
+        <v>96.64454154501004</v>
       </c>
       <c r="R30" t="n">
-        <v>127.7500744191968</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="S30" t="n">
-        <v>166.3192876535631</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="T30" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="U30" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="V30" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="W30" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="X30" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="Y30" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
     </row>
     <row r="31">
@@ -29667,34 +29669,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7488794454381</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="H31" t="n">
-        <v>160.0746841898555</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="I31" t="n">
-        <v>148.1698702702357</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="J31" t="n">
-        <v>109.8789575888325</v>
+        <v>106.8722409786103</v>
       </c>
       <c r="K31" t="n">
-        <v>100.8856500941302</v>
+        <v>95.94469107668912</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29709,34 +29711,34 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>103.3035739539574</v>
       </c>
       <c r="Q31" t="n">
-        <v>131.2324352764123</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="R31" t="n">
-        <v>166.4076989244386</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="S31" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="T31" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="U31" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="V31" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="W31" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="X31" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
       <c r="Y31" t="n">
-        <v>196.721194927661</v>
+        <v>110.0104046437588</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="C32" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="D32" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="E32" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="F32" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="G32" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="H32" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="I32" t="n">
-        <v>189.6683255429754</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="J32" t="n">
-        <v>135.2378249631526</v>
+        <v>127.1910744831159</v>
       </c>
       <c r="K32" t="n">
-        <v>151.4354142988742</v>
+        <v>97.79623244037131</v>
       </c>
       <c r="L32" t="n">
-        <v>150.594515345871</v>
+        <v>135.6330275315774</v>
       </c>
       <c r="M32" t="n">
-        <v>135.5760840273101</v>
+        <v>118.928546063832</v>
       </c>
       <c r="N32" t="n">
-        <v>29.21112924585681</v>
+        <v>116.19252177124</v>
       </c>
       <c r="O32" t="n">
-        <v>139.1614251295725</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>153.6205525518575</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>164.0219772781928</v>
+        <v>153.7837289870419</v>
       </c>
       <c r="R32" t="n">
-        <v>181.682337143927</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="S32" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="T32" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="U32" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="V32" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="W32" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="X32" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="Y32" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
     </row>
     <row r="33">
@@ -29828,7 +29830,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -29840,61 +29842,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0547413835973</v>
+        <v>137.0040143794232</v>
       </c>
       <c r="H33" t="n">
-        <v>109.446478154441</v>
+        <v>108.9565620878122</v>
       </c>
       <c r="I33" t="n">
-        <v>89.57988057032905</v>
+        <v>87.83335871608919</v>
       </c>
       <c r="J33" t="n">
-        <v>99.55464829538748</v>
+        <v>94.76205883523707</v>
       </c>
       <c r="K33" t="n">
-        <v>91.21048336898382</v>
+        <v>83.01918462916868</v>
       </c>
       <c r="L33" t="n">
-        <v>75.85330535110219</v>
+        <v>64.83909332637045</v>
       </c>
       <c r="M33" t="n">
-        <v>68.9648374822616</v>
+        <v>56.11177155621871</v>
       </c>
       <c r="N33" t="n">
-        <v>56.23594473555531</v>
+        <v>43.04269639994138</v>
       </c>
       <c r="O33" t="n">
-        <v>73.88914042388907</v>
+        <v>61.81989570708021</v>
       </c>
       <c r="P33" t="n">
-        <v>78.83089911254507</v>
+        <v>69.14426618389604</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.1197991304619</v>
+        <v>96.64454154501004</v>
       </c>
       <c r="R33" t="n">
-        <v>127.7500744191968</v>
+        <v>124.6005504231943</v>
       </c>
       <c r="S33" t="n">
-        <v>166.3192876535631</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="T33" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="U33" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="V33" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="W33" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="X33" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="Y33" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
     </row>
     <row r="34">
@@ -29904,7 +29906,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -29919,61 +29921,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7488794454381</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="H34" t="n">
-        <v>160.0746841898555</v>
+        <v>159.6965732415725</v>
       </c>
       <c r="I34" t="n">
-        <v>148.1698702702357</v>
+        <v>146.8909428500718</v>
       </c>
       <c r="J34" t="n">
-        <v>109.8789575888325</v>
+        <v>106.8722409786103</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>95.94469107668912</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>100.9755221274599</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>104.2368162005166</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>108.4471200234438</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>131.2324352764123</v>
+        <v>127.6713105886463</v>
       </c>
       <c r="R34" t="n">
-        <v>166.4076989244386</v>
+        <v>164.4954936583773</v>
       </c>
       <c r="S34" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="T34" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="U34" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="V34" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="W34" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="X34" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="Y34" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="C35" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="D35" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="E35" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="F35" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="G35" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="H35" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="I35" t="n">
-        <v>189.6683255429754</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="J35" t="n">
-        <v>135.2378249631526</v>
+        <v>127.1910744831159</v>
       </c>
       <c r="K35" t="n">
-        <v>111.6900162535476</v>
+        <v>59.65468366175261</v>
       </c>
       <c r="L35" t="n">
-        <v>150.594515345871</v>
+        <v>135.6330275315774</v>
       </c>
       <c r="M35" t="n">
-        <v>135.5760840273101</v>
+        <v>118.928546063832</v>
       </c>
       <c r="N35" t="n">
-        <v>133.1094343034323</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>139.1614251295725</v>
+        <v>123.1872643325853</v>
       </c>
       <c r="P35" t="n">
-        <v>153.6205525518575</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>164.0219772781928</v>
+        <v>153.7837289870419</v>
       </c>
       <c r="R35" t="n">
-        <v>181.682337143927</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="S35" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="T35" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="U35" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="V35" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="W35" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="X35" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="Y35" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
     </row>
     <row r="36">
@@ -30065,7 +30067,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -30077,61 +30079,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0547413835973</v>
+        <v>137.0040143794232</v>
       </c>
       <c r="H36" t="n">
-        <v>109.446478154441</v>
+        <v>108.9565620878122</v>
       </c>
       <c r="I36" t="n">
-        <v>89.57988057032905</v>
+        <v>87.83335871608919</v>
       </c>
       <c r="J36" t="n">
-        <v>99.55464829538748</v>
+        <v>94.76205883523707</v>
       </c>
       <c r="K36" t="n">
-        <v>91.21048336898382</v>
+        <v>83.01918462916868</v>
       </c>
       <c r="L36" t="n">
-        <v>75.85330535110219</v>
+        <v>64.83909332637045</v>
       </c>
       <c r="M36" t="n">
-        <v>68.9648374822616</v>
+        <v>56.11177155621871</v>
       </c>
       <c r="N36" t="n">
-        <v>56.23594473555531</v>
+        <v>43.04269639994138</v>
       </c>
       <c r="O36" t="n">
-        <v>73.88914042388907</v>
+        <v>61.81989570708021</v>
       </c>
       <c r="P36" t="n">
-        <v>78.83089911254507</v>
+        <v>69.14426618389604</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.1197991304619</v>
+        <v>96.64454154501004</v>
       </c>
       <c r="R36" t="n">
-        <v>127.7500744191968</v>
+        <v>124.6005504231943</v>
       </c>
       <c r="S36" t="n">
-        <v>166.3192876535631</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="T36" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="U36" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="V36" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="W36" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="X36" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="Y36" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
     </row>
     <row r="37">
@@ -30141,7 +30143,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -30156,19 +30158,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7488794454381</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="H37" t="n">
-        <v>160.0746841898555</v>
+        <v>159.6965732415725</v>
       </c>
       <c r="I37" t="n">
-        <v>148.1698702702357</v>
+        <v>146.8909428500718</v>
       </c>
       <c r="J37" t="n">
-        <v>109.8789575888325</v>
+        <v>106.8722409786103</v>
       </c>
       <c r="K37" t="n">
-        <v>100.8856500941302</v>
+        <v>95.94469107668912</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30183,34 +30185,34 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>103.3035739539574</v>
       </c>
       <c r="Q37" t="n">
-        <v>131.2324352764123</v>
+        <v>127.6713105886463</v>
       </c>
       <c r="R37" t="n">
-        <v>166.4076989244386</v>
+        <v>164.4954936583773</v>
       </c>
       <c r="S37" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="T37" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="U37" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="V37" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="W37" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="X37" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="Y37" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="C38" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="D38" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="E38" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="F38" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="G38" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="H38" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="I38" t="n">
-        <v>189.6683255429754</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="J38" t="n">
-        <v>135.2378249631526</v>
+        <v>85.61188568931148</v>
       </c>
       <c r="K38" t="n">
-        <v>151.4354142988742</v>
+        <v>139.3754212341755</v>
       </c>
       <c r="L38" t="n">
-        <v>150.594515345871</v>
+        <v>135.6330275315774</v>
       </c>
       <c r="M38" t="n">
-        <v>135.5760840273101</v>
+        <v>118.928546063832</v>
       </c>
       <c r="N38" t="n">
-        <v>133.1094343034323</v>
+        <v>116.19252177124</v>
       </c>
       <c r="O38" t="n">
-        <v>139.1614251295725</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>113.8751545065302</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>164.0219772781928</v>
+        <v>153.7837289870419</v>
       </c>
       <c r="R38" t="n">
-        <v>181.682337143927</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="S38" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="T38" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="U38" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="V38" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="W38" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="X38" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="Y38" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
     </row>
     <row r="39">
@@ -30302,7 +30304,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -30314,61 +30316,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0547413835973</v>
+        <v>137.0040143794232</v>
       </c>
       <c r="H39" t="n">
-        <v>109.446478154441</v>
+        <v>108.9565620878122</v>
       </c>
       <c r="I39" t="n">
-        <v>89.57988057032905</v>
+        <v>87.83335871608919</v>
       </c>
       <c r="J39" t="n">
-        <v>99.55464829538748</v>
+        <v>94.76205883523707</v>
       </c>
       <c r="K39" t="n">
-        <v>91.21048336898382</v>
+        <v>83.01918462916868</v>
       </c>
       <c r="L39" t="n">
-        <v>75.85330535110219</v>
+        <v>64.83909332637045</v>
       </c>
       <c r="M39" t="n">
-        <v>68.9648374822616</v>
+        <v>56.11177155621871</v>
       </c>
       <c r="N39" t="n">
-        <v>56.23594473555531</v>
+        <v>43.04269639994138</v>
       </c>
       <c r="O39" t="n">
-        <v>73.88914042388907</v>
+        <v>61.81989570708021</v>
       </c>
       <c r="P39" t="n">
-        <v>78.83089911254507</v>
+        <v>69.14426618389604</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.1197991304619</v>
+        <v>96.64454154501004</v>
       </c>
       <c r="R39" t="n">
-        <v>127.7500744191968</v>
+        <v>124.6005504231943</v>
       </c>
       <c r="S39" t="n">
-        <v>166.3192876535631</v>
+        <v>165.3770557997152</v>
       </c>
       <c r="T39" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="U39" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="V39" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="W39" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="X39" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="Y39" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
     </row>
     <row r="40">
@@ -30378,7 +30380,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30393,19 +30395,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7488794454381</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="H40" t="n">
-        <v>160.0746841898555</v>
+        <v>159.6965732415725</v>
       </c>
       <c r="I40" t="n">
-        <v>148.1698702702357</v>
+        <v>146.8909428500718</v>
       </c>
       <c r="J40" t="n">
-        <v>109.8789575888325</v>
+        <v>106.8722409786103</v>
       </c>
       <c r="K40" t="n">
-        <v>100.8856500941302</v>
+        <v>95.94469107668912</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30423,31 +30425,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>131.2324352764123</v>
+        <v>127.6713105886463</v>
       </c>
       <c r="R40" t="n">
-        <v>166.4076989244386</v>
+        <v>164.4954936583773</v>
       </c>
       <c r="S40" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="T40" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="U40" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="V40" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="W40" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="X40" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
       <c r="Y40" t="n">
-        <v>196.721194927661</v>
+        <v>167.4101728049316</v>
       </c>
     </row>
     <row r="41">
@@ -30457,34 +30459,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="C41" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="D41" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="E41" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="F41" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="G41" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="H41" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="I41" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="J41" t="n">
-        <v>101.104774811985</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30496,37 +30498,37 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>3.378440692726483</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>109.446478154441</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="S41" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="T41" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="U41" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="V41" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="W41" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="X41" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="Y41" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
     </row>
     <row r="42">
@@ -30536,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="C42" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="D42" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="E42" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="F42" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="G42" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="H42" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="I42" t="n">
-        <v>89.57988057032905</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="J42" t="n">
-        <v>99.55464829538748</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="K42" t="n">
-        <v>91.21048336898382</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="L42" t="n">
-        <v>75.85330535110219</v>
+        <v>64.83909332637045</v>
       </c>
       <c r="M42" t="n">
-        <v>68.9648374822616</v>
+        <v>56.11177155621871</v>
       </c>
       <c r="N42" t="n">
-        <v>56.23594473555531</v>
+        <v>43.04269639994138</v>
       </c>
       <c r="O42" t="n">
-        <v>73.88914042388907</v>
+        <v>61.81989570708021</v>
       </c>
       <c r="P42" t="n">
-        <v>78.83089911254507</v>
+        <v>69.14426618389604</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.1197991304619</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="R42" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="S42" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="T42" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="U42" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="V42" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="W42" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="X42" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="Y42" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
     </row>
     <row r="43">
@@ -30615,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="C43" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="D43" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="E43" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="F43" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="G43" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="H43" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="I43" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="J43" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30654,37 +30656,37 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>104.2368162005166</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="Q43" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="R43" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="S43" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="T43" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="U43" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="V43" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="W43" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="X43" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="Y43" t="n">
-        <v>109.446478154441</v>
+        <v>77.70761156750427</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30730,40 +30732,40 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>51.58552663643245</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
     </row>
     <row r="45">
@@ -30773,76 +30775,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>64.83909332637045</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>56.11177155621871</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>43.04269639994138</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>61.81989570708021</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>69.14426618389604</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
     </row>
     <row r="46">
@@ -30852,31 +30854,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>73.23599965588699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30899,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>77.70761156750427</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5397202263778097</v>
+        <v>0.6345286975486585</v>
       </c>
       <c r="H11" t="n">
-        <v>5.527409768391745</v>
+        <v>6.4983670237702</v>
       </c>
       <c r="I11" t="n">
-        <v>20.80756402743053</v>
+        <v>24.46266761224468</v>
       </c>
       <c r="J11" t="n">
-        <v>45.80807956353367</v>
+        <v>53.8548300435705</v>
       </c>
       <c r="K11" t="n">
-        <v>68.65443674610637</v>
+        <v>80.71442981080523</v>
       </c>
       <c r="L11" t="n">
-        <v>85.17189962411628</v>
+        <v>100.13338743841</v>
       </c>
       <c r="M11" t="n">
-        <v>94.77014919996265</v>
+        <v>111.417687163441</v>
       </c>
       <c r="N11" t="n">
-        <v>96.30362929315861</v>
+        <v>113.2205418253511</v>
       </c>
       <c r="O11" t="n">
-        <v>90.93678629211426</v>
+        <v>106.9109470891016</v>
       </c>
       <c r="P11" t="n">
-        <v>77.61244320341207</v>
+        <v>91.24601986836909</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.28371259625674</v>
+        <v>68.52196088740774</v>
       </c>
       <c r="R11" t="n">
-        <v>33.90320067020512</v>
+        <v>39.85871329739096</v>
       </c>
       <c r="S11" t="n">
-        <v>12.29887465858435</v>
+        <v>14.45932269539007</v>
       </c>
       <c r="T11" t="n">
-        <v>2.362625290968863</v>
+        <v>2.777649373519254</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04317761811022477</v>
+        <v>0.05076229580389267</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2887757796133727</v>
+        <v>0.3395027837874735</v>
       </c>
       <c r="H12" t="n">
-        <v>2.788966082055468</v>
+        <v>3.278882148684284</v>
       </c>
       <c r="I12" t="n">
-        <v>9.942499429670946</v>
+        <v>11.68902128391082</v>
       </c>
       <c r="J12" t="n">
-        <v>27.28297837127922</v>
+        <v>32.07556783142969</v>
       </c>
       <c r="K12" t="n">
-        <v>46.63095560537518</v>
+        <v>54.82225434519041</v>
       </c>
       <c r="L12" t="n">
-        <v>62.701074428772</v>
+        <v>73.71528645350385</v>
       </c>
       <c r="M12" t="n">
-        <v>73.16919643975673</v>
+        <v>86.02226236579975</v>
       </c>
       <c r="N12" t="n">
-        <v>75.10576734777801</v>
+        <v>88.29901568339207</v>
       </c>
       <c r="O12" t="n">
-        <v>68.70710402055538</v>
+        <v>80.77634873736437</v>
       </c>
       <c r="P12" t="n">
-        <v>55.14350830178518</v>
+        <v>64.83014123043431</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.86197495555965</v>
+        <v>43.33723254101154</v>
       </c>
       <c r="R12" t="n">
-        <v>17.92942954476713</v>
+        <v>21.07895354076964</v>
       </c>
       <c r="S12" t="n">
-        <v>5.363883450274703</v>
+        <v>6.306115304122585</v>
       </c>
       <c r="T12" t="n">
-        <v>1.163969041511796</v>
+        <v>1.368434466231088</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01899840655351137</v>
+        <v>0.02233570945970222</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2420999130207021</v>
+        <v>0.284627729289757</v>
       </c>
       <c r="H13" t="n">
-        <v>2.152488317584062</v>
+        <v>2.530599265867114</v>
       </c>
       <c r="I13" t="n">
-        <v>7.280604657022571</v>
+        <v>8.559532077186514</v>
       </c>
       <c r="J13" t="n">
-        <v>17.11646385056364</v>
+        <v>20.12318046078582</v>
       </c>
       <c r="K13" t="n">
-        <v>28.1276080764052</v>
+        <v>33.06856709384631</v>
       </c>
       <c r="L13" t="n">
-        <v>35.99365434127785</v>
+        <v>42.3163807709517</v>
       </c>
       <c r="M13" t="n">
-        <v>37.95026182014514</v>
+        <v>44.61669032857527</v>
       </c>
       <c r="N13" t="n">
-        <v>37.04788941706801</v>
+        <v>43.55580515576803</v>
       </c>
       <c r="O13" t="n">
-        <v>34.21972225132616</v>
+        <v>40.23083577270131</v>
       </c>
       <c r="P13" t="n">
-        <v>29.28088402570381</v>
+        <v>34.42443009519024</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.27256635303352</v>
+        <v>23.83369104079956</v>
       </c>
       <c r="R13" t="n">
-        <v>10.88569245273084</v>
+        <v>12.79789771879216</v>
       </c>
       <c r="S13" t="n">
-        <v>4.21914121146078</v>
+        <v>4.960285064076945</v>
       </c>
       <c r="T13" t="n">
-        <v>1.034426901088454</v>
+        <v>1.21613666151078</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01320544980112922</v>
+        <v>0.0155251488703504</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5397202263778097</v>
+        <v>0.6345286975486585</v>
       </c>
       <c r="H14" t="n">
-        <v>5.527409768391745</v>
+        <v>6.4983670237702</v>
       </c>
       <c r="I14" t="n">
-        <v>20.80756402743053</v>
+        <v>24.46266761224468</v>
       </c>
       <c r="J14" t="n">
-        <v>45.80807956353367</v>
+        <v>53.8548300435705</v>
       </c>
       <c r="K14" t="n">
-        <v>68.65443674610637</v>
+        <v>80.71442981080523</v>
       </c>
       <c r="L14" t="n">
-        <v>85.17189962411628</v>
+        <v>100.13338743841</v>
       </c>
       <c r="M14" t="n">
-        <v>94.77014919996265</v>
+        <v>111.417687163441</v>
       </c>
       <c r="N14" t="n">
-        <v>96.30362929315861</v>
+        <v>113.2205418253511</v>
       </c>
       <c r="O14" t="n">
-        <v>90.93678629211426</v>
+        <v>106.9109470891016</v>
       </c>
       <c r="P14" t="n">
-        <v>77.61244320341207</v>
+        <v>91.24601986836909</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.28371259625674</v>
+        <v>68.52196088740774</v>
       </c>
       <c r="R14" t="n">
-        <v>33.90320067020512</v>
+        <v>39.85871329739096</v>
       </c>
       <c r="S14" t="n">
-        <v>12.29887465858435</v>
+        <v>14.45932269539007</v>
       </c>
       <c r="T14" t="n">
-        <v>2.362625290968863</v>
+        <v>2.777649373519254</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04317761811022477</v>
+        <v>0.05076229580389267</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2887757796133727</v>
+        <v>0.3395027837874735</v>
       </c>
       <c r="H15" t="n">
-        <v>2.788966082055468</v>
+        <v>3.278882148684284</v>
       </c>
       <c r="I15" t="n">
-        <v>9.942499429670946</v>
+        <v>11.68902128391082</v>
       </c>
       <c r="J15" t="n">
-        <v>27.28297837127922</v>
+        <v>32.07556783142969</v>
       </c>
       <c r="K15" t="n">
-        <v>46.63095560537518</v>
+        <v>54.82225434519041</v>
       </c>
       <c r="L15" t="n">
-        <v>62.701074428772</v>
+        <v>73.71528645350385</v>
       </c>
       <c r="M15" t="n">
-        <v>73.16919643975673</v>
+        <v>86.02226236579975</v>
       </c>
       <c r="N15" t="n">
-        <v>75.10576734777801</v>
+        <v>88.29901568339207</v>
       </c>
       <c r="O15" t="n">
-        <v>68.70710402055538</v>
+        <v>80.77634873736437</v>
       </c>
       <c r="P15" t="n">
-        <v>55.14350830178518</v>
+        <v>64.83014123043431</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.86197495555965</v>
+        <v>43.33723254101154</v>
       </c>
       <c r="R15" t="n">
-        <v>17.92942954476713</v>
+        <v>21.07895354076964</v>
       </c>
       <c r="S15" t="n">
-        <v>5.363883450274703</v>
+        <v>6.306115304122585</v>
       </c>
       <c r="T15" t="n">
-        <v>1.163969041511796</v>
+        <v>1.368434466231088</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01899840655351137</v>
+        <v>0.02233570945970222</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2420999130207021</v>
+        <v>0.284627729289757</v>
       </c>
       <c r="H16" t="n">
-        <v>2.152488317584062</v>
+        <v>2.530599265867114</v>
       </c>
       <c r="I16" t="n">
-        <v>7.280604657022571</v>
+        <v>8.559532077186514</v>
       </c>
       <c r="J16" t="n">
-        <v>17.11646385056364</v>
+        <v>20.12318046078582</v>
       </c>
       <c r="K16" t="n">
-        <v>28.1276080764052</v>
+        <v>33.06856709384631</v>
       </c>
       <c r="L16" t="n">
-        <v>35.99365434127785</v>
+        <v>42.3163807709517</v>
       </c>
       <c r="M16" t="n">
-        <v>37.95026182014514</v>
+        <v>44.61669032857527</v>
       </c>
       <c r="N16" t="n">
-        <v>37.04788941706801</v>
+        <v>43.55580515576803</v>
       </c>
       <c r="O16" t="n">
-        <v>34.21972225132616</v>
+        <v>40.23083577270131</v>
       </c>
       <c r="P16" t="n">
-        <v>29.28088402570381</v>
+        <v>34.42443009519024</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.27256635303352</v>
+        <v>23.83369104079956</v>
       </c>
       <c r="R16" t="n">
-        <v>10.88569245273084</v>
+        <v>12.79789771879216</v>
       </c>
       <c r="S16" t="n">
-        <v>4.21914121146078</v>
+        <v>4.960285064076945</v>
       </c>
       <c r="T16" t="n">
-        <v>1.034426901088454</v>
+        <v>1.21613666151078</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01320544980112922</v>
+        <v>0.0155251488703504</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5397202263778096</v>
+        <v>0.6345286975486585</v>
       </c>
       <c r="H17" t="n">
-        <v>5.527409768391744</v>
+        <v>6.4983670237702</v>
       </c>
       <c r="I17" t="n">
-        <v>20.80756402743053</v>
+        <v>24.46266761224468</v>
       </c>
       <c r="J17" t="n">
-        <v>45.80807956353366</v>
+        <v>53.8548300435705</v>
       </c>
       <c r="K17" t="n">
-        <v>68.65443674610636</v>
+        <v>80.71442981080523</v>
       </c>
       <c r="L17" t="n">
-        <v>85.17189962411626</v>
+        <v>100.13338743841</v>
       </c>
       <c r="M17" t="n">
-        <v>94.77014919996263</v>
+        <v>111.417687163441</v>
       </c>
       <c r="N17" t="n">
-        <v>96.30362929315859</v>
+        <v>113.2205418253511</v>
       </c>
       <c r="O17" t="n">
-        <v>90.93678629211423</v>
+        <v>106.9109470891016</v>
       </c>
       <c r="P17" t="n">
-        <v>77.61244320341206</v>
+        <v>91.24601986836909</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.28371259625673</v>
+        <v>68.52196088740774</v>
       </c>
       <c r="R17" t="n">
-        <v>33.90320067020512</v>
+        <v>39.85871329739096</v>
       </c>
       <c r="S17" t="n">
-        <v>12.29887465858435</v>
+        <v>14.45932269539007</v>
       </c>
       <c r="T17" t="n">
-        <v>2.362625290968863</v>
+        <v>2.777649373519254</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04317761811022476</v>
+        <v>0.05076229580389267</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2887757796133726</v>
+        <v>0.3395027837874735</v>
       </c>
       <c r="H18" t="n">
-        <v>2.788966082055468</v>
+        <v>3.278882148684284</v>
       </c>
       <c r="I18" t="n">
-        <v>9.942499429670944</v>
+        <v>11.68902128391082</v>
       </c>
       <c r="J18" t="n">
-        <v>27.28297837127921</v>
+        <v>32.07556783142969</v>
       </c>
       <c r="K18" t="n">
-        <v>46.63095560537518</v>
+        <v>54.82225434519041</v>
       </c>
       <c r="L18" t="n">
-        <v>62.70107442877198</v>
+        <v>73.71528645350385</v>
       </c>
       <c r="M18" t="n">
-        <v>73.16919643975672</v>
+        <v>86.02226236579975</v>
       </c>
       <c r="N18" t="n">
-        <v>75.105767347778</v>
+        <v>88.29901568339207</v>
       </c>
       <c r="O18" t="n">
-        <v>68.70710402055536</v>
+        <v>80.77634873736437</v>
       </c>
       <c r="P18" t="n">
-        <v>55.14350830178517</v>
+        <v>64.83014123043431</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.86197495555964</v>
+        <v>43.33723254101154</v>
       </c>
       <c r="R18" t="n">
-        <v>17.92942954476712</v>
+        <v>21.07895354076964</v>
       </c>
       <c r="S18" t="n">
-        <v>5.363883450274702</v>
+        <v>6.306115304122585</v>
       </c>
       <c r="T18" t="n">
-        <v>1.163969041511795</v>
+        <v>1.368434466231088</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01899840655351136</v>
+        <v>0.02233570945970222</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2420999130207021</v>
+        <v>0.284627729289757</v>
       </c>
       <c r="H19" t="n">
-        <v>2.152488317584062</v>
+        <v>2.530599265867114</v>
       </c>
       <c r="I19" t="n">
-        <v>7.280604657022569</v>
+        <v>8.559532077186514</v>
       </c>
       <c r="J19" t="n">
-        <v>17.11646385056363</v>
+        <v>20.12318046078582</v>
       </c>
       <c r="K19" t="n">
-        <v>28.1276080764052</v>
+        <v>33.06856709384631</v>
       </c>
       <c r="L19" t="n">
-        <v>35.99365434127784</v>
+        <v>42.3163807709517</v>
       </c>
       <c r="M19" t="n">
-        <v>37.95026182014514</v>
+        <v>44.61669032857527</v>
       </c>
       <c r="N19" t="n">
-        <v>37.04788941706801</v>
+        <v>43.55580515576803</v>
       </c>
       <c r="O19" t="n">
-        <v>34.21972225132615</v>
+        <v>40.23083577270131</v>
       </c>
       <c r="P19" t="n">
-        <v>29.28088402570381</v>
+        <v>34.42443009519024</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.27256635303351</v>
+        <v>23.83369104079956</v>
       </c>
       <c r="R19" t="n">
-        <v>10.88569245273084</v>
+        <v>12.79789771879216</v>
       </c>
       <c r="S19" t="n">
-        <v>4.219141211460779</v>
+        <v>4.960285064076945</v>
       </c>
       <c r="T19" t="n">
-        <v>1.034426901088454</v>
+        <v>1.21613666151078</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01320544980112922</v>
+        <v>0.0155251488703504</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5397202263778096</v>
+        <v>0.6345286975486574</v>
       </c>
       <c r="H20" t="n">
-        <v>5.527409768391744</v>
+        <v>6.498367023770188</v>
       </c>
       <c r="I20" t="n">
-        <v>20.80756402743053</v>
+        <v>24.46266761224464</v>
       </c>
       <c r="J20" t="n">
-        <v>45.80807956353366</v>
+        <v>53.8548300435704</v>
       </c>
       <c r="K20" t="n">
-        <v>68.65443674610636</v>
+        <v>80.71442981080509</v>
       </c>
       <c r="L20" t="n">
-        <v>85.17189962411626</v>
+        <v>100.1333874384098</v>
       </c>
       <c r="M20" t="n">
-        <v>94.77014919996263</v>
+        <v>111.4176871634408</v>
       </c>
       <c r="N20" t="n">
-        <v>96.30362929315859</v>
+        <v>113.2205418253509</v>
       </c>
       <c r="O20" t="n">
-        <v>90.93678629211423</v>
+        <v>106.9109470891014</v>
       </c>
       <c r="P20" t="n">
-        <v>77.61244320341206</v>
+        <v>91.24601986836893</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.28371259625673</v>
+        <v>68.52196088740762</v>
       </c>
       <c r="R20" t="n">
-        <v>33.90320067020512</v>
+        <v>39.85871329739088</v>
       </c>
       <c r="S20" t="n">
-        <v>12.29887465858435</v>
+        <v>14.45932269539004</v>
       </c>
       <c r="T20" t="n">
-        <v>2.362625290968863</v>
+        <v>2.777649373519249</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04317761811022476</v>
+        <v>0.05076229580389258</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2887757796133726</v>
+        <v>0.3395027837874729</v>
       </c>
       <c r="H21" t="n">
-        <v>2.788966082055468</v>
+        <v>3.278882148684279</v>
       </c>
       <c r="I21" t="n">
-        <v>9.942499429670944</v>
+        <v>11.6890212839108</v>
       </c>
       <c r="J21" t="n">
-        <v>27.28297837127921</v>
+        <v>32.07556783142963</v>
       </c>
       <c r="K21" t="n">
-        <v>46.63095560537518</v>
+        <v>54.82225434519031</v>
       </c>
       <c r="L21" t="n">
-        <v>62.70107442877198</v>
+        <v>73.71528645350372</v>
       </c>
       <c r="M21" t="n">
-        <v>73.16919643975672</v>
+        <v>86.02226236579959</v>
       </c>
       <c r="N21" t="n">
-        <v>75.105767347778</v>
+        <v>88.29901568339191</v>
       </c>
       <c r="O21" t="n">
-        <v>68.70710402055536</v>
+        <v>80.77634873736422</v>
       </c>
       <c r="P21" t="n">
-        <v>55.14350830178517</v>
+        <v>64.83014123043419</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.86197495555964</v>
+        <v>43.33723254101146</v>
       </c>
       <c r="R21" t="n">
-        <v>17.92942954476712</v>
+        <v>21.0789535407696</v>
       </c>
       <c r="S21" t="n">
-        <v>5.363883450274702</v>
+        <v>6.306115304122573</v>
       </c>
       <c r="T21" t="n">
-        <v>1.163969041511795</v>
+        <v>1.368434466231085</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01899840655351136</v>
+        <v>0.02233570945970217</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2420999130207021</v>
+        <v>0.2846277292897565</v>
       </c>
       <c r="H22" t="n">
-        <v>2.152488317584062</v>
+        <v>2.53059926586711</v>
       </c>
       <c r="I22" t="n">
-        <v>7.280604657022569</v>
+        <v>8.559532077186498</v>
       </c>
       <c r="J22" t="n">
-        <v>17.11646385056363</v>
+        <v>20.12318046078579</v>
       </c>
       <c r="K22" t="n">
-        <v>28.1276080764052</v>
+        <v>33.06856709384625</v>
       </c>
       <c r="L22" t="n">
-        <v>35.99365434127784</v>
+        <v>42.31638077095162</v>
       </c>
       <c r="M22" t="n">
-        <v>37.95026182014514</v>
+        <v>44.61669032857519</v>
       </c>
       <c r="N22" t="n">
-        <v>37.04788941706801</v>
+        <v>43.55580515576795</v>
       </c>
       <c r="O22" t="n">
-        <v>34.21972225132615</v>
+        <v>40.23083577270123</v>
       </c>
       <c r="P22" t="n">
-        <v>29.28088402570381</v>
+        <v>34.42443009519017</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.27256635303351</v>
+        <v>23.83369104079952</v>
       </c>
       <c r="R22" t="n">
-        <v>10.88569245273084</v>
+        <v>12.79789771879214</v>
       </c>
       <c r="S22" t="n">
-        <v>4.219141211460779</v>
+        <v>4.960285064076936</v>
       </c>
       <c r="T22" t="n">
-        <v>1.034426901088454</v>
+        <v>1.216136661510778</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01320544980112922</v>
+        <v>0.01552514887035037</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5397202263778096</v>
+        <v>0.6345286975486574</v>
       </c>
       <c r="H23" t="n">
-        <v>5.527409768391744</v>
+        <v>6.498367023770188</v>
       </c>
       <c r="I23" t="n">
-        <v>20.80756402743053</v>
+        <v>24.46266761224464</v>
       </c>
       <c r="J23" t="n">
-        <v>45.80807956353366</v>
+        <v>53.8548300435704</v>
       </c>
       <c r="K23" t="n">
-        <v>68.65443674610636</v>
+        <v>80.71442981080509</v>
       </c>
       <c r="L23" t="n">
-        <v>85.17189962411626</v>
+        <v>100.1333874384098</v>
       </c>
       <c r="M23" t="n">
-        <v>94.77014919996263</v>
+        <v>111.4176871634408</v>
       </c>
       <c r="N23" t="n">
-        <v>96.30362929315859</v>
+        <v>113.2205418253509</v>
       </c>
       <c r="O23" t="n">
-        <v>90.93678629211423</v>
+        <v>106.9109470891014</v>
       </c>
       <c r="P23" t="n">
-        <v>77.61244320341206</v>
+        <v>91.24601986836893</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.28371259625673</v>
+        <v>68.52196088740762</v>
       </c>
       <c r="R23" t="n">
-        <v>33.90320067020512</v>
+        <v>39.85871329739088</v>
       </c>
       <c r="S23" t="n">
-        <v>12.29887465858435</v>
+        <v>14.45932269539004</v>
       </c>
       <c r="T23" t="n">
-        <v>2.362625290968863</v>
+        <v>2.777649373519249</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04317761811022476</v>
+        <v>0.05076229580389258</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2887757796133726</v>
+        <v>0.3395027837874729</v>
       </c>
       <c r="H24" t="n">
-        <v>2.788966082055468</v>
+        <v>3.278882148684279</v>
       </c>
       <c r="I24" t="n">
-        <v>9.942499429670944</v>
+        <v>11.6890212839108</v>
       </c>
       <c r="J24" t="n">
-        <v>27.28297837127921</v>
+        <v>32.07556783142963</v>
       </c>
       <c r="K24" t="n">
-        <v>46.63095560537518</v>
+        <v>54.82225434519031</v>
       </c>
       <c r="L24" t="n">
-        <v>62.70107442877198</v>
+        <v>73.71528645350372</v>
       </c>
       <c r="M24" t="n">
-        <v>73.16919643975672</v>
+        <v>86.02226236579959</v>
       </c>
       <c r="N24" t="n">
-        <v>75.105767347778</v>
+        <v>88.29901568339191</v>
       </c>
       <c r="O24" t="n">
-        <v>68.70710402055536</v>
+        <v>80.77634873736422</v>
       </c>
       <c r="P24" t="n">
-        <v>55.14350830178517</v>
+        <v>64.83014123043419</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.86197495555964</v>
+        <v>43.33723254101146</v>
       </c>
       <c r="R24" t="n">
-        <v>17.92942954476712</v>
+        <v>21.0789535407696</v>
       </c>
       <c r="S24" t="n">
-        <v>5.363883450274702</v>
+        <v>6.306115304122573</v>
       </c>
       <c r="T24" t="n">
-        <v>1.163969041511795</v>
+        <v>1.368434466231085</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01899840655351136</v>
+        <v>0.02233570945970217</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2420999130207021</v>
+        <v>0.2846277292897565</v>
       </c>
       <c r="H25" t="n">
-        <v>2.152488317584062</v>
+        <v>2.53059926586711</v>
       </c>
       <c r="I25" t="n">
-        <v>7.280604657022569</v>
+        <v>8.559532077186498</v>
       </c>
       <c r="J25" t="n">
-        <v>17.11646385056363</v>
+        <v>20.12318046078579</v>
       </c>
       <c r="K25" t="n">
-        <v>28.1276080764052</v>
+        <v>33.06856709384625</v>
       </c>
       <c r="L25" t="n">
-        <v>35.99365434127784</v>
+        <v>42.31638077095162</v>
       </c>
       <c r="M25" t="n">
-        <v>37.95026182014514</v>
+        <v>44.61669032857519</v>
       </c>
       <c r="N25" t="n">
-        <v>37.04788941706801</v>
+        <v>43.55580515576795</v>
       </c>
       <c r="O25" t="n">
-        <v>34.21972225132615</v>
+        <v>40.23083577270123</v>
       </c>
       <c r="P25" t="n">
-        <v>29.28088402570381</v>
+        <v>34.42443009519017</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.27256635303351</v>
+        <v>23.83369104079952</v>
       </c>
       <c r="R25" t="n">
-        <v>10.88569245273084</v>
+        <v>12.79789771879214</v>
       </c>
       <c r="S25" t="n">
-        <v>4.219141211460779</v>
+        <v>4.960285064076936</v>
       </c>
       <c r="T25" t="n">
-        <v>1.034426901088454</v>
+        <v>1.216136661510778</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01320544980112922</v>
+        <v>0.01552514887035037</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5397202263778096</v>
+        <v>0.6345286975486574</v>
       </c>
       <c r="H26" t="n">
-        <v>5.527409768391744</v>
+        <v>6.498367023770188</v>
       </c>
       <c r="I26" t="n">
-        <v>20.80756402743053</v>
+        <v>24.46266761224464</v>
       </c>
       <c r="J26" t="n">
-        <v>45.80807956353366</v>
+        <v>53.8548300435704</v>
       </c>
       <c r="K26" t="n">
-        <v>68.65443674610636</v>
+        <v>80.71442981080509</v>
       </c>
       <c r="L26" t="n">
-        <v>85.17189962411626</v>
+        <v>100.1333874384098</v>
       </c>
       <c r="M26" t="n">
-        <v>94.77014919996263</v>
+        <v>111.4176871634408</v>
       </c>
       <c r="N26" t="n">
-        <v>96.30362929315859</v>
+        <v>113.2205418253509</v>
       </c>
       <c r="O26" t="n">
-        <v>90.93678629211423</v>
+        <v>106.9109470891014</v>
       </c>
       <c r="P26" t="n">
-        <v>77.61244320341206</v>
+        <v>91.24601986836893</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.28371259625673</v>
+        <v>68.52196088740762</v>
       </c>
       <c r="R26" t="n">
-        <v>33.90320067020512</v>
+        <v>39.85871329739088</v>
       </c>
       <c r="S26" t="n">
-        <v>12.29887465858435</v>
+        <v>14.45932269539004</v>
       </c>
       <c r="T26" t="n">
-        <v>2.362625290968863</v>
+        <v>2.777649373519249</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04317761811022476</v>
+        <v>0.05076229580389258</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2887757796133726</v>
+        <v>0.3395027837874729</v>
       </c>
       <c r="H27" t="n">
-        <v>2.788966082055468</v>
+        <v>3.278882148684279</v>
       </c>
       <c r="I27" t="n">
-        <v>9.942499429670944</v>
+        <v>11.6890212839108</v>
       </c>
       <c r="J27" t="n">
-        <v>27.28297837127921</v>
+        <v>32.07556783142963</v>
       </c>
       <c r="K27" t="n">
-        <v>46.63095560537518</v>
+        <v>54.82225434519031</v>
       </c>
       <c r="L27" t="n">
-        <v>62.70107442877198</v>
+        <v>73.71528645350372</v>
       </c>
       <c r="M27" t="n">
-        <v>73.16919643975672</v>
+        <v>86.02226236579959</v>
       </c>
       <c r="N27" t="n">
-        <v>75.105767347778</v>
+        <v>88.29901568339191</v>
       </c>
       <c r="O27" t="n">
-        <v>68.70710402055536</v>
+        <v>80.77634873736422</v>
       </c>
       <c r="P27" t="n">
-        <v>55.14350830178517</v>
+        <v>64.83014123043419</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.86197495555964</v>
+        <v>43.33723254101146</v>
       </c>
       <c r="R27" t="n">
-        <v>17.92942954476712</v>
+        <v>21.0789535407696</v>
       </c>
       <c r="S27" t="n">
-        <v>5.363883450274702</v>
+        <v>6.306115304122573</v>
       </c>
       <c r="T27" t="n">
-        <v>1.163969041511795</v>
+        <v>1.368434466231085</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01899840655351136</v>
+        <v>0.02233570945970217</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2420999130207021</v>
+        <v>0.2846277292897565</v>
       </c>
       <c r="H28" t="n">
-        <v>2.152488317584062</v>
+        <v>2.53059926586711</v>
       </c>
       <c r="I28" t="n">
-        <v>7.280604657022569</v>
+        <v>8.559532077186498</v>
       </c>
       <c r="J28" t="n">
-        <v>17.11646385056363</v>
+        <v>20.12318046078579</v>
       </c>
       <c r="K28" t="n">
-        <v>28.1276080764052</v>
+        <v>33.06856709384625</v>
       </c>
       <c r="L28" t="n">
-        <v>35.99365434127784</v>
+        <v>42.31638077095162</v>
       </c>
       <c r="M28" t="n">
-        <v>37.95026182014514</v>
+        <v>44.61669032857519</v>
       </c>
       <c r="N28" t="n">
-        <v>37.04788941706801</v>
+        <v>43.55580515576795</v>
       </c>
       <c r="O28" t="n">
-        <v>34.21972225132615</v>
+        <v>40.23083577270123</v>
       </c>
       <c r="P28" t="n">
-        <v>29.28088402570381</v>
+        <v>34.42443009519017</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.27256635303351</v>
+        <v>23.83369104079952</v>
       </c>
       <c r="R28" t="n">
-        <v>10.88569245273084</v>
+        <v>12.79789771879214</v>
       </c>
       <c r="S28" t="n">
-        <v>4.219141211460779</v>
+        <v>4.960285064076936</v>
       </c>
       <c r="T28" t="n">
-        <v>1.034426901088454</v>
+        <v>1.216136661510778</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01320544980112922</v>
+        <v>0.01552514887035037</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5397202263778096</v>
+        <v>0.6345286975486575</v>
       </c>
       <c r="H29" t="n">
-        <v>5.527409768391744</v>
+        <v>6.498367023770189</v>
       </c>
       <c r="I29" t="n">
-        <v>20.80756402743053</v>
+        <v>24.46266761224464</v>
       </c>
       <c r="J29" t="n">
-        <v>45.80807956353366</v>
+        <v>53.85483004357042</v>
       </c>
       <c r="K29" t="n">
-        <v>68.65443674610636</v>
+        <v>80.7144298108051</v>
       </c>
       <c r="L29" t="n">
-        <v>85.17189962411626</v>
+        <v>100.1333874384098</v>
       </c>
       <c r="M29" t="n">
-        <v>94.77014919996263</v>
+        <v>111.4176871634408</v>
       </c>
       <c r="N29" t="n">
-        <v>96.30362929315859</v>
+        <v>113.2205418253509</v>
       </c>
       <c r="O29" t="n">
-        <v>90.93678629211423</v>
+        <v>106.9109470891014</v>
       </c>
       <c r="P29" t="n">
-        <v>77.61244320341206</v>
+        <v>91.24601986836895</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.28371259625673</v>
+        <v>68.52196088740763</v>
       </c>
       <c r="R29" t="n">
-        <v>33.90320067020512</v>
+        <v>39.85871329739089</v>
       </c>
       <c r="S29" t="n">
-        <v>12.29887465858435</v>
+        <v>14.45932269539005</v>
       </c>
       <c r="T29" t="n">
-        <v>2.362625290968863</v>
+        <v>2.77764937351925</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04317761811022476</v>
+        <v>0.05076229580389258</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2887757796133726</v>
+        <v>0.339502783787473</v>
       </c>
       <c r="H30" t="n">
-        <v>2.788966082055468</v>
+        <v>3.278882148684279</v>
       </c>
       <c r="I30" t="n">
-        <v>9.942499429670944</v>
+        <v>11.6890212839108</v>
       </c>
       <c r="J30" t="n">
-        <v>27.28297837127921</v>
+        <v>32.07556783142963</v>
       </c>
       <c r="K30" t="n">
-        <v>46.63095560537518</v>
+        <v>54.82225434519032</v>
       </c>
       <c r="L30" t="n">
-        <v>62.70107442877198</v>
+        <v>73.71528645350374</v>
       </c>
       <c r="M30" t="n">
-        <v>73.16919643975672</v>
+        <v>86.02226236579961</v>
       </c>
       <c r="N30" t="n">
-        <v>75.105767347778</v>
+        <v>88.29901568339193</v>
       </c>
       <c r="O30" t="n">
-        <v>68.70710402055536</v>
+        <v>80.77634873736423</v>
       </c>
       <c r="P30" t="n">
-        <v>55.14350830178517</v>
+        <v>64.83014123043421</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.86197495555964</v>
+        <v>43.33723254101147</v>
       </c>
       <c r="R30" t="n">
-        <v>17.92942954476712</v>
+        <v>21.0789535407696</v>
       </c>
       <c r="S30" t="n">
-        <v>5.363883450274702</v>
+        <v>6.306115304122575</v>
       </c>
       <c r="T30" t="n">
-        <v>1.163969041511795</v>
+        <v>1.368434466231086</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01899840655351136</v>
+        <v>0.02233570945970218</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2420999130207021</v>
+        <v>0.2846277292897565</v>
       </c>
       <c r="H31" t="n">
-        <v>2.152488317584062</v>
+        <v>2.53059926586711</v>
       </c>
       <c r="I31" t="n">
-        <v>7.280604657022569</v>
+        <v>8.5595320771865</v>
       </c>
       <c r="J31" t="n">
-        <v>17.11646385056363</v>
+        <v>20.12318046078579</v>
       </c>
       <c r="K31" t="n">
-        <v>28.1276080764052</v>
+        <v>33.06856709384626</v>
       </c>
       <c r="L31" t="n">
-        <v>35.99365434127784</v>
+        <v>42.31638077095163</v>
       </c>
       <c r="M31" t="n">
-        <v>37.95026182014514</v>
+        <v>44.6166903285752</v>
       </c>
       <c r="N31" t="n">
-        <v>37.04788941706801</v>
+        <v>43.55580515576796</v>
       </c>
       <c r="O31" t="n">
-        <v>34.21972225132615</v>
+        <v>40.23083577270124</v>
       </c>
       <c r="P31" t="n">
-        <v>29.28088402570381</v>
+        <v>34.42443009519018</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.27256635303351</v>
+        <v>23.83369104079953</v>
       </c>
       <c r="R31" t="n">
-        <v>10.88569245273084</v>
+        <v>12.79789771879214</v>
       </c>
       <c r="S31" t="n">
-        <v>4.219141211460779</v>
+        <v>4.960285064076937</v>
       </c>
       <c r="T31" t="n">
-        <v>1.034426901088454</v>
+        <v>1.216136661510778</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01320544980112922</v>
+        <v>0.01552514887035038</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5397202263778096</v>
+        <v>0.6345286975486575</v>
       </c>
       <c r="H32" t="n">
-        <v>5.527409768391744</v>
+        <v>6.498367023770189</v>
       </c>
       <c r="I32" t="n">
-        <v>20.80756402743053</v>
+        <v>24.46266761224464</v>
       </c>
       <c r="J32" t="n">
-        <v>45.80807956353366</v>
+        <v>53.85483004357042</v>
       </c>
       <c r="K32" t="n">
-        <v>68.65443674610636</v>
+        <v>80.7144298108051</v>
       </c>
       <c r="L32" t="n">
-        <v>85.17189962411626</v>
+        <v>100.1333874384098</v>
       </c>
       <c r="M32" t="n">
-        <v>94.77014919996263</v>
+        <v>111.4176871634408</v>
       </c>
       <c r="N32" t="n">
-        <v>96.30362929315859</v>
+        <v>113.2205418253509</v>
       </c>
       <c r="O32" t="n">
-        <v>90.93678629211423</v>
+        <v>106.9109470891014</v>
       </c>
       <c r="P32" t="n">
-        <v>77.61244320341206</v>
+        <v>91.24601986836895</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.28371259625673</v>
+        <v>68.52196088740763</v>
       </c>
       <c r="R32" t="n">
-        <v>33.90320067020512</v>
+        <v>39.85871329739089</v>
       </c>
       <c r="S32" t="n">
-        <v>12.29887465858435</v>
+        <v>14.45932269539005</v>
       </c>
       <c r="T32" t="n">
-        <v>2.362625290968863</v>
+        <v>2.77764937351925</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04317761811022476</v>
+        <v>0.05076229580389258</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2887757796133726</v>
+        <v>0.339502783787473</v>
       </c>
       <c r="H33" t="n">
-        <v>2.788966082055468</v>
+        <v>3.278882148684279</v>
       </c>
       <c r="I33" t="n">
-        <v>9.942499429670944</v>
+        <v>11.6890212839108</v>
       </c>
       <c r="J33" t="n">
-        <v>27.28297837127921</v>
+        <v>32.07556783142963</v>
       </c>
       <c r="K33" t="n">
-        <v>46.63095560537518</v>
+        <v>54.82225434519032</v>
       </c>
       <c r="L33" t="n">
-        <v>62.70107442877198</v>
+        <v>73.71528645350374</v>
       </c>
       <c r="M33" t="n">
-        <v>73.16919643975672</v>
+        <v>86.02226236579961</v>
       </c>
       <c r="N33" t="n">
-        <v>75.105767347778</v>
+        <v>88.29901568339193</v>
       </c>
       <c r="O33" t="n">
-        <v>68.70710402055536</v>
+        <v>80.77634873736423</v>
       </c>
       <c r="P33" t="n">
-        <v>55.14350830178517</v>
+        <v>64.83014123043421</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.86197495555964</v>
+        <v>43.33723254101147</v>
       </c>
       <c r="R33" t="n">
-        <v>17.92942954476712</v>
+        <v>21.0789535407696</v>
       </c>
       <c r="S33" t="n">
-        <v>5.363883450274702</v>
+        <v>6.306115304122575</v>
       </c>
       <c r="T33" t="n">
-        <v>1.163969041511795</v>
+        <v>1.368434466231086</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01899840655351136</v>
+        <v>0.02233570945970218</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2420999130207021</v>
+        <v>0.2846277292897565</v>
       </c>
       <c r="H34" t="n">
-        <v>2.152488317584062</v>
+        <v>2.53059926586711</v>
       </c>
       <c r="I34" t="n">
-        <v>7.280604657022569</v>
+        <v>8.5595320771865</v>
       </c>
       <c r="J34" t="n">
-        <v>17.11646385056363</v>
+        <v>20.12318046078579</v>
       </c>
       <c r="K34" t="n">
-        <v>28.1276080764052</v>
+        <v>33.06856709384626</v>
       </c>
       <c r="L34" t="n">
-        <v>35.99365434127784</v>
+        <v>42.31638077095163</v>
       </c>
       <c r="M34" t="n">
-        <v>37.95026182014514</v>
+        <v>44.6166903285752</v>
       </c>
       <c r="N34" t="n">
-        <v>37.04788941706801</v>
+        <v>43.55580515576796</v>
       </c>
       <c r="O34" t="n">
-        <v>34.21972225132615</v>
+        <v>40.23083577270124</v>
       </c>
       <c r="P34" t="n">
-        <v>29.28088402570381</v>
+        <v>34.42443009519018</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.27256635303351</v>
+        <v>23.83369104079953</v>
       </c>
       <c r="R34" t="n">
-        <v>10.88569245273084</v>
+        <v>12.79789771879214</v>
       </c>
       <c r="S34" t="n">
-        <v>4.219141211460779</v>
+        <v>4.960285064076937</v>
       </c>
       <c r="T34" t="n">
-        <v>1.034426901088454</v>
+        <v>1.216136661510778</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01320544980112922</v>
+        <v>0.01552514887035038</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5397202263778096</v>
+        <v>0.6345286975486575</v>
       </c>
       <c r="H35" t="n">
-        <v>5.527409768391744</v>
+        <v>6.498367023770189</v>
       </c>
       <c r="I35" t="n">
-        <v>20.80756402743053</v>
+        <v>24.46266761224464</v>
       </c>
       <c r="J35" t="n">
-        <v>45.80807956353366</v>
+        <v>53.85483004357042</v>
       </c>
       <c r="K35" t="n">
-        <v>68.65443674610636</v>
+        <v>80.7144298108051</v>
       </c>
       <c r="L35" t="n">
-        <v>85.17189962411626</v>
+        <v>100.1333874384098</v>
       </c>
       <c r="M35" t="n">
-        <v>94.77014919996263</v>
+        <v>111.4176871634408</v>
       </c>
       <c r="N35" t="n">
-        <v>96.30362929315859</v>
+        <v>113.2205418253509</v>
       </c>
       <c r="O35" t="n">
-        <v>90.93678629211423</v>
+        <v>106.9109470891014</v>
       </c>
       <c r="P35" t="n">
-        <v>77.61244320341206</v>
+        <v>91.24601986836895</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.28371259625673</v>
+        <v>68.52196088740763</v>
       </c>
       <c r="R35" t="n">
-        <v>33.90320067020512</v>
+        <v>39.85871329739089</v>
       </c>
       <c r="S35" t="n">
-        <v>12.29887465858435</v>
+        <v>14.45932269539005</v>
       </c>
       <c r="T35" t="n">
-        <v>2.362625290968863</v>
+        <v>2.77764937351925</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04317761811022476</v>
+        <v>0.05076229580389258</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2887757796133726</v>
+        <v>0.339502783787473</v>
       </c>
       <c r="H36" t="n">
-        <v>2.788966082055468</v>
+        <v>3.278882148684279</v>
       </c>
       <c r="I36" t="n">
-        <v>9.942499429670944</v>
+        <v>11.6890212839108</v>
       </c>
       <c r="J36" t="n">
-        <v>27.28297837127921</v>
+        <v>32.07556783142963</v>
       </c>
       <c r="K36" t="n">
-        <v>46.63095560537518</v>
+        <v>54.82225434519032</v>
       </c>
       <c r="L36" t="n">
-        <v>62.70107442877198</v>
+        <v>73.71528645350374</v>
       </c>
       <c r="M36" t="n">
-        <v>73.16919643975672</v>
+        <v>86.02226236579961</v>
       </c>
       <c r="N36" t="n">
-        <v>75.105767347778</v>
+        <v>88.29901568339193</v>
       </c>
       <c r="O36" t="n">
-        <v>68.70710402055536</v>
+        <v>80.77634873736423</v>
       </c>
       <c r="P36" t="n">
-        <v>55.14350830178517</v>
+        <v>64.83014123043421</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.86197495555964</v>
+        <v>43.33723254101147</v>
       </c>
       <c r="R36" t="n">
-        <v>17.92942954476712</v>
+        <v>21.0789535407696</v>
       </c>
       <c r="S36" t="n">
-        <v>5.363883450274702</v>
+        <v>6.306115304122575</v>
       </c>
       <c r="T36" t="n">
-        <v>1.163969041511795</v>
+        <v>1.368434466231086</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01899840655351136</v>
+        <v>0.02233570945970218</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2420999130207021</v>
+        <v>0.2846277292897565</v>
       </c>
       <c r="H37" t="n">
-        <v>2.152488317584062</v>
+        <v>2.53059926586711</v>
       </c>
       <c r="I37" t="n">
-        <v>7.280604657022569</v>
+        <v>8.5595320771865</v>
       </c>
       <c r="J37" t="n">
-        <v>17.11646385056363</v>
+        <v>20.12318046078579</v>
       </c>
       <c r="K37" t="n">
-        <v>28.1276080764052</v>
+        <v>33.06856709384626</v>
       </c>
       <c r="L37" t="n">
-        <v>35.99365434127784</v>
+        <v>42.31638077095163</v>
       </c>
       <c r="M37" t="n">
-        <v>37.95026182014514</v>
+        <v>44.6166903285752</v>
       </c>
       <c r="N37" t="n">
-        <v>37.04788941706801</v>
+        <v>43.55580515576796</v>
       </c>
       <c r="O37" t="n">
-        <v>34.21972225132615</v>
+        <v>40.23083577270124</v>
       </c>
       <c r="P37" t="n">
-        <v>29.28088402570381</v>
+        <v>34.42443009519018</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.27256635303351</v>
+        <v>23.83369104079953</v>
       </c>
       <c r="R37" t="n">
-        <v>10.88569245273084</v>
+        <v>12.79789771879214</v>
       </c>
       <c r="S37" t="n">
-        <v>4.219141211460779</v>
+        <v>4.960285064076937</v>
       </c>
       <c r="T37" t="n">
-        <v>1.034426901088454</v>
+        <v>1.216136661510778</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01320544980112922</v>
+        <v>0.01552514887035038</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5397202263778096</v>
+        <v>0.6345286975486575</v>
       </c>
       <c r="H38" t="n">
-        <v>5.527409768391744</v>
+        <v>6.498367023770189</v>
       </c>
       <c r="I38" t="n">
-        <v>20.80756402743053</v>
+        <v>24.46266761224464</v>
       </c>
       <c r="J38" t="n">
-        <v>45.80807956353366</v>
+        <v>53.85483004357042</v>
       </c>
       <c r="K38" t="n">
-        <v>68.65443674610636</v>
+        <v>80.7144298108051</v>
       </c>
       <c r="L38" t="n">
-        <v>85.17189962411626</v>
+        <v>100.1333874384098</v>
       </c>
       <c r="M38" t="n">
-        <v>94.77014919996263</v>
+        <v>111.4176871634408</v>
       </c>
       <c r="N38" t="n">
-        <v>96.30362929315859</v>
+        <v>113.2205418253509</v>
       </c>
       <c r="O38" t="n">
-        <v>90.93678629211423</v>
+        <v>106.9109470891014</v>
       </c>
       <c r="P38" t="n">
-        <v>77.61244320341206</v>
+        <v>91.24601986836895</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.28371259625673</v>
+        <v>68.52196088740763</v>
       </c>
       <c r="R38" t="n">
-        <v>33.90320067020512</v>
+        <v>39.85871329739089</v>
       </c>
       <c r="S38" t="n">
-        <v>12.29887465858435</v>
+        <v>14.45932269539005</v>
       </c>
       <c r="T38" t="n">
-        <v>2.362625290968863</v>
+        <v>2.77764937351925</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04317761811022476</v>
+        <v>0.05076229580389258</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2887757796133726</v>
+        <v>0.339502783787473</v>
       </c>
       <c r="H39" t="n">
-        <v>2.788966082055468</v>
+        <v>3.278882148684279</v>
       </c>
       <c r="I39" t="n">
-        <v>9.942499429670944</v>
+        <v>11.6890212839108</v>
       </c>
       <c r="J39" t="n">
-        <v>27.28297837127921</v>
+        <v>32.07556783142963</v>
       </c>
       <c r="K39" t="n">
-        <v>46.63095560537518</v>
+        <v>54.82225434519032</v>
       </c>
       <c r="L39" t="n">
-        <v>62.70107442877198</v>
+        <v>73.71528645350374</v>
       </c>
       <c r="M39" t="n">
-        <v>73.16919643975672</v>
+        <v>86.02226236579961</v>
       </c>
       <c r="N39" t="n">
-        <v>75.105767347778</v>
+        <v>88.29901568339193</v>
       </c>
       <c r="O39" t="n">
-        <v>68.70710402055536</v>
+        <v>80.77634873736423</v>
       </c>
       <c r="P39" t="n">
-        <v>55.14350830178517</v>
+        <v>64.83014123043421</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.86197495555964</v>
+        <v>43.33723254101147</v>
       </c>
       <c r="R39" t="n">
-        <v>17.92942954476712</v>
+        <v>21.0789535407696</v>
       </c>
       <c r="S39" t="n">
-        <v>5.363883450274702</v>
+        <v>6.306115304122575</v>
       </c>
       <c r="T39" t="n">
-        <v>1.163969041511795</v>
+        <v>1.368434466231086</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01899840655351136</v>
+        <v>0.02233570945970218</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2420999130207021</v>
+        <v>0.2846277292897565</v>
       </c>
       <c r="H40" t="n">
-        <v>2.152488317584062</v>
+        <v>2.53059926586711</v>
       </c>
       <c r="I40" t="n">
-        <v>7.280604657022569</v>
+        <v>8.5595320771865</v>
       </c>
       <c r="J40" t="n">
-        <v>17.11646385056363</v>
+        <v>20.12318046078579</v>
       </c>
       <c r="K40" t="n">
-        <v>28.1276080764052</v>
+        <v>33.06856709384626</v>
       </c>
       <c r="L40" t="n">
-        <v>35.99365434127784</v>
+        <v>42.31638077095163</v>
       </c>
       <c r="M40" t="n">
-        <v>37.95026182014514</v>
+        <v>44.6166903285752</v>
       </c>
       <c r="N40" t="n">
-        <v>37.04788941706801</v>
+        <v>43.55580515576796</v>
       </c>
       <c r="O40" t="n">
-        <v>34.21972225132615</v>
+        <v>40.23083577270124</v>
       </c>
       <c r="P40" t="n">
-        <v>29.28088402570381</v>
+        <v>34.42443009519018</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.27256635303351</v>
+        <v>23.83369104079953</v>
       </c>
       <c r="R40" t="n">
-        <v>10.88569245273084</v>
+        <v>12.79789771879214</v>
       </c>
       <c r="S40" t="n">
-        <v>4.219141211460779</v>
+        <v>4.960285064076937</v>
       </c>
       <c r="T40" t="n">
-        <v>1.034426901088454</v>
+        <v>1.216136661510778</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01320544980112922</v>
+        <v>0.01552514887035038</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5397202263778096</v>
+        <v>0.6345286975486575</v>
       </c>
       <c r="H41" t="n">
-        <v>5.527409768391744</v>
+        <v>6.498367023770189</v>
       </c>
       <c r="I41" t="n">
-        <v>20.80756402743053</v>
+        <v>24.46266761224464</v>
       </c>
       <c r="J41" t="n">
-        <v>45.80807956353366</v>
+        <v>53.85483004357042</v>
       </c>
       <c r="K41" t="n">
-        <v>68.65443674610636</v>
+        <v>80.7144298108051</v>
       </c>
       <c r="L41" t="n">
-        <v>85.17189962411626</v>
+        <v>100.1333874384098</v>
       </c>
       <c r="M41" t="n">
-        <v>94.77014919996263</v>
+        <v>111.4176871634408</v>
       </c>
       <c r="N41" t="n">
-        <v>96.30362929315859</v>
+        <v>113.2205418253509</v>
       </c>
       <c r="O41" t="n">
-        <v>90.93678629211423</v>
+        <v>106.9109470891014</v>
       </c>
       <c r="P41" t="n">
-        <v>77.61244320341206</v>
+        <v>91.24601986836895</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.28371259625673</v>
+        <v>68.52196088740763</v>
       </c>
       <c r="R41" t="n">
-        <v>33.90320067020512</v>
+        <v>39.85871329739089</v>
       </c>
       <c r="S41" t="n">
-        <v>12.29887465858435</v>
+        <v>14.45932269539005</v>
       </c>
       <c r="T41" t="n">
-        <v>2.362625290968863</v>
+        <v>2.77764937351925</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04317761811022476</v>
+        <v>0.05076229580389258</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2887757796133726</v>
+        <v>0.339502783787473</v>
       </c>
       <c r="H42" t="n">
-        <v>2.788966082055468</v>
+        <v>3.278882148684279</v>
       </c>
       <c r="I42" t="n">
-        <v>9.942499429670944</v>
+        <v>11.6890212839108</v>
       </c>
       <c r="J42" t="n">
-        <v>27.28297837127921</v>
+        <v>32.07556783142963</v>
       </c>
       <c r="K42" t="n">
-        <v>46.63095560537518</v>
+        <v>54.82225434519032</v>
       </c>
       <c r="L42" t="n">
-        <v>62.70107442877198</v>
+        <v>73.71528645350374</v>
       </c>
       <c r="M42" t="n">
-        <v>73.16919643975672</v>
+        <v>86.02226236579961</v>
       </c>
       <c r="N42" t="n">
-        <v>75.105767347778</v>
+        <v>88.29901568339193</v>
       </c>
       <c r="O42" t="n">
-        <v>68.70710402055536</v>
+        <v>80.77634873736423</v>
       </c>
       <c r="P42" t="n">
-        <v>55.14350830178517</v>
+        <v>64.83014123043421</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.86197495555964</v>
+        <v>43.33723254101147</v>
       </c>
       <c r="R42" t="n">
-        <v>17.92942954476712</v>
+        <v>21.0789535407696</v>
       </c>
       <c r="S42" t="n">
-        <v>5.363883450274702</v>
+        <v>6.306115304122575</v>
       </c>
       <c r="T42" t="n">
-        <v>1.163969041511795</v>
+        <v>1.368434466231086</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01899840655351136</v>
+        <v>0.02233570945970218</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2420999130207021</v>
+        <v>0.2846277292897565</v>
       </c>
       <c r="H43" t="n">
-        <v>2.152488317584062</v>
+        <v>2.53059926586711</v>
       </c>
       <c r="I43" t="n">
-        <v>7.280604657022569</v>
+        <v>8.5595320771865</v>
       </c>
       <c r="J43" t="n">
-        <v>17.11646385056363</v>
+        <v>20.12318046078579</v>
       </c>
       <c r="K43" t="n">
-        <v>28.1276080764052</v>
+        <v>33.06856709384626</v>
       </c>
       <c r="L43" t="n">
-        <v>35.99365434127784</v>
+        <v>42.31638077095163</v>
       </c>
       <c r="M43" t="n">
-        <v>37.95026182014514</v>
+        <v>44.6166903285752</v>
       </c>
       <c r="N43" t="n">
-        <v>37.04788941706801</v>
+        <v>43.55580515576796</v>
       </c>
       <c r="O43" t="n">
-        <v>34.21972225132615</v>
+        <v>40.23083577270124</v>
       </c>
       <c r="P43" t="n">
-        <v>29.28088402570381</v>
+        <v>34.42443009519018</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.27256635303351</v>
+        <v>23.83369104079953</v>
       </c>
       <c r="R43" t="n">
-        <v>10.88569245273084</v>
+        <v>12.79789771879214</v>
       </c>
       <c r="S43" t="n">
-        <v>4.219141211460779</v>
+        <v>4.960285064076937</v>
       </c>
       <c r="T43" t="n">
-        <v>1.034426901088454</v>
+        <v>1.216136661510778</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01320544980112922</v>
+        <v>0.01552514887035038</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5397202263778096</v>
+        <v>0.6345286975486575</v>
       </c>
       <c r="H44" t="n">
-        <v>5.527409768391744</v>
+        <v>6.498367023770189</v>
       </c>
       <c r="I44" t="n">
-        <v>20.80756402743053</v>
+        <v>24.46266761224464</v>
       </c>
       <c r="J44" t="n">
-        <v>45.80807956353366</v>
+        <v>53.85483004357042</v>
       </c>
       <c r="K44" t="n">
-        <v>68.65443674610636</v>
+        <v>80.7144298108051</v>
       </c>
       <c r="L44" t="n">
-        <v>85.17189962411626</v>
+        <v>100.1333874384098</v>
       </c>
       <c r="M44" t="n">
-        <v>94.77014919996263</v>
+        <v>111.4176871634408</v>
       </c>
       <c r="N44" t="n">
-        <v>96.30362929315859</v>
+        <v>113.2205418253509</v>
       </c>
       <c r="O44" t="n">
-        <v>90.93678629211423</v>
+        <v>106.9109470891014</v>
       </c>
       <c r="P44" t="n">
-        <v>77.61244320341206</v>
+        <v>91.24601986836895</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.28371259625673</v>
+        <v>68.52196088740763</v>
       </c>
       <c r="R44" t="n">
-        <v>33.90320067020512</v>
+        <v>39.85871329739089</v>
       </c>
       <c r="S44" t="n">
-        <v>12.29887465858435</v>
+        <v>14.45932269539005</v>
       </c>
       <c r="T44" t="n">
-        <v>2.362625290968863</v>
+        <v>2.77764937351925</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04317761811022476</v>
+        <v>0.05076229580389258</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2887757796133726</v>
+        <v>0.339502783787473</v>
       </c>
       <c r="H45" t="n">
-        <v>2.788966082055468</v>
+        <v>3.278882148684279</v>
       </c>
       <c r="I45" t="n">
-        <v>9.942499429670944</v>
+        <v>11.6890212839108</v>
       </c>
       <c r="J45" t="n">
-        <v>27.28297837127921</v>
+        <v>32.07556783142963</v>
       </c>
       <c r="K45" t="n">
-        <v>46.63095560537518</v>
+        <v>54.82225434519032</v>
       </c>
       <c r="L45" t="n">
-        <v>62.70107442877198</v>
+        <v>73.71528645350374</v>
       </c>
       <c r="M45" t="n">
-        <v>73.16919643975672</v>
+        <v>86.02226236579961</v>
       </c>
       <c r="N45" t="n">
-        <v>75.105767347778</v>
+        <v>88.29901568339193</v>
       </c>
       <c r="O45" t="n">
-        <v>68.70710402055536</v>
+        <v>80.77634873736423</v>
       </c>
       <c r="P45" t="n">
-        <v>55.14350830178517</v>
+        <v>64.83014123043421</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.86197495555964</v>
+        <v>43.33723254101147</v>
       </c>
       <c r="R45" t="n">
-        <v>17.92942954476712</v>
+        <v>21.0789535407696</v>
       </c>
       <c r="S45" t="n">
-        <v>5.363883450274702</v>
+        <v>6.306115304122575</v>
       </c>
       <c r="T45" t="n">
-        <v>1.163969041511795</v>
+        <v>1.368434466231086</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01899840655351136</v>
+        <v>0.02233570945970218</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2420999130207021</v>
+        <v>0.2846277292897565</v>
       </c>
       <c r="H46" t="n">
-        <v>2.152488317584062</v>
+        <v>2.53059926586711</v>
       </c>
       <c r="I46" t="n">
-        <v>7.280604657022569</v>
+        <v>8.5595320771865</v>
       </c>
       <c r="J46" t="n">
-        <v>17.11646385056363</v>
+        <v>20.12318046078579</v>
       </c>
       <c r="K46" t="n">
-        <v>28.1276080764052</v>
+        <v>33.06856709384626</v>
       </c>
       <c r="L46" t="n">
-        <v>35.99365434127784</v>
+        <v>42.31638077095163</v>
       </c>
       <c r="M46" t="n">
-        <v>37.95026182014514</v>
+        <v>44.6166903285752</v>
       </c>
       <c r="N46" t="n">
-        <v>37.04788941706801</v>
+        <v>43.55580515576796</v>
       </c>
       <c r="O46" t="n">
-        <v>34.21972225132615</v>
+        <v>40.23083577270124</v>
       </c>
       <c r="P46" t="n">
-        <v>29.28088402570381</v>
+        <v>34.42443009519018</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.27256635303351</v>
+        <v>23.83369104079953</v>
       </c>
       <c r="R46" t="n">
-        <v>10.88569245273084</v>
+        <v>12.79789771879214</v>
       </c>
       <c r="S46" t="n">
-        <v>4.219141211460779</v>
+        <v>4.960285064076937</v>
       </c>
       <c r="T46" t="n">
-        <v>1.034426901088454</v>
+        <v>1.216136661510778</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01320544980112922</v>
+        <v>0.01552514887035038</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1908314.34594904</v>
+        <v>1872277.082306764</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11735561.5870001</v>
+        <v>11743148.41102517</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8349300.999220044</v>
+        <v>7062844.905222919</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6001326.919776329</v>
+        <v>6289796.957087271</v>
       </c>
     </row>
     <row r="11">
@@ -8692,28 +8692,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>139.3754212341753</v>
+        <v>159.4527159458298</v>
       </c>
       <c r="L11" t="n">
-        <v>36.91723437975128</v>
+        <v>13.09562141258699</v>
       </c>
       <c r="M11" t="n">
-        <v>118.9285460638318</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N11" t="n">
-        <v>116.1925217712398</v>
+        <v>144.3555428192615</v>
       </c>
       <c r="O11" t="n">
-        <v>123.1872643325851</v>
+        <v>2.335740934339029</v>
       </c>
       <c r="P11" t="n">
-        <v>139.9869758869004</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.714516593657862</v>
+        <v>170.8282104531398</v>
       </c>
       <c r="R11" t="n">
-        <v>30.65761212335729</v>
+        <v>38.19640662507562</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8847,22 +8847,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>103.0942751877798</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>25.3066578433338</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91723437975128</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K14" t="n">
-        <v>139.3754212341753</v>
+        <v>159.4527159458298</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M14" t="n">
-        <v>118.9285460638318</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N14" t="n">
-        <v>116.1925217712398</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>123.1872643325851</v>
+        <v>149.7808064989778</v>
       </c>
       <c r="P14" t="n">
-        <v>139.9869758869004</v>
+        <v>15.23888329793499</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.714516593657862</v>
+        <v>131.2343979815955</v>
       </c>
       <c r="R14" t="n">
-        <v>30.65761212335729</v>
+        <v>38.19640662507562</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>65.00661740861244</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9169,25 +9169,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>135.6330275315772</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>118.9285460638318</v>
+        <v>62.05659244275319</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>123.1872643325851</v>
+        <v>149.7808064989778</v>
       </c>
       <c r="P17" t="n">
-        <v>94.26907481154076</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>170.8282104531398</v>
       </c>
       <c r="R17" t="n">
-        <v>10.34976871702593</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>139.3754212341755</v>
+        <v>159.4527159458298</v>
       </c>
       <c r="L20" t="n">
-        <v>135.6330275315774</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>73.8221996411972</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>144.3555428192615</v>
       </c>
       <c r="O20" t="n">
-        <v>123.1872643325853</v>
+        <v>8.675264437845371</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>10.34976871702601</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>104.1703251893443</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9570,7 +9570,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>94.96401935784738</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -9646,22 +9646,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.500456583146615</v>
       </c>
       <c r="N23" t="n">
-        <v>66.92072612149471</v>
+        <v>144.3555428192615</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>139.9869758869006</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.7837289870419</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>10.34976871702601</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9722,16 +9722,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>83.17538752246585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>77.50936201593855</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>81.91259242974633</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>92.56829551028666</v>
+        <v>103.0942751877798</v>
       </c>
       <c r="M25" t="n">
-        <v>94.30909361902987</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>84.12973930946524</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>98.22570267914156</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>111.8664719378983</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>127.1910744831159</v>
+        <v>121.4167101713635</v>
       </c>
       <c r="K26" t="n">
-        <v>130.0890933528357</v>
+        <v>159.4527159458298</v>
       </c>
       <c r="L26" t="n">
-        <v>25.62262288781861</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M26" t="n">
-        <v>118.928546063832</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N26" t="n">
-        <v>116.19252177124</v>
+        <v>144.3555428192615</v>
       </c>
       <c r="O26" t="n">
-        <v>123.1872643325853</v>
+        <v>4.711594105593903</v>
       </c>
       <c r="P26" t="n">
-        <v>139.9869758869006</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.77332434328306</v>
+        <v>25.75899805975596</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>40.5722597963305</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.59014577943555</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,22 +10038,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>92.56829551028666</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>94.30909361902987</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>84.12973930946524</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>98.22570267914156</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>111.8664719378983</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.66090594488752</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>127.1910744831159</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>130.0890933528357</v>
+        <v>14.38350355244591</v>
       </c>
       <c r="L29" t="n">
-        <v>135.6330275315774</v>
+        <v>92.2332632945831</v>
       </c>
       <c r="M29" t="n">
-        <v>118.928546063832</v>
+        <v>1.573903995912332</v>
       </c>
       <c r="N29" t="n">
-        <v>116.19252177124</v>
+        <v>144.3555428192615</v>
       </c>
       <c r="O29" t="n">
-        <v>123.1872643325853</v>
+        <v>4.711594105593903</v>
       </c>
       <c r="P29" t="n">
-        <v>29.97657124314179</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.77332434328305</v>
+        <v>25.75899805975596</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,31 +10190,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>96.65593532945439</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>83.17538752246585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>77.50936201593855</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>65.00661740861244</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>81.91259242974633</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>85.27042670726945</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R30" t="n">
-        <v>14.59014577943555</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10275,22 +10275,22 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>92.56829551028665</v>
+        <v>103.0942751877798</v>
       </c>
       <c r="M31" t="n">
-        <v>94.30909361902985</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N31" t="n">
-        <v>84.12973930946524</v>
+        <v>94.96401935784738</v>
       </c>
       <c r="O31" t="n">
-        <v>98.22570267914155</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.66090594488751</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K32" t="n">
-        <v>41.57918879380414</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>123.1872643325853</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>139.9869758869006</v>
+        <v>19.60088739630731</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>8.316651711809619</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10512,19 +10512,19 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>92.56829551028665</v>
+        <v>103.0942751877798</v>
       </c>
       <c r="M34" t="n">
-        <v>94.30909361902985</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>84.12973930946524</v>
+        <v>94.96401935784738</v>
       </c>
       <c r="O34" t="n">
-        <v>98.22570267914155</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P34" t="n">
-        <v>103.3035739539574</v>
+        <v>111.8664719378983</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10588,28 +10588,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>79.72073757242283</v>
+        <v>159.4527159458298</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>126.8130474421048</v>
       </c>
       <c r="N35" t="n">
-        <v>116.19252177124</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>139.9869758869006</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>8.316651711809619</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10749,16 +10749,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>92.56829551028665</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>94.30909361902985</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>84.12973930946524</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>98.22570267914155</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>41.57918879380439</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10837,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>123.1872643325853</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>139.9869758869006</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>8.316651711809619</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>96.65593532945439</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>83.17538752246585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>77.50936201593855</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>65.00661740861244</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>81.91259242974633</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>30.42287720366339</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,19 +10986,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>92.56829551028665</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>94.30909361902985</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>84.12973930946524</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>98.22570267914155</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>103.3035739539574</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>127.1910744831159</v>
+        <v>42.84584982775092</v>
       </c>
       <c r="K41" t="n">
-        <v>61.66780966667118</v>
+        <v>159.4527159458298</v>
       </c>
       <c r="L41" t="n">
-        <v>135.6330275315774</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M41" t="n">
-        <v>118.928546063832</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N41" t="n">
-        <v>116.19252177124</v>
+        <v>80.96599664522559</v>
       </c>
       <c r="O41" t="n">
-        <v>119.8088236398588</v>
+        <v>149.7808064989778</v>
       </c>
       <c r="P41" t="n">
-        <v>139.9869758869006</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.7837289870419</v>
+        <v>170.8282104531398</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>17.05444726773279</v>
+        <v>4.99935595372957</v>
       </c>
       <c r="K42" t="n">
-        <v>5.311573061664397</v>
+        <v>96.65593532945439</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>81.91259242974633</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>18.93692997750578</v>
+        <v>9.683119200924423</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>32.10249691774656</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>29.16462941110605</v>
+        <v>14.13644388940334</v>
       </c>
       <c r="K43" t="n">
-        <v>18.23707950918485</v>
+        <v>6.428991598250029</v>
       </c>
       <c r="L43" t="n">
-        <v>92.56829551028665</v>
+        <v>103.0942751877798</v>
       </c>
       <c r="M43" t="n">
-        <v>94.30909361902985</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N43" t="n">
-        <v>84.12973930946524</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>98.22570267914155</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P43" t="n">
-        <v>25.59596238645316</v>
+        <v>14.12513834680404</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.96369902114205</v>
+        <v>35.85848371207999</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>127.1910744831159</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K44" t="n">
-        <v>139.3754212341755</v>
+        <v>61.71138235473557</v>
       </c>
       <c r="L44" t="n">
-        <v>135.6330275315774</v>
+        <v>62.79935338613153</v>
       </c>
       <c r="M44" t="n">
-        <v>118.928546063832</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N44" t="n">
-        <v>64.60699513480755</v>
+        <v>144.3555428192615</v>
       </c>
       <c r="O44" t="n">
-        <v>123.1872643325853</v>
+        <v>149.7808064989778</v>
       </c>
       <c r="P44" t="n">
-        <v>62.27936431939632</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.7837289870419</v>
+        <v>73.08687686204561</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>17.05444726773279</v>
+        <v>4.99935595372957</v>
       </c>
       <c r="K45" t="n">
-        <v>5.311573061664397</v>
+        <v>96.65593532945439</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>83.17538752246585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>77.50936201593855</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>65.00661740861244</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>85.27042670726945</v>
       </c>
       <c r="Q45" t="n">
-        <v>18.93692997750578</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>32.10249691774656</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>14.13644388940334</v>
       </c>
       <c r="K46" t="n">
-        <v>95.94469107668912</v>
+        <v>104.1703251893443</v>
       </c>
       <c r="L46" t="n">
-        <v>92.56829551028665</v>
+        <v>61.61451528162225</v>
       </c>
       <c r="M46" t="n">
-        <v>94.30909361902985</v>
+        <v>7.665929746598572</v>
       </c>
       <c r="N46" t="n">
-        <v>84.12973930946524</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>98.22570267914155</v>
+        <v>10.49158029176892</v>
       </c>
       <c r="P46" t="n">
-        <v>103.3035739539574</v>
+        <v>14.12513834680404</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.96369902114205</v>
+        <v>35.85848371207999</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>237.6646292700967</v>
+        <v>235.2887760988418</v>
       </c>
       <c r="C11" t="n">
-        <v>220.2036793776237</v>
+        <v>217.8278262063688</v>
       </c>
       <c r="D11" t="n">
-        <v>209.6138292272991</v>
+        <v>207.2379760560442</v>
       </c>
       <c r="E11" t="n">
-        <v>236.8611576788779</v>
+        <v>234.485304507623</v>
       </c>
       <c r="F11" t="n">
-        <v>261.8068333483276</v>
+        <v>259.4309801770727</v>
       </c>
       <c r="G11" t="n">
-        <v>269.5989964242025</v>
+        <v>267.3809789670021</v>
       </c>
       <c r="H11" t="n">
-        <v>187.9072226986131</v>
+        <v>187.1478045339184</v>
       </c>
       <c r="I11" t="n">
-        <v>40.94400956477735</v>
+        <v>44.65311775960689</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.49153449747139</v>
+        <v>50.71236266023243</v>
       </c>
       <c r="T11" t="n">
-        <v>75.24898779722822</v>
+        <v>73.56406046424672</v>
       </c>
       <c r="U11" t="n">
-        <v>106.2256782186487</v>
+        <v>103.8624519045182</v>
       </c>
       <c r="V11" t="n">
-        <v>182.683046076751</v>
+        <v>180.3071929054962</v>
       </c>
       <c r="W11" t="n">
-        <v>204.1717563240291</v>
+        <v>201.7959031527743</v>
       </c>
       <c r="X11" t="n">
-        <v>224.6618882850852</v>
+        <v>222.2860351138303</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.1687262626697</v>
+        <v>238.7928730914148</v>
       </c>
     </row>
     <row r="12">
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.46397125648346</v>
+        <v>19.08811808522859</v>
       </c>
       <c r="C12" t="n">
-        <v>27.63928659493186</v>
+        <v>25.26343342367699</v>
       </c>
       <c r="D12" t="n">
-        <v>2.375853171254874</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>12.57586806201707</v>
+        <v>10.20001489076219</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>20.30784340633136</v>
+        <v>19.50060362605649</v>
       </c>
       <c r="T12" t="n">
-        <v>53.72708183520664</v>
+        <v>51.69161962175829</v>
       </c>
       <c r="U12" t="n">
-        <v>80.84983397813124</v>
+        <v>78.47953669846189</v>
       </c>
       <c r="V12" t="n">
-        <v>87.73137475604139</v>
+        <v>85.35552158478652</v>
       </c>
       <c r="W12" t="n">
-        <v>106.6257707675357</v>
+        <v>104.2499175962809</v>
       </c>
       <c r="X12" t="n">
-        <v>60.7037728100936</v>
+        <v>58.32791963883872</v>
       </c>
       <c r="Y12" t="n">
-        <v>60.61348338392048</v>
+        <v>58.23763021266561</v>
       </c>
     </row>
     <row r="13">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.76276778855342</v>
+        <v>32.38691461729854</v>
       </c>
       <c r="C13" t="n">
-        <v>22.17760870524396</v>
+        <v>19.80175553398908</v>
       </c>
       <c r="D13" t="n">
-        <v>3.546260624828477</v>
+        <v>1.170407453573603</v>
       </c>
       <c r="E13" t="n">
-        <v>1.364750253185292</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3518356295473666</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>22.63713923578512</v>
+        <v>20.33208573216655</v>
       </c>
       <c r="H13" t="n">
-        <v>14.62736084818858</v>
+        <v>12.88098108555474</v>
       </c>
       <c r="I13" t="n">
-        <v>1.821730456687892</v>
+        <v>1.575016381259559</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.42628126499344</v>
+        <v>20.23383860400403</v>
       </c>
       <c r="S13" t="n">
-        <v>73.98710057951143</v>
+        <v>72.84509252515483</v>
       </c>
       <c r="T13" t="n">
-        <v>81.66024037338684</v>
+        <v>79.58689487294166</v>
       </c>
       <c r="U13" t="n">
-        <v>141.2342918142367</v>
+        <v>138.8623004430347</v>
       </c>
       <c r="V13" t="n">
-        <v>107.0684309304441</v>
+        <v>104.6925777591892</v>
       </c>
       <c r="W13" t="n">
-        <v>141.4537859432071</v>
+        <v>139.0779327719522</v>
       </c>
       <c r="X13" t="n">
-        <v>80.64044299565327</v>
+        <v>78.2645898243984</v>
       </c>
       <c r="Y13" t="n">
-        <v>73.51544095871091</v>
+        <v>71.13958778745604</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>237.6646292700967</v>
+        <v>235.2887760988418</v>
       </c>
       <c r="C14" t="n">
-        <v>220.2036793776237</v>
+        <v>217.8278262063688</v>
       </c>
       <c r="D14" t="n">
-        <v>209.6138292272991</v>
+        <v>207.2379760560442</v>
       </c>
       <c r="E14" t="n">
-        <v>236.8611576788779</v>
+        <v>234.485304507623</v>
       </c>
       <c r="F14" t="n">
-        <v>261.8068333483276</v>
+        <v>259.4309801770727</v>
       </c>
       <c r="G14" t="n">
-        <v>269.5989964242025</v>
+        <v>267.3809789670021</v>
       </c>
       <c r="H14" t="n">
-        <v>187.9072226986131</v>
+        <v>187.1478045339184</v>
       </c>
       <c r="I14" t="n">
-        <v>40.94400956477735</v>
+        <v>44.65311775960689</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.49153449747139</v>
+        <v>50.71236266023243</v>
       </c>
       <c r="T14" t="n">
-        <v>75.24898779722822</v>
+        <v>73.56406046424672</v>
       </c>
       <c r="U14" t="n">
-        <v>106.2256782186487</v>
+        <v>103.8624519045182</v>
       </c>
       <c r="V14" t="n">
-        <v>182.683046076751</v>
+        <v>180.3071929054962</v>
       </c>
       <c r="W14" t="n">
-        <v>204.1717563240291</v>
+        <v>201.7959031527743</v>
       </c>
       <c r="X14" t="n">
-        <v>224.6618882850852</v>
+        <v>222.2860351138303</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.1687262626697</v>
+        <v>238.7928730914148</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.46397125648346</v>
+        <v>19.08811808522859</v>
       </c>
       <c r="C15" t="n">
-        <v>27.63928659493186</v>
+        <v>25.26343342367699</v>
       </c>
       <c r="D15" t="n">
-        <v>2.375853171254874</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>12.57586806201707</v>
+        <v>10.20001489076219</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>20.30784340633136</v>
+        <v>19.50060362605649</v>
       </c>
       <c r="T15" t="n">
-        <v>53.72708183520664</v>
+        <v>51.69161962175829</v>
       </c>
       <c r="U15" t="n">
-        <v>80.84983397813124</v>
+        <v>78.47953669846189</v>
       </c>
       <c r="V15" t="n">
-        <v>87.73137475604139</v>
+        <v>85.35552158478652</v>
       </c>
       <c r="W15" t="n">
-        <v>106.6257707675357</v>
+        <v>104.2499175962809</v>
       </c>
       <c r="X15" t="n">
-        <v>60.7037728100936</v>
+        <v>58.32791963883872</v>
       </c>
       <c r="Y15" t="n">
-        <v>60.61348338392048</v>
+        <v>58.23763021266561</v>
       </c>
     </row>
     <row r="16">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.76276778855342</v>
+        <v>32.38691461729854</v>
       </c>
       <c r="C16" t="n">
-        <v>22.17760870524396</v>
+        <v>19.80175553398908</v>
       </c>
       <c r="D16" t="n">
-        <v>3.546260624828477</v>
+        <v>1.170407453573603</v>
       </c>
       <c r="E16" t="n">
-        <v>1.364750253185292</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3518356295473666</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>22.63713923578512</v>
+        <v>20.33208573216655</v>
       </c>
       <c r="H16" t="n">
-        <v>14.62736084818858</v>
+        <v>12.88098108555474</v>
       </c>
       <c r="I16" t="n">
-        <v>1.821730456687892</v>
+        <v>1.575016381259559</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.42628126499344</v>
+        <v>20.23383860400403</v>
       </c>
       <c r="S16" t="n">
-        <v>73.98710057951143</v>
+        <v>72.84509252515483</v>
       </c>
       <c r="T16" t="n">
-        <v>81.66024037338684</v>
+        <v>79.58689487294166</v>
       </c>
       <c r="U16" t="n">
-        <v>141.2342918142367</v>
+        <v>138.8623004430347</v>
       </c>
       <c r="V16" t="n">
-        <v>107.0684309304441</v>
+        <v>104.6925777591892</v>
       </c>
       <c r="W16" t="n">
-        <v>141.4537859432071</v>
+        <v>139.0779327719522</v>
       </c>
       <c r="X16" t="n">
-        <v>80.64044299565327</v>
+        <v>78.2645898243984</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.51544095871091</v>
+        <v>71.13958778745604</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>217.3567858637653</v>
+        <v>190.6356583392349</v>
       </c>
       <c r="C17" t="n">
-        <v>199.8958359712923</v>
+        <v>173.1747084467619</v>
       </c>
       <c r="D17" t="n">
-        <v>189.3059858209677</v>
+        <v>162.5848582964373</v>
       </c>
       <c r="E17" t="n">
-        <v>216.5533142725465</v>
+        <v>189.8321867480161</v>
       </c>
       <c r="F17" t="n">
-        <v>241.4989899419962</v>
+        <v>214.7778624174658</v>
       </c>
       <c r="G17" t="n">
-        <v>249.2911530178712</v>
+        <v>222.7278612073952</v>
       </c>
       <c r="H17" t="n">
-        <v>167.5993792922817</v>
+        <v>142.4946867743115</v>
       </c>
       <c r="I17" t="n">
-        <v>20.636166158446</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.18369109114005</v>
+        <v>6.059244900625544</v>
       </c>
       <c r="T17" t="n">
-        <v>54.94114439089685</v>
+        <v>28.91094270463984</v>
       </c>
       <c r="U17" t="n">
-        <v>85.91783481231735</v>
+        <v>59.20933414491131</v>
       </c>
       <c r="V17" t="n">
-        <v>162.3752026704197</v>
+        <v>135.6540751458893</v>
       </c>
       <c r="W17" t="n">
-        <v>183.8639129176978</v>
+        <v>157.1427853931674</v>
       </c>
       <c r="X17" t="n">
-        <v>204.3540448787538</v>
+        <v>177.6329173542234</v>
       </c>
       <c r="Y17" t="n">
-        <v>220.8608828563383</v>
+        <v>194.1397553318079</v>
       </c>
     </row>
     <row r="18">
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.156127850152103</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>7.331443188600502</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>33.41923842887527</v>
+        <v>7.038501862151406</v>
       </c>
       <c r="U18" t="n">
-        <v>60.54199057179989</v>
+        <v>33.826418938855</v>
       </c>
       <c r="V18" t="n">
-        <v>67.42353134971003</v>
+        <v>40.70240382517963</v>
       </c>
       <c r="W18" t="n">
-        <v>86.31792736120437</v>
+        <v>59.59679983667397</v>
       </c>
       <c r="X18" t="n">
-        <v>40.39592940376224</v>
+        <v>13.67480187923184</v>
       </c>
       <c r="Y18" t="n">
-        <v>40.30563997758912</v>
+        <v>13.58451245305872</v>
       </c>
     </row>
     <row r="19">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14.45492438222206</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.869765298912597</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.32929582945377</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>53.67925717318008</v>
+        <v>28.19197476554794</v>
       </c>
       <c r="T19" t="n">
-        <v>61.35239696705548</v>
+        <v>34.93377711333477</v>
       </c>
       <c r="U19" t="n">
-        <v>120.9264484079053</v>
+        <v>94.20918268342777</v>
       </c>
       <c r="V19" t="n">
-        <v>86.76058752411276</v>
+        <v>60.03945999958236</v>
       </c>
       <c r="W19" t="n">
-        <v>121.1459425368758</v>
+        <v>94.42481501234536</v>
       </c>
       <c r="X19" t="n">
-        <v>60.33259958932192</v>
+        <v>33.61147206479151</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.20759755237955</v>
+        <v>26.48647002784915</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>217.3567858637653</v>
+        <v>190.6356583392349</v>
       </c>
       <c r="C20" t="n">
-        <v>199.8958359712923</v>
+        <v>173.1747084467619</v>
       </c>
       <c r="D20" t="n">
-        <v>189.3059858209677</v>
+        <v>162.5848582964373</v>
       </c>
       <c r="E20" t="n">
-        <v>216.5533142725465</v>
+        <v>189.8321867480161</v>
       </c>
       <c r="F20" t="n">
-        <v>241.4989899419962</v>
+        <v>214.7778624174658</v>
       </c>
       <c r="G20" t="n">
-        <v>249.2911530178712</v>
+        <v>222.7278612073952</v>
       </c>
       <c r="H20" t="n">
-        <v>167.5993792922817</v>
+        <v>142.4946867743115</v>
       </c>
       <c r="I20" t="n">
-        <v>20.63616615844603</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.18369109114005</v>
+        <v>6.059244900625544</v>
       </c>
       <c r="T20" t="n">
-        <v>54.94114439089688</v>
+        <v>28.91094270463984</v>
       </c>
       <c r="U20" t="n">
-        <v>85.91783481231735</v>
+        <v>59.20933414491131</v>
       </c>
       <c r="V20" t="n">
-        <v>162.3752026704197</v>
+        <v>135.6540751458893</v>
       </c>
       <c r="W20" t="n">
-        <v>183.8639129176978</v>
+        <v>157.1427853931674</v>
       </c>
       <c r="X20" t="n">
-        <v>204.3540448787538</v>
+        <v>177.6329173542234</v>
       </c>
       <c r="Y20" t="n">
-        <v>220.8608828563383</v>
+        <v>194.1397553318079</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.156127850152103</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>7.331443188600502</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24101,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>33.41923842887527</v>
+        <v>7.038501862151406</v>
       </c>
       <c r="U21" t="n">
-        <v>60.54199057179989</v>
+        <v>33.826418938855</v>
       </c>
       <c r="V21" t="n">
-        <v>67.42353134971003</v>
+        <v>40.70240382517963</v>
       </c>
       <c r="W21" t="n">
-        <v>86.31792736120437</v>
+        <v>59.59679983667397</v>
       </c>
       <c r="X21" t="n">
-        <v>40.39592940376224</v>
+        <v>13.67480187923184</v>
       </c>
       <c r="Y21" t="n">
-        <v>40.30563997758912</v>
+        <v>13.58451245305872</v>
       </c>
     </row>
     <row r="22">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14.45492438222206</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.869765298912597</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.32929582945377</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>53.67925717318008</v>
+        <v>28.19197476554794</v>
       </c>
       <c r="T22" t="n">
-        <v>61.35239696705548</v>
+        <v>34.93377711333477</v>
       </c>
       <c r="U22" t="n">
-        <v>120.9264484079053</v>
+        <v>94.20918268342777</v>
       </c>
       <c r="V22" t="n">
-        <v>86.76058752411276</v>
+        <v>60.03945999958236</v>
       </c>
       <c r="W22" t="n">
-        <v>121.1459425368758</v>
+        <v>94.42481501234536</v>
       </c>
       <c r="X22" t="n">
-        <v>60.33259958932192</v>
+        <v>33.61147206479151</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.20759755237955</v>
+        <v>26.48647002784915</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>217.3567858637653</v>
+        <v>190.6356583392349</v>
       </c>
       <c r="C23" t="n">
-        <v>199.8958359712923</v>
+        <v>173.1747084467619</v>
       </c>
       <c r="D23" t="n">
-        <v>189.3059858209677</v>
+        <v>162.5848582964373</v>
       </c>
       <c r="E23" t="n">
-        <v>216.5533142725465</v>
+        <v>189.8321867480161</v>
       </c>
       <c r="F23" t="n">
-        <v>241.4989899419962</v>
+        <v>214.7778624174658</v>
       </c>
       <c r="G23" t="n">
-        <v>249.2911530178712</v>
+        <v>222.7278612073952</v>
       </c>
       <c r="H23" t="n">
-        <v>167.5993792922817</v>
+        <v>142.4946867743115</v>
       </c>
       <c r="I23" t="n">
-        <v>20.63616615844603</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.18369109114005</v>
+        <v>6.059244900625544</v>
       </c>
       <c r="T23" t="n">
-        <v>54.94114439089688</v>
+        <v>28.91094270463984</v>
       </c>
       <c r="U23" t="n">
-        <v>85.91783481231735</v>
+        <v>59.20933414491131</v>
       </c>
       <c r="V23" t="n">
-        <v>162.3752026704197</v>
+        <v>135.6540751458893</v>
       </c>
       <c r="W23" t="n">
-        <v>183.8639129176978</v>
+        <v>157.1427853931674</v>
       </c>
       <c r="X23" t="n">
-        <v>204.3540448787538</v>
+        <v>177.6329173542234</v>
       </c>
       <c r="Y23" t="n">
-        <v>220.8608828563383</v>
+        <v>194.1397553318079</v>
       </c>
     </row>
     <row r="24">
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.156127850152103</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>7.331443188600502</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24338,22 +24338,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>33.41923842887527</v>
+        <v>7.038501862151406</v>
       </c>
       <c r="U24" t="n">
-        <v>60.54199057179989</v>
+        <v>33.826418938855</v>
       </c>
       <c r="V24" t="n">
-        <v>67.42353134971003</v>
+        <v>40.70240382517963</v>
       </c>
       <c r="W24" t="n">
-        <v>86.31792736120437</v>
+        <v>59.59679983667397</v>
       </c>
       <c r="X24" t="n">
-        <v>40.39592940376224</v>
+        <v>13.67480187923184</v>
       </c>
       <c r="Y24" t="n">
-        <v>40.30563997758912</v>
+        <v>13.58451245305872</v>
       </c>
     </row>
     <row r="25">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14.45492438222206</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.869765298912597</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.32929582945377</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>53.67925717318008</v>
+        <v>28.19197476554794</v>
       </c>
       <c r="T25" t="n">
-        <v>61.35239696705548</v>
+        <v>34.93377711333477</v>
       </c>
       <c r="U25" t="n">
-        <v>120.9264484079053</v>
+        <v>94.20918268342777</v>
       </c>
       <c r="V25" t="n">
-        <v>86.76058752411276</v>
+        <v>60.03945999958236</v>
       </c>
       <c r="W25" t="n">
-        <v>121.1459425368758</v>
+        <v>94.42481501234536</v>
       </c>
       <c r="X25" t="n">
-        <v>60.33259958932192</v>
+        <v>33.61147206479151</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.20759755237955</v>
+        <v>26.48647002784915</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>272.7234370197218</v>
+        <v>237.6646292700967</v>
       </c>
       <c r="C26" t="n">
-        <v>255.2624871272487</v>
+        <v>220.2036793776237</v>
       </c>
       <c r="D26" t="n">
-        <v>244.6726369769241</v>
+        <v>209.6138292272991</v>
       </c>
       <c r="E26" t="n">
-        <v>271.919965428503</v>
+        <v>236.8611576788779</v>
       </c>
       <c r="F26" t="n">
-        <v>296.8656410979526</v>
+        <v>261.8068333483276</v>
       </c>
       <c r="G26" t="n">
-        <v>304.6578041738276</v>
+        <v>269.756832138257</v>
       </c>
       <c r="H26" t="n">
-        <v>222.9660304482381</v>
+        <v>189.5236577051732</v>
       </c>
       <c r="I26" t="n">
-        <v>76.00281731440246</v>
+        <v>47.02897093086176</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.55034224709648</v>
+        <v>53.0882158314873</v>
       </c>
       <c r="T26" t="n">
-        <v>110.3077955468533</v>
+        <v>75.9399136355016</v>
       </c>
       <c r="U26" t="n">
-        <v>141.2844859682738</v>
+        <v>106.2383050757731</v>
       </c>
       <c r="V26" t="n">
-        <v>217.7418538263761</v>
+        <v>182.683046076751</v>
       </c>
       <c r="W26" t="n">
-        <v>239.2305640736542</v>
+        <v>204.1717563240291</v>
       </c>
       <c r="X26" t="n">
-        <v>259.7206960347102</v>
+        <v>224.6618882850852</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.2275340122948</v>
+        <v>241.1687262626697</v>
       </c>
     </row>
     <row r="27">
@@ -24521,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>56.52277900610854</v>
+        <v>21.46397125648346</v>
       </c>
       <c r="C27" t="n">
-        <v>62.69809434455694</v>
+        <v>27.63928659493186</v>
       </c>
       <c r="D27" t="n">
-        <v>37.43466092087995</v>
+        <v>2.375853171254874</v>
       </c>
       <c r="E27" t="n">
-        <v>47.63467581164214</v>
+        <v>12.57586806201707</v>
       </c>
       <c r="F27" t="n">
-        <v>35.05880774962507</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>26.99360973566435</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>55.36665115595643</v>
+        <v>21.87645679731136</v>
       </c>
       <c r="T27" t="n">
-        <v>88.78588958483171</v>
+        <v>54.06747279301317</v>
       </c>
       <c r="U27" t="n">
-        <v>115.9086417277563</v>
+        <v>80.85538986971676</v>
       </c>
       <c r="V27" t="n">
-        <v>122.7901825056665</v>
+        <v>87.73137475604139</v>
       </c>
       <c r="W27" t="n">
-        <v>141.6845785171608</v>
+        <v>106.6257707675357</v>
       </c>
       <c r="X27" t="n">
-        <v>95.76258055971867</v>
+        <v>60.7037728100936</v>
       </c>
       <c r="Y27" t="n">
-        <v>95.67229113354556</v>
+        <v>60.61348338392048</v>
       </c>
     </row>
     <row r="28">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69.82157553817849</v>
+        <v>34.76276778855342</v>
       </c>
       <c r="C28" t="n">
-        <v>57.23641645486903</v>
+        <v>22.17760870524396</v>
       </c>
       <c r="D28" t="n">
-        <v>38.60506837445355</v>
+        <v>3.546260624828477</v>
       </c>
       <c r="E28" t="n">
-        <v>36.42355800281037</v>
+        <v>1.364750253185292</v>
       </c>
       <c r="F28" t="n">
-        <v>35.41064337917244</v>
+        <v>0.3518356295473666</v>
       </c>
       <c r="G28" t="n">
-        <v>57.6959469854102</v>
+        <v>22.70793890342142</v>
       </c>
       <c r="H28" t="n">
-        <v>49.68616859781368</v>
+        <v>15.25683425680961</v>
       </c>
       <c r="I28" t="n">
-        <v>36.88053820631298</v>
+        <v>3.950869552514433</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.48508901461854</v>
+        <v>22.60969177525891</v>
       </c>
       <c r="S28" t="n">
-        <v>109.0459083291365</v>
+        <v>75.2209456964097</v>
       </c>
       <c r="T28" t="n">
-        <v>116.7190481230119</v>
+        <v>81.96274804419653</v>
       </c>
       <c r="U28" t="n">
-        <v>176.2930995638617</v>
+        <v>141.2381536142895</v>
       </c>
       <c r="V28" t="n">
-        <v>142.1272386800692</v>
+        <v>107.0684309304441</v>
       </c>
       <c r="W28" t="n">
-        <v>176.5125936928322</v>
+        <v>141.4537859432071</v>
       </c>
       <c r="X28" t="n">
-        <v>115.6992507452783</v>
+        <v>80.64044299565327</v>
       </c>
       <c r="Y28" t="n">
-        <v>108.574248708336</v>
+        <v>73.51544095871091</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>272.7234370197218</v>
+        <v>237.6646292700967</v>
       </c>
       <c r="C29" t="n">
-        <v>255.2624871272487</v>
+        <v>220.2036793776237</v>
       </c>
       <c r="D29" t="n">
-        <v>244.6726369769241</v>
+        <v>209.6138292272991</v>
       </c>
       <c r="E29" t="n">
-        <v>271.919965428503</v>
+        <v>236.8611576788779</v>
       </c>
       <c r="F29" t="n">
-        <v>296.8656410979526</v>
+        <v>261.8068333483276</v>
       </c>
       <c r="G29" t="n">
-        <v>304.6578041738276</v>
+        <v>269.756832138257</v>
       </c>
       <c r="H29" t="n">
-        <v>222.9660304482381</v>
+        <v>189.5236577051732</v>
       </c>
       <c r="I29" t="n">
-        <v>76.00281731440246</v>
+        <v>47.02897093086176</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.55034224709648</v>
+        <v>53.0882158314873</v>
       </c>
       <c r="T29" t="n">
-        <v>110.3077955468533</v>
+        <v>75.9399136355016</v>
       </c>
       <c r="U29" t="n">
-        <v>141.2844859682738</v>
+        <v>106.2383050757731</v>
       </c>
       <c r="V29" t="n">
-        <v>217.7418538263761</v>
+        <v>182.683046076751</v>
       </c>
       <c r="W29" t="n">
-        <v>239.2305640736542</v>
+        <v>204.1717563240291</v>
       </c>
       <c r="X29" t="n">
-        <v>259.7206960347102</v>
+        <v>224.6618882850852</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.2275340122948</v>
+        <v>241.1687262626697</v>
       </c>
     </row>
     <row r="30">
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>56.52277900610854</v>
+        <v>21.46397125648346</v>
       </c>
       <c r="C30" t="n">
-        <v>62.69809434455694</v>
+        <v>27.63928659493186</v>
       </c>
       <c r="D30" t="n">
-        <v>37.43466092087995</v>
+        <v>2.375853171254874</v>
       </c>
       <c r="E30" t="n">
-        <v>47.63467581164214</v>
+        <v>12.57586806201707</v>
       </c>
       <c r="F30" t="n">
-        <v>35.05880774962507</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>26.99360973566435</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>55.36665115595643</v>
+        <v>21.87645679731136</v>
       </c>
       <c r="T30" t="n">
-        <v>88.78588958483171</v>
+        <v>54.06747279301317</v>
       </c>
       <c r="U30" t="n">
-        <v>115.9086417277563</v>
+        <v>80.85538986971676</v>
       </c>
       <c r="V30" t="n">
-        <v>122.7901825056665</v>
+        <v>87.73137475604139</v>
       </c>
       <c r="W30" t="n">
-        <v>141.6845785171608</v>
+        <v>106.6257707675357</v>
       </c>
       <c r="X30" t="n">
-        <v>95.76258055971867</v>
+        <v>60.7037728100936</v>
       </c>
       <c r="Y30" t="n">
-        <v>95.67229113354556</v>
+        <v>60.61348338392048</v>
       </c>
     </row>
     <row r="31">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>69.82157553817849</v>
+        <v>34.76276778855342</v>
       </c>
       <c r="C31" t="n">
-        <v>57.23641645486903</v>
+        <v>22.17760870524396</v>
       </c>
       <c r="D31" t="n">
-        <v>38.60506837445355</v>
+        <v>3.546260624828477</v>
       </c>
       <c r="E31" t="n">
-        <v>36.42355800281037</v>
+        <v>1.364750253185292</v>
       </c>
       <c r="F31" t="n">
-        <v>35.41064337917244</v>
+        <v>0.3518356295473666</v>
       </c>
       <c r="G31" t="n">
-        <v>57.6959469854102</v>
+        <v>22.70793890342142</v>
       </c>
       <c r="H31" t="n">
-        <v>49.68616859781368</v>
+        <v>15.25683425680961</v>
       </c>
       <c r="I31" t="n">
-        <v>36.88053820631298</v>
+        <v>3.950869552514433</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.48508901461854</v>
+        <v>22.60969177525891</v>
       </c>
       <c r="S31" t="n">
-        <v>109.0459083291365</v>
+        <v>75.2209456964097</v>
       </c>
       <c r="T31" t="n">
-        <v>116.7190481230119</v>
+        <v>81.96274804419653</v>
       </c>
       <c r="U31" t="n">
-        <v>176.2930995638617</v>
+        <v>141.2381536142895</v>
       </c>
       <c r="V31" t="n">
-        <v>142.1272386800692</v>
+        <v>107.0684309304441</v>
       </c>
       <c r="W31" t="n">
-        <v>176.5125936928322</v>
+        <v>141.4537859432071</v>
       </c>
       <c r="X31" t="n">
-        <v>115.6992507452783</v>
+        <v>80.64044299565327</v>
       </c>
       <c r="Y31" t="n">
-        <v>108.574248708336</v>
+        <v>73.51544095871091</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>215.323668858549</v>
+        <v>184.5764134386094</v>
       </c>
       <c r="C32" t="n">
-        <v>197.8627189660759</v>
+        <v>167.1154635461364</v>
       </c>
       <c r="D32" t="n">
-        <v>187.2728688157513</v>
+        <v>156.5256133958118</v>
       </c>
       <c r="E32" t="n">
-        <v>214.5201972673302</v>
+        <v>183.7729418473906</v>
       </c>
       <c r="F32" t="n">
-        <v>239.4658729367798</v>
+        <v>208.7186175168403</v>
       </c>
       <c r="G32" t="n">
-        <v>247.2580360126548</v>
+        <v>216.6686163067696</v>
       </c>
       <c r="H32" t="n">
-        <v>165.5662622870653</v>
+        <v>136.4354418736859</v>
       </c>
       <c r="I32" t="n">
-        <v>18.60304915322965</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>27.15057408592367</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>52.9080273856805</v>
+        <v>22.85169780401429</v>
       </c>
       <c r="U32" t="n">
-        <v>83.88471780710097</v>
+        <v>53.15008924428577</v>
       </c>
       <c r="V32" t="n">
-        <v>160.3420856652033</v>
+        <v>129.5948302452637</v>
       </c>
       <c r="W32" t="n">
-        <v>181.8307959124814</v>
+        <v>151.0835404925418</v>
       </c>
       <c r="X32" t="n">
-        <v>202.3209278735374</v>
+        <v>171.5736724535979</v>
       </c>
       <c r="Y32" t="n">
-        <v>218.827765851122</v>
+        <v>188.0805104311824</v>
       </c>
     </row>
     <row r="33">
@@ -24998,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>5.29832618338412</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25049,22 +25049,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>31.38612142365889</v>
+        <v>0.9792569615258628</v>
       </c>
       <c r="U33" t="n">
-        <v>58.5088735665835</v>
+        <v>27.76717403822946</v>
       </c>
       <c r="V33" t="n">
-        <v>65.39041434449365</v>
+        <v>34.64315892455409</v>
       </c>
       <c r="W33" t="n">
-        <v>84.28481035598799</v>
+        <v>53.53755493604842</v>
       </c>
       <c r="X33" t="n">
-        <v>38.36281239854586</v>
+        <v>7.615556978606293</v>
       </c>
       <c r="Y33" t="n">
-        <v>38.27252297237274</v>
+        <v>7.525267552433178</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12.42180737700568</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2961788242373871</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>51.64614016796369</v>
+        <v>22.1327298649224</v>
       </c>
       <c r="T34" t="n">
-        <v>59.3192799618391</v>
+        <v>28.87453221270923</v>
       </c>
       <c r="U34" t="n">
-        <v>118.8933314026889</v>
+        <v>88.14993778280223</v>
       </c>
       <c r="V34" t="n">
-        <v>84.72747051889638</v>
+        <v>53.98021509895682</v>
       </c>
       <c r="W34" t="n">
-        <v>119.1128255316594</v>
+        <v>88.36557011171982</v>
       </c>
       <c r="X34" t="n">
-        <v>58.29948258410553</v>
+        <v>27.55222716416597</v>
       </c>
       <c r="Y34" t="n">
-        <v>51.17448054716317</v>
+        <v>20.42722512722361</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>215.323668858549</v>
+        <v>184.5764134386094</v>
       </c>
       <c r="C35" t="n">
-        <v>197.8627189660759</v>
+        <v>167.1154635461364</v>
       </c>
       <c r="D35" t="n">
-        <v>187.2728688157513</v>
+        <v>156.5256133958118</v>
       </c>
       <c r="E35" t="n">
-        <v>214.5201972673302</v>
+        <v>183.7729418473906</v>
       </c>
       <c r="F35" t="n">
-        <v>239.4658729367798</v>
+        <v>208.7186175168403</v>
       </c>
       <c r="G35" t="n">
-        <v>247.2580360126548</v>
+        <v>216.6686163067696</v>
       </c>
       <c r="H35" t="n">
-        <v>165.5662622870653</v>
+        <v>136.4354418736859</v>
       </c>
       <c r="I35" t="n">
-        <v>18.60304915322965</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>27.15057408592367</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>52.9080273856805</v>
+        <v>22.85169780401429</v>
       </c>
       <c r="U35" t="n">
-        <v>83.88471780710097</v>
+        <v>53.15008924428577</v>
       </c>
       <c r="V35" t="n">
-        <v>160.3420856652033</v>
+        <v>129.5948302452637</v>
       </c>
       <c r="W35" t="n">
-        <v>181.8307959124814</v>
+        <v>151.0835404925418</v>
       </c>
       <c r="X35" t="n">
-        <v>202.3209278735374</v>
+        <v>171.5736724535979</v>
       </c>
       <c r="Y35" t="n">
-        <v>218.827765851122</v>
+        <v>188.0805104311824</v>
       </c>
     </row>
     <row r="36">
@@ -25235,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>5.29832618338412</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25286,22 +25286,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>31.38612142365889</v>
+        <v>0.9792569615258628</v>
       </c>
       <c r="U36" t="n">
-        <v>58.5088735665835</v>
+        <v>27.76717403822946</v>
       </c>
       <c r="V36" t="n">
-        <v>65.39041434449365</v>
+        <v>34.64315892455409</v>
       </c>
       <c r="W36" t="n">
-        <v>84.28481035598799</v>
+        <v>53.53755493604842</v>
       </c>
       <c r="X36" t="n">
-        <v>38.36281239854586</v>
+        <v>7.615556978606293</v>
       </c>
       <c r="Y36" t="n">
-        <v>38.27252297237274</v>
+        <v>7.525267552433178</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>12.42180737700568</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2961788242373871</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>51.64614016796369</v>
+        <v>22.1327298649224</v>
       </c>
       <c r="T37" t="n">
-        <v>59.3192799618391</v>
+        <v>28.87453221270923</v>
       </c>
       <c r="U37" t="n">
-        <v>118.8933314026889</v>
+        <v>88.14993778280223</v>
       </c>
       <c r="V37" t="n">
-        <v>84.72747051889638</v>
+        <v>53.98021509895682</v>
       </c>
       <c r="W37" t="n">
-        <v>119.1128255316594</v>
+        <v>88.36557011171982</v>
       </c>
       <c r="X37" t="n">
-        <v>58.29948258410553</v>
+        <v>27.55222716416597</v>
       </c>
       <c r="Y37" t="n">
-        <v>51.17448054716317</v>
+        <v>20.42722512722361</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>215.323668858549</v>
+        <v>184.5764134386094</v>
       </c>
       <c r="C38" t="n">
-        <v>197.8627189660759</v>
+        <v>167.1154635461364</v>
       </c>
       <c r="D38" t="n">
-        <v>187.2728688157513</v>
+        <v>156.5256133958118</v>
       </c>
       <c r="E38" t="n">
-        <v>214.5201972673302</v>
+        <v>183.7729418473906</v>
       </c>
       <c r="F38" t="n">
-        <v>239.4658729367798</v>
+        <v>208.7186175168403</v>
       </c>
       <c r="G38" t="n">
-        <v>247.2580360126548</v>
+        <v>216.6686163067696</v>
       </c>
       <c r="H38" t="n">
-        <v>165.5662622870653</v>
+        <v>136.4354418736859</v>
       </c>
       <c r="I38" t="n">
-        <v>18.60304915322965</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>27.15057408592367</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>52.9080273856805</v>
+        <v>22.85169780401429</v>
       </c>
       <c r="U38" t="n">
-        <v>83.88471780710097</v>
+        <v>53.15008924428577</v>
       </c>
       <c r="V38" t="n">
-        <v>160.3420856652033</v>
+        <v>129.5948302452637</v>
       </c>
       <c r="W38" t="n">
-        <v>181.8307959124814</v>
+        <v>151.0835404925418</v>
       </c>
       <c r="X38" t="n">
-        <v>202.3209278735374</v>
+        <v>171.5736724535979</v>
       </c>
       <c r="Y38" t="n">
-        <v>218.827765851122</v>
+        <v>188.0805104311824</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>5.29832618338412</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25523,22 +25523,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>31.38612142365889</v>
+        <v>0.9792569615258628</v>
       </c>
       <c r="U39" t="n">
-        <v>58.5088735665835</v>
+        <v>27.76717403822946</v>
       </c>
       <c r="V39" t="n">
-        <v>65.39041434449365</v>
+        <v>34.64315892455409</v>
       </c>
       <c r="W39" t="n">
-        <v>84.28481035598799</v>
+        <v>53.53755493604842</v>
       </c>
       <c r="X39" t="n">
-        <v>38.36281239854586</v>
+        <v>7.615556978606293</v>
       </c>
       <c r="Y39" t="n">
-        <v>38.27252297237274</v>
+        <v>7.525267552433178</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12.42180737700568</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2961788242373871</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>51.64614016796369</v>
+        <v>22.1327298649224</v>
       </c>
       <c r="T40" t="n">
-        <v>59.3192799618391</v>
+        <v>28.87453221270923</v>
       </c>
       <c r="U40" t="n">
-        <v>118.8933314026889</v>
+        <v>88.14993778280223</v>
       </c>
       <c r="V40" t="n">
-        <v>84.72747051889638</v>
+        <v>53.98021509895682</v>
       </c>
       <c r="W40" t="n">
-        <v>119.1128255316594</v>
+        <v>88.36557011171982</v>
       </c>
       <c r="X40" t="n">
-        <v>58.29948258410553</v>
+        <v>27.55222716416597</v>
       </c>
       <c r="Y40" t="n">
-        <v>51.17448054716317</v>
+        <v>20.42722512722361</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>305.0262300959763</v>
+        <v>284.9925080723864</v>
       </c>
       <c r="C41" t="n">
-        <v>287.5652802035033</v>
+        <v>267.5315581799133</v>
       </c>
       <c r="D41" t="n">
-        <v>276.9754300531787</v>
+        <v>256.9417080295888</v>
       </c>
       <c r="E41" t="n">
-        <v>304.2227585047575</v>
+        <v>284.1890364811676</v>
       </c>
       <c r="F41" t="n">
-        <v>329.1684341742072</v>
+        <v>309.1347121506172</v>
       </c>
       <c r="G41" t="n">
-        <v>336.9605972500821</v>
+        <v>317.0847109405466</v>
       </c>
       <c r="H41" t="n">
-        <v>255.2688235244927</v>
+        <v>236.8515365074629</v>
       </c>
       <c r="I41" t="n">
-        <v>108.305610390657</v>
+        <v>94.35684973315142</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>32.30279307625452</v>
+        <v>22.18371872563772</v>
       </c>
       <c r="S41" t="n">
-        <v>116.853135323351</v>
+        <v>100.416094633777</v>
       </c>
       <c r="T41" t="n">
-        <v>142.6105886231078</v>
+        <v>123.2677924377913</v>
       </c>
       <c r="U41" t="n">
-        <v>173.5872790445283</v>
+        <v>153.5661838780627</v>
       </c>
       <c r="V41" t="n">
-        <v>250.0446469026306</v>
+        <v>230.0109248790407</v>
       </c>
       <c r="W41" t="n">
-        <v>271.5333571499087</v>
+        <v>251.4996351263188</v>
       </c>
       <c r="X41" t="n">
-        <v>292.0234891109648</v>
+        <v>271.9897670873748</v>
       </c>
       <c r="Y41" t="n">
-        <v>308.5303270885493</v>
+        <v>288.4966050649593</v>
       </c>
     </row>
     <row r="42">
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>88.82557208236307</v>
+        <v>68.79185005877312</v>
       </c>
       <c r="C42" t="n">
-        <v>95.00088742081147</v>
+        <v>74.96716539722152</v>
       </c>
       <c r="D42" t="n">
-        <v>69.73745399713448</v>
+        <v>49.70373197354454</v>
       </c>
       <c r="E42" t="n">
-        <v>79.93746888789667</v>
+        <v>59.90374686430673</v>
       </c>
       <c r="F42" t="n">
-        <v>67.36160082587961</v>
+        <v>47.32787880228966</v>
       </c>
       <c r="G42" t="n">
-        <v>59.29640281191888</v>
+        <v>39.34713034042892</v>
       </c>
       <c r="H42" t="n">
-        <v>31.24895052030791</v>
+        <v>12.03083338147309</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.371269044369257</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>87.66944423221096</v>
+        <v>69.20433559960102</v>
       </c>
       <c r="T42" t="n">
-        <v>121.0886826610862</v>
+        <v>101.3953515953028</v>
       </c>
       <c r="U42" t="n">
-        <v>148.2114348040108</v>
+        <v>128.1832686720064</v>
       </c>
       <c r="V42" t="n">
-        <v>155.092975581921</v>
+        <v>135.0592535583311</v>
       </c>
       <c r="W42" t="n">
-        <v>173.9873715934153</v>
+        <v>153.9536495698254</v>
       </c>
       <c r="X42" t="n">
-        <v>128.0653736359732</v>
+        <v>108.0316516123833</v>
       </c>
       <c r="Y42" t="n">
-        <v>127.9750842098001</v>
+        <v>107.9413621862101</v>
       </c>
     </row>
     <row r="43">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>102.124368614433</v>
+        <v>82.09064659084308</v>
       </c>
       <c r="C43" t="n">
-        <v>89.53920953112356</v>
+        <v>69.50548750753362</v>
       </c>
       <c r="D43" t="n">
-        <v>70.90786145070808</v>
+        <v>50.87413942711814</v>
       </c>
       <c r="E43" t="n">
-        <v>68.7263510790649</v>
+        <v>48.69262905547495</v>
       </c>
       <c r="F43" t="n">
-        <v>67.71343645542697</v>
+        <v>47.67971443183703</v>
       </c>
       <c r="G43" t="n">
-        <v>89.99874006166473</v>
+        <v>70.03581770571108</v>
       </c>
       <c r="H43" t="n">
-        <v>81.98896167406821</v>
+        <v>62.58471305909927</v>
       </c>
       <c r="I43" t="n">
-        <v>69.18333128256751</v>
+        <v>51.27874835480409</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>86.78788209087307</v>
+        <v>69.93757057754857</v>
       </c>
       <c r="S43" t="n">
-        <v>141.348701405391</v>
+        <v>122.5488244986994</v>
       </c>
       <c r="T43" t="n">
-        <v>149.0218411992664</v>
+        <v>129.2906268464862</v>
       </c>
       <c r="U43" t="n">
-        <v>208.5958926401163</v>
+        <v>188.5660324165792</v>
       </c>
       <c r="V43" t="n">
-        <v>174.4300317563237</v>
+        <v>154.3963097327338</v>
       </c>
       <c r="W43" t="n">
-        <v>208.8153867690867</v>
+        <v>188.7816647454968</v>
       </c>
       <c r="X43" t="n">
-        <v>148.0020438215329</v>
+        <v>127.9683217979429</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.8770417845905</v>
+        <v>120.8433197610006</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>305.0262300959763</v>
+        <v>284.9925080723864</v>
       </c>
       <c r="C44" t="n">
-        <v>287.5652802035033</v>
+        <v>267.5315581799133</v>
       </c>
       <c r="D44" t="n">
-        <v>276.9754300531787</v>
+        <v>256.9417080295888</v>
       </c>
       <c r="E44" t="n">
-        <v>304.2227585047575</v>
+        <v>284.1890364811676</v>
       </c>
       <c r="F44" t="n">
-        <v>329.1684341742072</v>
+        <v>309.1347121506172</v>
       </c>
       <c r="G44" t="n">
-        <v>336.9605972500821</v>
+        <v>317.0847109405466</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2688235244927</v>
+        <v>236.8515365074629</v>
       </c>
       <c r="I44" t="n">
-        <v>108.305610390657</v>
+        <v>94.35684973315142</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>32.30279307625452</v>
+        <v>22.18371872563772</v>
       </c>
       <c r="S44" t="n">
-        <v>116.853135323351</v>
+        <v>100.416094633777</v>
       </c>
       <c r="T44" t="n">
-        <v>142.6105886231078</v>
+        <v>123.2677924377913</v>
       </c>
       <c r="U44" t="n">
-        <v>173.5872790445283</v>
+        <v>153.5661838780627</v>
       </c>
       <c r="V44" t="n">
-        <v>250.0446469026306</v>
+        <v>230.0109248790407</v>
       </c>
       <c r="W44" t="n">
-        <v>271.5333571499087</v>
+        <v>251.4996351263188</v>
       </c>
       <c r="X44" t="n">
-        <v>292.0234891109648</v>
+        <v>271.9897670873748</v>
       </c>
       <c r="Y44" t="n">
-        <v>308.5303270885493</v>
+        <v>288.4966050649593</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>88.82557208236307</v>
+        <v>68.79185005877312</v>
       </c>
       <c r="C45" t="n">
-        <v>95.00088742081147</v>
+        <v>74.96716539722152</v>
       </c>
       <c r="D45" t="n">
-        <v>69.73745399713448</v>
+        <v>49.70373197354454</v>
       </c>
       <c r="E45" t="n">
-        <v>79.93746888789667</v>
+        <v>59.90374686430673</v>
       </c>
       <c r="F45" t="n">
-        <v>67.36160082587961</v>
+        <v>47.32787880228966</v>
       </c>
       <c r="G45" t="n">
-        <v>59.29640281191888</v>
+        <v>39.34713034042892</v>
       </c>
       <c r="H45" t="n">
-        <v>31.24895052030791</v>
+        <v>12.03083338147309</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.371269044369257</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>87.66944423221096</v>
+        <v>69.20433559960102</v>
       </c>
       <c r="T45" t="n">
-        <v>121.0886826610862</v>
+        <v>101.3953515953028</v>
       </c>
       <c r="U45" t="n">
-        <v>148.2114348040108</v>
+        <v>128.1832686720064</v>
       </c>
       <c r="V45" t="n">
-        <v>155.092975581921</v>
+        <v>135.0592535583311</v>
       </c>
       <c r="W45" t="n">
-        <v>173.9873715934153</v>
+        <v>153.9536495698254</v>
       </c>
       <c r="X45" t="n">
-        <v>128.0653736359732</v>
+        <v>108.0316516123833</v>
       </c>
       <c r="Y45" t="n">
-        <v>127.9750842098001</v>
+        <v>107.9413621862101</v>
       </c>
     </row>
     <row r="46">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>102.124368614433</v>
+        <v>82.09064659084308</v>
       </c>
       <c r="C46" t="n">
-        <v>89.53920953112356</v>
+        <v>69.50548750753362</v>
       </c>
       <c r="D46" t="n">
-        <v>70.90786145070808</v>
+        <v>50.87413942711814</v>
       </c>
       <c r="E46" t="n">
-        <v>68.7263510790649</v>
+        <v>48.69262905547495</v>
       </c>
       <c r="F46" t="n">
-        <v>67.71343645542697</v>
+        <v>47.67971443183703</v>
       </c>
       <c r="G46" t="n">
-        <v>89.99874006166473</v>
+        <v>70.03581770571108</v>
       </c>
       <c r="H46" t="n">
-        <v>81.98896167406821</v>
+        <v>62.58471305909927</v>
       </c>
       <c r="I46" t="n">
-        <v>69.18333128256751</v>
+        <v>51.27874835480409</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>86.78788209087307</v>
+        <v>69.93757057754857</v>
       </c>
       <c r="S46" t="n">
-        <v>141.348701405391</v>
+        <v>122.5488244986994</v>
       </c>
       <c r="T46" t="n">
-        <v>149.0218411992664</v>
+        <v>129.2906268464862</v>
       </c>
       <c r="U46" t="n">
-        <v>208.5958926401163</v>
+        <v>188.5660324165792</v>
       </c>
       <c r="V46" t="n">
-        <v>174.4300317563237</v>
+        <v>154.3963097327338</v>
       </c>
       <c r="W46" t="n">
-        <v>208.8153867690867</v>
+        <v>188.7816647454968</v>
       </c>
       <c r="X46" t="n">
-        <v>148.0020438215329</v>
+        <v>127.9683217979429</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.8770417845905</v>
+        <v>120.8433197610006</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>483460.844093447</v>
+        <v>499355.5022306617</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>483460.844093447</v>
+        <v>499355.5022306617</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>502732.8742310798</v>
+        <v>532156.7540624789</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>502732.8742310798</v>
+        <v>532156.7540624789</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>502732.8742310798</v>
+        <v>532156.7540624789</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>438998.8953535791</v>
+        <v>496700.296338203</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>438998.8953535791</v>
+        <v>496700.296338203</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>504249.5793047868</v>
+        <v>534810.3397742589</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>504249.5793047868</v>
+        <v>534810.3397742589</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>504249.5793047869</v>
+        <v>534810.3397742589</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>391948.1418378446</v>
+        <v>433259.7443011073</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>391948.1418378446</v>
+        <v>433259.7443011072</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>778312.5217811862</v>
       </c>
       <c r="C2" t="n">
-        <v>778312.5217811862</v>
+        <v>778312.5217811865</v>
       </c>
       <c r="D2" t="n">
         <v>778312.5217811865</v>
       </c>
       <c r="E2" t="n">
-        <v>531930.3287780063</v>
+        <v>535306.6359797292</v>
       </c>
       <c r="F2" t="n">
-        <v>531930.3287780061</v>
+        <v>535306.6359797295</v>
       </c>
       <c r="G2" t="n">
-        <v>568497.9099683563</v>
+        <v>609328.9787441619</v>
       </c>
       <c r="H2" t="n">
-        <v>568497.909968356</v>
+        <v>609328.978744162</v>
       </c>
       <c r="I2" t="n">
-        <v>568497.9099683561</v>
+        <v>609328.9787441619</v>
       </c>
       <c r="J2" t="n">
-        <v>461340.3421665317</v>
+        <v>530761.5022140649</v>
       </c>
       <c r="K2" t="n">
-        <v>461340.3421665317</v>
+        <v>530761.5022140649</v>
       </c>
       <c r="L2" t="n">
-        <v>571883.7273462536</v>
+        <v>618175.2339292794</v>
       </c>
       <c r="M2" t="n">
-        <v>571883.7273462537</v>
+        <v>618175.2339292794</v>
       </c>
       <c r="N2" t="n">
-        <v>571883.7273462538</v>
+        <v>618175.2339292794</v>
       </c>
       <c r="O2" t="n">
-        <v>392243.5108429767</v>
+        <v>433188.8384149268</v>
       </c>
       <c r="P2" t="n">
-        <v>392243.5108429767</v>
+        <v>433188.8384149266</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>242863.7068898826</v>
+        <v>213221.4749899866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16246.27472506509</v>
+        <v>35722.49420768551</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>71762.04898994188</v>
+        <v>80332.87570702157</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>62166.08925400332</v>
+        <v>78193.06687287535</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>267626.5212482426</v>
+        <v>284479.2772552031</v>
       </c>
       <c r="F4" t="n">
-        <v>267626.5212482426</v>
+        <v>284479.2772552031</v>
       </c>
       <c r="G4" t="n">
-        <v>288596.825657342</v>
+        <v>326389.7639762447</v>
       </c>
       <c r="H4" t="n">
-        <v>288596.825657342</v>
+        <v>326389.7639762447</v>
       </c>
       <c r="I4" t="n">
-        <v>288596.825657342</v>
+        <v>326389.7639762446</v>
       </c>
       <c r="J4" t="n">
-        <v>226515.5815559416</v>
+        <v>281850.2484942122</v>
       </c>
       <c r="K4" t="n">
-        <v>226515.5815559416</v>
+        <v>281850.2484942121</v>
       </c>
       <c r="L4" t="n">
-        <v>290515.2509856166</v>
+        <v>331288.5075512023</v>
       </c>
       <c r="M4" t="n">
-        <v>290515.2509856166</v>
+        <v>331288.5075512023</v>
       </c>
       <c r="N4" t="n">
-        <v>290515.2509856166</v>
+        <v>331288.5075512023</v>
       </c>
       <c r="O4" t="n">
-        <v>185967.9957158582</v>
+        <v>224852.7620236616</v>
       </c>
       <c r="P4" t="n">
-        <v>185967.9957158583</v>
+        <v>224852.7620236616</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>15636.71411133138</v>
+        <v>14980.54609319681</v>
       </c>
       <c r="F5" t="n">
-        <v>15636.71411133138</v>
+        <v>14980.54609319681</v>
       </c>
       <c r="G5" t="n">
-        <v>17343.97419865825</v>
+        <v>18734.4890501292</v>
       </c>
       <c r="H5" t="n">
-        <v>17343.97419865824</v>
+        <v>18734.4890501292</v>
       </c>
       <c r="I5" t="n">
-        <v>17343.97419865824</v>
+        <v>18734.4890501292</v>
       </c>
       <c r="J5" t="n">
-        <v>12689.35520262814</v>
+        <v>14780.81049294258</v>
       </c>
       <c r="K5" t="n">
-        <v>12689.35520262814</v>
+        <v>14780.81049294258</v>
       </c>
       <c r="L5" t="n">
-        <v>17514.89631216978</v>
+        <v>19243.88370967989</v>
       </c>
       <c r="M5" t="n">
-        <v>17514.89631216978</v>
+        <v>19243.88370967989</v>
       </c>
       <c r="N5" t="n">
-        <v>17514.89631216978</v>
+        <v>19243.88370967989</v>
       </c>
       <c r="O5" t="n">
-        <v>9973.691691500502</v>
+        <v>10802.00304991289</v>
       </c>
       <c r="P5" t="n">
-        <v>9973.691691500502</v>
+        <v>10802.00304991289</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277068.961849455</v>
+        <v>277024.8260707739</v>
       </c>
       <c r="C6" t="n">
-        <v>277068.961849455</v>
+        <v>277024.8260707741</v>
       </c>
       <c r="D6" t="n">
-        <v>277068.9618494553</v>
+        <v>277024.8260707741</v>
       </c>
       <c r="E6" t="n">
-        <v>5803.386528549661</v>
+        <v>16186.31013104435</v>
       </c>
       <c r="F6" t="n">
-        <v>248667.0934184321</v>
+        <v>229407.7851210312</v>
       </c>
       <c r="G6" t="n">
-        <v>246310.8353872909</v>
+        <v>223991.1603883419</v>
       </c>
       <c r="H6" t="n">
-        <v>262557.1101123558</v>
+        <v>259713.6545960275</v>
       </c>
       <c r="I6" t="n">
-        <v>262557.1101123559</v>
+        <v>259713.6545960274</v>
       </c>
       <c r="J6" t="n">
-        <v>150373.35641802</v>
+        <v>147238.9312262833</v>
       </c>
       <c r="K6" t="n">
-        <v>222135.405407962</v>
+        <v>227571.8069333049</v>
       </c>
       <c r="L6" t="n">
-        <v>201687.4907944639</v>
+        <v>185191.5008628432</v>
       </c>
       <c r="M6" t="n">
-        <v>263853.5800484673</v>
+        <v>263384.5677357185</v>
       </c>
       <c r="N6" t="n">
-        <v>263853.5800484674</v>
+        <v>263384.5677357185</v>
       </c>
       <c r="O6" t="n">
-        <v>196301.823435618</v>
+        <v>188407.7353688223</v>
       </c>
       <c r="P6" t="n">
-        <v>196301.823435618</v>
+        <v>188407.7353688221</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>147.4450655646388</v>
+      </c>
+      <c r="F2" t="n">
+        <v>147.4450655646388</v>
+      </c>
+      <c r="G2" t="n">
+        <v>192.0981833242456</v>
+      </c>
+      <c r="H2" t="n">
+        <v>192.0981833242456</v>
+      </c>
+      <c r="I2" t="n">
+        <v>192.0981833242456</v>
+      </c>
+      <c r="J2" t="n">
         <v>145.0692123933839</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
         <v>145.0692123933839</v>
       </c>
-      <c r="G2" t="n">
-        <v>165.3770557997152</v>
-      </c>
-      <c r="H2" t="n">
-        <v>165.3770557997152</v>
-      </c>
-      <c r="I2" t="n">
-        <v>165.3770557997152</v>
-      </c>
-      <c r="J2" t="n">
-        <v>110.0104046437588</v>
-      </c>
-      <c r="K2" t="n">
-        <v>110.0104046437588</v>
-      </c>
       <c r="L2" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="M2" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="N2" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="O2" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="P2" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
     </row>
     <row r="3">
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.8390135152289</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="F3" t="n">
-        <v>157.8390135152289</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="G3" t="n">
-        <v>157.8390135152289</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="H3" t="n">
-        <v>157.8390135152286</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="I3" t="n">
-        <v>157.8390135152286</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="J3" t="n">
-        <v>157.8390135152286</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="K3" t="n">
-        <v>157.8390135152287</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="L3" t="n">
-        <v>157.8390135152287</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="M3" t="n">
-        <v>157.8390135152287</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="N3" t="n">
-        <v>157.8390135152287</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="O3" t="n">
-        <v>157.8390135152287</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="P3" t="n">
-        <v>157.8390135152287</v>
+        <v>118.5773796441831</v>
       </c>
     </row>
     <row r="4">
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.30784340633136</v>
+        <v>44.65311775960689</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.70256123742735</v>
+        <v>100.416094633777</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>77.70761156750416</v>
+        <v>97.74133359109419</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.8390135152289</v>
+        <v>118.5773796441831</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20.30784340633136</v>
+        <v>44.65311775960689</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>89.70256123742735</v>
+        <v>100.416094633777</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28089,37 +28089,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="G11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J11" t="n">
-        <v>127.1910744831158</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>98.71579315182596</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28128,37 +28128,37 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="12">
@@ -28168,76 +28168,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C12" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D12" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0040143794232</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H12" t="n">
-        <v>108.9565620878122</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I12" t="n">
-        <v>87.83335871608918</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J12" t="n">
-        <v>94.76205883523701</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K12" t="n">
-        <v>83.01918462916859</v>
+        <v>96.65593532945439</v>
       </c>
       <c r="L12" t="n">
-        <v>64.83909332637033</v>
+        <v>83.17538752246585</v>
       </c>
       <c r="M12" t="n">
-        <v>56.11177155621857</v>
+        <v>77.50936201593855</v>
       </c>
       <c r="N12" t="n">
-        <v>43.04269639994124</v>
+        <v>65.00661740861244</v>
       </c>
       <c r="O12" t="n">
-        <v>61.81989570708006</v>
+        <v>81.91259242974633</v>
       </c>
       <c r="P12" t="n">
-        <v>69.14426618389594</v>
+        <v>85.27042670726945</v>
       </c>
       <c r="Q12" t="n">
-        <v>96.64454154500999</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>124.6005504231943</v>
+        <v>129.8438305088408</v>
       </c>
       <c r="S12" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T12" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U12" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V12" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W12" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X12" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y12" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="13">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E13" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.0692123933839</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J13" t="n">
-        <v>106.8722409786103</v>
+        <v>78.24153615777422</v>
       </c>
       <c r="K13" t="n">
-        <v>95.94469107668907</v>
+        <v>104.1703251893443</v>
       </c>
       <c r="L13" t="n">
-        <v>92.56829551028659</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>94.30909361902978</v>
+        <v>80.10060549435899</v>
       </c>
       <c r="N13" t="n">
-        <v>84.12973930946517</v>
+        <v>94.96401935784738</v>
       </c>
       <c r="O13" t="n">
-        <v>98.22570267914148</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>103.3035739539574</v>
+        <v>111.8664719378983</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.6713105886463</v>
+        <v>133.5998173031742</v>
       </c>
       <c r="R13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y13" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="14">
@@ -28326,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="G14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J14" t="n">
-        <v>90.27384010336451</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>135.6330275315772</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>144.3555428192615</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Q14" t="n">
-        <v>145.0692123933839</v>
+        <v>39.59381247154437</v>
       </c>
       <c r="R14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="15">
@@ -28405,76 +28405,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C15" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D15" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0040143794232</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H15" t="n">
-        <v>108.9565620878122</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I15" t="n">
-        <v>87.83335871608918</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J15" t="n">
-        <v>94.76205883523701</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K15" t="n">
-        <v>83.01918462916859</v>
+        <v>96.65593532945439</v>
       </c>
       <c r="L15" t="n">
-        <v>64.83909332637033</v>
+        <v>83.17538752246585</v>
       </c>
       <c r="M15" t="n">
-        <v>56.11177155621857</v>
+        <v>77.50936201593855</v>
       </c>
       <c r="N15" t="n">
-        <v>43.04269639994124</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>61.81989570708006</v>
+        <v>81.91259242974633</v>
       </c>
       <c r="P15" t="n">
-        <v>69.14426618389594</v>
+        <v>85.27042670726945</v>
       </c>
       <c r="Q15" t="n">
-        <v>96.64454154500999</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R15" t="n">
-        <v>124.6005504231943</v>
+        <v>129.8438305088408</v>
       </c>
       <c r="S15" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T15" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U15" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V15" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W15" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X15" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y15" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="16">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="C16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="D16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E16" t="n">
-        <v>145.0692123933839</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.0692123933839</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="H16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="I16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="J16" t="n">
-        <v>106.8722409786103</v>
+        <v>111.8777774804976</v>
       </c>
       <c r="K16" t="n">
-        <v>95.94469107668907</v>
+        <v>104.1703251893443</v>
       </c>
       <c r="L16" t="n">
-        <v>92.56829551028659</v>
+        <v>103.0942751877798</v>
       </c>
       <c r="M16" t="n">
-        <v>94.30909361902978</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N16" t="n">
-        <v>84.12973930946517</v>
+        <v>94.96401935784738</v>
       </c>
       <c r="O16" t="n">
-        <v>98.22570267914148</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P16" t="n">
-        <v>103.3035739539574</v>
+        <v>111.8664719378983</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.6713105886463</v>
+        <v>133.5998173031742</v>
       </c>
       <c r="R16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="S16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="T16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="U16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="V16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="W16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="X16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="Y16" t="n">
-        <v>145.0692123933839</v>
+        <v>147.4450655646388</v>
       </c>
     </row>
     <row r="17">
@@ -28563,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="C17" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="D17" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="E17" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="F17" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="G17" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="H17" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="I17" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="J17" t="n">
-        <v>127.1910744831158</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K17" t="n">
-        <v>139.3754212341753</v>
+        <v>159.4527159458298</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>84.58652394654302</v>
       </c>
       <c r="N17" t="n">
-        <v>116.1925217712398</v>
+        <v>144.3555428192615</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>45.71790107535971</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.7837289870417</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>165.3770557997152</v>
+        <v>185.6414721897144</v>
       </c>
       <c r="S17" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="T17" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U17" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V17" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W17" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X17" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="18">
@@ -28642,10 +28642,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3770557997152</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>165.3770557997152</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -28657,61 +28657,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0040143794232</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H18" t="n">
-        <v>108.9565620878122</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I18" t="n">
-        <v>87.83335871608918</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J18" t="n">
-        <v>94.76205883523701</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K18" t="n">
-        <v>83.01918462916859</v>
+        <v>96.65593532945439</v>
       </c>
       <c r="L18" t="n">
-        <v>64.83909332637033</v>
+        <v>83.17538752246585</v>
       </c>
       <c r="M18" t="n">
-        <v>56.11177155621857</v>
+        <v>77.50936201593855</v>
       </c>
       <c r="N18" t="n">
-        <v>43.04269639994124</v>
+        <v>65.00661740861244</v>
       </c>
       <c r="O18" t="n">
-        <v>61.81989570708006</v>
+        <v>81.91259242974633</v>
       </c>
       <c r="P18" t="n">
-        <v>69.14426618389594</v>
+        <v>85.27042670726945</v>
       </c>
       <c r="Q18" t="n">
-        <v>96.64454154500999</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R18" t="n">
-        <v>124.6005504231943</v>
+        <v>129.8438305088408</v>
       </c>
       <c r="S18" t="n">
-        <v>165.3770557997152</v>
+        <v>166.9456691906952</v>
       </c>
       <c r="T18" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U18" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V18" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W18" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X18" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y18" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="19">
@@ -28721,10 +28721,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.3770557997152</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>165.3770557997152</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28736,61 +28736,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.3770557997152</v>
+        <v>167.7771512968053</v>
       </c>
       <c r="H19" t="n">
-        <v>159.6965732415725</v>
+        <v>160.3260466501935</v>
       </c>
       <c r="I19" t="n">
-        <v>146.8909428500718</v>
+        <v>149.0200819458983</v>
       </c>
       <c r="J19" t="n">
-        <v>106.8722409786103</v>
+        <v>111.8777774804976</v>
       </c>
       <c r="K19" t="n">
-        <v>95.94469107668907</v>
+        <v>104.1703251893443</v>
       </c>
       <c r="L19" t="n">
-        <v>92.56829551028659</v>
+        <v>103.0942751877798</v>
       </c>
       <c r="M19" t="n">
-        <v>94.30909361902978</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N19" t="n">
-        <v>84.12973930946517</v>
+        <v>94.96401935784738</v>
       </c>
       <c r="O19" t="n">
-        <v>98.22570267914148</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P19" t="n">
-        <v>103.3035739539574</v>
+        <v>111.8664719378983</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.6713105886463</v>
+        <v>133.5998173031742</v>
       </c>
       <c r="R19" t="n">
-        <v>164.4954936583773</v>
+        <v>167.6789041686428</v>
       </c>
       <c r="S19" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="T19" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U19" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V19" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W19" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X19" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="20">
@@ -28800,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="C20" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="D20" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="E20" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="F20" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="G20" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="H20" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="I20" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="J20" t="n">
-        <v>127.1910744831159</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M20" t="n">
-        <v>45.10634642263478</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N20" t="n">
-        <v>116.19252177124</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>141.1055420611324</v>
       </c>
       <c r="P20" t="n">
-        <v>139.9869758869006</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.7837289870419</v>
+        <v>170.8282104531398</v>
       </c>
       <c r="R20" t="n">
-        <v>165.3770557997152</v>
+        <v>185.6414721897144</v>
       </c>
       <c r="S20" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="T20" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U20" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V20" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W20" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X20" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="21">
@@ -28879,10 +28879,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3770557997152</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>165.3770557997152</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -28894,61 +28894,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0040143794232</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H21" t="n">
-        <v>108.9565620878122</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I21" t="n">
-        <v>87.83335871608919</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J21" t="n">
-        <v>94.76205883523707</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K21" t="n">
-        <v>83.01918462916868</v>
+        <v>96.65593532945439</v>
       </c>
       <c r="L21" t="n">
-        <v>64.83909332637046</v>
+        <v>83.17538752246585</v>
       </c>
       <c r="M21" t="n">
-        <v>56.11177155621873</v>
+        <v>77.50936201593855</v>
       </c>
       <c r="N21" t="n">
-        <v>43.04269639994139</v>
+        <v>65.00661740861244</v>
       </c>
       <c r="O21" t="n">
-        <v>61.81989570708022</v>
+        <v>81.91259242974633</v>
       </c>
       <c r="P21" t="n">
-        <v>69.14426618389605</v>
+        <v>85.27042670726945</v>
       </c>
       <c r="Q21" t="n">
-        <v>96.64454154501006</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R21" t="n">
-        <v>124.6005504231944</v>
+        <v>129.8438305088408</v>
       </c>
       <c r="S21" t="n">
-        <v>165.3770557997152</v>
+        <v>166.9456691906952</v>
       </c>
       <c r="T21" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U21" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V21" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W21" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X21" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y21" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="22">
@@ -28958,10 +28958,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.3770557997152</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>165.3770557997152</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28973,61 +28973,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.3770557997152</v>
+        <v>167.7771512968053</v>
       </c>
       <c r="H22" t="n">
-        <v>159.6965732415725</v>
+        <v>160.3260466501935</v>
       </c>
       <c r="I22" t="n">
-        <v>146.8909428500718</v>
+        <v>149.0200819458983</v>
       </c>
       <c r="J22" t="n">
-        <v>106.8722409786103</v>
+        <v>78.24153615777422</v>
       </c>
       <c r="K22" t="n">
-        <v>95.94469107668914</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>92.56829551028666</v>
+        <v>103.0942751877798</v>
       </c>
       <c r="M22" t="n">
-        <v>94.30909361902987</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N22" t="n">
-        <v>84.12973930946524</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>98.22570267914156</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P22" t="n">
-        <v>103.3035739539574</v>
+        <v>111.8664719378983</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.6713105886463</v>
+        <v>133.5998173031742</v>
       </c>
       <c r="R22" t="n">
-        <v>164.4954936583773</v>
+        <v>167.6789041686428</v>
       </c>
       <c r="S22" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="T22" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U22" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V22" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W22" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X22" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="23">
@@ -29037,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="C23" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="D23" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="E23" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="F23" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="G23" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="H23" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="I23" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="J23" t="n">
-        <v>127.1910744831159</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K23" t="n">
-        <v>139.3754212341755</v>
+        <v>159.4527159458298</v>
       </c>
       <c r="L23" t="n">
-        <v>135.6330275315774</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M23" t="n">
-        <v>118.928546063832</v>
+        <v>145.1426598061496</v>
       </c>
       <c r="N23" t="n">
-        <v>49.27179564974531</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>123.1872643325853</v>
+        <v>149.7808064989778</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>170.8282104531398</v>
       </c>
       <c r="R23" t="n">
-        <v>165.3770557997152</v>
+        <v>185.6414721897144</v>
       </c>
       <c r="S23" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="T23" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U23" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V23" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W23" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X23" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="24">
@@ -29116,10 +29116,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3770557997152</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>165.3770557997152</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -29131,61 +29131,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0040143794232</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H24" t="n">
-        <v>108.9565620878122</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I24" t="n">
-        <v>87.83335871608919</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J24" t="n">
-        <v>94.76205883523707</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K24" t="n">
-        <v>83.01918462916868</v>
+        <v>96.65593532945439</v>
       </c>
       <c r="L24" t="n">
-        <v>64.83909332637046</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>56.11177155621873</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>43.04269639994139</v>
+        <v>65.00661740861244</v>
       </c>
       <c r="O24" t="n">
-        <v>61.81989570708022</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>69.14426618389605</v>
+        <v>85.27042670726945</v>
       </c>
       <c r="Q24" t="n">
-        <v>96.64454154501006</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R24" t="n">
-        <v>124.6005504231944</v>
+        <v>129.8438305088408</v>
       </c>
       <c r="S24" t="n">
-        <v>165.3770557997152</v>
+        <v>166.9456691906952</v>
       </c>
       <c r="T24" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U24" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V24" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W24" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X24" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y24" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="25">
@@ -29195,10 +29195,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.3770557997152</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>165.3770557997152</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -29210,61 +29210,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.3770557997152</v>
+        <v>167.7771512968053</v>
       </c>
       <c r="H25" t="n">
-        <v>159.6965732415725</v>
+        <v>160.3260466501935</v>
       </c>
       <c r="I25" t="n">
-        <v>146.8909428500718</v>
+        <v>149.0200819458983</v>
       </c>
       <c r="J25" t="n">
-        <v>106.8722409786103</v>
+        <v>78.24153615777422</v>
       </c>
       <c r="K25" t="n">
-        <v>95.94469107668914</v>
+        <v>104.1703251893443</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>94.96401935784738</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>103.3035739539574</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>127.6713105886463</v>
+        <v>133.5998173031742</v>
       </c>
       <c r="R25" t="n">
-        <v>164.4954936583773</v>
+        <v>167.6789041686428</v>
       </c>
       <c r="S25" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="T25" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="U25" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="V25" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="W25" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="X25" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.3770557997152</v>
+        <v>192.0981833242456</v>
       </c>
     </row>
     <row r="26">
@@ -29274,37 +29274,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C26" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D26" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E26" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F26" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G26" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H26" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I26" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>19.17047324748158</v>
       </c>
       <c r="K26" t="n">
-        <v>9.286327881339737</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>110.0104046437588</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -29313,37 +29313,37 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="R26" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S26" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T26" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U26" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V26" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W26" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X26" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y26" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="27">
@@ -29353,76 +29353,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C27" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D27" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E27" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F27" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>110.0104046437588</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H27" t="n">
-        <v>108.9565620878122</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I27" t="n">
-        <v>87.83335871608919</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J27" t="n">
-        <v>94.76205883523707</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K27" t="n">
-        <v>83.01918462916868</v>
+        <v>96.65593532945439</v>
       </c>
       <c r="L27" t="n">
-        <v>64.83909332637046</v>
+        <v>83.17538752246585</v>
       </c>
       <c r="M27" t="n">
-        <v>56.11177155621873</v>
+        <v>77.50936201593855</v>
       </c>
       <c r="N27" t="n">
-        <v>43.04269639994139</v>
+        <v>65.00661740861244</v>
       </c>
       <c r="O27" t="n">
-        <v>61.81989570708022</v>
+        <v>81.91259242974633</v>
       </c>
       <c r="P27" t="n">
-        <v>69.14426618389605</v>
+        <v>85.27042670726945</v>
       </c>
       <c r="Q27" t="n">
-        <v>96.64454154501006</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R27" t="n">
-        <v>110.0104046437588</v>
+        <v>129.8438305088408</v>
       </c>
       <c r="S27" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T27" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U27" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V27" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W27" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X27" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y27" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D28" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E28" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F28" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G28" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H28" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I28" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J28" t="n">
-        <v>106.8722409786103</v>
+        <v>111.8777774804976</v>
       </c>
       <c r="K28" t="n">
-        <v>95.94469107668914</v>
+        <v>104.1703251893443</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>103.0942751877798</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>94.96401935784738</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P28" t="n">
-        <v>103.3035739539574</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>110.0104046437588</v>
+        <v>133.5998173031742</v>
       </c>
       <c r="R28" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S28" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T28" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U28" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V28" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W28" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X28" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y28" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="29">
@@ -29511,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C29" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D29" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E29" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F29" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G29" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H29" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I29" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K29" t="n">
-        <v>9.286327881339737</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>68.30742368264265</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="P29" t="n">
-        <v>110.0104046437588</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="R29" t="n">
-        <v>110.0104046437588</v>
+        <v>119.9250523167319</v>
       </c>
       <c r="S29" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T29" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U29" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V29" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W29" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X29" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y29" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="30">
@@ -29590,76 +29590,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C30" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D30" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E30" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F30" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>110.0104046437588</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H30" t="n">
-        <v>108.9565620878122</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I30" t="n">
-        <v>87.83335871608919</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J30" t="n">
-        <v>94.76205883523707</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>83.01918462916868</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>64.83909332637045</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>56.11177155621871</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>43.04269639994138</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>61.81989570708021</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>69.14426618389604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>96.64454154501004</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.0104046437588</v>
+        <v>84.32216069751996</v>
       </c>
       <c r="S30" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T30" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U30" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V30" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W30" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X30" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y30" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="31">
@@ -29669,34 +29669,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D31" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E31" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F31" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G31" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H31" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I31" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J31" t="n">
-        <v>106.8722409786103</v>
+        <v>111.8777774804976</v>
       </c>
       <c r="K31" t="n">
-        <v>95.94469107668912</v>
+        <v>104.1703251893443</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29708,37 +29708,37 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P31" t="n">
-        <v>103.3035739539574</v>
+        <v>111.8664719378983</v>
       </c>
       <c r="Q31" t="n">
-        <v>110.0104046437588</v>
+        <v>133.5998173031742</v>
       </c>
       <c r="R31" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S31" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T31" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U31" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V31" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W31" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X31" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y31" t="n">
-        <v>110.0104046437588</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="32">
@@ -29748,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="C32" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="D32" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="E32" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="F32" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="G32" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="H32" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="I32" t="n">
-        <v>167.4101728049316</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="J32" t="n">
-        <v>127.1910744831159</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>97.79623244037131</v>
+        <v>159.4527159458298</v>
       </c>
       <c r="L32" t="n">
-        <v>135.6330275315774</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M32" t="n">
-        <v>118.928546063832</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N32" t="n">
-        <v>116.19252177124</v>
+        <v>144.3555428192615</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>149.7808064989778</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>143.0830614662664</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.7837289870419</v>
+        <v>170.8282104531398</v>
       </c>
       <c r="R32" t="n">
-        <v>167.4101728049316</v>
+        <v>185.6414721897144</v>
       </c>
       <c r="S32" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="T32" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U32" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V32" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W32" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X32" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="33">
@@ -29830,7 +29830,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>167.4101728049316</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -29842,61 +29842,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0040143794232</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H33" t="n">
-        <v>108.9565620878122</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I33" t="n">
-        <v>87.83335871608919</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J33" t="n">
-        <v>94.76205883523707</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K33" t="n">
-        <v>83.01918462916868</v>
+        <v>96.65593532945439</v>
       </c>
       <c r="L33" t="n">
-        <v>64.83909332637045</v>
+        <v>83.17538752246585</v>
       </c>
       <c r="M33" t="n">
-        <v>56.11177155621871</v>
+        <v>77.50936201593855</v>
       </c>
       <c r="N33" t="n">
-        <v>43.04269639994138</v>
+        <v>65.00661740861244</v>
       </c>
       <c r="O33" t="n">
-        <v>61.81989570708021</v>
+        <v>81.91259242974633</v>
       </c>
       <c r="P33" t="n">
-        <v>69.14426618389604</v>
+        <v>85.27042670726945</v>
       </c>
       <c r="Q33" t="n">
-        <v>96.64454154501004</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R33" t="n">
-        <v>124.6005504231943</v>
+        <v>129.8438305088408</v>
       </c>
       <c r="S33" t="n">
-        <v>165.3770557997152</v>
+        <v>166.9456691906952</v>
       </c>
       <c r="T33" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U33" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V33" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W33" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X33" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y33" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="34">
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>167.4101728049316</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -29921,25 +29921,25 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4101728049316</v>
+        <v>167.7771512968053</v>
       </c>
       <c r="H34" t="n">
-        <v>159.6965732415725</v>
+        <v>160.3260466501935</v>
       </c>
       <c r="I34" t="n">
-        <v>146.8909428500718</v>
+        <v>149.0200819458983</v>
       </c>
       <c r="J34" t="n">
-        <v>106.8722409786103</v>
+        <v>111.8777774804976</v>
       </c>
       <c r="K34" t="n">
-        <v>95.94469107668912</v>
+        <v>104.1703251893443</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29951,31 +29951,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.6713105886463</v>
+        <v>133.5998173031742</v>
       </c>
       <c r="R34" t="n">
-        <v>164.4954936583773</v>
+        <v>167.6789041686428</v>
       </c>
       <c r="S34" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="T34" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U34" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V34" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W34" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X34" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y34" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="35">
@@ -29985,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="C35" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="D35" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="E35" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="F35" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="G35" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="H35" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="I35" t="n">
-        <v>167.4101728049316</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="J35" t="n">
-        <v>127.1910744831159</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K35" t="n">
-        <v>59.65468366175261</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>135.6330275315774</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M35" t="n">
-        <v>118.928546063832</v>
+        <v>19.83006894719138</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>144.3555428192615</v>
       </c>
       <c r="O35" t="n">
-        <v>123.1872643325853</v>
+        <v>149.7808064989778</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.7837289870419</v>
+        <v>170.8282104531398</v>
       </c>
       <c r="R35" t="n">
-        <v>167.4101728049316</v>
+        <v>185.6414721897144</v>
       </c>
       <c r="S35" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="T35" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U35" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V35" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W35" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X35" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y35" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="36">
@@ -30067,7 +30067,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>167.4101728049316</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -30079,61 +30079,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0040143794232</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H36" t="n">
-        <v>108.9565620878122</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I36" t="n">
-        <v>87.83335871608919</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J36" t="n">
-        <v>94.76205883523707</v>
+        <v>102.7406895448238</v>
       </c>
       <c r="K36" t="n">
-        <v>83.01918462916868</v>
+        <v>96.65593532945439</v>
       </c>
       <c r="L36" t="n">
-        <v>64.83909332637045</v>
+        <v>83.17538752246585</v>
       </c>
       <c r="M36" t="n">
-        <v>56.11177155621871</v>
+        <v>77.50936201593855</v>
       </c>
       <c r="N36" t="n">
-        <v>43.04269639994138</v>
+        <v>65.00661740861244</v>
       </c>
       <c r="O36" t="n">
-        <v>61.81989570708021</v>
+        <v>81.91259242974633</v>
       </c>
       <c r="P36" t="n">
-        <v>69.14426618389604</v>
+        <v>85.27042670726945</v>
       </c>
       <c r="Q36" t="n">
-        <v>96.64454154501004</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R36" t="n">
-        <v>124.6005504231943</v>
+        <v>129.8438305088408</v>
       </c>
       <c r="S36" t="n">
-        <v>165.3770557997152</v>
+        <v>166.9456691906952</v>
       </c>
       <c r="T36" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U36" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V36" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W36" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X36" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y36" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="37">
@@ -30143,7 +30143,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>167.4101728049316</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -30158,61 +30158,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4101728049316</v>
+        <v>167.7771512968053</v>
       </c>
       <c r="H37" t="n">
-        <v>159.6965732415725</v>
+        <v>160.3260466501935</v>
       </c>
       <c r="I37" t="n">
-        <v>146.8909428500718</v>
+        <v>149.0200819458983</v>
       </c>
       <c r="J37" t="n">
-        <v>106.8722409786103</v>
+        <v>111.8777774804976</v>
       </c>
       <c r="K37" t="n">
-        <v>95.94469107668912</v>
+        <v>104.1703251893443</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>103.0942751877798</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>94.96401935784738</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P37" t="n">
-        <v>103.3035739539574</v>
+        <v>111.8664719378983</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.6713105886463</v>
+        <v>133.5998173031742</v>
       </c>
       <c r="R37" t="n">
-        <v>164.4954936583773</v>
+        <v>167.6789041686428</v>
       </c>
       <c r="S37" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="T37" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U37" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V37" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W37" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X37" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y37" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="38">
@@ -30222,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="C38" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="D38" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="E38" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="F38" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="G38" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="H38" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="I38" t="n">
-        <v>167.4101728049316</v>
+        <v>192.0981833242456</v>
       </c>
       <c r="J38" t="n">
-        <v>85.61188568931148</v>
+        <v>140.5871834188451</v>
       </c>
       <c r="K38" t="n">
-        <v>139.3754212341755</v>
+        <v>159.4527159458298</v>
       </c>
       <c r="L38" t="n">
-        <v>135.6330275315774</v>
+        <v>160.5406869772257</v>
       </c>
       <c r="M38" t="n">
-        <v>118.928546063832</v>
+        <v>146.6431163892962</v>
       </c>
       <c r="N38" t="n">
-        <v>116.19252177124</v>
+        <v>144.3555428192615</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>149.7808064989778</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>162.6839488625737</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.7837289870419</v>
+        <v>170.8282104531398</v>
       </c>
       <c r="R38" t="n">
-        <v>167.4101728049316</v>
+        <v>185.6414721897144</v>
       </c>
       <c r="S38" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="T38" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U38" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V38" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W38" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X38" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y38" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="39">
@@ -30304,7 +30304,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>167.4101728049316</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -30316,61 +30316,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0040143794232</v>
+        <v>137.0884639315231</v>
       </c>
       <c r="H39" t="n">
-        <v>108.9565620878122</v>
+        <v>109.7721669725673</v>
       </c>
       <c r="I39" t="n">
-        <v>87.83335871608919</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J39" t="n">
-        <v>94.76205883523707</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>83.01918462916868</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>64.83909332637045</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>56.11177155621871</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>43.04269639994138</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>61.81989570708021</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>69.14426618389604</v>
+        <v>85.27042670726945</v>
       </c>
       <c r="Q39" t="n">
-        <v>96.64454154501004</v>
+        <v>107.4244527920186</v>
       </c>
       <c r="R39" t="n">
-        <v>124.6005504231943</v>
+        <v>99.42095330517739</v>
       </c>
       <c r="S39" t="n">
-        <v>165.3770557997152</v>
+        <v>166.9456691906952</v>
       </c>
       <c r="T39" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U39" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V39" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W39" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X39" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y39" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="40">
@@ -30380,7 +30380,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>167.4101728049316</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30395,61 +30395,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4101728049316</v>
+        <v>167.7771512968053</v>
       </c>
       <c r="H40" t="n">
-        <v>159.6965732415725</v>
+        <v>160.3260466501935</v>
       </c>
       <c r="I40" t="n">
-        <v>146.8909428500718</v>
+        <v>149.0200819458983</v>
       </c>
       <c r="J40" t="n">
-        <v>106.8722409786103</v>
+        <v>111.8777774804976</v>
       </c>
       <c r="K40" t="n">
-        <v>95.94469107668912</v>
+        <v>104.1703251893443</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>103.0942751877798</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>105.4072633376928</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>94.96401935784738</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>108.2329138828631</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>111.8664719378983</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.6713105886463</v>
+        <v>133.5998173031742</v>
       </c>
       <c r="R40" t="n">
-        <v>164.4954936583773</v>
+        <v>167.6789041686428</v>
       </c>
       <c r="S40" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="T40" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="U40" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="V40" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="W40" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="X40" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
       <c r="Y40" t="n">
-        <v>167.4101728049316</v>
+        <v>198.1574282248712</v>
       </c>
     </row>
     <row r="41">
@@ -30459,34 +30459,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="C41" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="D41" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="E41" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="F41" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="G41" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="H41" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="I41" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="K41" t="n">
-        <v>77.70761156750427</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30495,10 +30495,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>63.38954617403589</v>
       </c>
       <c r="O41" t="n">
-        <v>3.378440692726483</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -30507,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="S41" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="T41" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="U41" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="V41" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="W41" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="X41" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="Y41" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
     </row>
     <row r="42">
@@ -30538,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="C42" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="D42" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="E42" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="F42" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="G42" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="H42" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="I42" t="n">
-        <v>77.70761156750427</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J42" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="K42" t="n">
-        <v>77.70761156750427</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>64.83909332637045</v>
+        <v>83.17538752246585</v>
       </c>
       <c r="M42" t="n">
-        <v>56.11177155621871</v>
+        <v>77.50936201593855</v>
       </c>
       <c r="N42" t="n">
-        <v>43.04269639994138</v>
+        <v>65.00661740861244</v>
       </c>
       <c r="O42" t="n">
-        <v>61.81989570708021</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>69.14426618389604</v>
+        <v>85.27042670726945</v>
       </c>
       <c r="Q42" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="R42" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="S42" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="T42" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="U42" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="V42" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="W42" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="X42" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="Y42" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
     </row>
     <row r="43">
@@ -30617,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="C43" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="D43" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="E43" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="F43" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="G43" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="H43" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="I43" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="J43" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="K43" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30653,40 +30653,40 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>94.96401935784738</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="Q43" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="R43" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="S43" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="T43" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="U43" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="V43" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="W43" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="X43" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="Y43" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
     </row>
     <row r="44">
@@ -30696,76 +30696,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="C44" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="D44" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="E44" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="F44" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="G44" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="H44" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="I44" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>51.58552663643245</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>77.70761156750427</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="R44" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="S44" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="T44" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="U44" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="V44" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="W44" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="X44" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="Y44" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
     </row>
     <row r="45">
@@ -30775,76 +30775,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="C45" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="D45" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="E45" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="F45" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="G45" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="H45" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="I45" t="n">
-        <v>77.70761156750427</v>
+        <v>90.74094197918077</v>
       </c>
       <c r="J45" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="K45" t="n">
-        <v>77.70761156750427</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>64.83909332637045</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>56.11177155621871</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>43.04269639994138</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>61.81989570708021</v>
+        <v>81.91259242974633</v>
       </c>
       <c r="P45" t="n">
-        <v>69.14426618389604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>77.70761156750427</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="S45" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="T45" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="U45" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="V45" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="W45" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="X45" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="Y45" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="C46" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="D46" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="E46" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="F46" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="G46" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="H46" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="I46" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="J46" t="n">
-        <v>73.23599965588699</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>41.4797599061575</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>94.96401935784738</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="R46" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="S46" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="T46" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="U46" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="V46" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="W46" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="X46" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
       <c r="Y46" t="n">
-        <v>77.70761156750427</v>
+        <v>97.74133359109422</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6345286975486585</v>
+        <v>0.4766929834942029</v>
       </c>
       <c r="H11" t="n">
-        <v>6.4983670237702</v>
+        <v>4.881932017210007</v>
       </c>
       <c r="I11" t="n">
-        <v>24.46266761224468</v>
+        <v>18.37770624616028</v>
       </c>
       <c r="J11" t="n">
-        <v>53.8548300435705</v>
+        <v>40.45872110784114</v>
       </c>
       <c r="K11" t="n">
-        <v>80.71442981080523</v>
+        <v>60.63713509915076</v>
       </c>
       <c r="L11" t="n">
-        <v>100.13338743841</v>
+        <v>75.22572799276149</v>
       </c>
       <c r="M11" t="n">
-        <v>111.417687163441</v>
+        <v>83.70311683797652</v>
       </c>
       <c r="N11" t="n">
-        <v>113.2205418253511</v>
+        <v>85.05752077732943</v>
       </c>
       <c r="O11" t="n">
-        <v>106.9109470891016</v>
+        <v>80.31740492270895</v>
       </c>
       <c r="P11" t="n">
-        <v>91.24601986836909</v>
+        <v>68.5490468926958</v>
       </c>
       <c r="Q11" t="n">
-        <v>68.52196088740774</v>
+        <v>51.47747942130965</v>
       </c>
       <c r="R11" t="n">
-        <v>39.85871329739096</v>
+        <v>29.94406562441775</v>
       </c>
       <c r="S11" t="n">
-        <v>14.45932269539007</v>
+        <v>10.86264136137416</v>
       </c>
       <c r="T11" t="n">
-        <v>2.777649373519254</v>
+        <v>2.086723535245874</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05076229580389267</v>
+        <v>0.03813543867953623</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3395027837874735</v>
+        <v>0.2550532316874881</v>
       </c>
       <c r="H12" t="n">
-        <v>3.278882148684284</v>
+        <v>2.463277263929162</v>
       </c>
       <c r="I12" t="n">
-        <v>11.68902128391082</v>
+        <v>8.78143802081922</v>
       </c>
       <c r="J12" t="n">
-        <v>32.07556783142969</v>
+        <v>24.09693712184291</v>
       </c>
       <c r="K12" t="n">
-        <v>54.82225434519041</v>
+        <v>41.18550364490461</v>
       </c>
       <c r="L12" t="n">
-        <v>73.71528645350385</v>
+        <v>55.37899225740833</v>
       </c>
       <c r="M12" t="n">
-        <v>86.02226236579975</v>
+        <v>64.62467190607977</v>
       </c>
       <c r="N12" t="n">
-        <v>88.29901568339207</v>
+        <v>66.33509467472086</v>
       </c>
       <c r="O12" t="n">
-        <v>80.77634873736437</v>
+        <v>60.6836520146981</v>
       </c>
       <c r="P12" t="n">
-        <v>64.83014123043431</v>
+        <v>48.70398070706079</v>
       </c>
       <c r="Q12" t="n">
-        <v>43.33723254101154</v>
+        <v>32.55732129400288</v>
       </c>
       <c r="R12" t="n">
-        <v>21.07895354076964</v>
+        <v>15.83567345512317</v>
       </c>
       <c r="S12" t="n">
-        <v>6.306115304122585</v>
+        <v>4.737501913142594</v>
       </c>
       <c r="T12" t="n">
-        <v>1.368434466231088</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02233570945970222</v>
+        <v>0.01677981787417685</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.284627729289757</v>
+        <v>0.2138280616534448</v>
       </c>
       <c r="H13" t="n">
-        <v>2.530599265867114</v>
+        <v>1.901125857246084</v>
       </c>
       <c r="I13" t="n">
-        <v>8.559532077186514</v>
+        <v>6.430392981359962</v>
       </c>
       <c r="J13" t="n">
-        <v>20.12318046078582</v>
+        <v>15.11764395889855</v>
       </c>
       <c r="K13" t="n">
-        <v>33.06856709384631</v>
+        <v>24.84293298119113</v>
       </c>
       <c r="L13" t="n">
-        <v>42.3163807709517</v>
+        <v>31.79040109345852</v>
       </c>
       <c r="M13" t="n">
-        <v>44.61669032857527</v>
+        <v>33.51852060991227</v>
       </c>
       <c r="N13" t="n">
-        <v>43.55580515576803</v>
+        <v>32.72152510738582</v>
       </c>
       <c r="O13" t="n">
-        <v>40.23083577270131</v>
+        <v>30.22362456897965</v>
       </c>
       <c r="P13" t="n">
-        <v>34.42443009519024</v>
+        <v>25.86153211124936</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.83369104079956</v>
+        <v>17.90518432627164</v>
       </c>
       <c r="R13" t="n">
-        <v>12.79789771879216</v>
+        <v>9.614487208526709</v>
       </c>
       <c r="S13" t="n">
-        <v>4.960285064076945</v>
+        <v>3.726439947178669</v>
       </c>
       <c r="T13" t="n">
-        <v>1.21613666151078</v>
+        <v>0.9136289907010823</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0155251488703504</v>
+        <v>0.01166334881746064</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6345286975486585</v>
+        <v>0.4766929834942029</v>
       </c>
       <c r="H14" t="n">
-        <v>6.4983670237702</v>
+        <v>4.881932017210007</v>
       </c>
       <c r="I14" t="n">
-        <v>24.46266761224468</v>
+        <v>18.37770624616028</v>
       </c>
       <c r="J14" t="n">
-        <v>53.8548300435705</v>
+        <v>40.45872110784114</v>
       </c>
       <c r="K14" t="n">
-        <v>80.71442981080523</v>
+        <v>60.63713509915076</v>
       </c>
       <c r="L14" t="n">
-        <v>100.13338743841</v>
+        <v>75.22572799276149</v>
       </c>
       <c r="M14" t="n">
-        <v>111.417687163441</v>
+        <v>83.70311683797652</v>
       </c>
       <c r="N14" t="n">
-        <v>113.2205418253511</v>
+        <v>85.05752077732943</v>
       </c>
       <c r="O14" t="n">
-        <v>106.9109470891016</v>
+        <v>80.31740492270895</v>
       </c>
       <c r="P14" t="n">
-        <v>91.24601986836909</v>
+        <v>68.5490468926958</v>
       </c>
       <c r="Q14" t="n">
-        <v>68.52196088740774</v>
+        <v>51.47747942130965</v>
       </c>
       <c r="R14" t="n">
-        <v>39.85871329739096</v>
+        <v>29.94406562441775</v>
       </c>
       <c r="S14" t="n">
-        <v>14.45932269539007</v>
+        <v>10.86264136137416</v>
       </c>
       <c r="T14" t="n">
-        <v>2.777649373519254</v>
+        <v>2.086723535245874</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05076229580389267</v>
+        <v>0.03813543867953623</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3395027837874735</v>
+        <v>0.2550532316874881</v>
       </c>
       <c r="H15" t="n">
-        <v>3.278882148684284</v>
+        <v>2.463277263929162</v>
       </c>
       <c r="I15" t="n">
-        <v>11.68902128391082</v>
+        <v>8.78143802081922</v>
       </c>
       <c r="J15" t="n">
-        <v>32.07556783142969</v>
+        <v>24.09693712184291</v>
       </c>
       <c r="K15" t="n">
-        <v>54.82225434519041</v>
+        <v>41.18550364490461</v>
       </c>
       <c r="L15" t="n">
-        <v>73.71528645350385</v>
+        <v>55.37899225740833</v>
       </c>
       <c r="M15" t="n">
-        <v>86.02226236579975</v>
+        <v>64.62467190607977</v>
       </c>
       <c r="N15" t="n">
-        <v>88.29901568339207</v>
+        <v>66.33509467472086</v>
       </c>
       <c r="O15" t="n">
-        <v>80.77634873736437</v>
+        <v>60.6836520146981</v>
       </c>
       <c r="P15" t="n">
-        <v>64.83014123043431</v>
+        <v>48.70398070706079</v>
       </c>
       <c r="Q15" t="n">
-        <v>43.33723254101154</v>
+        <v>32.55732129400288</v>
       </c>
       <c r="R15" t="n">
-        <v>21.07895354076964</v>
+        <v>15.83567345512317</v>
       </c>
       <c r="S15" t="n">
-        <v>6.306115304122585</v>
+        <v>4.737501913142594</v>
       </c>
       <c r="T15" t="n">
-        <v>1.368434466231088</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02233570945970222</v>
+        <v>0.01677981787417685</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.284627729289757</v>
+        <v>0.2138280616534448</v>
       </c>
       <c r="H16" t="n">
-        <v>2.530599265867114</v>
+        <v>1.901125857246084</v>
       </c>
       <c r="I16" t="n">
-        <v>8.559532077186514</v>
+        <v>6.430392981359962</v>
       </c>
       <c r="J16" t="n">
-        <v>20.12318046078582</v>
+        <v>15.11764395889855</v>
       </c>
       <c r="K16" t="n">
-        <v>33.06856709384631</v>
+        <v>24.84293298119113</v>
       </c>
       <c r="L16" t="n">
-        <v>42.3163807709517</v>
+        <v>31.79040109345852</v>
       </c>
       <c r="M16" t="n">
-        <v>44.61669032857527</v>
+        <v>33.51852060991227</v>
       </c>
       <c r="N16" t="n">
-        <v>43.55580515576803</v>
+        <v>32.72152510738582</v>
       </c>
       <c r="O16" t="n">
-        <v>40.23083577270131</v>
+        <v>30.22362456897965</v>
       </c>
       <c r="P16" t="n">
-        <v>34.42443009519024</v>
+        <v>25.86153211124936</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.83369104079956</v>
+        <v>17.90518432627164</v>
       </c>
       <c r="R16" t="n">
-        <v>12.79789771879216</v>
+        <v>9.614487208526709</v>
       </c>
       <c r="S16" t="n">
-        <v>4.960285064076945</v>
+        <v>3.726439947178669</v>
       </c>
       <c r="T16" t="n">
-        <v>1.21613666151078</v>
+        <v>0.9136289907010823</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0155251488703504</v>
+        <v>0.01166334881746064</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6345286975486585</v>
+        <v>0.4766929834942029</v>
       </c>
       <c r="H17" t="n">
-        <v>6.4983670237702</v>
+        <v>4.881932017210007</v>
       </c>
       <c r="I17" t="n">
-        <v>24.46266761224468</v>
+        <v>18.37770624616028</v>
       </c>
       <c r="J17" t="n">
-        <v>53.8548300435705</v>
+        <v>40.45872110784114</v>
       </c>
       <c r="K17" t="n">
-        <v>80.71442981080523</v>
+        <v>60.63713509915076</v>
       </c>
       <c r="L17" t="n">
-        <v>100.13338743841</v>
+        <v>75.22572799276149</v>
       </c>
       <c r="M17" t="n">
-        <v>111.417687163441</v>
+        <v>83.70311683797652</v>
       </c>
       <c r="N17" t="n">
-        <v>113.2205418253511</v>
+        <v>85.05752077732943</v>
       </c>
       <c r="O17" t="n">
-        <v>106.9109470891016</v>
+        <v>80.31740492270895</v>
       </c>
       <c r="P17" t="n">
-        <v>91.24601986836909</v>
+        <v>68.5490468926958</v>
       </c>
       <c r="Q17" t="n">
-        <v>68.52196088740774</v>
+        <v>51.47747942130965</v>
       </c>
       <c r="R17" t="n">
-        <v>39.85871329739096</v>
+        <v>29.94406562441775</v>
       </c>
       <c r="S17" t="n">
-        <v>14.45932269539007</v>
+        <v>10.86264136137416</v>
       </c>
       <c r="T17" t="n">
-        <v>2.777649373519254</v>
+        <v>2.086723535245874</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05076229580389267</v>
+        <v>0.03813543867953623</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3395027837874735</v>
+        <v>0.2550532316874881</v>
       </c>
       <c r="H18" t="n">
-        <v>3.278882148684284</v>
+        <v>2.463277263929162</v>
       </c>
       <c r="I18" t="n">
-        <v>11.68902128391082</v>
+        <v>8.78143802081922</v>
       </c>
       <c r="J18" t="n">
-        <v>32.07556783142969</v>
+        <v>24.09693712184291</v>
       </c>
       <c r="K18" t="n">
-        <v>54.82225434519041</v>
+        <v>41.18550364490461</v>
       </c>
       <c r="L18" t="n">
-        <v>73.71528645350385</v>
+        <v>55.37899225740833</v>
       </c>
       <c r="M18" t="n">
-        <v>86.02226236579975</v>
+        <v>64.62467190607977</v>
       </c>
       <c r="N18" t="n">
-        <v>88.29901568339207</v>
+        <v>66.33509467472086</v>
       </c>
       <c r="O18" t="n">
-        <v>80.77634873736437</v>
+        <v>60.6836520146981</v>
       </c>
       <c r="P18" t="n">
-        <v>64.83014123043431</v>
+        <v>48.70398070706079</v>
       </c>
       <c r="Q18" t="n">
-        <v>43.33723254101154</v>
+        <v>32.55732129400288</v>
       </c>
       <c r="R18" t="n">
-        <v>21.07895354076964</v>
+        <v>15.83567345512317</v>
       </c>
       <c r="S18" t="n">
-        <v>6.306115304122585</v>
+        <v>4.737501913142594</v>
       </c>
       <c r="T18" t="n">
-        <v>1.368434466231088</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02233570945970222</v>
+        <v>0.01677981787417685</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.284627729289757</v>
+        <v>0.2138280616534448</v>
       </c>
       <c r="H19" t="n">
-        <v>2.530599265867114</v>
+        <v>1.901125857246084</v>
       </c>
       <c r="I19" t="n">
-        <v>8.559532077186514</v>
+        <v>6.430392981359962</v>
       </c>
       <c r="J19" t="n">
-        <v>20.12318046078582</v>
+        <v>15.11764395889855</v>
       </c>
       <c r="K19" t="n">
-        <v>33.06856709384631</v>
+        <v>24.84293298119113</v>
       </c>
       <c r="L19" t="n">
-        <v>42.3163807709517</v>
+        <v>31.79040109345852</v>
       </c>
       <c r="M19" t="n">
-        <v>44.61669032857527</v>
+        <v>33.51852060991227</v>
       </c>
       <c r="N19" t="n">
-        <v>43.55580515576803</v>
+        <v>32.72152510738582</v>
       </c>
       <c r="O19" t="n">
-        <v>40.23083577270131</v>
+        <v>30.22362456897965</v>
       </c>
       <c r="P19" t="n">
-        <v>34.42443009519024</v>
+        <v>25.86153211124936</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.83369104079956</v>
+        <v>17.90518432627164</v>
       </c>
       <c r="R19" t="n">
-        <v>12.79789771879216</v>
+        <v>9.614487208526709</v>
       </c>
       <c r="S19" t="n">
-        <v>4.960285064076945</v>
+        <v>3.726439947178669</v>
       </c>
       <c r="T19" t="n">
-        <v>1.21613666151078</v>
+        <v>0.9136289907010823</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0155251488703504</v>
+        <v>0.01166334881746064</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6345286975486574</v>
+        <v>0.4766929834942029</v>
       </c>
       <c r="H20" t="n">
-        <v>6.498367023770188</v>
+        <v>4.881932017210007</v>
       </c>
       <c r="I20" t="n">
-        <v>24.46266761224464</v>
+        <v>18.37770624616028</v>
       </c>
       <c r="J20" t="n">
-        <v>53.8548300435704</v>
+        <v>40.45872110784114</v>
       </c>
       <c r="K20" t="n">
-        <v>80.71442981080509</v>
+        <v>60.63713509915076</v>
       </c>
       <c r="L20" t="n">
-        <v>100.1333874384098</v>
+        <v>75.22572799276149</v>
       </c>
       <c r="M20" t="n">
-        <v>111.4176871634408</v>
+        <v>83.70311683797652</v>
       </c>
       <c r="N20" t="n">
-        <v>113.2205418253509</v>
+        <v>85.05752077732943</v>
       </c>
       <c r="O20" t="n">
-        <v>106.9109470891014</v>
+        <v>80.31740492270895</v>
       </c>
       <c r="P20" t="n">
-        <v>91.24601986836893</v>
+        <v>68.5490468926958</v>
       </c>
       <c r="Q20" t="n">
-        <v>68.52196088740762</v>
+        <v>51.47747942130965</v>
       </c>
       <c r="R20" t="n">
-        <v>39.85871329739088</v>
+        <v>29.94406562441775</v>
       </c>
       <c r="S20" t="n">
-        <v>14.45932269539004</v>
+        <v>10.86264136137416</v>
       </c>
       <c r="T20" t="n">
-        <v>2.777649373519249</v>
+        <v>2.086723535245874</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05076229580389258</v>
+        <v>0.03813543867953623</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3395027837874729</v>
+        <v>0.2550532316874881</v>
       </c>
       <c r="H21" t="n">
-        <v>3.278882148684279</v>
+        <v>2.463277263929162</v>
       </c>
       <c r="I21" t="n">
-        <v>11.6890212839108</v>
+        <v>8.78143802081922</v>
       </c>
       <c r="J21" t="n">
-        <v>32.07556783142963</v>
+        <v>24.09693712184291</v>
       </c>
       <c r="K21" t="n">
-        <v>54.82225434519031</v>
+        <v>41.18550364490461</v>
       </c>
       <c r="L21" t="n">
-        <v>73.71528645350372</v>
+        <v>55.37899225740833</v>
       </c>
       <c r="M21" t="n">
-        <v>86.02226236579959</v>
+        <v>64.62467190607977</v>
       </c>
       <c r="N21" t="n">
-        <v>88.29901568339191</v>
+        <v>66.33509467472086</v>
       </c>
       <c r="O21" t="n">
-        <v>80.77634873736422</v>
+        <v>60.6836520146981</v>
       </c>
       <c r="P21" t="n">
-        <v>64.83014123043419</v>
+        <v>48.70398070706079</v>
       </c>
       <c r="Q21" t="n">
-        <v>43.33723254101146</v>
+        <v>32.55732129400288</v>
       </c>
       <c r="R21" t="n">
-        <v>21.0789535407696</v>
+        <v>15.83567345512317</v>
       </c>
       <c r="S21" t="n">
-        <v>6.306115304122573</v>
+        <v>4.737501913142594</v>
       </c>
       <c r="T21" t="n">
-        <v>1.368434466231085</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02233570945970217</v>
+        <v>0.01677981787417685</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2846277292897565</v>
+        <v>0.2138280616534448</v>
       </c>
       <c r="H22" t="n">
-        <v>2.53059926586711</v>
+        <v>1.901125857246084</v>
       </c>
       <c r="I22" t="n">
-        <v>8.559532077186498</v>
+        <v>6.430392981359962</v>
       </c>
       <c r="J22" t="n">
-        <v>20.12318046078579</v>
+        <v>15.11764395889855</v>
       </c>
       <c r="K22" t="n">
-        <v>33.06856709384625</v>
+        <v>24.84293298119113</v>
       </c>
       <c r="L22" t="n">
-        <v>42.31638077095162</v>
+        <v>31.79040109345852</v>
       </c>
       <c r="M22" t="n">
-        <v>44.61669032857519</v>
+        <v>33.51852060991227</v>
       </c>
       <c r="N22" t="n">
-        <v>43.55580515576795</v>
+        <v>32.72152510738582</v>
       </c>
       <c r="O22" t="n">
-        <v>40.23083577270123</v>
+        <v>30.22362456897965</v>
       </c>
       <c r="P22" t="n">
-        <v>34.42443009519017</v>
+        <v>25.86153211124936</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.83369104079952</v>
+        <v>17.90518432627164</v>
       </c>
       <c r="R22" t="n">
-        <v>12.79789771879214</v>
+        <v>9.614487208526709</v>
       </c>
       <c r="S22" t="n">
-        <v>4.960285064076936</v>
+        <v>3.726439947178669</v>
       </c>
       <c r="T22" t="n">
-        <v>1.216136661510778</v>
+        <v>0.9136289907010823</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01552514887035037</v>
+        <v>0.01166334881746064</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6345286975486574</v>
+        <v>0.4766929834942029</v>
       </c>
       <c r="H23" t="n">
-        <v>6.498367023770188</v>
+        <v>4.881932017210007</v>
       </c>
       <c r="I23" t="n">
-        <v>24.46266761224464</v>
+        <v>18.37770624616028</v>
       </c>
       <c r="J23" t="n">
-        <v>53.8548300435704</v>
+        <v>40.45872110784114</v>
       </c>
       <c r="K23" t="n">
-        <v>80.71442981080509</v>
+        <v>60.63713509915076</v>
       </c>
       <c r="L23" t="n">
-        <v>100.1333874384098</v>
+        <v>75.22572799276149</v>
       </c>
       <c r="M23" t="n">
-        <v>111.4176871634408</v>
+        <v>83.70311683797652</v>
       </c>
       <c r="N23" t="n">
-        <v>113.2205418253509</v>
+        <v>85.05752077732943</v>
       </c>
       <c r="O23" t="n">
-        <v>106.9109470891014</v>
+        <v>80.31740492270895</v>
       </c>
       <c r="P23" t="n">
-        <v>91.24601986836893</v>
+        <v>68.5490468926958</v>
       </c>
       <c r="Q23" t="n">
-        <v>68.52196088740762</v>
+        <v>51.47747942130965</v>
       </c>
       <c r="R23" t="n">
-        <v>39.85871329739088</v>
+        <v>29.94406562441775</v>
       </c>
       <c r="S23" t="n">
-        <v>14.45932269539004</v>
+        <v>10.86264136137416</v>
       </c>
       <c r="T23" t="n">
-        <v>2.777649373519249</v>
+        <v>2.086723535245874</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05076229580389258</v>
+        <v>0.03813543867953623</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3395027837874729</v>
+        <v>0.2550532316874881</v>
       </c>
       <c r="H24" t="n">
-        <v>3.278882148684279</v>
+        <v>2.463277263929162</v>
       </c>
       <c r="I24" t="n">
-        <v>11.6890212839108</v>
+        <v>8.78143802081922</v>
       </c>
       <c r="J24" t="n">
-        <v>32.07556783142963</v>
+        <v>24.09693712184291</v>
       </c>
       <c r="K24" t="n">
-        <v>54.82225434519031</v>
+        <v>41.18550364490461</v>
       </c>
       <c r="L24" t="n">
-        <v>73.71528645350372</v>
+        <v>55.37899225740833</v>
       </c>
       <c r="M24" t="n">
-        <v>86.02226236579959</v>
+        <v>64.62467190607977</v>
       </c>
       <c r="N24" t="n">
-        <v>88.29901568339191</v>
+        <v>66.33509467472086</v>
       </c>
       <c r="O24" t="n">
-        <v>80.77634873736422</v>
+        <v>60.6836520146981</v>
       </c>
       <c r="P24" t="n">
-        <v>64.83014123043419</v>
+        <v>48.70398070706079</v>
       </c>
       <c r="Q24" t="n">
-        <v>43.33723254101146</v>
+        <v>32.55732129400288</v>
       </c>
       <c r="R24" t="n">
-        <v>21.0789535407696</v>
+        <v>15.83567345512317</v>
       </c>
       <c r="S24" t="n">
-        <v>6.306115304122573</v>
+        <v>4.737501913142594</v>
       </c>
       <c r="T24" t="n">
-        <v>1.368434466231085</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02233570945970217</v>
+        <v>0.01677981787417685</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2846277292897565</v>
+        <v>0.2138280616534448</v>
       </c>
       <c r="H25" t="n">
-        <v>2.53059926586711</v>
+        <v>1.901125857246084</v>
       </c>
       <c r="I25" t="n">
-        <v>8.559532077186498</v>
+        <v>6.430392981359962</v>
       </c>
       <c r="J25" t="n">
-        <v>20.12318046078579</v>
+        <v>15.11764395889855</v>
       </c>
       <c r="K25" t="n">
-        <v>33.06856709384625</v>
+        <v>24.84293298119113</v>
       </c>
       <c r="L25" t="n">
-        <v>42.31638077095162</v>
+        <v>31.79040109345852</v>
       </c>
       <c r="M25" t="n">
-        <v>44.61669032857519</v>
+        <v>33.51852060991227</v>
       </c>
       <c r="N25" t="n">
-        <v>43.55580515576795</v>
+        <v>32.72152510738582</v>
       </c>
       <c r="O25" t="n">
-        <v>40.23083577270123</v>
+        <v>30.22362456897965</v>
       </c>
       <c r="P25" t="n">
-        <v>34.42443009519017</v>
+        <v>25.86153211124936</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.83369104079952</v>
+        <v>17.90518432627164</v>
       </c>
       <c r="R25" t="n">
-        <v>12.79789771879214</v>
+        <v>9.614487208526709</v>
       </c>
       <c r="S25" t="n">
-        <v>4.960285064076936</v>
+        <v>3.726439947178669</v>
       </c>
       <c r="T25" t="n">
-        <v>1.216136661510778</v>
+        <v>0.9136289907010823</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01552514887035037</v>
+        <v>0.01166334881746064</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6345286975486574</v>
+        <v>0.4766929834942029</v>
       </c>
       <c r="H26" t="n">
-        <v>6.498367023770188</v>
+        <v>4.881932017210007</v>
       </c>
       <c r="I26" t="n">
-        <v>24.46266761224464</v>
+        <v>18.37770624616028</v>
       </c>
       <c r="J26" t="n">
-        <v>53.8548300435704</v>
+        <v>40.45872110784114</v>
       </c>
       <c r="K26" t="n">
-        <v>80.71442981080509</v>
+        <v>60.63713509915076</v>
       </c>
       <c r="L26" t="n">
-        <v>100.1333874384098</v>
+        <v>75.22572799276149</v>
       </c>
       <c r="M26" t="n">
-        <v>111.4176871634408</v>
+        <v>83.70311683797652</v>
       </c>
       <c r="N26" t="n">
-        <v>113.2205418253509</v>
+        <v>85.05752077732943</v>
       </c>
       <c r="O26" t="n">
-        <v>106.9109470891014</v>
+        <v>80.31740492270895</v>
       </c>
       <c r="P26" t="n">
-        <v>91.24601986836893</v>
+        <v>68.5490468926958</v>
       </c>
       <c r="Q26" t="n">
-        <v>68.52196088740762</v>
+        <v>51.47747942130965</v>
       </c>
       <c r="R26" t="n">
-        <v>39.85871329739088</v>
+        <v>29.94406562441775</v>
       </c>
       <c r="S26" t="n">
-        <v>14.45932269539004</v>
+        <v>10.86264136137416</v>
       </c>
       <c r="T26" t="n">
-        <v>2.777649373519249</v>
+        <v>2.086723535245874</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05076229580389258</v>
+        <v>0.03813543867953623</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3395027837874729</v>
+        <v>0.2550532316874881</v>
       </c>
       <c r="H27" t="n">
-        <v>3.278882148684279</v>
+        <v>2.463277263929162</v>
       </c>
       <c r="I27" t="n">
-        <v>11.6890212839108</v>
+        <v>8.78143802081922</v>
       </c>
       <c r="J27" t="n">
-        <v>32.07556783142963</v>
+        <v>24.09693712184291</v>
       </c>
       <c r="K27" t="n">
-        <v>54.82225434519031</v>
+        <v>41.18550364490461</v>
       </c>
       <c r="L27" t="n">
-        <v>73.71528645350372</v>
+        <v>55.37899225740833</v>
       </c>
       <c r="M27" t="n">
-        <v>86.02226236579959</v>
+        <v>64.62467190607977</v>
       </c>
       <c r="N27" t="n">
-        <v>88.29901568339191</v>
+        <v>66.33509467472086</v>
       </c>
       <c r="O27" t="n">
-        <v>80.77634873736422</v>
+        <v>60.6836520146981</v>
       </c>
       <c r="P27" t="n">
-        <v>64.83014123043419</v>
+        <v>48.70398070706079</v>
       </c>
       <c r="Q27" t="n">
-        <v>43.33723254101146</v>
+        <v>32.55732129400288</v>
       </c>
       <c r="R27" t="n">
-        <v>21.0789535407696</v>
+        <v>15.83567345512317</v>
       </c>
       <c r="S27" t="n">
-        <v>6.306115304122573</v>
+        <v>4.737501913142594</v>
       </c>
       <c r="T27" t="n">
-        <v>1.368434466231085</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02233570945970217</v>
+        <v>0.01677981787417685</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2846277292897565</v>
+        <v>0.2138280616534448</v>
       </c>
       <c r="H28" t="n">
-        <v>2.53059926586711</v>
+        <v>1.901125857246084</v>
       </c>
       <c r="I28" t="n">
-        <v>8.559532077186498</v>
+        <v>6.430392981359962</v>
       </c>
       <c r="J28" t="n">
-        <v>20.12318046078579</v>
+        <v>15.11764395889855</v>
       </c>
       <c r="K28" t="n">
-        <v>33.06856709384625</v>
+        <v>24.84293298119113</v>
       </c>
       <c r="L28" t="n">
-        <v>42.31638077095162</v>
+        <v>31.79040109345852</v>
       </c>
       <c r="M28" t="n">
-        <v>44.61669032857519</v>
+        <v>33.51852060991227</v>
       </c>
       <c r="N28" t="n">
-        <v>43.55580515576795</v>
+        <v>32.72152510738582</v>
       </c>
       <c r="O28" t="n">
-        <v>40.23083577270123</v>
+        <v>30.22362456897965</v>
       </c>
       <c r="P28" t="n">
-        <v>34.42443009519017</v>
+        <v>25.86153211124936</v>
       </c>
       <c r="Q28" t="n">
-        <v>23.83369104079952</v>
+        <v>17.90518432627164</v>
       </c>
       <c r="R28" t="n">
-        <v>12.79789771879214</v>
+        <v>9.614487208526709</v>
       </c>
       <c r="S28" t="n">
-        <v>4.960285064076936</v>
+        <v>3.726439947178669</v>
       </c>
       <c r="T28" t="n">
-        <v>1.216136661510778</v>
+        <v>0.9136289907010823</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01552514887035037</v>
+        <v>0.01166334881746064</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6345286975486575</v>
+        <v>0.4766929834942029</v>
       </c>
       <c r="H29" t="n">
-        <v>6.498367023770189</v>
+        <v>4.881932017210007</v>
       </c>
       <c r="I29" t="n">
-        <v>24.46266761224464</v>
+        <v>18.37770624616028</v>
       </c>
       <c r="J29" t="n">
-        <v>53.85483004357042</v>
+        <v>40.45872110784114</v>
       </c>
       <c r="K29" t="n">
-        <v>80.7144298108051</v>
+        <v>60.63713509915076</v>
       </c>
       <c r="L29" t="n">
-        <v>100.1333874384098</v>
+        <v>75.22572799276149</v>
       </c>
       <c r="M29" t="n">
-        <v>111.4176871634408</v>
+        <v>83.70311683797652</v>
       </c>
       <c r="N29" t="n">
-        <v>113.2205418253509</v>
+        <v>85.05752077732943</v>
       </c>
       <c r="O29" t="n">
-        <v>106.9109470891014</v>
+        <v>80.31740492270895</v>
       </c>
       <c r="P29" t="n">
-        <v>91.24601986836895</v>
+        <v>68.5490468926958</v>
       </c>
       <c r="Q29" t="n">
-        <v>68.52196088740763</v>
+        <v>51.47747942130965</v>
       </c>
       <c r="R29" t="n">
-        <v>39.85871329739089</v>
+        <v>29.94406562441775</v>
       </c>
       <c r="S29" t="n">
-        <v>14.45932269539005</v>
+        <v>10.86264136137416</v>
       </c>
       <c r="T29" t="n">
-        <v>2.77764937351925</v>
+        <v>2.086723535245874</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05076229580389258</v>
+        <v>0.03813543867953623</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.339502783787473</v>
+        <v>0.2550532316874881</v>
       </c>
       <c r="H30" t="n">
-        <v>3.278882148684279</v>
+        <v>2.463277263929162</v>
       </c>
       <c r="I30" t="n">
-        <v>11.6890212839108</v>
+        <v>8.78143802081922</v>
       </c>
       <c r="J30" t="n">
-        <v>32.07556783142963</v>
+        <v>24.09693712184291</v>
       </c>
       <c r="K30" t="n">
-        <v>54.82225434519032</v>
+        <v>41.18550364490461</v>
       </c>
       <c r="L30" t="n">
-        <v>73.71528645350374</v>
+        <v>55.37899225740833</v>
       </c>
       <c r="M30" t="n">
-        <v>86.02226236579961</v>
+        <v>64.62467190607977</v>
       </c>
       <c r="N30" t="n">
-        <v>88.29901568339193</v>
+        <v>66.33509467472086</v>
       </c>
       <c r="O30" t="n">
-        <v>80.77634873736423</v>
+        <v>60.6836520146981</v>
       </c>
       <c r="P30" t="n">
-        <v>64.83014123043421</v>
+        <v>48.70398070706079</v>
       </c>
       <c r="Q30" t="n">
-        <v>43.33723254101147</v>
+        <v>32.55732129400288</v>
       </c>
       <c r="R30" t="n">
-        <v>21.0789535407696</v>
+        <v>15.83567345512317</v>
       </c>
       <c r="S30" t="n">
-        <v>6.306115304122575</v>
+        <v>4.737501913142594</v>
       </c>
       <c r="T30" t="n">
-        <v>1.368434466231086</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02233570945970218</v>
+        <v>0.01677981787417685</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2846277292897565</v>
+        <v>0.2138280616534448</v>
       </c>
       <c r="H31" t="n">
-        <v>2.53059926586711</v>
+        <v>1.901125857246084</v>
       </c>
       <c r="I31" t="n">
-        <v>8.5595320771865</v>
+        <v>6.430392981359962</v>
       </c>
       <c r="J31" t="n">
-        <v>20.12318046078579</v>
+        <v>15.11764395889855</v>
       </c>
       <c r="K31" t="n">
-        <v>33.06856709384626</v>
+        <v>24.84293298119113</v>
       </c>
       <c r="L31" t="n">
-        <v>42.31638077095163</v>
+        <v>31.79040109345852</v>
       </c>
       <c r="M31" t="n">
-        <v>44.6166903285752</v>
+        <v>33.51852060991227</v>
       </c>
       <c r="N31" t="n">
-        <v>43.55580515576796</v>
+        <v>32.72152510738582</v>
       </c>
       <c r="O31" t="n">
-        <v>40.23083577270124</v>
+        <v>30.22362456897965</v>
       </c>
       <c r="P31" t="n">
-        <v>34.42443009519018</v>
+        <v>25.86153211124936</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.83369104079953</v>
+        <v>17.90518432627164</v>
       </c>
       <c r="R31" t="n">
-        <v>12.79789771879214</v>
+        <v>9.614487208526709</v>
       </c>
       <c r="S31" t="n">
-        <v>4.960285064076937</v>
+        <v>3.726439947178669</v>
       </c>
       <c r="T31" t="n">
-        <v>1.216136661510778</v>
+        <v>0.9136289907010823</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01552514887035038</v>
+        <v>0.01166334881746064</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6345286975486575</v>
+        <v>0.4766929834942029</v>
       </c>
       <c r="H32" t="n">
-        <v>6.498367023770189</v>
+        <v>4.881932017210007</v>
       </c>
       <c r="I32" t="n">
-        <v>24.46266761224464</v>
+        <v>18.37770624616028</v>
       </c>
       <c r="J32" t="n">
-        <v>53.85483004357042</v>
+        <v>40.45872110784114</v>
       </c>
       <c r="K32" t="n">
-        <v>80.7144298108051</v>
+        <v>60.63713509915076</v>
       </c>
       <c r="L32" t="n">
-        <v>100.1333874384098</v>
+        <v>75.22572799276149</v>
       </c>
       <c r="M32" t="n">
-        <v>111.4176871634408</v>
+        <v>83.70311683797652</v>
       </c>
       <c r="N32" t="n">
-        <v>113.2205418253509</v>
+        <v>85.05752077732943</v>
       </c>
       <c r="O32" t="n">
-        <v>106.9109470891014</v>
+        <v>80.31740492270895</v>
       </c>
       <c r="P32" t="n">
-        <v>91.24601986836895</v>
+        <v>68.5490468926958</v>
       </c>
       <c r="Q32" t="n">
-        <v>68.52196088740763</v>
+        <v>51.47747942130965</v>
       </c>
       <c r="R32" t="n">
-        <v>39.85871329739089</v>
+        <v>29.94406562441775</v>
       </c>
       <c r="S32" t="n">
-        <v>14.45932269539005</v>
+        <v>10.86264136137416</v>
       </c>
       <c r="T32" t="n">
-        <v>2.77764937351925</v>
+        <v>2.086723535245874</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05076229580389258</v>
+        <v>0.03813543867953623</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.339502783787473</v>
+        <v>0.2550532316874881</v>
       </c>
       <c r="H33" t="n">
-        <v>3.278882148684279</v>
+        <v>2.463277263929162</v>
       </c>
       <c r="I33" t="n">
-        <v>11.6890212839108</v>
+        <v>8.78143802081922</v>
       </c>
       <c r="J33" t="n">
-        <v>32.07556783142963</v>
+        <v>24.09693712184291</v>
       </c>
       <c r="K33" t="n">
-        <v>54.82225434519032</v>
+        <v>41.18550364490461</v>
       </c>
       <c r="L33" t="n">
-        <v>73.71528645350374</v>
+        <v>55.37899225740833</v>
       </c>
       <c r="M33" t="n">
-        <v>86.02226236579961</v>
+        <v>64.62467190607977</v>
       </c>
       <c r="N33" t="n">
-        <v>88.29901568339193</v>
+        <v>66.33509467472086</v>
       </c>
       <c r="O33" t="n">
-        <v>80.77634873736423</v>
+        <v>60.6836520146981</v>
       </c>
       <c r="P33" t="n">
-        <v>64.83014123043421</v>
+        <v>48.70398070706079</v>
       </c>
       <c r="Q33" t="n">
-        <v>43.33723254101147</v>
+        <v>32.55732129400288</v>
       </c>
       <c r="R33" t="n">
-        <v>21.0789535407696</v>
+        <v>15.83567345512317</v>
       </c>
       <c r="S33" t="n">
-        <v>6.306115304122575</v>
+        <v>4.737501913142594</v>
       </c>
       <c r="T33" t="n">
-        <v>1.368434466231086</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02233570945970218</v>
+        <v>0.01677981787417685</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2846277292897565</v>
+        <v>0.2138280616534448</v>
       </c>
       <c r="H34" t="n">
-        <v>2.53059926586711</v>
+        <v>1.901125857246084</v>
       </c>
       <c r="I34" t="n">
-        <v>8.5595320771865</v>
+        <v>6.430392981359962</v>
       </c>
       <c r="J34" t="n">
-        <v>20.12318046078579</v>
+        <v>15.11764395889855</v>
       </c>
       <c r="K34" t="n">
-        <v>33.06856709384626</v>
+        <v>24.84293298119113</v>
       </c>
       <c r="L34" t="n">
-        <v>42.31638077095163</v>
+        <v>31.79040109345852</v>
       </c>
       <c r="M34" t="n">
-        <v>44.6166903285752</v>
+        <v>33.51852060991227</v>
       </c>
       <c r="N34" t="n">
-        <v>43.55580515576796</v>
+        <v>32.72152510738582</v>
       </c>
       <c r="O34" t="n">
-        <v>40.23083577270124</v>
+        <v>30.22362456897965</v>
       </c>
       <c r="P34" t="n">
-        <v>34.42443009519018</v>
+        <v>25.86153211124936</v>
       </c>
       <c r="Q34" t="n">
-        <v>23.83369104079953</v>
+        <v>17.90518432627164</v>
       </c>
       <c r="R34" t="n">
-        <v>12.79789771879214</v>
+        <v>9.614487208526709</v>
       </c>
       <c r="S34" t="n">
-        <v>4.960285064076937</v>
+        <v>3.726439947178669</v>
       </c>
       <c r="T34" t="n">
-        <v>1.216136661510778</v>
+        <v>0.9136289907010823</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01552514887035038</v>
+        <v>0.01166334881746064</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6345286975486575</v>
+        <v>0.4766929834942029</v>
       </c>
       <c r="H35" t="n">
-        <v>6.498367023770189</v>
+        <v>4.881932017210007</v>
       </c>
       <c r="I35" t="n">
-        <v>24.46266761224464</v>
+        <v>18.37770624616028</v>
       </c>
       <c r="J35" t="n">
-        <v>53.85483004357042</v>
+        <v>40.45872110784114</v>
       </c>
       <c r="K35" t="n">
-        <v>80.7144298108051</v>
+        <v>60.63713509915076</v>
       </c>
       <c r="L35" t="n">
-        <v>100.1333874384098</v>
+        <v>75.22572799276149</v>
       </c>
       <c r="M35" t="n">
-        <v>111.4176871634408</v>
+        <v>83.70311683797652</v>
       </c>
       <c r="N35" t="n">
-        <v>113.2205418253509</v>
+        <v>85.05752077732943</v>
       </c>
       <c r="O35" t="n">
-        <v>106.9109470891014</v>
+        <v>80.31740492270895</v>
       </c>
       <c r="P35" t="n">
-        <v>91.24601986836895</v>
+        <v>68.5490468926958</v>
       </c>
       <c r="Q35" t="n">
-        <v>68.52196088740763</v>
+        <v>51.47747942130965</v>
       </c>
       <c r="R35" t="n">
-        <v>39.85871329739089</v>
+        <v>29.94406562441775</v>
       </c>
       <c r="S35" t="n">
-        <v>14.45932269539005</v>
+        <v>10.86264136137416</v>
       </c>
       <c r="T35" t="n">
-        <v>2.77764937351925</v>
+        <v>2.086723535245874</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05076229580389258</v>
+        <v>0.03813543867953623</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.339502783787473</v>
+        <v>0.2550532316874881</v>
       </c>
       <c r="H36" t="n">
-        <v>3.278882148684279</v>
+        <v>2.463277263929162</v>
       </c>
       <c r="I36" t="n">
-        <v>11.6890212839108</v>
+        <v>8.78143802081922</v>
       </c>
       <c r="J36" t="n">
-        <v>32.07556783142963</v>
+        <v>24.09693712184291</v>
       </c>
       <c r="K36" t="n">
-        <v>54.82225434519032</v>
+        <v>41.18550364490461</v>
       </c>
       <c r="L36" t="n">
-        <v>73.71528645350374</v>
+        <v>55.37899225740833</v>
       </c>
       <c r="M36" t="n">
-        <v>86.02226236579961</v>
+        <v>64.62467190607977</v>
       </c>
       <c r="N36" t="n">
-        <v>88.29901568339193</v>
+        <v>66.33509467472086</v>
       </c>
       <c r="O36" t="n">
-        <v>80.77634873736423</v>
+        <v>60.6836520146981</v>
       </c>
       <c r="P36" t="n">
-        <v>64.83014123043421</v>
+        <v>48.70398070706079</v>
       </c>
       <c r="Q36" t="n">
-        <v>43.33723254101147</v>
+        <v>32.55732129400288</v>
       </c>
       <c r="R36" t="n">
-        <v>21.0789535407696</v>
+        <v>15.83567345512317</v>
       </c>
       <c r="S36" t="n">
-        <v>6.306115304122575</v>
+        <v>4.737501913142594</v>
       </c>
       <c r="T36" t="n">
-        <v>1.368434466231086</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02233570945970218</v>
+        <v>0.01677981787417685</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2846277292897565</v>
+        <v>0.2138280616534448</v>
       </c>
       <c r="H37" t="n">
-        <v>2.53059926586711</v>
+        <v>1.901125857246084</v>
       </c>
       <c r="I37" t="n">
-        <v>8.5595320771865</v>
+        <v>6.430392981359962</v>
       </c>
       <c r="J37" t="n">
-        <v>20.12318046078579</v>
+        <v>15.11764395889855</v>
       </c>
       <c r="K37" t="n">
-        <v>33.06856709384626</v>
+        <v>24.84293298119113</v>
       </c>
       <c r="L37" t="n">
-        <v>42.31638077095163</v>
+        <v>31.79040109345852</v>
       </c>
       <c r="M37" t="n">
-        <v>44.6166903285752</v>
+        <v>33.51852060991227</v>
       </c>
       <c r="N37" t="n">
-        <v>43.55580515576796</v>
+        <v>32.72152510738582</v>
       </c>
       <c r="O37" t="n">
-        <v>40.23083577270124</v>
+        <v>30.22362456897965</v>
       </c>
       <c r="P37" t="n">
-        <v>34.42443009519018</v>
+        <v>25.86153211124936</v>
       </c>
       <c r="Q37" t="n">
-        <v>23.83369104079953</v>
+        <v>17.90518432627164</v>
       </c>
       <c r="R37" t="n">
-        <v>12.79789771879214</v>
+        <v>9.614487208526709</v>
       </c>
       <c r="S37" t="n">
-        <v>4.960285064076937</v>
+        <v>3.726439947178669</v>
       </c>
       <c r="T37" t="n">
-        <v>1.216136661510778</v>
+        <v>0.9136289907010823</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01552514887035038</v>
+        <v>0.01166334881746064</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6345286975486575</v>
+        <v>0.4766929834942029</v>
       </c>
       <c r="H38" t="n">
-        <v>6.498367023770189</v>
+        <v>4.881932017210007</v>
       </c>
       <c r="I38" t="n">
-        <v>24.46266761224464</v>
+        <v>18.37770624616028</v>
       </c>
       <c r="J38" t="n">
-        <v>53.85483004357042</v>
+        <v>40.45872110784114</v>
       </c>
       <c r="K38" t="n">
-        <v>80.7144298108051</v>
+        <v>60.63713509915076</v>
       </c>
       <c r="L38" t="n">
-        <v>100.1333874384098</v>
+        <v>75.22572799276149</v>
       </c>
       <c r="M38" t="n">
-        <v>111.4176871634408</v>
+        <v>83.70311683797652</v>
       </c>
       <c r="N38" t="n">
-        <v>113.2205418253509</v>
+        <v>85.05752077732943</v>
       </c>
       <c r="O38" t="n">
-        <v>106.9109470891014</v>
+        <v>80.31740492270895</v>
       </c>
       <c r="P38" t="n">
-        <v>91.24601986836895</v>
+        <v>68.5490468926958</v>
       </c>
       <c r="Q38" t="n">
-        <v>68.52196088740763</v>
+        <v>51.47747942130965</v>
       </c>
       <c r="R38" t="n">
-        <v>39.85871329739089</v>
+        <v>29.94406562441775</v>
       </c>
       <c r="S38" t="n">
-        <v>14.45932269539005</v>
+        <v>10.86264136137416</v>
       </c>
       <c r="T38" t="n">
-        <v>2.77764937351925</v>
+        <v>2.086723535245874</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05076229580389258</v>
+        <v>0.03813543867953623</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.339502783787473</v>
+        <v>0.2550532316874881</v>
       </c>
       <c r="H39" t="n">
-        <v>3.278882148684279</v>
+        <v>2.463277263929162</v>
       </c>
       <c r="I39" t="n">
-        <v>11.6890212839108</v>
+        <v>8.78143802081922</v>
       </c>
       <c r="J39" t="n">
-        <v>32.07556783142963</v>
+        <v>24.09693712184291</v>
       </c>
       <c r="K39" t="n">
-        <v>54.82225434519032</v>
+        <v>41.18550364490461</v>
       </c>
       <c r="L39" t="n">
-        <v>73.71528645350374</v>
+        <v>55.37899225740833</v>
       </c>
       <c r="M39" t="n">
-        <v>86.02226236579961</v>
+        <v>64.62467190607977</v>
       </c>
       <c r="N39" t="n">
-        <v>88.29901568339193</v>
+        <v>66.33509467472086</v>
       </c>
       <c r="O39" t="n">
-        <v>80.77634873736423</v>
+        <v>60.6836520146981</v>
       </c>
       <c r="P39" t="n">
-        <v>64.83014123043421</v>
+        <v>48.70398070706079</v>
       </c>
       <c r="Q39" t="n">
-        <v>43.33723254101147</v>
+        <v>32.55732129400288</v>
       </c>
       <c r="R39" t="n">
-        <v>21.0789535407696</v>
+        <v>15.83567345512317</v>
       </c>
       <c r="S39" t="n">
-        <v>6.306115304122575</v>
+        <v>4.737501913142594</v>
       </c>
       <c r="T39" t="n">
-        <v>1.368434466231086</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02233570945970218</v>
+        <v>0.01677981787417685</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2846277292897565</v>
+        <v>0.2138280616534448</v>
       </c>
       <c r="H40" t="n">
-        <v>2.53059926586711</v>
+        <v>1.901125857246084</v>
       </c>
       <c r="I40" t="n">
-        <v>8.5595320771865</v>
+        <v>6.430392981359962</v>
       </c>
       <c r="J40" t="n">
-        <v>20.12318046078579</v>
+        <v>15.11764395889855</v>
       </c>
       <c r="K40" t="n">
-        <v>33.06856709384626</v>
+        <v>24.84293298119113</v>
       </c>
       <c r="L40" t="n">
-        <v>42.31638077095163</v>
+        <v>31.79040109345852</v>
       </c>
       <c r="M40" t="n">
-        <v>44.6166903285752</v>
+        <v>33.51852060991227</v>
       </c>
       <c r="N40" t="n">
-        <v>43.55580515576796</v>
+        <v>32.72152510738582</v>
       </c>
       <c r="O40" t="n">
-        <v>40.23083577270124</v>
+        <v>30.22362456897965</v>
       </c>
       <c r="P40" t="n">
-        <v>34.42443009519018</v>
+        <v>25.86153211124936</v>
       </c>
       <c r="Q40" t="n">
-        <v>23.83369104079953</v>
+        <v>17.90518432627164</v>
       </c>
       <c r="R40" t="n">
-        <v>12.79789771879214</v>
+        <v>9.614487208526709</v>
       </c>
       <c r="S40" t="n">
-        <v>4.960285064076937</v>
+        <v>3.726439947178669</v>
       </c>
       <c r="T40" t="n">
-        <v>1.216136661510778</v>
+        <v>0.9136289907010823</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01552514887035038</v>
+        <v>0.01166334881746064</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6345286975486575</v>
+        <v>0.4766929834942029</v>
       </c>
       <c r="H41" t="n">
-        <v>6.498367023770189</v>
+        <v>4.881932017210007</v>
       </c>
       <c r="I41" t="n">
-        <v>24.46266761224464</v>
+        <v>18.37770624616028</v>
       </c>
       <c r="J41" t="n">
-        <v>53.85483004357042</v>
+        <v>40.45872110784114</v>
       </c>
       <c r="K41" t="n">
-        <v>80.7144298108051</v>
+        <v>60.63713509915076</v>
       </c>
       <c r="L41" t="n">
-        <v>100.1333874384098</v>
+        <v>75.22572799276149</v>
       </c>
       <c r="M41" t="n">
-        <v>111.4176871634408</v>
+        <v>83.70311683797652</v>
       </c>
       <c r="N41" t="n">
-        <v>113.2205418253509</v>
+        <v>85.05752077732943</v>
       </c>
       <c r="O41" t="n">
-        <v>106.9109470891014</v>
+        <v>80.31740492270895</v>
       </c>
       <c r="P41" t="n">
-        <v>91.24601986836895</v>
+        <v>68.5490468926958</v>
       </c>
       <c r="Q41" t="n">
-        <v>68.52196088740763</v>
+        <v>51.47747942130965</v>
       </c>
       <c r="R41" t="n">
-        <v>39.85871329739089</v>
+        <v>29.94406562441775</v>
       </c>
       <c r="S41" t="n">
-        <v>14.45932269539005</v>
+        <v>10.86264136137416</v>
       </c>
       <c r="T41" t="n">
-        <v>2.77764937351925</v>
+        <v>2.086723535245874</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05076229580389258</v>
+        <v>0.03813543867953623</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.339502783787473</v>
+        <v>0.2550532316874881</v>
       </c>
       <c r="H42" t="n">
-        <v>3.278882148684279</v>
+        <v>2.463277263929162</v>
       </c>
       <c r="I42" t="n">
-        <v>11.6890212839108</v>
+        <v>8.78143802081922</v>
       </c>
       <c r="J42" t="n">
-        <v>32.07556783142963</v>
+        <v>24.09693712184291</v>
       </c>
       <c r="K42" t="n">
-        <v>54.82225434519032</v>
+        <v>41.18550364490461</v>
       </c>
       <c r="L42" t="n">
-        <v>73.71528645350374</v>
+        <v>55.37899225740833</v>
       </c>
       <c r="M42" t="n">
-        <v>86.02226236579961</v>
+        <v>64.62467190607977</v>
       </c>
       <c r="N42" t="n">
-        <v>88.29901568339193</v>
+        <v>66.33509467472086</v>
       </c>
       <c r="O42" t="n">
-        <v>80.77634873736423</v>
+        <v>60.6836520146981</v>
       </c>
       <c r="P42" t="n">
-        <v>64.83014123043421</v>
+        <v>48.70398070706079</v>
       </c>
       <c r="Q42" t="n">
-        <v>43.33723254101147</v>
+        <v>32.55732129400288</v>
       </c>
       <c r="R42" t="n">
-        <v>21.0789535407696</v>
+        <v>15.83567345512317</v>
       </c>
       <c r="S42" t="n">
-        <v>6.306115304122575</v>
+        <v>4.737501913142594</v>
       </c>
       <c r="T42" t="n">
-        <v>1.368434466231086</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02233570945970218</v>
+        <v>0.01677981787417685</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2846277292897565</v>
+        <v>0.2138280616534448</v>
       </c>
       <c r="H43" t="n">
-        <v>2.53059926586711</v>
+        <v>1.901125857246084</v>
       </c>
       <c r="I43" t="n">
-        <v>8.5595320771865</v>
+        <v>6.430392981359962</v>
       </c>
       <c r="J43" t="n">
-        <v>20.12318046078579</v>
+        <v>15.11764395889855</v>
       </c>
       <c r="K43" t="n">
-        <v>33.06856709384626</v>
+        <v>24.84293298119113</v>
       </c>
       <c r="L43" t="n">
-        <v>42.31638077095163</v>
+        <v>31.79040109345852</v>
       </c>
       <c r="M43" t="n">
-        <v>44.6166903285752</v>
+        <v>33.51852060991227</v>
       </c>
       <c r="N43" t="n">
-        <v>43.55580515576796</v>
+        <v>32.72152510738582</v>
       </c>
       <c r="O43" t="n">
-        <v>40.23083577270124</v>
+        <v>30.22362456897965</v>
       </c>
       <c r="P43" t="n">
-        <v>34.42443009519018</v>
+        <v>25.86153211124936</v>
       </c>
       <c r="Q43" t="n">
-        <v>23.83369104079953</v>
+        <v>17.90518432627164</v>
       </c>
       <c r="R43" t="n">
-        <v>12.79789771879214</v>
+        <v>9.614487208526709</v>
       </c>
       <c r="S43" t="n">
-        <v>4.960285064076937</v>
+        <v>3.726439947178669</v>
       </c>
       <c r="T43" t="n">
-        <v>1.216136661510778</v>
+        <v>0.9136289907010823</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01552514887035038</v>
+        <v>0.01166334881746064</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6345286975486575</v>
+        <v>0.4766929834942029</v>
       </c>
       <c r="H44" t="n">
-        <v>6.498367023770189</v>
+        <v>4.881932017210007</v>
       </c>
       <c r="I44" t="n">
-        <v>24.46266761224464</v>
+        <v>18.37770624616028</v>
       </c>
       <c r="J44" t="n">
-        <v>53.85483004357042</v>
+        <v>40.45872110784114</v>
       </c>
       <c r="K44" t="n">
-        <v>80.7144298108051</v>
+        <v>60.63713509915076</v>
       </c>
       <c r="L44" t="n">
-        <v>100.1333874384098</v>
+        <v>75.22572799276149</v>
       </c>
       <c r="M44" t="n">
-        <v>111.4176871634408</v>
+        <v>83.70311683797652</v>
       </c>
       <c r="N44" t="n">
-        <v>113.2205418253509</v>
+        <v>85.05752077732943</v>
       </c>
       <c r="O44" t="n">
-        <v>106.9109470891014</v>
+        <v>80.31740492270895</v>
       </c>
       <c r="P44" t="n">
-        <v>91.24601986836895</v>
+        <v>68.5490468926958</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.52196088740763</v>
+        <v>51.47747942130965</v>
       </c>
       <c r="R44" t="n">
-        <v>39.85871329739089</v>
+        <v>29.94406562441775</v>
       </c>
       <c r="S44" t="n">
-        <v>14.45932269539005</v>
+        <v>10.86264136137416</v>
       </c>
       <c r="T44" t="n">
-        <v>2.77764937351925</v>
+        <v>2.086723535245874</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05076229580389258</v>
+        <v>0.03813543867953623</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.339502783787473</v>
+        <v>0.2550532316874881</v>
       </c>
       <c r="H45" t="n">
-        <v>3.278882148684279</v>
+        <v>2.463277263929162</v>
       </c>
       <c r="I45" t="n">
-        <v>11.6890212839108</v>
+        <v>8.78143802081922</v>
       </c>
       <c r="J45" t="n">
-        <v>32.07556783142963</v>
+        <v>24.09693712184291</v>
       </c>
       <c r="K45" t="n">
-        <v>54.82225434519032</v>
+        <v>41.18550364490461</v>
       </c>
       <c r="L45" t="n">
-        <v>73.71528645350374</v>
+        <v>55.37899225740833</v>
       </c>
       <c r="M45" t="n">
-        <v>86.02226236579961</v>
+        <v>64.62467190607977</v>
       </c>
       <c r="N45" t="n">
-        <v>88.29901568339193</v>
+        <v>66.33509467472086</v>
       </c>
       <c r="O45" t="n">
-        <v>80.77634873736423</v>
+        <v>60.6836520146981</v>
       </c>
       <c r="P45" t="n">
-        <v>64.83014123043421</v>
+        <v>48.70398070706079</v>
       </c>
       <c r="Q45" t="n">
-        <v>43.33723254101147</v>
+        <v>32.55732129400288</v>
       </c>
       <c r="R45" t="n">
-        <v>21.0789535407696</v>
+        <v>15.83567345512317</v>
       </c>
       <c r="S45" t="n">
-        <v>6.306115304122575</v>
+        <v>4.737501913142594</v>
       </c>
       <c r="T45" t="n">
-        <v>1.368434466231086</v>
+        <v>1.028043508424568</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02233570945970218</v>
+        <v>0.01677981787417685</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2846277292897565</v>
+        <v>0.2138280616534448</v>
       </c>
       <c r="H46" t="n">
-        <v>2.53059926586711</v>
+        <v>1.901125857246084</v>
       </c>
       <c r="I46" t="n">
-        <v>8.5595320771865</v>
+        <v>6.430392981359962</v>
       </c>
       <c r="J46" t="n">
-        <v>20.12318046078579</v>
+        <v>15.11764395889855</v>
       </c>
       <c r="K46" t="n">
-        <v>33.06856709384626</v>
+        <v>24.84293298119113</v>
       </c>
       <c r="L46" t="n">
-        <v>42.31638077095163</v>
+        <v>31.79040109345852</v>
       </c>
       <c r="M46" t="n">
-        <v>44.6166903285752</v>
+        <v>33.51852060991227</v>
       </c>
       <c r="N46" t="n">
-        <v>43.55580515576796</v>
+        <v>32.72152510738582</v>
       </c>
       <c r="O46" t="n">
-        <v>40.23083577270124</v>
+        <v>30.22362456897965</v>
       </c>
       <c r="P46" t="n">
-        <v>34.42443009519018</v>
+        <v>25.86153211124936</v>
       </c>
       <c r="Q46" t="n">
-        <v>23.83369104079953</v>
+        <v>17.90518432627164</v>
       </c>
       <c r="R46" t="n">
-        <v>12.79789771879214</v>
+        <v>9.614487208526709</v>
       </c>
       <c r="S46" t="n">
-        <v>4.960285064076937</v>
+        <v>3.726439947178669</v>
       </c>
       <c r="T46" t="n">
-        <v>1.216136661510778</v>
+        <v>0.9136289907010823</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01552514887035038</v>
+        <v>0.01166334881746064</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1872277.082306764</v>
+        <v>1904283.318130927</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11743148.41102517</v>
+        <v>11733401.9067142</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7062844.905222919</v>
+        <v>8314645.404191372</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6289796.957087271</v>
+        <v>6009391.58791487</v>
       </c>
     </row>
     <row r="11">
@@ -8692,28 +8692,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>159.4527159458298</v>
+        <v>139.8903350219551</v>
       </c>
       <c r="L11" t="n">
-        <v>13.09562141258699</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>146.6431163892962</v>
+        <v>119.6393297918154</v>
       </c>
       <c r="N11" t="n">
-        <v>144.3555428192615</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2.335740934339029</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>162.6839488625737</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>170.8282104531398</v>
+        <v>9.151649117660568</v>
       </c>
       <c r="R11" t="n">
-        <v>38.19640662507562</v>
+        <v>30.91188885043196</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,28 +8768,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>94.96668336353986</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>83.36892054015351</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>65.30935641878168</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>56.66054640418552</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>43.60599568520334</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>62.33520450364685</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>69.55784692356679</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.4244527920186</v>
+        <v>96.92100931678132</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8847,25 +8847,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>96.15565039559471</v>
       </c>
       <c r="L13" t="n">
-        <v>103.0942751877798</v>
+        <v>92.83825080773437</v>
       </c>
       <c r="M13" t="n">
-        <v>25.3066578433338</v>
+        <v>94.59372362966278</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>108.2329138828631</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>103.2333872654094</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>140.5871834188451</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>159.4527159458298</v>
+        <v>139.8903350219551</v>
       </c>
       <c r="L14" t="n">
-        <v>160.5406869772257</v>
+        <v>136.2718236171098</v>
       </c>
       <c r="M14" t="n">
-        <v>146.6431163892962</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>116.9148067230437</v>
       </c>
       <c r="O14" t="n">
-        <v>149.7808064989778</v>
+        <v>117.4019782886286</v>
       </c>
       <c r="P14" t="n">
-        <v>15.23888329793499</v>
+        <v>140.5690754423379</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.2343979815955</v>
+        <v>9.151649117660568</v>
       </c>
       <c r="R14" t="n">
-        <v>38.19640662507562</v>
+        <v>30.91188885043196</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>56.66054640418552</v>
       </c>
       <c r="N15" t="n">
-        <v>65.00661740861244</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9169,25 +9169,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>136.2718236171098</v>
       </c>
       <c r="M17" t="n">
-        <v>62.05659244275319</v>
+        <v>119.6393297918154</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>149.7808064989778</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>125.7850795683096</v>
       </c>
       <c r="Q17" t="n">
-        <v>170.8282104531398</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>9.447917593948496</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9330,13 +9330,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>94.59372362966278</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>84.40760145462465</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>98.4823533434877</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>127.5346387577192</v>
       </c>
       <c r="K20" t="n">
-        <v>159.4527159458298</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9412,19 +9412,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>144.3555428192615</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>8.675264437845371</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>140.5690754423379</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>9.447917593948496</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>65.30935641878168</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>104.1703251893443</v>
+        <v>96.15565039559471</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>94.59372362966278</v>
       </c>
       <c r="N22" t="n">
-        <v>94.96401935784738</v>
+        <v>84.40760145462465</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>98.4823533434877</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>103.5231829350779</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>28.05358295106043</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,16 +9640,16 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>46.06627770586381</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.500456583146615</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>144.3555428192615</v>
+        <v>116.9148067230437</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,19 +9719,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>83.36892054015351</v>
       </c>
       <c r="L24" t="n">
-        <v>83.17538752246585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>77.50936201593855</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>81.91259242974633</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>96.15565039559471</v>
       </c>
       <c r="L25" t="n">
-        <v>103.0942751877798</v>
+        <v>92.83825080773437</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>94.59372362966278</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>84.40760145462465</v>
       </c>
       <c r="O25" t="n">
-        <v>108.2329138828631</v>
+        <v>98.4823533434877</v>
       </c>
       <c r="P25" t="n">
-        <v>111.8664719378983</v>
+        <v>103.5231829350779</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>121.4167101713635</v>
+        <v>127.5346387577192</v>
       </c>
       <c r="K26" t="n">
-        <v>159.4527159458298</v>
+        <v>139.8903350219551</v>
       </c>
       <c r="L26" t="n">
-        <v>160.5406869772257</v>
+        <v>136.2718236171098</v>
       </c>
       <c r="M26" t="n">
-        <v>146.6431163892962</v>
+        <v>119.6393297918154</v>
       </c>
       <c r="N26" t="n">
-        <v>144.3555428192615</v>
+        <v>6.65012535221031</v>
       </c>
       <c r="O26" t="n">
-        <v>4.711594105593903</v>
+        <v>123.8692975309836</v>
       </c>
       <c r="P26" t="n">
-        <v>162.6839488625737</v>
+        <v>140.5690754423379</v>
       </c>
       <c r="Q26" t="n">
-        <v>25.75899805975596</v>
+        <v>110.0952637042251</v>
       </c>
       <c r="R26" t="n">
-        <v>40.5722597963305</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>69.55784692356679</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>14.47034121347951</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10050,10 +10050,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>111.8664719378983</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>17.55867509312116</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>127.5346387577192</v>
       </c>
       <c r="K29" t="n">
-        <v>14.38350355244591</v>
+        <v>139.8903350219551</v>
       </c>
       <c r="L29" t="n">
-        <v>92.2332632945831</v>
+        <v>26.00714224627642</v>
       </c>
       <c r="M29" t="n">
-        <v>1.573903995912332</v>
+        <v>27.58420833679646</v>
       </c>
       <c r="N29" t="n">
-        <v>144.3555428192615</v>
+        <v>6.65012535221031</v>
       </c>
       <c r="O29" t="n">
-        <v>4.711594105593903</v>
+        <v>123.8692975309836</v>
       </c>
       <c r="P29" t="n">
-        <v>162.6839488625737</v>
+        <v>140.5690754423379</v>
       </c>
       <c r="Q29" t="n">
-        <v>25.75899805975596</v>
+        <v>154.2208615110445</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,31 +10190,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>102.7406895448238</v>
+        <v>94.96668336353986</v>
       </c>
       <c r="K30" t="n">
-        <v>96.65593532945439</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>83.17538752246585</v>
+        <v>65.30935641878168</v>
       </c>
       <c r="M30" t="n">
-        <v>77.50936201593855</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>65.00661740861244</v>
+        <v>43.60599568520334</v>
       </c>
       <c r="O30" t="n">
-        <v>81.91259242974633</v>
+        <v>62.33520450364685</v>
       </c>
       <c r="P30" t="n">
-        <v>85.27042670726945</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>107.4244527920186</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>14.47034121347951</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10275,13 +10275,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>103.0942751877798</v>
+        <v>92.83825080773437</v>
       </c>
       <c r="M31" t="n">
-        <v>105.4072633376928</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>94.96401935784738</v>
+        <v>84.40760145462465</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>17.55867509312116</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>140.5871834188451</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10360,19 +10360,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>116.9148067230437</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>123.8692975309836</v>
       </c>
       <c r="P32" t="n">
-        <v>19.60088739630731</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>66.13281655589192</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10512,19 +10512,19 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>103.0942751877798</v>
+        <v>92.83825080773437</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>94.59372362966278</v>
       </c>
       <c r="N34" t="n">
-        <v>94.96401935784738</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>108.2329138828631</v>
+        <v>98.4823533434877</v>
       </c>
       <c r="P34" t="n">
-        <v>111.8664719378983</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10588,13 +10588,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>159.4527159458298</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>136.2718236171098</v>
       </c>
       <c r="M35" t="n">
-        <v>126.8130474421048</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10673,10 +10673,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>56.66054640418552</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>43.60599568520334</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>3.265875573090504</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>96.15565039559471</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>92.83825080773437</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>94.59372362966278</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>84.40760145462465</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>98.4823533434877</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>103.5231829350779</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>136.2718236171098</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>123.8692975309836</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>18.56508424614397</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>8.272933845861225</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,22 +10901,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>102.7406895448238</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>96.65593532945439</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>83.17538752246585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>77.50936201593855</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>65.00661740861244</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>81.91259242974633</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>30.42287720366339</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10983,22 +10983,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>96.15565039559471</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>92.83825080773437</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>94.59372362966278</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>84.40760145462465</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>98.4823533434877</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>103.5231829350779</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>42.84584982775092</v>
+        <v>127.5346387577192</v>
       </c>
       <c r="K41" t="n">
-        <v>159.4527159458298</v>
+        <v>60.98287773835045</v>
       </c>
       <c r="L41" t="n">
-        <v>160.5406869772257</v>
+        <v>136.2718236171098</v>
       </c>
       <c r="M41" t="n">
-        <v>146.6431163892962</v>
+        <v>119.6393297918154</v>
       </c>
       <c r="N41" t="n">
-        <v>80.96599664522559</v>
+        <v>57.58998804462475</v>
       </c>
       <c r="O41" t="n">
-        <v>149.7808064989778</v>
+        <v>123.8692975309836</v>
       </c>
       <c r="P41" t="n">
-        <v>162.6839488625737</v>
+        <v>140.5690754423379</v>
       </c>
       <c r="Q41" t="n">
-        <v>170.8282104531398</v>
+        <v>154.2208615110445</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>4.99935595372957</v>
+        <v>16.05922607993518</v>
       </c>
       <c r="K42" t="n">
-        <v>96.65593532945439</v>
+        <v>4.461463256548825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>81.91259242974633</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.683119200924423</v>
+        <v>18.01355203317663</v>
       </c>
       <c r="R42" t="n">
-        <v>32.10249691774656</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>14.13644388940334</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>6.428991598250029</v>
+        <v>96.15565039559471</v>
       </c>
       <c r="L43" t="n">
-        <v>103.0942751877798</v>
+        <v>92.83825080773437</v>
       </c>
       <c r="M43" t="n">
-        <v>105.4072633376928</v>
+        <v>94.59372362966278</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>84.40760145462465</v>
       </c>
       <c r="O43" t="n">
-        <v>108.2329138828631</v>
+        <v>98.4823533434877</v>
       </c>
       <c r="P43" t="n">
-        <v>14.12513834680404</v>
+        <v>103.5231829350779</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.85848371207999</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>140.5871834188451</v>
+        <v>75.43337682584313</v>
       </c>
       <c r="K44" t="n">
-        <v>61.71138235473557</v>
+        <v>139.8903350219551</v>
       </c>
       <c r="L44" t="n">
-        <v>62.79935338613153</v>
+        <v>136.2718236171098</v>
       </c>
       <c r="M44" t="n">
-        <v>146.6431163892962</v>
+        <v>119.6393297918154</v>
       </c>
       <c r="N44" t="n">
-        <v>144.3555428192615</v>
+        <v>38.00734943943901</v>
       </c>
       <c r="O44" t="n">
-        <v>149.7808064989778</v>
+        <v>123.8692975309836</v>
       </c>
       <c r="P44" t="n">
-        <v>162.6839488625737</v>
+        <v>140.5690754423379</v>
       </c>
       <c r="Q44" t="n">
-        <v>73.08687686204561</v>
+        <v>154.2208615110445</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>9.000470976478615</v>
       </c>
       <c r="J45" t="n">
-        <v>4.99935595372957</v>
+        <v>16.05922607993518</v>
       </c>
       <c r="K45" t="n">
-        <v>96.65593532945439</v>
+        <v>4.461463256548825</v>
       </c>
       <c r="L45" t="n">
-        <v>83.17538752246585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>77.50936201593855</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>65.00661740861244</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>85.27042670726945</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>107.4244527920186</v>
+        <v>18.01355203317663</v>
       </c>
       <c r="R45" t="n">
-        <v>32.10249691774656</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>14.13644388940334</v>
+        <v>28.0931585481456</v>
       </c>
       <c r="K46" t="n">
-        <v>104.1703251893443</v>
+        <v>96.15565039559471</v>
       </c>
       <c r="L46" t="n">
-        <v>61.61451528162225</v>
+        <v>92.83825080773437</v>
       </c>
       <c r="M46" t="n">
-        <v>7.665929746598572</v>
+        <v>94.59372362966278</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>84.40760145462465</v>
       </c>
       <c r="O46" t="n">
-        <v>10.49158029176892</v>
+        <v>98.4823533434877</v>
       </c>
       <c r="P46" t="n">
-        <v>14.12513834680404</v>
+        <v>103.5231829350779</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.85848371207999</v>
+        <v>48.91589918034987</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>235.2887760988418</v>
+        <v>237.6646292700967</v>
       </c>
       <c r="C11" t="n">
-        <v>217.8278262063688</v>
+        <v>220.2036793776237</v>
       </c>
       <c r="D11" t="n">
-        <v>207.2379760560442</v>
+        <v>209.6138292272991</v>
       </c>
       <c r="E11" t="n">
-        <v>234.485304507623</v>
+        <v>236.8611576788779</v>
       </c>
       <c r="F11" t="n">
-        <v>259.4309801770727</v>
+        <v>261.8068333483276</v>
       </c>
       <c r="G11" t="n">
-        <v>267.3809789670021</v>
+        <v>269.6030443692339</v>
       </c>
       <c r="H11" t="n">
-        <v>187.1478045339184</v>
+        <v>187.9486787156652</v>
       </c>
       <c r="I11" t="n">
-        <v>44.65311775960689</v>
+        <v>41.10006796559793</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.71236266023243</v>
+        <v>49.58377704487296</v>
       </c>
       <c r="T11" t="n">
-        <v>73.56406046424672</v>
+        <v>75.26670767660289</v>
       </c>
       <c r="U11" t="n">
-        <v>103.8624519045182</v>
+        <v>106.2260020542512</v>
       </c>
       <c r="V11" t="n">
-        <v>180.3071929054962</v>
+        <v>182.683046076751</v>
       </c>
       <c r="W11" t="n">
-        <v>201.7959031527743</v>
+        <v>204.1717563240291</v>
       </c>
       <c r="X11" t="n">
-        <v>222.2860351138303</v>
+        <v>224.6618882850852</v>
       </c>
       <c r="Y11" t="n">
-        <v>238.7928730914148</v>
+        <v>241.1687262626697</v>
       </c>
     </row>
     <row r="12">
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.08811808522859</v>
+        <v>21.46397125648346</v>
       </c>
       <c r="C12" t="n">
-        <v>25.26343342367699</v>
+        <v>27.63928659493186</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.375853171254874</v>
       </c>
       <c r="E12" t="n">
-        <v>10.20001489076219</v>
+        <v>12.57586806201707</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>19.50060362605649</v>
+        <v>20.34807296286832</v>
       </c>
       <c r="T12" t="n">
-        <v>51.69161962175829</v>
+        <v>53.73581169647167</v>
       </c>
       <c r="U12" t="n">
-        <v>78.47953669846189</v>
+        <v>80.84997646770574</v>
       </c>
       <c r="V12" t="n">
-        <v>85.35552158478652</v>
+        <v>87.73137475604139</v>
       </c>
       <c r="W12" t="n">
-        <v>104.2499175962809</v>
+        <v>106.6257707675357</v>
       </c>
       <c r="X12" t="n">
-        <v>58.32791963883872</v>
+        <v>60.7037728100936</v>
       </c>
       <c r="Y12" t="n">
-        <v>58.23763021266561</v>
+        <v>60.61348338392048</v>
       </c>
     </row>
     <row r="13">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.38691461729854</v>
+        <v>34.76276778855342</v>
       </c>
       <c r="C13" t="n">
-        <v>19.80175553398908</v>
+        <v>22.17760870524396</v>
       </c>
       <c r="D13" t="n">
-        <v>1.170407453573603</v>
+        <v>3.546260624828477</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.364750253185292</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.3518356295473666</v>
       </c>
       <c r="G13" t="n">
-        <v>20.33208573216655</v>
+        <v>22.6389550045707</v>
       </c>
       <c r="H13" t="n">
-        <v>12.88098108555474</v>
+        <v>14.64350468339123</v>
       </c>
       <c r="I13" t="n">
-        <v>1.575016381259559</v>
+        <v>1.876335576166753</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.23383860400403</v>
+        <v>19.50792483238837</v>
       </c>
       <c r="S13" t="n">
-        <v>72.84509252515483</v>
+        <v>74.01874447734727</v>
       </c>
       <c r="T13" t="n">
-        <v>79.58689487294166</v>
+        <v>81.66799865819792</v>
       </c>
       <c r="U13" t="n">
-        <v>138.8623004430347</v>
+        <v>141.2343908561704</v>
       </c>
       <c r="V13" t="n">
-        <v>104.6925777591892</v>
+        <v>107.0684309304441</v>
       </c>
       <c r="W13" t="n">
-        <v>139.0779327719522</v>
+        <v>141.4537859432071</v>
       </c>
       <c r="X13" t="n">
-        <v>78.2645898243984</v>
+        <v>80.64044299565327</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.13958778745604</v>
+        <v>73.51544095871091</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>235.2887760988418</v>
+        <v>237.6646292700967</v>
       </c>
       <c r="C14" t="n">
-        <v>217.8278262063688</v>
+        <v>220.2036793776237</v>
       </c>
       <c r="D14" t="n">
-        <v>207.2379760560442</v>
+        <v>209.6138292272991</v>
       </c>
       <c r="E14" t="n">
-        <v>234.485304507623</v>
+        <v>236.8611576788779</v>
       </c>
       <c r="F14" t="n">
-        <v>259.4309801770727</v>
+        <v>261.8068333483276</v>
       </c>
       <c r="G14" t="n">
-        <v>267.3809789670021</v>
+        <v>269.6030443692339</v>
       </c>
       <c r="H14" t="n">
-        <v>187.1478045339184</v>
+        <v>187.9486787156652</v>
       </c>
       <c r="I14" t="n">
-        <v>44.65311775960689</v>
+        <v>41.10006796559793</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.71236266023243</v>
+        <v>49.58377704487296</v>
       </c>
       <c r="T14" t="n">
-        <v>73.56406046424672</v>
+        <v>75.26670767660289</v>
       </c>
       <c r="U14" t="n">
-        <v>103.8624519045182</v>
+        <v>106.2260020542512</v>
       </c>
       <c r="V14" t="n">
-        <v>180.3071929054962</v>
+        <v>182.683046076751</v>
       </c>
       <c r="W14" t="n">
-        <v>201.7959031527743</v>
+        <v>204.1717563240291</v>
       </c>
       <c r="X14" t="n">
-        <v>222.2860351138303</v>
+        <v>224.6618882850852</v>
       </c>
       <c r="Y14" t="n">
-        <v>238.7928730914148</v>
+        <v>241.1687262626697</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.08811808522859</v>
+        <v>21.46397125648346</v>
       </c>
       <c r="C15" t="n">
-        <v>25.26343342367699</v>
+        <v>27.63928659493186</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2.375853171254874</v>
       </c>
       <c r="E15" t="n">
-        <v>10.20001489076219</v>
+        <v>12.57586806201707</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>19.50060362605649</v>
+        <v>20.34807296286832</v>
       </c>
       <c r="T15" t="n">
-        <v>51.69161962175829</v>
+        <v>53.73581169647167</v>
       </c>
       <c r="U15" t="n">
-        <v>78.47953669846189</v>
+        <v>80.84997646770574</v>
       </c>
       <c r="V15" t="n">
-        <v>85.35552158478652</v>
+        <v>87.73137475604139</v>
       </c>
       <c r="W15" t="n">
-        <v>104.2499175962809</v>
+        <v>106.6257707675357</v>
       </c>
       <c r="X15" t="n">
-        <v>58.32791963883872</v>
+        <v>60.7037728100936</v>
       </c>
       <c r="Y15" t="n">
-        <v>58.23763021266561</v>
+        <v>60.61348338392048</v>
       </c>
     </row>
     <row r="16">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.38691461729854</v>
+        <v>34.76276778855342</v>
       </c>
       <c r="C16" t="n">
-        <v>19.80175553398908</v>
+        <v>22.17760870524396</v>
       </c>
       <c r="D16" t="n">
-        <v>1.170407453573603</v>
+        <v>3.546260624828477</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.364750253185292</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.3518356295473666</v>
       </c>
       <c r="G16" t="n">
-        <v>20.33208573216655</v>
+        <v>22.6389550045707</v>
       </c>
       <c r="H16" t="n">
-        <v>12.88098108555474</v>
+        <v>14.64350468339123</v>
       </c>
       <c r="I16" t="n">
-        <v>1.575016381259559</v>
+        <v>1.876335576166753</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>20.23383860400403</v>
+        <v>19.50792483238837</v>
       </c>
       <c r="S16" t="n">
-        <v>72.84509252515483</v>
+        <v>74.01874447734727</v>
       </c>
       <c r="T16" t="n">
-        <v>79.58689487294166</v>
+        <v>81.66799865819792</v>
       </c>
       <c r="U16" t="n">
-        <v>138.8623004430347</v>
+        <v>141.2343908561704</v>
       </c>
       <c r="V16" t="n">
-        <v>104.6925777591892</v>
+        <v>107.0684309304441</v>
       </c>
       <c r="W16" t="n">
-        <v>139.0779327719522</v>
+        <v>141.4537859432071</v>
       </c>
       <c r="X16" t="n">
-        <v>78.2645898243984</v>
+        <v>80.64044299565327</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.13958778745604</v>
+        <v>73.51544095871091</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>190.6356583392349</v>
+        <v>216.2006580136132</v>
       </c>
       <c r="C17" t="n">
-        <v>173.1747084467619</v>
+        <v>198.7397081211402</v>
       </c>
       <c r="D17" t="n">
-        <v>162.5848582964373</v>
+        <v>188.1498579708156</v>
       </c>
       <c r="E17" t="n">
-        <v>189.8321867480161</v>
+        <v>215.3971864223944</v>
       </c>
       <c r="F17" t="n">
-        <v>214.7778624174658</v>
+        <v>240.3428620918441</v>
       </c>
       <c r="G17" t="n">
-        <v>222.7278612073952</v>
+        <v>248.1390731127504</v>
       </c>
       <c r="H17" t="n">
-        <v>142.4946867743115</v>
+        <v>166.4847074591818</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>19.63609670911447</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.059244900625544</v>
+        <v>28.1198057883895</v>
       </c>
       <c r="T17" t="n">
-        <v>28.91094270463984</v>
+        <v>53.80273642011943</v>
       </c>
       <c r="U17" t="n">
-        <v>59.20933414491131</v>
+        <v>84.76203079776778</v>
       </c>
       <c r="V17" t="n">
-        <v>135.6540751458893</v>
+        <v>161.2190748202676</v>
       </c>
       <c r="W17" t="n">
-        <v>157.1427853931674</v>
+        <v>182.7077850675457</v>
       </c>
       <c r="X17" t="n">
-        <v>177.6329173542234</v>
+        <v>203.1979170286017</v>
       </c>
       <c r="Y17" t="n">
-        <v>194.1397553318079</v>
+        <v>219.7047550061862</v>
       </c>
     </row>
     <row r="18">
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>6.175315338448399</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>7.038501862151406</v>
+        <v>32.27184043998821</v>
       </c>
       <c r="U18" t="n">
-        <v>33.826418938855</v>
+        <v>59.38600521122228</v>
       </c>
       <c r="V18" t="n">
-        <v>40.70240382517963</v>
+        <v>66.26740349955793</v>
       </c>
       <c r="W18" t="n">
-        <v>59.59679983667397</v>
+        <v>85.16179951105227</v>
       </c>
       <c r="X18" t="n">
-        <v>13.67480187923184</v>
+        <v>39.23980155361014</v>
       </c>
       <c r="Y18" t="n">
-        <v>13.58451245305872</v>
+        <v>39.14951212743702</v>
       </c>
     </row>
     <row r="19">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>13.29879653206996</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.713637448760494</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.174983748087243</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>28.19197476554794</v>
+        <v>52.55477322086381</v>
       </c>
       <c r="T19" t="n">
-        <v>34.93377711333477</v>
+        <v>60.20402740171446</v>
       </c>
       <c r="U19" t="n">
-        <v>94.20918268342777</v>
+        <v>119.7704195996869</v>
       </c>
       <c r="V19" t="n">
-        <v>60.03945999958236</v>
+        <v>85.60445967396066</v>
       </c>
       <c r="W19" t="n">
-        <v>94.42481501234536</v>
+        <v>119.9898146867237</v>
       </c>
       <c r="X19" t="n">
-        <v>33.61147206479151</v>
+        <v>59.17647173916981</v>
       </c>
       <c r="Y19" t="n">
-        <v>26.48647002784915</v>
+        <v>52.05146970222745</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>190.6356583392349</v>
+        <v>216.2006580136132</v>
       </c>
       <c r="C20" t="n">
-        <v>173.1747084467619</v>
+        <v>198.7397081211402</v>
       </c>
       <c r="D20" t="n">
-        <v>162.5848582964373</v>
+        <v>188.1498579708156</v>
       </c>
       <c r="E20" t="n">
-        <v>189.8321867480161</v>
+        <v>215.3971864223944</v>
       </c>
       <c r="F20" t="n">
-        <v>214.7778624174658</v>
+        <v>240.3428620918441</v>
       </c>
       <c r="G20" t="n">
-        <v>222.7278612073952</v>
+        <v>248.1390731127504</v>
       </c>
       <c r="H20" t="n">
-        <v>142.4946867743115</v>
+        <v>166.4847074591818</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>19.63609670911447</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.059244900625544</v>
+        <v>28.1198057883895</v>
       </c>
       <c r="T20" t="n">
-        <v>28.91094270463984</v>
+        <v>53.80273642011943</v>
       </c>
       <c r="U20" t="n">
-        <v>59.20933414491131</v>
+        <v>84.76203079776778</v>
       </c>
       <c r="V20" t="n">
-        <v>135.6540751458893</v>
+        <v>161.2190748202676</v>
       </c>
       <c r="W20" t="n">
-        <v>157.1427853931674</v>
+        <v>182.7077850675457</v>
       </c>
       <c r="X20" t="n">
-        <v>177.6329173542234</v>
+        <v>203.1979170286017</v>
       </c>
       <c r="Y20" t="n">
-        <v>194.1397553318079</v>
+        <v>219.7047550061862</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>6.175315338448399</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24101,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>7.038501862151406</v>
+        <v>32.27184043998821</v>
       </c>
       <c r="U21" t="n">
-        <v>33.826418938855</v>
+        <v>59.38600521122228</v>
       </c>
       <c r="V21" t="n">
-        <v>40.70240382517963</v>
+        <v>66.26740349955793</v>
       </c>
       <c r="W21" t="n">
-        <v>59.59679983667397</v>
+        <v>85.16179951105227</v>
       </c>
       <c r="X21" t="n">
-        <v>13.67480187923184</v>
+        <v>39.23980155361014</v>
       </c>
       <c r="Y21" t="n">
-        <v>13.58451245305872</v>
+        <v>39.14951212743702</v>
       </c>
     </row>
     <row r="22">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>13.29879653206996</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.713637448760494</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.174983748087243</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>28.19197476554794</v>
+        <v>52.55477322086381</v>
       </c>
       <c r="T22" t="n">
-        <v>34.93377711333477</v>
+        <v>60.20402740171446</v>
       </c>
       <c r="U22" t="n">
-        <v>94.20918268342777</v>
+        <v>119.7704195996869</v>
       </c>
       <c r="V22" t="n">
-        <v>60.03945999958236</v>
+        <v>85.60445967396066</v>
       </c>
       <c r="W22" t="n">
-        <v>94.42481501234536</v>
+        <v>119.9898146867237</v>
       </c>
       <c r="X22" t="n">
-        <v>33.61147206479151</v>
+        <v>59.17647173916981</v>
       </c>
       <c r="Y22" t="n">
-        <v>26.48647002784915</v>
+        <v>52.05146970222745</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>190.6356583392349</v>
+        <v>216.2006580136132</v>
       </c>
       <c r="C23" t="n">
-        <v>173.1747084467619</v>
+        <v>198.7397081211402</v>
       </c>
       <c r="D23" t="n">
-        <v>162.5848582964373</v>
+        <v>188.1498579708156</v>
       </c>
       <c r="E23" t="n">
-        <v>189.8321867480161</v>
+        <v>215.3971864223944</v>
       </c>
       <c r="F23" t="n">
-        <v>214.7778624174658</v>
+        <v>240.3428620918441</v>
       </c>
       <c r="G23" t="n">
-        <v>222.7278612073952</v>
+        <v>248.1390731127504</v>
       </c>
       <c r="H23" t="n">
-        <v>142.4946867743115</v>
+        <v>166.4847074591818</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>19.63609670911447</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>6.059244900625544</v>
+        <v>28.1198057883895</v>
       </c>
       <c r="T23" t="n">
-        <v>28.91094270463984</v>
+        <v>53.80273642011943</v>
       </c>
       <c r="U23" t="n">
-        <v>59.20933414491131</v>
+        <v>84.76203079776778</v>
       </c>
       <c r="V23" t="n">
-        <v>135.6540751458893</v>
+        <v>161.2190748202676</v>
       </c>
       <c r="W23" t="n">
-        <v>157.1427853931674</v>
+        <v>182.7077850675457</v>
       </c>
       <c r="X23" t="n">
-        <v>177.6329173542234</v>
+        <v>203.1979170286017</v>
       </c>
       <c r="Y23" t="n">
-        <v>194.1397553318079</v>
+        <v>219.7047550061862</v>
       </c>
     </row>
     <row r="24">
@@ -24287,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>6.175315338448399</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24338,22 +24338,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>7.038501862151406</v>
+        <v>32.27184043998821</v>
       </c>
       <c r="U24" t="n">
-        <v>33.826418938855</v>
+        <v>59.38600521122228</v>
       </c>
       <c r="V24" t="n">
-        <v>40.70240382517963</v>
+        <v>66.26740349955793</v>
       </c>
       <c r="W24" t="n">
-        <v>59.59679983667397</v>
+        <v>85.16179951105227</v>
       </c>
       <c r="X24" t="n">
-        <v>13.67480187923184</v>
+        <v>39.23980155361014</v>
       </c>
       <c r="Y24" t="n">
-        <v>13.58451245305872</v>
+        <v>39.14951212743702</v>
       </c>
     </row>
     <row r="25">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>13.29879653206996</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.713637448760494</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.174983748087243</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>28.19197476554794</v>
+        <v>52.55477322086381</v>
       </c>
       <c r="T25" t="n">
-        <v>34.93377711333477</v>
+        <v>60.20402740171446</v>
       </c>
       <c r="U25" t="n">
-        <v>94.20918268342777</v>
+        <v>119.7704195996869</v>
       </c>
       <c r="V25" t="n">
-        <v>60.03945999958236</v>
+        <v>85.60445967396066</v>
       </c>
       <c r="W25" t="n">
-        <v>94.42481501234536</v>
+        <v>119.9898146867237</v>
       </c>
       <c r="X25" t="n">
-        <v>33.61147206479151</v>
+        <v>59.17647173916981</v>
       </c>
       <c r="Y25" t="n">
-        <v>26.48647002784915</v>
+        <v>52.05146970222745</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>237.6646292700967</v>
+        <v>272.4691602926472</v>
       </c>
       <c r="C26" t="n">
-        <v>220.2036793776237</v>
+        <v>255.0082104001742</v>
       </c>
       <c r="D26" t="n">
-        <v>209.6138292272991</v>
+        <v>244.4183602498496</v>
       </c>
       <c r="E26" t="n">
-        <v>236.8611576788779</v>
+        <v>271.6656887014284</v>
       </c>
       <c r="F26" t="n">
-        <v>261.8068333483276</v>
+        <v>296.6113643708781</v>
       </c>
       <c r="G26" t="n">
-        <v>269.756832138257</v>
+        <v>304.4075753917843</v>
       </c>
       <c r="H26" t="n">
-        <v>189.5236577051732</v>
+        <v>222.7532097382157</v>
       </c>
       <c r="I26" t="n">
-        <v>47.02897093086176</v>
+        <v>75.90459898814842</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>53.0882158314873</v>
+        <v>84.38830806742345</v>
       </c>
       <c r="T26" t="n">
-        <v>75.9399136355016</v>
+        <v>110.0712386991534</v>
       </c>
       <c r="U26" t="n">
-        <v>106.2383050757731</v>
+        <v>141.0305330768017</v>
       </c>
       <c r="V26" t="n">
-        <v>182.683046076751</v>
+        <v>217.4875770993015</v>
       </c>
       <c r="W26" t="n">
-        <v>204.1717563240291</v>
+        <v>238.9762873465796</v>
       </c>
       <c r="X26" t="n">
-        <v>224.6618882850852</v>
+        <v>259.4664193076356</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.1687262626697</v>
+        <v>275.9732572852202</v>
       </c>
     </row>
     <row r="27">
@@ -24521,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>21.46397125648346</v>
+        <v>56.26850227903395</v>
       </c>
       <c r="C27" t="n">
-        <v>27.63928659493186</v>
+        <v>62.44381761748235</v>
       </c>
       <c r="D27" t="n">
-        <v>2.375853171254874</v>
+        <v>37.18038419380537</v>
       </c>
       <c r="E27" t="n">
-        <v>12.57586806201707</v>
+        <v>47.38039908456756</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>34.80453102255049</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>26.74149885012235</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24572,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>21.87645679731136</v>
+        <v>55.15260398541881</v>
       </c>
       <c r="T27" t="n">
-        <v>54.06747279301317</v>
+        <v>88.54034271902216</v>
       </c>
       <c r="U27" t="n">
-        <v>80.85538986971676</v>
+        <v>115.6545074902562</v>
       </c>
       <c r="V27" t="n">
-        <v>87.73137475604139</v>
+        <v>122.5359057785919</v>
       </c>
       <c r="W27" t="n">
-        <v>106.6257707675357</v>
+        <v>141.4303017900862</v>
       </c>
       <c r="X27" t="n">
-        <v>60.7037728100936</v>
+        <v>95.50830383264409</v>
       </c>
       <c r="Y27" t="n">
-        <v>60.61348338392048</v>
+        <v>95.41801440647097</v>
       </c>
     </row>
     <row r="28">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.76276778855342</v>
+        <v>69.56729881110391</v>
       </c>
       <c r="C28" t="n">
-        <v>22.17760870524396</v>
+        <v>56.98213972779445</v>
       </c>
       <c r="D28" t="n">
-        <v>3.546260624828477</v>
+        <v>38.35079164737897</v>
       </c>
       <c r="E28" t="n">
-        <v>1.364750253185292</v>
+        <v>36.16928127573578</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3518356295473666</v>
+        <v>35.15636665209786</v>
       </c>
       <c r="G28" t="n">
-        <v>22.70793890342142</v>
+        <v>57.4434860271212</v>
       </c>
       <c r="H28" t="n">
-        <v>15.25683425680961</v>
+        <v>49.44803570594172</v>
       </c>
       <c r="I28" t="n">
-        <v>3.950869552514433</v>
+        <v>36.68086659871724</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>22.60969177525891</v>
+        <v>54.31245585493886</v>
       </c>
       <c r="S28" t="n">
-        <v>75.2209456964097</v>
+        <v>108.8232754998978</v>
       </c>
       <c r="T28" t="n">
-        <v>81.96274804419653</v>
+        <v>116.4725296807484</v>
       </c>
       <c r="U28" t="n">
-        <v>141.2381536142895</v>
+        <v>176.0389218787209</v>
       </c>
       <c r="V28" t="n">
-        <v>107.0684309304441</v>
+        <v>141.8729619529946</v>
       </c>
       <c r="W28" t="n">
-        <v>141.4537859432071</v>
+        <v>176.2583169657576</v>
       </c>
       <c r="X28" t="n">
-        <v>80.64044299565327</v>
+        <v>115.4449740182038</v>
       </c>
       <c r="Y28" t="n">
-        <v>73.51544095871091</v>
+        <v>108.3199719812614</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>237.6646292700967</v>
+        <v>272.4691602926472</v>
       </c>
       <c r="C29" t="n">
-        <v>220.2036793776237</v>
+        <v>255.0082104001742</v>
       </c>
       <c r="D29" t="n">
-        <v>209.6138292272991</v>
+        <v>244.4183602498496</v>
       </c>
       <c r="E29" t="n">
-        <v>236.8611576788779</v>
+        <v>271.6656887014284</v>
       </c>
       <c r="F29" t="n">
-        <v>261.8068333483276</v>
+        <v>296.6113643708781</v>
       </c>
       <c r="G29" t="n">
-        <v>269.756832138257</v>
+        <v>304.4075753917843</v>
       </c>
       <c r="H29" t="n">
-        <v>189.5236577051732</v>
+        <v>222.7532097382157</v>
       </c>
       <c r="I29" t="n">
-        <v>47.02897093086176</v>
+        <v>75.90459898814842</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>53.0882158314873</v>
+        <v>84.38830806742345</v>
       </c>
       <c r="T29" t="n">
-        <v>75.9399136355016</v>
+        <v>110.0712386991534</v>
       </c>
       <c r="U29" t="n">
-        <v>106.2383050757731</v>
+        <v>141.0305330768017</v>
       </c>
       <c r="V29" t="n">
-        <v>182.683046076751</v>
+        <v>217.4875770993015</v>
       </c>
       <c r="W29" t="n">
-        <v>204.1717563240291</v>
+        <v>238.9762873465796</v>
       </c>
       <c r="X29" t="n">
-        <v>224.6618882850852</v>
+        <v>259.4664193076356</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.1687262626697</v>
+        <v>275.9732572852202</v>
       </c>
     </row>
     <row r="30">
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>21.46397125648346</v>
+        <v>56.26850227903395</v>
       </c>
       <c r="C30" t="n">
-        <v>27.63928659493186</v>
+        <v>62.44381761748235</v>
       </c>
       <c r="D30" t="n">
-        <v>2.375853171254874</v>
+        <v>37.18038419380537</v>
       </c>
       <c r="E30" t="n">
-        <v>12.57586806201707</v>
+        <v>47.38039908456756</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>34.80453102255049</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>26.74149885012235</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>21.87645679731136</v>
+        <v>55.15260398541881</v>
       </c>
       <c r="T30" t="n">
-        <v>54.06747279301317</v>
+        <v>88.54034271902216</v>
       </c>
       <c r="U30" t="n">
-        <v>80.85538986971676</v>
+        <v>115.6545074902562</v>
       </c>
       <c r="V30" t="n">
-        <v>87.73137475604139</v>
+        <v>122.5359057785919</v>
       </c>
       <c r="W30" t="n">
-        <v>106.6257707675357</v>
+        <v>141.4303017900862</v>
       </c>
       <c r="X30" t="n">
-        <v>60.7037728100936</v>
+        <v>95.50830383264409</v>
       </c>
       <c r="Y30" t="n">
-        <v>60.61348338392048</v>
+        <v>95.41801440647097</v>
       </c>
     </row>
     <row r="31">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.76276778855342</v>
+        <v>69.56729881110391</v>
       </c>
       <c r="C31" t="n">
-        <v>22.17760870524396</v>
+        <v>56.98213972779445</v>
       </c>
       <c r="D31" t="n">
-        <v>3.546260624828477</v>
+        <v>38.35079164737897</v>
       </c>
       <c r="E31" t="n">
-        <v>1.364750253185292</v>
+        <v>36.16928127573578</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3518356295473666</v>
+        <v>35.15636665209786</v>
       </c>
       <c r="G31" t="n">
-        <v>22.70793890342142</v>
+        <v>57.4434860271212</v>
       </c>
       <c r="H31" t="n">
-        <v>15.25683425680961</v>
+        <v>49.44803570594172</v>
       </c>
       <c r="I31" t="n">
-        <v>3.950869552514433</v>
+        <v>36.68086659871724</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>22.60969177525891</v>
+        <v>54.31245585493886</v>
       </c>
       <c r="S31" t="n">
-        <v>75.2209456964097</v>
+        <v>108.8232754998978</v>
       </c>
       <c r="T31" t="n">
-        <v>81.96274804419653</v>
+        <v>116.4725296807484</v>
       </c>
       <c r="U31" t="n">
-        <v>141.2381536142895</v>
+        <v>176.0389218787209</v>
       </c>
       <c r="V31" t="n">
-        <v>107.0684309304441</v>
+        <v>141.8729619529946</v>
       </c>
       <c r="W31" t="n">
-        <v>141.4537859432071</v>
+        <v>176.2583169657576</v>
       </c>
       <c r="X31" t="n">
-        <v>80.64044299565327</v>
+        <v>115.4449740182038</v>
       </c>
       <c r="Y31" t="n">
-        <v>73.51544095871091</v>
+        <v>108.3199719812614</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>184.5764134386094</v>
+        <v>215.025674265526</v>
       </c>
       <c r="C32" t="n">
-        <v>167.1154635461364</v>
+        <v>197.5647243730529</v>
       </c>
       <c r="D32" t="n">
-        <v>156.5256133958118</v>
+        <v>186.9748742227283</v>
       </c>
       <c r="E32" t="n">
-        <v>183.7729418473906</v>
+        <v>214.2222026743072</v>
       </c>
       <c r="F32" t="n">
-        <v>208.7186175168403</v>
+        <v>239.1678783437568</v>
       </c>
       <c r="G32" t="n">
-        <v>216.6686163067696</v>
+        <v>246.9640893646631</v>
       </c>
       <c r="H32" t="n">
-        <v>136.4354418736859</v>
+        <v>165.3097237110945</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>18.4611129610272</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>26.94482204030223</v>
       </c>
       <c r="T32" t="n">
-        <v>22.85169780401429</v>
+        <v>52.62775267203216</v>
       </c>
       <c r="U32" t="n">
-        <v>53.15008924428577</v>
+        <v>83.58704704968051</v>
       </c>
       <c r="V32" t="n">
-        <v>129.5948302452637</v>
+        <v>160.0440910721803</v>
       </c>
       <c r="W32" t="n">
-        <v>151.0835404925418</v>
+        <v>181.5328013194584</v>
       </c>
       <c r="X32" t="n">
-        <v>171.5736724535979</v>
+        <v>202.0229332805144</v>
       </c>
       <c r="Y32" t="n">
-        <v>188.0805104311824</v>
+        <v>218.529771258099</v>
       </c>
     </row>
     <row r="33">
@@ -24998,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>5.000331590361128</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25049,22 +25049,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9792569615258628</v>
+        <v>31.09685669190094</v>
       </c>
       <c r="U33" t="n">
-        <v>27.76717403822946</v>
+        <v>58.21102146313501</v>
       </c>
       <c r="V33" t="n">
-        <v>34.64315892455409</v>
+        <v>65.09241975147066</v>
       </c>
       <c r="W33" t="n">
-        <v>53.53755493604842</v>
+        <v>83.98681576296499</v>
       </c>
       <c r="X33" t="n">
-        <v>7.615556978606293</v>
+        <v>38.06481780552286</v>
       </c>
       <c r="Y33" t="n">
-        <v>7.525267552433178</v>
+        <v>37.97452837934975</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>12.12381278398269</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.1327298649224</v>
+        <v>51.37978947277654</v>
       </c>
       <c r="T34" t="n">
-        <v>28.87453221270923</v>
+        <v>59.02904365362718</v>
       </c>
       <c r="U34" t="n">
-        <v>88.14993778280223</v>
+        <v>118.5954358515997</v>
       </c>
       <c r="V34" t="n">
-        <v>53.98021509895682</v>
+        <v>84.42947592587339</v>
       </c>
       <c r="W34" t="n">
-        <v>88.36557011171982</v>
+        <v>118.8148309386364</v>
       </c>
       <c r="X34" t="n">
-        <v>27.55222716416597</v>
+        <v>58.00148799108254</v>
       </c>
       <c r="Y34" t="n">
-        <v>20.42722512722361</v>
+        <v>50.87648595414018</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>184.5764134386094</v>
+        <v>215.025674265526</v>
       </c>
       <c r="C35" t="n">
-        <v>167.1154635461364</v>
+        <v>197.5647243730529</v>
       </c>
       <c r="D35" t="n">
-        <v>156.5256133958118</v>
+        <v>186.9748742227283</v>
       </c>
       <c r="E35" t="n">
-        <v>183.7729418473906</v>
+        <v>214.2222026743072</v>
       </c>
       <c r="F35" t="n">
-        <v>208.7186175168403</v>
+        <v>239.1678783437568</v>
       </c>
       <c r="G35" t="n">
-        <v>216.6686163067696</v>
+        <v>246.9640893646631</v>
       </c>
       <c r="H35" t="n">
-        <v>136.4354418736859</v>
+        <v>165.3097237110945</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>18.4611129610272</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>26.94482204030223</v>
       </c>
       <c r="T35" t="n">
-        <v>22.85169780401429</v>
+        <v>52.62775267203216</v>
       </c>
       <c r="U35" t="n">
-        <v>53.15008924428577</v>
+        <v>83.58704704968051</v>
       </c>
       <c r="V35" t="n">
-        <v>129.5948302452637</v>
+        <v>160.0440910721803</v>
       </c>
       <c r="W35" t="n">
-        <v>151.0835404925418</v>
+        <v>181.5328013194584</v>
       </c>
       <c r="X35" t="n">
-        <v>171.5736724535979</v>
+        <v>202.0229332805144</v>
       </c>
       <c r="Y35" t="n">
-        <v>188.0805104311824</v>
+        <v>218.529771258099</v>
       </c>
     </row>
     <row r="36">
@@ -25235,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>5.000331590361128</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25286,22 +25286,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9792569615258628</v>
+        <v>31.09685669190094</v>
       </c>
       <c r="U36" t="n">
-        <v>27.76717403822946</v>
+        <v>58.21102146313501</v>
       </c>
       <c r="V36" t="n">
-        <v>34.64315892455409</v>
+        <v>65.09241975147066</v>
       </c>
       <c r="W36" t="n">
-        <v>53.53755493604842</v>
+        <v>83.98681576296499</v>
       </c>
       <c r="X36" t="n">
-        <v>7.615556978606293</v>
+        <v>38.06481780552286</v>
       </c>
       <c r="Y36" t="n">
-        <v>7.525267552433178</v>
+        <v>37.97452837934975</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>12.12381278398269</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>22.1327298649224</v>
+        <v>51.37978947277654</v>
       </c>
       <c r="T37" t="n">
-        <v>28.87453221270923</v>
+        <v>59.02904365362718</v>
       </c>
       <c r="U37" t="n">
-        <v>88.14993778280223</v>
+        <v>118.5954358515997</v>
       </c>
       <c r="V37" t="n">
-        <v>53.98021509895682</v>
+        <v>84.42947592587339</v>
       </c>
       <c r="W37" t="n">
-        <v>88.36557011171982</v>
+        <v>118.8148309386364</v>
       </c>
       <c r="X37" t="n">
-        <v>27.55222716416597</v>
+        <v>58.00148799108254</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.42722512722361</v>
+        <v>50.87648595414018</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>184.5764134386094</v>
+        <v>215.025674265526</v>
       </c>
       <c r="C38" t="n">
-        <v>167.1154635461364</v>
+        <v>197.5647243730529</v>
       </c>
       <c r="D38" t="n">
-        <v>156.5256133958118</v>
+        <v>186.9748742227283</v>
       </c>
       <c r="E38" t="n">
-        <v>183.7729418473906</v>
+        <v>214.2222026743072</v>
       </c>
       <c r="F38" t="n">
-        <v>208.7186175168403</v>
+        <v>239.1678783437568</v>
       </c>
       <c r="G38" t="n">
-        <v>216.6686163067696</v>
+        <v>246.9640893646631</v>
       </c>
       <c r="H38" t="n">
-        <v>136.4354418736859</v>
+        <v>165.3097237110945</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>18.4611129610272</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>26.94482204030223</v>
       </c>
       <c r="T38" t="n">
-        <v>22.85169780401429</v>
+        <v>52.62775267203216</v>
       </c>
       <c r="U38" t="n">
-        <v>53.15008924428577</v>
+        <v>83.58704704968051</v>
       </c>
       <c r="V38" t="n">
-        <v>129.5948302452637</v>
+        <v>160.0440910721803</v>
       </c>
       <c r="W38" t="n">
-        <v>151.0835404925418</v>
+        <v>181.5328013194584</v>
       </c>
       <c r="X38" t="n">
-        <v>171.5736724535979</v>
+        <v>202.0229332805144</v>
       </c>
       <c r="Y38" t="n">
-        <v>188.0805104311824</v>
+        <v>218.529771258099</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>5.000331590361128</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25523,22 +25523,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9792569615258628</v>
+        <v>31.09685669190094</v>
       </c>
       <c r="U39" t="n">
-        <v>27.76717403822946</v>
+        <v>58.21102146313501</v>
       </c>
       <c r="V39" t="n">
-        <v>34.64315892455409</v>
+        <v>65.09241975147066</v>
       </c>
       <c r="W39" t="n">
-        <v>53.53755493604842</v>
+        <v>83.98681576296499</v>
       </c>
       <c r="X39" t="n">
-        <v>7.615556978606293</v>
+        <v>38.06481780552286</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.525267552433178</v>
+        <v>37.97452837934975</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>12.12381278398269</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>22.1327298649224</v>
+        <v>51.37978947277654</v>
       </c>
       <c r="T40" t="n">
-        <v>28.87453221270923</v>
+        <v>59.02904365362718</v>
       </c>
       <c r="U40" t="n">
-        <v>88.14993778280223</v>
+        <v>118.5954358515997</v>
       </c>
       <c r="V40" t="n">
-        <v>53.98021509895682</v>
+        <v>84.42947592587339</v>
       </c>
       <c r="W40" t="n">
-        <v>88.36557011171982</v>
+        <v>118.8148309386364</v>
       </c>
       <c r="X40" t="n">
-        <v>27.55222716416597</v>
+        <v>58.00148799108254</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.42722512722361</v>
+        <v>50.87648595414018</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>284.9925080723864</v>
+        <v>303.8263843798759</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5315581799133</v>
+        <v>286.3654344874029</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9417080295888</v>
+        <v>275.7755843370783</v>
       </c>
       <c r="E41" t="n">
-        <v>284.1890364811676</v>
+        <v>303.0229127886571</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1347121506172</v>
+        <v>327.9685884581068</v>
       </c>
       <c r="G41" t="n">
-        <v>317.0847109405466</v>
+        <v>335.764799479013</v>
       </c>
       <c r="H41" t="n">
-        <v>236.8515365074629</v>
+        <v>254.1104338254444</v>
       </c>
       <c r="I41" t="n">
-        <v>94.35684973315142</v>
+        <v>107.2618230753771</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>22.18371872563772</v>
+        <v>31.3572240872287</v>
       </c>
       <c r="S41" t="n">
-        <v>100.416094633777</v>
+        <v>115.7455321546522</v>
       </c>
       <c r="T41" t="n">
-        <v>123.2677924377913</v>
+        <v>141.4284627863821</v>
       </c>
       <c r="U41" t="n">
-        <v>153.5661838780627</v>
+        <v>172.3877571640304</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0109248790407</v>
+        <v>248.8448011865302</v>
       </c>
       <c r="W41" t="n">
-        <v>251.4996351263188</v>
+        <v>270.3335114338083</v>
       </c>
       <c r="X41" t="n">
-        <v>271.9897670873748</v>
+        <v>290.8236433948643</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.4966050649593</v>
+        <v>307.3304813724489</v>
       </c>
     </row>
     <row r="42">
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>68.79185005877312</v>
+        <v>87.62572636626265</v>
       </c>
       <c r="C42" t="n">
-        <v>74.96716539722152</v>
+        <v>93.80104170471105</v>
       </c>
       <c r="D42" t="n">
-        <v>49.70373197354454</v>
+        <v>68.53760828103407</v>
       </c>
       <c r="E42" t="n">
-        <v>59.90374686430673</v>
+        <v>78.73762317179626</v>
       </c>
       <c r="F42" t="n">
-        <v>47.32787880228966</v>
+        <v>66.16175510977919</v>
       </c>
       <c r="G42" t="n">
-        <v>39.34713034042892</v>
+        <v>58.09872293735106</v>
       </c>
       <c r="H42" t="n">
-        <v>12.03083338147309</v>
+        <v>30.07002227374572</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>0.3058954893873818</v>
       </c>
       <c r="S42" t="n">
-        <v>69.20433559960102</v>
+        <v>86.50982807264751</v>
       </c>
       <c r="T42" t="n">
-        <v>101.3953515953028</v>
+        <v>119.8975668062509</v>
       </c>
       <c r="U42" t="n">
-        <v>128.1832686720064</v>
+        <v>147.0117315774849</v>
       </c>
       <c r="V42" t="n">
-        <v>135.0592535583311</v>
+        <v>153.8931298658206</v>
       </c>
       <c r="W42" t="n">
-        <v>153.9536495698254</v>
+        <v>172.7875258773149</v>
       </c>
       <c r="X42" t="n">
-        <v>108.0316516123833</v>
+        <v>126.8655279198728</v>
       </c>
       <c r="Y42" t="n">
-        <v>107.9413621862101</v>
+        <v>126.7752384936997</v>
       </c>
     </row>
     <row r="43">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.09064659084308</v>
+        <v>100.9245228983326</v>
       </c>
       <c r="C43" t="n">
-        <v>69.50548750753362</v>
+        <v>88.33936381502315</v>
       </c>
       <c r="D43" t="n">
-        <v>50.87413942711814</v>
+        <v>69.70801573460767</v>
       </c>
       <c r="E43" t="n">
-        <v>48.69262905547495</v>
+        <v>67.52650536296449</v>
       </c>
       <c r="F43" t="n">
-        <v>47.67971443183703</v>
+        <v>66.51359073932656</v>
       </c>
       <c r="G43" t="n">
-        <v>70.03581770571108</v>
+        <v>88.8007101143499</v>
       </c>
       <c r="H43" t="n">
-        <v>62.58471305909927</v>
+        <v>80.80525979317042</v>
       </c>
       <c r="I43" t="n">
-        <v>51.27874835480409</v>
+        <v>68.03809068594595</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>69.93757057754857</v>
+        <v>85.66967994216756</v>
       </c>
       <c r="S43" t="n">
-        <v>122.5488244986994</v>
+        <v>140.1804995871265</v>
       </c>
       <c r="T43" t="n">
-        <v>129.2906268464862</v>
+        <v>147.8297537679771</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5660324165792</v>
+        <v>207.3961459659496</v>
       </c>
       <c r="V43" t="n">
-        <v>154.3963097327338</v>
+        <v>173.2301860402233</v>
       </c>
       <c r="W43" t="n">
-        <v>188.7816647454968</v>
+        <v>207.6155410529863</v>
       </c>
       <c r="X43" t="n">
-        <v>127.9683217979429</v>
+        <v>146.8021981054325</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8433197610006</v>
+        <v>139.6771960684901</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>284.9925080723864</v>
+        <v>303.8263843798759</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5315581799133</v>
+        <v>286.3654344874029</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9417080295888</v>
+        <v>275.7755843370783</v>
       </c>
       <c r="E44" t="n">
-        <v>284.1890364811676</v>
+        <v>303.0229127886571</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1347121506172</v>
+        <v>327.9685884581068</v>
       </c>
       <c r="G44" t="n">
-        <v>317.0847109405466</v>
+        <v>335.764799479013</v>
       </c>
       <c r="H44" t="n">
-        <v>236.8515365074629</v>
+        <v>254.1104338254444</v>
       </c>
       <c r="I44" t="n">
-        <v>94.35684973315142</v>
+        <v>107.2618230753771</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>22.18371872563772</v>
+        <v>31.3572240872287</v>
       </c>
       <c r="S44" t="n">
-        <v>100.416094633777</v>
+        <v>115.7455321546522</v>
       </c>
       <c r="T44" t="n">
-        <v>123.2677924377913</v>
+        <v>141.4284627863821</v>
       </c>
       <c r="U44" t="n">
-        <v>153.5661838780627</v>
+        <v>172.3877571640304</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0109248790407</v>
+        <v>248.8448011865302</v>
       </c>
       <c r="W44" t="n">
-        <v>251.4996351263188</v>
+        <v>270.3335114338083</v>
       </c>
       <c r="X44" t="n">
-        <v>271.9897670873748</v>
+        <v>290.8236433948643</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.4966050649593</v>
+        <v>307.3304813724489</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>68.79185005877312</v>
+        <v>87.62572636626265</v>
       </c>
       <c r="C45" t="n">
-        <v>74.96716539722152</v>
+        <v>93.80104170471105</v>
       </c>
       <c r="D45" t="n">
-        <v>49.70373197354454</v>
+        <v>68.53760828103407</v>
       </c>
       <c r="E45" t="n">
-        <v>59.90374686430673</v>
+        <v>78.73762317179626</v>
       </c>
       <c r="F45" t="n">
-        <v>47.32787880228966</v>
+        <v>66.16175510977919</v>
       </c>
       <c r="G45" t="n">
-        <v>39.34713034042892</v>
+        <v>58.09872293735106</v>
       </c>
       <c r="H45" t="n">
-        <v>12.03083338147309</v>
+        <v>30.07002227374572</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>0.3058954893873818</v>
       </c>
       <c r="S45" t="n">
-        <v>69.20433559960102</v>
+        <v>86.50982807264751</v>
       </c>
       <c r="T45" t="n">
-        <v>101.3953515953028</v>
+        <v>119.8975668062509</v>
       </c>
       <c r="U45" t="n">
-        <v>128.1832686720064</v>
+        <v>147.0117315774849</v>
       </c>
       <c r="V45" t="n">
-        <v>135.0592535583311</v>
+        <v>153.8931298658206</v>
       </c>
       <c r="W45" t="n">
-        <v>153.9536495698254</v>
+        <v>172.7875258773149</v>
       </c>
       <c r="X45" t="n">
-        <v>108.0316516123833</v>
+        <v>126.8655279198728</v>
       </c>
       <c r="Y45" t="n">
-        <v>107.9413621862101</v>
+        <v>126.7752384936997</v>
       </c>
     </row>
     <row r="46">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.09064659084308</v>
+        <v>100.9245228983326</v>
       </c>
       <c r="C46" t="n">
-        <v>69.50548750753362</v>
+        <v>88.33936381502315</v>
       </c>
       <c r="D46" t="n">
-        <v>50.87413942711814</v>
+        <v>69.70801573460767</v>
       </c>
       <c r="E46" t="n">
-        <v>48.69262905547495</v>
+        <v>67.52650536296449</v>
       </c>
       <c r="F46" t="n">
-        <v>47.67971443183703</v>
+        <v>66.51359073932656</v>
       </c>
       <c r="G46" t="n">
-        <v>70.03581770571108</v>
+        <v>88.8007101143499</v>
       </c>
       <c r="H46" t="n">
-        <v>62.58471305909927</v>
+        <v>80.80525979317042</v>
       </c>
       <c r="I46" t="n">
-        <v>51.27874835480409</v>
+        <v>68.03809068594595</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>69.93757057754857</v>
+        <v>85.66967994216756</v>
       </c>
       <c r="S46" t="n">
-        <v>122.5488244986994</v>
+        <v>140.1804995871265</v>
       </c>
       <c r="T46" t="n">
-        <v>129.2906268464862</v>
+        <v>147.8297537679771</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5660324165792</v>
+        <v>207.3961459659496</v>
       </c>
       <c r="V46" t="n">
-        <v>154.3963097327338</v>
+        <v>173.2301860402233</v>
       </c>
       <c r="W46" t="n">
-        <v>188.7816647454968</v>
+        <v>207.6155410529863</v>
       </c>
       <c r="X46" t="n">
-        <v>127.9683217979429</v>
+        <v>146.8021981054325</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8433197610006</v>
+        <v>139.6771960684901</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>499355.5022306617</v>
+        <v>483800.3906609198</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>499355.5022306617</v>
+        <v>483800.3906609198</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>532156.7540624789</v>
+        <v>503975.8427121896</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>532156.7540624789</v>
+        <v>503975.8427121895</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>532156.7540624789</v>
+        <v>503975.8427121895</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>496700.296338203</v>
+        <v>439664.3217954555</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>496700.296338203</v>
+        <v>439664.3217954555</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>534810.3397742589</v>
+        <v>504799.4613085488</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>534810.3397742589</v>
+        <v>504799.4613085488</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>534810.3397742589</v>
+        <v>504799.4613085488</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>433259.7443011073</v>
+        <v>394068.7483415159</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>433259.7443011072</v>
+        <v>394068.7483415159</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>778312.5217811863</v>
+      </c>
+      <c r="C2" t="n">
         <v>778312.5217811862</v>
       </c>
-      <c r="C2" t="n">
-        <v>778312.5217811865</v>
-      </c>
       <c r="D2" t="n">
-        <v>778312.5217811865</v>
+        <v>778312.5217811863</v>
       </c>
       <c r="E2" t="n">
-        <v>535306.6359797292</v>
+        <v>531900.3523831811</v>
       </c>
       <c r="F2" t="n">
-        <v>535306.6359797295</v>
+        <v>531900.352383181</v>
       </c>
       <c r="G2" t="n">
-        <v>609328.9787441619</v>
+        <v>570420.5721782671</v>
       </c>
       <c r="H2" t="n">
-        <v>609328.978744162</v>
+        <v>570420.5721782667</v>
       </c>
       <c r="I2" t="n">
-        <v>609328.9787441619</v>
+        <v>570420.5721782671</v>
       </c>
       <c r="J2" t="n">
-        <v>530761.5022140649</v>
+        <v>461824.6142385325</v>
       </c>
       <c r="K2" t="n">
-        <v>530761.5022140649</v>
+        <v>461824.6142385324</v>
       </c>
       <c r="L2" t="n">
-        <v>618175.2339292794</v>
+        <v>572342.0322602723</v>
       </c>
       <c r="M2" t="n">
-        <v>618175.2339292794</v>
+        <v>572342.0322602725</v>
       </c>
       <c r="N2" t="n">
-        <v>618175.2339292794</v>
+        <v>572342.032260272</v>
       </c>
       <c r="O2" t="n">
-        <v>433188.8384149268</v>
+        <v>394802.327535356</v>
       </c>
       <c r="P2" t="n">
-        <v>433188.8384149266</v>
+        <v>394802.327535356</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>213221.4749899866</v>
+        <v>242054.7392583574</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>35722.49420768551</v>
+        <v>17171.17700518677</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>80332.87570702157</v>
+        <v>71040.56809147994</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>78193.06687287535</v>
+        <v>63125.96582688375</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>284479.2772552031</v>
+        <v>267991.3110955679</v>
       </c>
       <c r="F4" t="n">
-        <v>284479.2772552031</v>
+        <v>267991.3110955679</v>
       </c>
       <c r="G4" t="n">
-        <v>326389.7639762447</v>
+        <v>290070.4849809295</v>
       </c>
       <c r="H4" t="n">
-        <v>326389.7639762447</v>
+        <v>290070.4849809295</v>
       </c>
       <c r="I4" t="n">
-        <v>326389.7639762446</v>
+        <v>290070.4849809295</v>
       </c>
       <c r="J4" t="n">
-        <v>281850.2484942122</v>
+        <v>227180.0361570072</v>
       </c>
       <c r="K4" t="n">
-        <v>281850.2484942121</v>
+        <v>227180.0361570072</v>
       </c>
       <c r="L4" t="n">
-        <v>331288.5075512023</v>
+        <v>291155.9756894654</v>
       </c>
       <c r="M4" t="n">
-        <v>331288.5075512023</v>
+        <v>291155.9756894654</v>
       </c>
       <c r="N4" t="n">
-        <v>331288.5075512023</v>
+        <v>291155.9756894654</v>
       </c>
       <c r="O4" t="n">
-        <v>224852.7620236616</v>
+        <v>187853.5314846307</v>
       </c>
       <c r="P4" t="n">
-        <v>224852.7620236616</v>
+        <v>187853.5314846307</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>14980.54609319681</v>
+        <v>15614.7631174127</v>
       </c>
       <c r="F5" t="n">
-        <v>14980.54609319681</v>
+        <v>15614.7631174127</v>
       </c>
       <c r="G5" t="n">
-        <v>18734.4890501292</v>
+        <v>17419.21771697401</v>
       </c>
       <c r="H5" t="n">
-        <v>18734.4890501292</v>
+        <v>17419.21771697401</v>
       </c>
       <c r="I5" t="n">
-        <v>18734.4890501292</v>
+        <v>17419.21771697401</v>
       </c>
       <c r="J5" t="n">
-        <v>14780.81049294258</v>
+        <v>12688.7809988779</v>
       </c>
       <c r="K5" t="n">
-        <v>14780.81049294258</v>
+        <v>12688.7809988779</v>
       </c>
       <c r="L5" t="n">
-        <v>19243.88370967989</v>
+        <v>17517.99742569196</v>
       </c>
       <c r="M5" t="n">
-        <v>19243.88370967989</v>
+        <v>17517.99742569196</v>
       </c>
       <c r="N5" t="n">
-        <v>19243.88370967989</v>
+        <v>17517.99742569196</v>
       </c>
       <c r="O5" t="n">
-        <v>10802.00304991289</v>
+        <v>10052.61052708867</v>
       </c>
       <c r="P5" t="n">
-        <v>10802.00304991289</v>
+        <v>10052.61052708867</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277024.8260707739</v>
+        <v>277064.548271587</v>
       </c>
       <c r="C6" t="n">
-        <v>277024.8260707741</v>
+        <v>277064.5482715869</v>
       </c>
       <c r="D6" t="n">
-        <v>277024.8260707741</v>
+        <v>277064.548271587</v>
       </c>
       <c r="E6" t="n">
-        <v>16186.31013104435</v>
+        <v>5586.672256611791</v>
       </c>
       <c r="F6" t="n">
-        <v>229407.7851210312</v>
+        <v>247641.4115149691</v>
       </c>
       <c r="G6" t="n">
-        <v>223991.1603883419</v>
+        <v>245208.1948194062</v>
       </c>
       <c r="H6" t="n">
-        <v>259713.6545960275</v>
+        <v>262379.3718245926</v>
       </c>
       <c r="I6" t="n">
-        <v>259713.6545960274</v>
+        <v>262379.371824593</v>
       </c>
       <c r="J6" t="n">
-        <v>147238.9312262833</v>
+        <v>150077.9524987134</v>
       </c>
       <c r="K6" t="n">
-        <v>227571.8069333049</v>
+        <v>221118.5205901932</v>
       </c>
       <c r="L6" t="n">
-        <v>185191.5008628432</v>
+        <v>199995.6521363607</v>
       </c>
       <c r="M6" t="n">
-        <v>263384.5677357185</v>
+        <v>263121.6179632446</v>
       </c>
       <c r="N6" t="n">
-        <v>263384.5677357185</v>
+        <v>263121.617963244</v>
       </c>
       <c r="O6" t="n">
-        <v>188407.7353688223</v>
+        <v>195882.5345924901</v>
       </c>
       <c r="P6" t="n">
-        <v>188407.7353688221</v>
+        <v>195882.5345924901</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F2" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G2" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="H2" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="I2" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="J2" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="K2" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="L2" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="M2" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="N2" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="O2" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="P2" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
     </row>
     <row r="3">
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>118.5773796441831</v>
+        <v>156.8320871886841</v>
       </c>
       <c r="F3" t="n">
-        <v>118.5773796441831</v>
+        <v>156.8320871886841</v>
       </c>
       <c r="G3" t="n">
-        <v>118.5773796441831</v>
+        <v>156.8320871886841</v>
       </c>
       <c r="H3" t="n">
-        <v>118.5773796441831</v>
+        <v>156.8320871886841</v>
       </c>
       <c r="I3" t="n">
-        <v>118.5773796441831</v>
+        <v>156.8320871886841</v>
       </c>
       <c r="J3" t="n">
-        <v>118.5773796441831</v>
+        <v>156.8320871886841</v>
       </c>
       <c r="K3" t="n">
-        <v>118.5773796441831</v>
+        <v>156.8320871886841</v>
       </c>
       <c r="L3" t="n">
-        <v>118.5773796441831</v>
+        <v>156.8320871886841</v>
       </c>
       <c r="M3" t="n">
-        <v>118.5773796441831</v>
+        <v>156.8320871886841</v>
       </c>
       <c r="N3" t="n">
-        <v>118.5773796441831</v>
+        <v>156.8320871886841</v>
       </c>
       <c r="O3" t="n">
-        <v>118.5773796441831</v>
+        <v>156.8320871886841</v>
       </c>
       <c r="P3" t="n">
-        <v>118.5773796441831</v>
+        <v>156.8320871886841</v>
       </c>
     </row>
     <row r="4">
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>44.65311775960689</v>
+        <v>21.46397125648346</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>100.416094633777</v>
+        <v>88.80071011434993</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>97.74133359109419</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>118.5773796441831</v>
+        <v>156.8320871886841</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>44.65311775960689</v>
+        <v>21.46397125648346</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>100.416094633777</v>
+        <v>88.80071011434993</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28089,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J11" t="n">
-        <v>140.5871834188451</v>
+        <v>127.5346387577192</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>147.4450655646388</v>
+        <v>136.2718236171098</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>116.9148067230437</v>
       </c>
       <c r="O11" t="n">
-        <v>147.4450655646388</v>
+        <v>123.8692975309836</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>140.5690754423379</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="R11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y11" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="12">
@@ -28168,76 +28168,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C12" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E12" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0884639315231</v>
+        <v>137.0061802209557</v>
       </c>
       <c r="H12" t="n">
-        <v>109.7721669725673</v>
+        <v>108.9774795573504</v>
       </c>
       <c r="I12" t="n">
-        <v>90.74094197918077</v>
+        <v>87.9079282600833</v>
       </c>
       <c r="J12" t="n">
-        <v>102.7406895448238</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>96.65593532945439</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>83.17538752246585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>77.50936201593855</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>65.00661740861244</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>81.91259242974633</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>85.27042670726945</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>129.8438305088408</v>
+        <v>124.7350225843129</v>
       </c>
       <c r="S12" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T12" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U12" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V12" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W12" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X12" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y12" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="13">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J13" t="n">
-        <v>78.24153615777422</v>
+        <v>107.0006158317503</v>
       </c>
       <c r="K13" t="n">
-        <v>104.1703251893443</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>80.10060549435899</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>94.96401935784738</v>
+        <v>84.40760145462465</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>98.4823533434877</v>
       </c>
       <c r="P13" t="n">
-        <v>111.8664719378983</v>
+        <v>0.2897956696685166</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.5998173031742</v>
+        <v>127.8233564639546</v>
       </c>
       <c r="R13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y13" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="14">
@@ -28326,31 +28326,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C14" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D14" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E14" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F14" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G14" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H14" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I14" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>127.5346387577192</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28359,43 +28359,43 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>119.6393297918154</v>
       </c>
       <c r="N14" t="n">
-        <v>144.3555428192615</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>6.467319242355083</v>
       </c>
       <c r="P14" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>39.59381247154437</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="R14" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S14" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T14" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U14" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V14" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W14" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X14" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y14" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="15">
@@ -28405,76 +28405,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C15" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E15" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0884639315231</v>
+        <v>137.0061802209557</v>
       </c>
       <c r="H15" t="n">
-        <v>109.7721669725673</v>
+        <v>108.9774795573504</v>
       </c>
       <c r="I15" t="n">
-        <v>90.74094197918077</v>
+        <v>87.9079282600833</v>
       </c>
       <c r="J15" t="n">
-        <v>102.7406895448238</v>
+        <v>94.96668336353986</v>
       </c>
       <c r="K15" t="n">
-        <v>96.65593532945439</v>
+        <v>83.36892054015351</v>
       </c>
       <c r="L15" t="n">
-        <v>83.17538752246585</v>
+        <v>65.30935641878168</v>
       </c>
       <c r="M15" t="n">
-        <v>77.50936201593855</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>43.60599568520334</v>
       </c>
       <c r="O15" t="n">
-        <v>81.91259242974633</v>
+        <v>62.33520450364685</v>
       </c>
       <c r="P15" t="n">
-        <v>85.27042670726945</v>
+        <v>69.55784692356679</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.4244527920186</v>
+        <v>96.92100931678132</v>
       </c>
       <c r="R15" t="n">
-        <v>129.8438305088408</v>
+        <v>124.7350225843129</v>
       </c>
       <c r="S15" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T15" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U15" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V15" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W15" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X15" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y15" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="16">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="C16" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="D16" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G16" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="H16" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="I16" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="J16" t="n">
-        <v>111.8777774804976</v>
+        <v>107.0006158317503</v>
       </c>
       <c r="K16" t="n">
-        <v>104.1703251893443</v>
+        <v>96.15565039559471</v>
       </c>
       <c r="L16" t="n">
-        <v>103.0942751877798</v>
+        <v>92.83825080773437</v>
       </c>
       <c r="M16" t="n">
-        <v>105.4072633376928</v>
+        <v>94.59372362966278</v>
       </c>
       <c r="N16" t="n">
-        <v>94.96401935784738</v>
+        <v>84.40760145462465</v>
       </c>
       <c r="O16" t="n">
-        <v>108.2329138828631</v>
+        <v>98.4823533434877</v>
       </c>
       <c r="P16" t="n">
-        <v>111.8664719378983</v>
+        <v>103.5231829350779</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.5998173031742</v>
+        <v>127.8233564639546</v>
       </c>
       <c r="R16" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="S16" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="T16" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="U16" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="V16" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="W16" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="X16" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="Y16" t="n">
-        <v>147.4450655646388</v>
+        <v>145.0692123933839</v>
       </c>
     </row>
     <row r="17">
@@ -28563,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="E17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="F17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="G17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="H17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="I17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="J17" t="n">
-        <v>140.5871834188451</v>
+        <v>127.5346387577192</v>
       </c>
       <c r="K17" t="n">
-        <v>159.4527159458298</v>
+        <v>139.8903350219551</v>
       </c>
       <c r="L17" t="n">
-        <v>160.5406869772257</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>84.58652394654302</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>144.3555428192615</v>
+        <v>116.9148067230437</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>123.8692975309836</v>
       </c>
       <c r="P17" t="n">
-        <v>162.6839488625737</v>
+        <v>14.78399587402825</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>154.2208615110445</v>
       </c>
       <c r="R17" t="n">
-        <v>185.6414721897144</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="S17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="T17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y17" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="18">
@@ -28645,7 +28645,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -28657,61 +28657,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0884639315231</v>
+        <v>137.0061802209557</v>
       </c>
       <c r="H18" t="n">
-        <v>109.7721669725673</v>
+        <v>108.9774795573504</v>
       </c>
       <c r="I18" t="n">
-        <v>90.74094197918077</v>
+        <v>87.9079282600833</v>
       </c>
       <c r="J18" t="n">
-        <v>102.7406895448238</v>
+        <v>94.96668336353986</v>
       </c>
       <c r="K18" t="n">
-        <v>96.65593532945439</v>
+        <v>83.36892054015351</v>
       </c>
       <c r="L18" t="n">
-        <v>83.17538752246585</v>
+        <v>65.30935641878168</v>
       </c>
       <c r="M18" t="n">
-        <v>77.50936201593855</v>
+        <v>56.66054640418552</v>
       </c>
       <c r="N18" t="n">
-        <v>65.00661740861244</v>
+        <v>43.60599568520334</v>
       </c>
       <c r="O18" t="n">
-        <v>81.91259242974633</v>
+        <v>62.33520450364685</v>
       </c>
       <c r="P18" t="n">
-        <v>85.27042670726945</v>
+        <v>69.55784692356679</v>
       </c>
       <c r="Q18" t="n">
-        <v>107.4244527920186</v>
+        <v>96.92100931678132</v>
       </c>
       <c r="R18" t="n">
-        <v>129.8438305088408</v>
+        <v>124.7350225843129</v>
       </c>
       <c r="S18" t="n">
-        <v>166.9456691906952</v>
+        <v>165.4172853562522</v>
       </c>
       <c r="T18" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U18" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V18" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W18" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X18" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y18" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="19">
@@ -28721,10 +28721,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28736,61 +28736,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7771512968053</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="H19" t="n">
-        <v>160.3260466501935</v>
+        <v>159.7127170767751</v>
       </c>
       <c r="I19" t="n">
-        <v>149.0200819458983</v>
+        <v>146.9455479695506</v>
       </c>
       <c r="J19" t="n">
-        <v>111.8777774804976</v>
+        <v>107.0006158317503</v>
       </c>
       <c r="K19" t="n">
-        <v>104.1703251893443</v>
+        <v>96.15565039559471</v>
       </c>
       <c r="L19" t="n">
-        <v>103.0942751877798</v>
+        <v>92.83825080773437</v>
       </c>
       <c r="M19" t="n">
-        <v>105.4072633376928</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>94.96401935784738</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>108.2329138828631</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>111.8664719378983</v>
+        <v>103.5231829350779</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.5998173031742</v>
+        <v>127.8233564639546</v>
       </c>
       <c r="R19" t="n">
-        <v>167.6789041686428</v>
+        <v>164.5771372257722</v>
       </c>
       <c r="S19" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="T19" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U19" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V19" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W19" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X19" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="20">
@@ -28800,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="E20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="F20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="G20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="H20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="I20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="J20" t="n">
-        <v>140.5871834188451</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>139.8903350219551</v>
       </c>
       <c r="L20" t="n">
-        <v>160.5406869772257</v>
+        <v>136.2718236171098</v>
       </c>
       <c r="M20" t="n">
-        <v>146.6431163892962</v>
+        <v>119.6393297918154</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>116.9148067230437</v>
       </c>
       <c r="O20" t="n">
-        <v>141.1055420611324</v>
+        <v>123.8692975309836</v>
       </c>
       <c r="P20" t="n">
-        <v>162.6839488625737</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>170.8282104531398</v>
+        <v>154.2208615110445</v>
       </c>
       <c r="R20" t="n">
-        <v>185.6414721897144</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="S20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="T20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y20" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="21">
@@ -28882,7 +28882,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -28894,61 +28894,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0884639315231</v>
+        <v>137.0061802209557</v>
       </c>
       <c r="H21" t="n">
-        <v>109.7721669725673</v>
+        <v>108.9774795573504</v>
       </c>
       <c r="I21" t="n">
-        <v>90.74094197918077</v>
+        <v>87.9079282600833</v>
       </c>
       <c r="J21" t="n">
-        <v>102.7406895448238</v>
+        <v>94.96668336353986</v>
       </c>
       <c r="K21" t="n">
-        <v>96.65593532945439</v>
+        <v>83.36892054015351</v>
       </c>
       <c r="L21" t="n">
-        <v>83.17538752246585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>77.50936201593855</v>
+        <v>56.66054640418552</v>
       </c>
       <c r="N21" t="n">
-        <v>65.00661740861244</v>
+        <v>43.60599568520334</v>
       </c>
       <c r="O21" t="n">
-        <v>81.91259242974633</v>
+        <v>62.33520450364685</v>
       </c>
       <c r="P21" t="n">
-        <v>85.27042670726945</v>
+        <v>69.55784692356679</v>
       </c>
       <c r="Q21" t="n">
-        <v>107.4244527920186</v>
+        <v>96.92100931678132</v>
       </c>
       <c r="R21" t="n">
-        <v>129.8438305088408</v>
+        <v>124.7350225843129</v>
       </c>
       <c r="S21" t="n">
-        <v>166.9456691906952</v>
+        <v>165.4172853562522</v>
       </c>
       <c r="T21" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U21" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V21" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W21" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X21" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y21" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="22">
@@ -28958,10 +28958,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28973,61 +28973,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.7771512968053</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="H22" t="n">
-        <v>160.3260466501935</v>
+        <v>159.7127170767751</v>
       </c>
       <c r="I22" t="n">
-        <v>149.0200819458983</v>
+        <v>146.9455479695506</v>
       </c>
       <c r="J22" t="n">
-        <v>78.24153615777422</v>
+        <v>73.36437450902694</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>103.0942751877798</v>
+        <v>92.83825080773437</v>
       </c>
       <c r="M22" t="n">
-        <v>105.4072633376928</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>108.2329138828631</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>111.8664719378983</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.5998173031742</v>
+        <v>99.76977351289412</v>
       </c>
       <c r="R22" t="n">
-        <v>167.6789041686428</v>
+        <v>164.5771372257722</v>
       </c>
       <c r="S22" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="T22" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U22" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V22" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W22" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X22" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="23">
@@ -29037,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="E23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="F23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="G23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="H23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="I23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="J23" t="n">
-        <v>140.5871834188451</v>
+        <v>127.5346387577192</v>
       </c>
       <c r="K23" t="n">
-        <v>159.4527159458298</v>
+        <v>93.82405731609133</v>
       </c>
       <c r="L23" t="n">
-        <v>160.5406869772257</v>
+        <v>136.2718236171098</v>
       </c>
       <c r="M23" t="n">
-        <v>145.1426598061496</v>
+        <v>119.6393297918154</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>149.7808064989778</v>
+        <v>123.8692975309836</v>
       </c>
       <c r="P23" t="n">
-        <v>162.6839488625737</v>
+        <v>140.5690754423379</v>
       </c>
       <c r="Q23" t="n">
-        <v>170.8282104531398</v>
+        <v>154.2208615110445</v>
       </c>
       <c r="R23" t="n">
-        <v>185.6414721897144</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="S23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="T23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y23" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="24">
@@ -29119,7 +29119,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -29131,61 +29131,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0884639315231</v>
+        <v>137.0061802209557</v>
       </c>
       <c r="H24" t="n">
-        <v>109.7721669725673</v>
+        <v>108.9774795573504</v>
       </c>
       <c r="I24" t="n">
-        <v>90.74094197918077</v>
+        <v>87.9079282600833</v>
       </c>
       <c r="J24" t="n">
-        <v>102.7406895448238</v>
+        <v>94.96668336353986</v>
       </c>
       <c r="K24" t="n">
-        <v>96.65593532945439</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>65.30935641878168</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>56.66054640418552</v>
       </c>
       <c r="N24" t="n">
-        <v>65.00661740861244</v>
+        <v>43.60599568520334</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>62.33520450364685</v>
       </c>
       <c r="P24" t="n">
-        <v>85.27042670726945</v>
+        <v>69.55784692356679</v>
       </c>
       <c r="Q24" t="n">
-        <v>107.4244527920186</v>
+        <v>96.92100931678132</v>
       </c>
       <c r="R24" t="n">
-        <v>129.8438305088408</v>
+        <v>124.7350225843129</v>
       </c>
       <c r="S24" t="n">
-        <v>166.9456691906952</v>
+        <v>165.4172853562522</v>
       </c>
       <c r="T24" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U24" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V24" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W24" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X24" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y24" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="25">
@@ -29195,10 +29195,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -29210,28 +29210,28 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7771512968053</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="H25" t="n">
-        <v>160.3260466501935</v>
+        <v>159.7127170767751</v>
       </c>
       <c r="I25" t="n">
-        <v>149.0200819458983</v>
+        <v>146.9455479695506</v>
       </c>
       <c r="J25" t="n">
-        <v>78.24153615777422</v>
+        <v>73.36437450902694</v>
       </c>
       <c r="K25" t="n">
-        <v>104.1703251893443</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>105.4072633376928</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>94.96401935784738</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29240,31 +29240,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.5998173031742</v>
+        <v>62.4803980862031</v>
       </c>
       <c r="R25" t="n">
-        <v>167.6789041686428</v>
+        <v>164.5771372257722</v>
       </c>
       <c r="S25" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="T25" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="U25" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="V25" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="W25" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="X25" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.0981833242456</v>
+        <v>166.5331836498673</v>
       </c>
     </row>
     <row r="26">
@@ -29274,31 +29274,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="C26" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="D26" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="E26" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="F26" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="G26" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="H26" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="I26" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="J26" t="n">
-        <v>19.17047324748158</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -29310,40 +29310,40 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="O26" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>145.0692123933839</v>
+        <v>44.12559780681934</v>
       </c>
       <c r="R26" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="S26" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="T26" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="U26" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="V26" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="W26" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="X26" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
     </row>
     <row r="27">
@@ -29353,76 +29353,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="C27" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="D27" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="E27" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0884639315231</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="H27" t="n">
-        <v>109.7721669725673</v>
+        <v>108.9774795573504</v>
       </c>
       <c r="I27" t="n">
-        <v>90.74094197918077</v>
+        <v>87.9079282600833</v>
       </c>
       <c r="J27" t="n">
-        <v>102.7406895448238</v>
+        <v>94.96668336353986</v>
       </c>
       <c r="K27" t="n">
-        <v>96.65593532945439</v>
+        <v>83.36892054015351</v>
       </c>
       <c r="L27" t="n">
-        <v>83.17538752246585</v>
+        <v>65.30935641878168</v>
       </c>
       <c r="M27" t="n">
-        <v>77.50936201593855</v>
+        <v>56.66054640418552</v>
       </c>
       <c r="N27" t="n">
-        <v>65.00661740861244</v>
+        <v>43.60599568520334</v>
       </c>
       <c r="O27" t="n">
-        <v>81.91259242974633</v>
+        <v>62.33520450364685</v>
       </c>
       <c r="P27" t="n">
-        <v>85.27042670726945</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>107.4244527920186</v>
+        <v>96.92100931678132</v>
       </c>
       <c r="R27" t="n">
-        <v>129.8438305088408</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="S27" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="T27" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="U27" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="V27" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="W27" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="X27" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="Y27" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="C28" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="D28" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="E28" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="F28" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="G28" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="H28" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="I28" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="J28" t="n">
-        <v>111.8777774804976</v>
+        <v>107.0006158317503</v>
       </c>
       <c r="K28" t="n">
-        <v>104.1703251893443</v>
+        <v>96.15565039559471</v>
       </c>
       <c r="L28" t="n">
-        <v>103.0942751877798</v>
+        <v>92.83825080773437</v>
       </c>
       <c r="M28" t="n">
-        <v>105.4072633376928</v>
+        <v>94.59372362966278</v>
       </c>
       <c r="N28" t="n">
-        <v>94.96401935784738</v>
+        <v>84.40760145462465</v>
       </c>
       <c r="O28" t="n">
-        <v>108.2329138828631</v>
+        <v>98.4823533434877</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>103.5231829350779</v>
       </c>
       <c r="Q28" t="n">
-        <v>133.5998173031742</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="R28" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="S28" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="T28" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="U28" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="V28" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="W28" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="X28" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="Y28" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
     </row>
     <row r="29">
@@ -29511,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="C29" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="D29" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="E29" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="F29" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="G29" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="H29" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="I29" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="J29" t="n">
-        <v>140.5871834188451</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>68.30742368264265</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="M29" t="n">
-        <v>145.0692123933839</v>
+        <v>92.05512145501889</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="O29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>119.9250523167319</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="S29" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="T29" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="U29" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="V29" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="W29" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="X29" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
     </row>
     <row r="30">
@@ -29590,40 +29590,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="C30" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="D30" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="E30" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0884639315231</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="H30" t="n">
-        <v>109.7721669725673</v>
+        <v>108.9774795573504</v>
       </c>
       <c r="I30" t="n">
-        <v>90.74094197918077</v>
+        <v>87.9079282600833</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>83.36892054015351</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>56.66054640418552</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -29632,34 +29632,34 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>69.55784692356679</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>96.92100931678132</v>
       </c>
       <c r="R30" t="n">
-        <v>84.32216069751996</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="S30" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="T30" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="U30" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="V30" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="W30" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="X30" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="Y30" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="C31" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="D31" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="E31" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="F31" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="G31" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="H31" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="I31" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="J31" t="n">
-        <v>111.8777774804976</v>
+        <v>107.0006158317503</v>
       </c>
       <c r="K31" t="n">
-        <v>104.1703251893443</v>
+        <v>96.15565039559471</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>94.59372362966278</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>108.2329138828631</v>
+        <v>98.4823533434877</v>
       </c>
       <c r="P31" t="n">
-        <v>111.8664719378983</v>
+        <v>103.5231829350779</v>
       </c>
       <c r="Q31" t="n">
-        <v>133.5998173031742</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="R31" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="S31" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="T31" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="U31" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="V31" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="W31" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="X31" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="Y31" t="n">
-        <v>145.0692123933839</v>
+        <v>110.2646813708334</v>
       </c>
     </row>
     <row r="32">
@@ -29748,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="C32" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="D32" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="E32" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="F32" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="G32" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="H32" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="I32" t="n">
-        <v>192.0981833242456</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>127.5346387577192</v>
       </c>
       <c r="K32" t="n">
-        <v>159.4527159458298</v>
+        <v>139.8903350219551</v>
       </c>
       <c r="L32" t="n">
-        <v>160.5406869772257</v>
+        <v>136.2718236171098</v>
       </c>
       <c r="M32" t="n">
-        <v>146.6431163892962</v>
+        <v>119.6393297918154</v>
       </c>
       <c r="N32" t="n">
-        <v>144.3555428192615</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>149.7808064989778</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>143.0830614662664</v>
+        <v>140.5690754423379</v>
       </c>
       <c r="Q32" t="n">
-        <v>170.8282104531398</v>
+        <v>88.08804495515253</v>
       </c>
       <c r="R32" t="n">
-        <v>185.6414721897144</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="S32" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="T32" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="U32" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="V32" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="W32" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="X32" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="Y32" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
     </row>
     <row r="33">
@@ -29830,7 +29830,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -29842,61 +29842,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0884639315231</v>
+        <v>137.0061802209557</v>
       </c>
       <c r="H33" t="n">
-        <v>109.7721669725673</v>
+        <v>108.9774795573504</v>
       </c>
       <c r="I33" t="n">
-        <v>90.74094197918077</v>
+        <v>87.9079282600833</v>
       </c>
       <c r="J33" t="n">
-        <v>102.7406895448238</v>
+        <v>94.96668336353986</v>
       </c>
       <c r="K33" t="n">
-        <v>96.65593532945439</v>
+        <v>83.36892054015351</v>
       </c>
       <c r="L33" t="n">
-        <v>83.17538752246585</v>
+        <v>65.30935641878168</v>
       </c>
       <c r="M33" t="n">
-        <v>77.50936201593855</v>
+        <v>56.66054640418552</v>
       </c>
       <c r="N33" t="n">
-        <v>65.00661740861244</v>
+        <v>43.60599568520334</v>
       </c>
       <c r="O33" t="n">
-        <v>81.91259242974633</v>
+        <v>62.33520450364685</v>
       </c>
       <c r="P33" t="n">
-        <v>85.27042670726945</v>
+        <v>69.55784692356679</v>
       </c>
       <c r="Q33" t="n">
-        <v>107.4244527920186</v>
+        <v>96.92100931678132</v>
       </c>
       <c r="R33" t="n">
-        <v>129.8438305088408</v>
+        <v>124.7350225843129</v>
       </c>
       <c r="S33" t="n">
-        <v>166.9456691906952</v>
+        <v>165.4172853562522</v>
       </c>
       <c r="T33" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="U33" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="V33" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="W33" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="X33" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="Y33" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
     </row>
     <row r="34">
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -29921,61 +29921,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7771512968053</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="H34" t="n">
-        <v>160.3260466501935</v>
+        <v>159.7127170767751</v>
       </c>
       <c r="I34" t="n">
-        <v>149.0200819458983</v>
+        <v>146.9455479695506</v>
       </c>
       <c r="J34" t="n">
-        <v>111.8777774804976</v>
+        <v>107.0006158317503</v>
       </c>
       <c r="K34" t="n">
-        <v>104.1703251893443</v>
+        <v>96.15565039559471</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>105.4072633376928</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>84.40760145462465</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>103.5231829350779</v>
       </c>
       <c r="Q34" t="n">
-        <v>133.5998173031742</v>
+        <v>127.8233564639546</v>
       </c>
       <c r="R34" t="n">
-        <v>167.6789041686428</v>
+        <v>164.5771372257722</v>
       </c>
       <c r="S34" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="T34" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="U34" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="V34" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="W34" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="X34" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="Y34" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
     </row>
     <row r="35">
@@ -29985,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="C35" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="D35" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="E35" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="F35" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="G35" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="H35" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="I35" t="n">
-        <v>192.0981833242456</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="J35" t="n">
-        <v>140.5871834188451</v>
+        <v>127.5346387577192</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>139.8903350219551</v>
       </c>
       <c r="L35" t="n">
-        <v>160.5406869772257</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>19.83006894719138</v>
+        <v>119.6393297918154</v>
       </c>
       <c r="N35" t="n">
-        <v>144.3555428192615</v>
+        <v>116.9148067230437</v>
       </c>
       <c r="O35" t="n">
-        <v>149.7808064989778</v>
+        <v>123.8692975309836</v>
       </c>
       <c r="P35" t="n">
-        <v>162.6839488625737</v>
+        <v>140.5690754423379</v>
       </c>
       <c r="Q35" t="n">
-        <v>170.8282104531398</v>
+        <v>154.2208615110445</v>
       </c>
       <c r="R35" t="n">
-        <v>185.6414721897144</v>
+        <v>110.2646813708334</v>
       </c>
       <c r="S35" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="T35" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="U35" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="V35" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="W35" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="X35" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="Y35" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
     </row>
     <row r="36">
@@ -30067,7 +30067,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -30079,61 +30079,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0884639315231</v>
+        <v>137.0061802209557</v>
       </c>
       <c r="H36" t="n">
-        <v>109.7721669725673</v>
+        <v>108.9774795573504</v>
       </c>
       <c r="I36" t="n">
-        <v>90.74094197918077</v>
+        <v>87.9079282600833</v>
       </c>
       <c r="J36" t="n">
-        <v>102.7406895448238</v>
+        <v>94.96668336353986</v>
       </c>
       <c r="K36" t="n">
-        <v>96.65593532945439</v>
+        <v>83.36892054015351</v>
       </c>
       <c r="L36" t="n">
-        <v>83.17538752246585</v>
+        <v>65.30935641878168</v>
       </c>
       <c r="M36" t="n">
-        <v>77.50936201593855</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>65.00661740861244</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>81.91259242974633</v>
+        <v>62.33520450364685</v>
       </c>
       <c r="P36" t="n">
-        <v>85.27042670726945</v>
+        <v>69.55784692356679</v>
       </c>
       <c r="Q36" t="n">
-        <v>107.4244527920186</v>
+        <v>96.92100931678132</v>
       </c>
       <c r="R36" t="n">
-        <v>129.8438305088408</v>
+        <v>121.4691470112224</v>
       </c>
       <c r="S36" t="n">
-        <v>166.9456691906952</v>
+        <v>165.4172853562522</v>
       </c>
       <c r="T36" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="U36" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="V36" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="W36" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="X36" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="Y36" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
     </row>
     <row r="37">
@@ -30143,7 +30143,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -30158,61 +30158,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7771512968053</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="H37" t="n">
-        <v>160.3260466501935</v>
+        <v>159.7127170767751</v>
       </c>
       <c r="I37" t="n">
-        <v>149.0200819458983</v>
+        <v>146.9455479695506</v>
       </c>
       <c r="J37" t="n">
-        <v>111.8777774804976</v>
+        <v>73.36437450902694</v>
       </c>
       <c r="K37" t="n">
-        <v>104.1703251893443</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>103.0942751877798</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>105.4072633376928</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>94.96401935784738</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>108.2329138828631</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>111.8664719378983</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.5998173031742</v>
+        <v>62.4803980862031</v>
       </c>
       <c r="R37" t="n">
-        <v>167.6789041686428</v>
+        <v>164.5771372257722</v>
       </c>
       <c r="S37" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="T37" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="U37" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="V37" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="W37" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="X37" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="Y37" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
     </row>
     <row r="38">
@@ -30222,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="C38" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="D38" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="E38" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="F38" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="G38" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="H38" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="I38" t="n">
-        <v>192.0981833242456</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="J38" t="n">
-        <v>140.5871834188451</v>
+        <v>127.5346387577192</v>
       </c>
       <c r="K38" t="n">
-        <v>159.4527159458298</v>
+        <v>139.8903350219551</v>
       </c>
       <c r="L38" t="n">
-        <v>160.5406869772257</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>146.6431163892962</v>
+        <v>119.6393297918154</v>
       </c>
       <c r="N38" t="n">
-        <v>144.3555428192615</v>
+        <v>116.9148067230437</v>
       </c>
       <c r="O38" t="n">
-        <v>149.7808064989778</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>162.6839488625737</v>
+        <v>140.5690754423379</v>
       </c>
       <c r="Q38" t="n">
-        <v>170.8282104531398</v>
+        <v>135.6557772649005</v>
       </c>
       <c r="R38" t="n">
-        <v>185.6414721897144</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="S38" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="T38" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="U38" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="V38" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="W38" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="X38" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="Y38" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
     </row>
     <row r="39">
@@ -30304,7 +30304,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -30316,61 +30316,61 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0884639315231</v>
+        <v>137.0061802209557</v>
       </c>
       <c r="H39" t="n">
-        <v>109.7721669725673</v>
+        <v>108.9774795573504</v>
       </c>
       <c r="I39" t="n">
-        <v>90.74094197918077</v>
+        <v>87.9079282600833</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>94.96668336353986</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>83.36892054015351</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>65.30935641878168</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>56.66054640418552</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>43.60599568520334</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>62.33520450364685</v>
       </c>
       <c r="P39" t="n">
-        <v>85.27042670726945</v>
+        <v>69.55784692356679</v>
       </c>
       <c r="Q39" t="n">
-        <v>107.4244527920186</v>
+        <v>96.92100931678132</v>
       </c>
       <c r="R39" t="n">
-        <v>99.42095330517739</v>
+        <v>124.7350225843129</v>
       </c>
       <c r="S39" t="n">
-        <v>166.9456691906952</v>
+        <v>165.4172853562522</v>
       </c>
       <c r="T39" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="U39" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="V39" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="W39" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="X39" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="Y39" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
     </row>
     <row r="40">
@@ -30380,7 +30380,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30395,61 +30395,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7771512968053</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="H40" t="n">
-        <v>160.3260466501935</v>
+        <v>159.7127170767751</v>
       </c>
       <c r="I40" t="n">
-        <v>149.0200819458983</v>
+        <v>146.9455479695506</v>
       </c>
       <c r="J40" t="n">
-        <v>111.8777774804976</v>
+        <v>107.0006158317503</v>
       </c>
       <c r="K40" t="n">
-        <v>104.1703251893443</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>103.0942751877798</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>105.4072633376928</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>94.96401935784738</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>108.2329138828631</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>111.8664719378983</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.5998173031742</v>
+        <v>127.8233564639546</v>
       </c>
       <c r="R40" t="n">
-        <v>167.6789041686428</v>
+        <v>164.5771372257722</v>
       </c>
       <c r="S40" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="T40" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="U40" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="V40" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="W40" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="X40" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
       <c r="Y40" t="n">
-        <v>198.1574282248712</v>
+        <v>167.7081673979546</v>
       </c>
     </row>
     <row r="41">
@@ -30459,34 +30459,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="C41" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="D41" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="E41" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="F41" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="G41" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="H41" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="I41" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="J41" t="n">
-        <v>97.74133359109422</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30495,7 +30495,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>63.38954617403589</v>
+        <v>59.32481867841895</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30507,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="S41" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="T41" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="U41" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="V41" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="W41" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="X41" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
     </row>
     <row r="42">
@@ -30538,76 +30538,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="C42" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="D42" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="E42" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="F42" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="G42" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="H42" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="I42" t="n">
-        <v>90.74094197918077</v>
+        <v>77.78218111149837</v>
       </c>
       <c r="J42" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="L42" t="n">
-        <v>83.17538752246585</v>
+        <v>65.30935641878168</v>
       </c>
       <c r="M42" t="n">
-        <v>77.50936201593855</v>
+        <v>56.66054640418552</v>
       </c>
       <c r="N42" t="n">
-        <v>65.00661740861244</v>
+        <v>43.60599568520334</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>62.33520450364685</v>
       </c>
       <c r="P42" t="n">
-        <v>85.27042670726945</v>
+        <v>69.55784692356679</v>
       </c>
       <c r="Q42" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="R42" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="S42" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="T42" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="U42" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="V42" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="W42" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="X42" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="Y42" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
     </row>
     <row r="43">
@@ -30617,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="C43" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="D43" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="E43" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="F43" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="G43" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="H43" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="I43" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="J43" t="n">
-        <v>97.74133359109422</v>
+        <v>73.36437450902694</v>
       </c>
       <c r="K43" t="n">
-        <v>97.74133359109422</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30653,40 +30653,40 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>94.96401935784738</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>97.74133359109422</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.74133359109422</v>
+        <v>62.4803980862031</v>
       </c>
       <c r="R43" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="S43" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="T43" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="U43" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="V43" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="W43" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="X43" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
     </row>
     <row r="44">
@@ -30696,43 +30696,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="C44" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="D44" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="E44" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="F44" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="G44" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="H44" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="I44" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>52.10126193187604</v>
       </c>
       <c r="K44" t="n">
-        <v>97.74133359109422</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>97.74133359109422</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30741,31 +30741,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>97.74133359109422</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="S44" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="T44" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="U44" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="V44" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="W44" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="X44" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
     </row>
     <row r="45">
@@ -30775,76 +30775,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="C45" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="D45" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="E45" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="F45" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="G45" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="H45" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="I45" t="n">
-        <v>90.74094197918077</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="J45" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>65.30935641878168</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>56.66054640418552</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>43.60599568520334</v>
       </c>
       <c r="O45" t="n">
-        <v>81.91259242974633</v>
+        <v>62.33520450364685</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>69.55784692356679</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="R45" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="S45" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="T45" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="U45" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="V45" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="W45" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="X45" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="Y45" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="C46" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="D46" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="E46" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="F46" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="G46" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="H46" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="I46" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="J46" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>41.4797599061575</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>97.74133359109422</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>94.96401935784738</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>97.74133359109422</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>97.74133359109422</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="R46" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="S46" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="T46" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="U46" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="V46" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="W46" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="X46" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.74133359109422</v>
+        <v>78.90745728360469</v>
       </c>
     </row>
   </sheetData>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4766929834942029</v>
+        <v>0.6304807525173224</v>
       </c>
       <c r="H11" t="n">
-        <v>4.881932017210007</v>
+        <v>6.45691100671803</v>
       </c>
       <c r="I11" t="n">
-        <v>18.37770624616028</v>
+        <v>24.30660921142409</v>
       </c>
       <c r="J11" t="n">
-        <v>40.45872110784114</v>
+        <v>53.51126576896714</v>
       </c>
       <c r="K11" t="n">
-        <v>60.63713509915076</v>
+        <v>80.19951602302541</v>
       </c>
       <c r="L11" t="n">
-        <v>75.22572799276149</v>
+        <v>99.49459135287744</v>
       </c>
       <c r="M11" t="n">
-        <v>83.70311683797652</v>
+        <v>110.7069034354574</v>
       </c>
       <c r="N11" t="n">
-        <v>85.05752077732943</v>
+        <v>112.4982568735472</v>
       </c>
       <c r="O11" t="n">
-        <v>80.31740492270895</v>
+        <v>106.2289138907031</v>
       </c>
       <c r="P11" t="n">
-        <v>68.5490468926958</v>
+        <v>90.66392031293167</v>
       </c>
       <c r="Q11" t="n">
-        <v>51.47747942130965</v>
+        <v>68.08482836340504</v>
       </c>
       <c r="R11" t="n">
-        <v>29.94406562441775</v>
+        <v>39.60443657031629</v>
       </c>
       <c r="S11" t="n">
-        <v>10.86264136137416</v>
+        <v>14.3670801479885</v>
       </c>
       <c r="T11" t="n">
-        <v>2.086723535245874</v>
+        <v>2.75992949414458</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03813543867953623</v>
+        <v>0.05043846020138578</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2550532316874881</v>
+        <v>0.3373369422549053</v>
       </c>
       <c r="H12" t="n">
-        <v>2.463277263929162</v>
+        <v>3.25796467914606</v>
       </c>
       <c r="I12" t="n">
-        <v>8.78143802081922</v>
+        <v>11.6144517399167</v>
       </c>
       <c r="J12" t="n">
-        <v>24.09693712184291</v>
+        <v>31.87094330312683</v>
       </c>
       <c r="K12" t="n">
-        <v>41.18550364490461</v>
+        <v>54.47251843420548</v>
       </c>
       <c r="L12" t="n">
-        <v>55.37899225740833</v>
+        <v>73.24502336109251</v>
       </c>
       <c r="M12" t="n">
-        <v>64.62467190607977</v>
+        <v>85.47348751783279</v>
       </c>
       <c r="N12" t="n">
-        <v>66.33509467472086</v>
+        <v>87.73571639812997</v>
       </c>
       <c r="O12" t="n">
-        <v>60.6836520146981</v>
+        <v>80.26103994079759</v>
       </c>
       <c r="P12" t="n">
-        <v>48.70398070706079</v>
+        <v>64.41656049076346</v>
       </c>
       <c r="Q12" t="n">
-        <v>32.55732129400288</v>
+        <v>43.0607647692402</v>
       </c>
       <c r="R12" t="n">
-        <v>15.83567345512317</v>
+        <v>20.94448137965106</v>
       </c>
       <c r="S12" t="n">
-        <v>4.737501913142594</v>
+        <v>6.265885747585628</v>
       </c>
       <c r="T12" t="n">
-        <v>1.028043508424568</v>
+        <v>1.359704604966043</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01677981787417685</v>
+        <v>0.02219321988519115</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2138280616534448</v>
+        <v>0.2828119605041843</v>
       </c>
       <c r="H13" t="n">
-        <v>1.901125857246084</v>
+        <v>2.514455430664477</v>
       </c>
       <c r="I13" t="n">
-        <v>6.430392981359962</v>
+        <v>8.504926957707655</v>
       </c>
       <c r="J13" t="n">
-        <v>15.11764395889855</v>
+        <v>19.99480560764583</v>
       </c>
       <c r="K13" t="n">
-        <v>24.84293298119113</v>
+        <v>32.85760777494068</v>
       </c>
       <c r="L13" t="n">
-        <v>31.79040109345852</v>
+        <v>42.04642547350392</v>
       </c>
       <c r="M13" t="n">
-        <v>33.51852060991227</v>
+        <v>44.33206031794227</v>
       </c>
       <c r="N13" t="n">
-        <v>32.72152510738582</v>
+        <v>43.27794301060853</v>
       </c>
       <c r="O13" t="n">
-        <v>30.22362456897965</v>
+        <v>39.97418510835509</v>
       </c>
       <c r="P13" t="n">
-        <v>25.86153211124936</v>
+        <v>34.2048211140697</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.90518432627164</v>
+        <v>23.68164516549129</v>
       </c>
       <c r="R13" t="n">
-        <v>9.614487208526709</v>
+        <v>12.71625415139723</v>
       </c>
       <c r="S13" t="n">
-        <v>3.726439947178669</v>
+        <v>4.928641166241102</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9136289907010823</v>
+        <v>1.208378376699696</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01166334881746064</v>
+        <v>0.01542610693659189</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4766929834942029</v>
+        <v>0.6304807525173224</v>
       </c>
       <c r="H14" t="n">
-        <v>4.881932017210007</v>
+        <v>6.45691100671803</v>
       </c>
       <c r="I14" t="n">
-        <v>18.37770624616028</v>
+        <v>24.30660921142409</v>
       </c>
       <c r="J14" t="n">
-        <v>40.45872110784114</v>
+        <v>53.51126576896714</v>
       </c>
       <c r="K14" t="n">
-        <v>60.63713509915076</v>
+        <v>80.19951602302541</v>
       </c>
       <c r="L14" t="n">
-        <v>75.22572799276149</v>
+        <v>99.49459135287744</v>
       </c>
       <c r="M14" t="n">
-        <v>83.70311683797652</v>
+        <v>110.7069034354574</v>
       </c>
       <c r="N14" t="n">
-        <v>85.05752077732943</v>
+        <v>112.4982568735472</v>
       </c>
       <c r="O14" t="n">
-        <v>80.31740492270895</v>
+        <v>106.2289138907031</v>
       </c>
       <c r="P14" t="n">
-        <v>68.5490468926958</v>
+        <v>90.66392031293167</v>
       </c>
       <c r="Q14" t="n">
-        <v>51.47747942130965</v>
+        <v>68.08482836340504</v>
       </c>
       <c r="R14" t="n">
-        <v>29.94406562441775</v>
+        <v>39.60443657031629</v>
       </c>
       <c r="S14" t="n">
-        <v>10.86264136137416</v>
+        <v>14.3670801479885</v>
       </c>
       <c r="T14" t="n">
-        <v>2.086723535245874</v>
+        <v>2.75992949414458</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03813543867953623</v>
+        <v>0.05043846020138578</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2550532316874881</v>
+        <v>0.3373369422549053</v>
       </c>
       <c r="H15" t="n">
-        <v>2.463277263929162</v>
+        <v>3.25796467914606</v>
       </c>
       <c r="I15" t="n">
-        <v>8.78143802081922</v>
+        <v>11.6144517399167</v>
       </c>
       <c r="J15" t="n">
-        <v>24.09693712184291</v>
+        <v>31.87094330312683</v>
       </c>
       <c r="K15" t="n">
-        <v>41.18550364490461</v>
+        <v>54.47251843420548</v>
       </c>
       <c r="L15" t="n">
-        <v>55.37899225740833</v>
+        <v>73.24502336109251</v>
       </c>
       <c r="M15" t="n">
-        <v>64.62467190607977</v>
+        <v>85.47348751783279</v>
       </c>
       <c r="N15" t="n">
-        <v>66.33509467472086</v>
+        <v>87.73571639812997</v>
       </c>
       <c r="O15" t="n">
-        <v>60.6836520146981</v>
+        <v>80.26103994079759</v>
       </c>
       <c r="P15" t="n">
-        <v>48.70398070706079</v>
+        <v>64.41656049076346</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.55732129400288</v>
+        <v>43.0607647692402</v>
       </c>
       <c r="R15" t="n">
-        <v>15.83567345512317</v>
+        <v>20.94448137965106</v>
       </c>
       <c r="S15" t="n">
-        <v>4.737501913142594</v>
+        <v>6.265885747585628</v>
       </c>
       <c r="T15" t="n">
-        <v>1.028043508424568</v>
+        <v>1.359704604966043</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01677981787417685</v>
+        <v>0.02219321988519115</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2138280616534448</v>
+        <v>0.2828119605041843</v>
       </c>
       <c r="H16" t="n">
-        <v>1.901125857246084</v>
+        <v>2.514455430664477</v>
       </c>
       <c r="I16" t="n">
-        <v>6.430392981359962</v>
+        <v>8.504926957707655</v>
       </c>
       <c r="J16" t="n">
-        <v>15.11764395889855</v>
+        <v>19.99480560764583</v>
       </c>
       <c r="K16" t="n">
-        <v>24.84293298119113</v>
+        <v>32.85760777494068</v>
       </c>
       <c r="L16" t="n">
-        <v>31.79040109345852</v>
+        <v>42.04642547350392</v>
       </c>
       <c r="M16" t="n">
-        <v>33.51852060991227</v>
+        <v>44.33206031794227</v>
       </c>
       <c r="N16" t="n">
-        <v>32.72152510738582</v>
+        <v>43.27794301060853</v>
       </c>
       <c r="O16" t="n">
-        <v>30.22362456897965</v>
+        <v>39.97418510835509</v>
       </c>
       <c r="P16" t="n">
-        <v>25.86153211124936</v>
+        <v>34.2048211140697</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.90518432627164</v>
+        <v>23.68164516549129</v>
       </c>
       <c r="R16" t="n">
-        <v>9.614487208526709</v>
+        <v>12.71625415139723</v>
       </c>
       <c r="S16" t="n">
-        <v>3.726439947178669</v>
+        <v>4.928641166241102</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9136289907010823</v>
+        <v>1.208378376699696</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01166334881746064</v>
+        <v>0.01542610693659189</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4766929834942029</v>
+        <v>0.6304807525173224</v>
       </c>
       <c r="H17" t="n">
-        <v>4.881932017210007</v>
+        <v>6.45691100671803</v>
       </c>
       <c r="I17" t="n">
-        <v>18.37770624616028</v>
+        <v>24.30660921142409</v>
       </c>
       <c r="J17" t="n">
-        <v>40.45872110784114</v>
+        <v>53.51126576896714</v>
       </c>
       <c r="K17" t="n">
-        <v>60.63713509915076</v>
+        <v>80.19951602302541</v>
       </c>
       <c r="L17" t="n">
-        <v>75.22572799276149</v>
+        <v>99.49459135287744</v>
       </c>
       <c r="M17" t="n">
-        <v>83.70311683797652</v>
+        <v>110.7069034354574</v>
       </c>
       <c r="N17" t="n">
-        <v>85.05752077732943</v>
+        <v>112.4982568735472</v>
       </c>
       <c r="O17" t="n">
-        <v>80.31740492270895</v>
+        <v>106.2289138907031</v>
       </c>
       <c r="P17" t="n">
-        <v>68.5490468926958</v>
+        <v>90.66392031293167</v>
       </c>
       <c r="Q17" t="n">
-        <v>51.47747942130965</v>
+        <v>68.08482836340504</v>
       </c>
       <c r="R17" t="n">
-        <v>29.94406562441775</v>
+        <v>39.60443657031629</v>
       </c>
       <c r="S17" t="n">
-        <v>10.86264136137416</v>
+        <v>14.3670801479885</v>
       </c>
       <c r="T17" t="n">
-        <v>2.086723535245874</v>
+        <v>2.75992949414458</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03813543867953623</v>
+        <v>0.05043846020138578</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2550532316874881</v>
+        <v>0.3373369422549053</v>
       </c>
       <c r="H18" t="n">
-        <v>2.463277263929162</v>
+        <v>3.25796467914606</v>
       </c>
       <c r="I18" t="n">
-        <v>8.78143802081922</v>
+        <v>11.6144517399167</v>
       </c>
       <c r="J18" t="n">
-        <v>24.09693712184291</v>
+        <v>31.87094330312683</v>
       </c>
       <c r="K18" t="n">
-        <v>41.18550364490461</v>
+        <v>54.47251843420548</v>
       </c>
       <c r="L18" t="n">
-        <v>55.37899225740833</v>
+        <v>73.24502336109251</v>
       </c>
       <c r="M18" t="n">
-        <v>64.62467190607977</v>
+        <v>85.47348751783279</v>
       </c>
       <c r="N18" t="n">
-        <v>66.33509467472086</v>
+        <v>87.73571639812997</v>
       </c>
       <c r="O18" t="n">
-        <v>60.6836520146981</v>
+        <v>80.26103994079759</v>
       </c>
       <c r="P18" t="n">
-        <v>48.70398070706079</v>
+        <v>64.41656049076346</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.55732129400288</v>
+        <v>43.0607647692402</v>
       </c>
       <c r="R18" t="n">
-        <v>15.83567345512317</v>
+        <v>20.94448137965106</v>
       </c>
       <c r="S18" t="n">
-        <v>4.737501913142594</v>
+        <v>6.265885747585628</v>
       </c>
       <c r="T18" t="n">
-        <v>1.028043508424568</v>
+        <v>1.359704604966043</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01677981787417685</v>
+        <v>0.02219321988519115</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2138280616534448</v>
+        <v>0.2828119605041843</v>
       </c>
       <c r="H19" t="n">
-        <v>1.901125857246084</v>
+        <v>2.514455430664477</v>
       </c>
       <c r="I19" t="n">
-        <v>6.430392981359962</v>
+        <v>8.504926957707655</v>
       </c>
       <c r="J19" t="n">
-        <v>15.11764395889855</v>
+        <v>19.99480560764583</v>
       </c>
       <c r="K19" t="n">
-        <v>24.84293298119113</v>
+        <v>32.85760777494068</v>
       </c>
       <c r="L19" t="n">
-        <v>31.79040109345852</v>
+        <v>42.04642547350392</v>
       </c>
       <c r="M19" t="n">
-        <v>33.51852060991227</v>
+        <v>44.33206031794227</v>
       </c>
       <c r="N19" t="n">
-        <v>32.72152510738582</v>
+        <v>43.27794301060853</v>
       </c>
       <c r="O19" t="n">
-        <v>30.22362456897965</v>
+        <v>39.97418510835509</v>
       </c>
       <c r="P19" t="n">
-        <v>25.86153211124936</v>
+        <v>34.2048211140697</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.90518432627164</v>
+        <v>23.68164516549129</v>
       </c>
       <c r="R19" t="n">
-        <v>9.614487208526709</v>
+        <v>12.71625415139723</v>
       </c>
       <c r="S19" t="n">
-        <v>3.726439947178669</v>
+        <v>4.928641166241102</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9136289907010823</v>
+        <v>1.208378376699696</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01166334881746064</v>
+        <v>0.01542610693659189</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4766929834942029</v>
+        <v>0.6304807525173224</v>
       </c>
       <c r="H20" t="n">
-        <v>4.881932017210007</v>
+        <v>6.45691100671803</v>
       </c>
       <c r="I20" t="n">
-        <v>18.37770624616028</v>
+        <v>24.30660921142409</v>
       </c>
       <c r="J20" t="n">
-        <v>40.45872110784114</v>
+        <v>53.51126576896714</v>
       </c>
       <c r="K20" t="n">
-        <v>60.63713509915076</v>
+        <v>80.19951602302541</v>
       </c>
       <c r="L20" t="n">
-        <v>75.22572799276149</v>
+        <v>99.49459135287744</v>
       </c>
       <c r="M20" t="n">
-        <v>83.70311683797652</v>
+        <v>110.7069034354574</v>
       </c>
       <c r="N20" t="n">
-        <v>85.05752077732943</v>
+        <v>112.4982568735472</v>
       </c>
       <c r="O20" t="n">
-        <v>80.31740492270895</v>
+        <v>106.2289138907031</v>
       </c>
       <c r="P20" t="n">
-        <v>68.5490468926958</v>
+        <v>90.66392031293167</v>
       </c>
       <c r="Q20" t="n">
-        <v>51.47747942130965</v>
+        <v>68.08482836340504</v>
       </c>
       <c r="R20" t="n">
-        <v>29.94406562441775</v>
+        <v>39.60443657031629</v>
       </c>
       <c r="S20" t="n">
-        <v>10.86264136137416</v>
+        <v>14.3670801479885</v>
       </c>
       <c r="T20" t="n">
-        <v>2.086723535245874</v>
+        <v>2.75992949414458</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03813543867953623</v>
+        <v>0.05043846020138578</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2550532316874881</v>
+        <v>0.3373369422549053</v>
       </c>
       <c r="H21" t="n">
-        <v>2.463277263929162</v>
+        <v>3.25796467914606</v>
       </c>
       <c r="I21" t="n">
-        <v>8.78143802081922</v>
+        <v>11.6144517399167</v>
       </c>
       <c r="J21" t="n">
-        <v>24.09693712184291</v>
+        <v>31.87094330312683</v>
       </c>
       <c r="K21" t="n">
-        <v>41.18550364490461</v>
+        <v>54.47251843420548</v>
       </c>
       <c r="L21" t="n">
-        <v>55.37899225740833</v>
+        <v>73.24502336109251</v>
       </c>
       <c r="M21" t="n">
-        <v>64.62467190607977</v>
+        <v>85.47348751783279</v>
       </c>
       <c r="N21" t="n">
-        <v>66.33509467472086</v>
+        <v>87.73571639812997</v>
       </c>
       <c r="O21" t="n">
-        <v>60.6836520146981</v>
+        <v>80.26103994079759</v>
       </c>
       <c r="P21" t="n">
-        <v>48.70398070706079</v>
+        <v>64.41656049076346</v>
       </c>
       <c r="Q21" t="n">
-        <v>32.55732129400288</v>
+        <v>43.0607647692402</v>
       </c>
       <c r="R21" t="n">
-        <v>15.83567345512317</v>
+        <v>20.94448137965106</v>
       </c>
       <c r="S21" t="n">
-        <v>4.737501913142594</v>
+        <v>6.265885747585628</v>
       </c>
       <c r="T21" t="n">
-        <v>1.028043508424568</v>
+        <v>1.359704604966043</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01677981787417685</v>
+        <v>0.02219321988519115</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2138280616534448</v>
+        <v>0.2828119605041843</v>
       </c>
       <c r="H22" t="n">
-        <v>1.901125857246084</v>
+        <v>2.514455430664477</v>
       </c>
       <c r="I22" t="n">
-        <v>6.430392981359962</v>
+        <v>8.504926957707655</v>
       </c>
       <c r="J22" t="n">
-        <v>15.11764395889855</v>
+        <v>19.99480560764583</v>
       </c>
       <c r="K22" t="n">
-        <v>24.84293298119113</v>
+        <v>32.85760777494068</v>
       </c>
       <c r="L22" t="n">
-        <v>31.79040109345852</v>
+        <v>42.04642547350392</v>
       </c>
       <c r="M22" t="n">
-        <v>33.51852060991227</v>
+        <v>44.33206031794227</v>
       </c>
       <c r="N22" t="n">
-        <v>32.72152510738582</v>
+        <v>43.27794301060853</v>
       </c>
       <c r="O22" t="n">
-        <v>30.22362456897965</v>
+        <v>39.97418510835509</v>
       </c>
       <c r="P22" t="n">
-        <v>25.86153211124936</v>
+        <v>34.2048211140697</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.90518432627164</v>
+        <v>23.68164516549129</v>
       </c>
       <c r="R22" t="n">
-        <v>9.614487208526709</v>
+        <v>12.71625415139723</v>
       </c>
       <c r="S22" t="n">
-        <v>3.726439947178669</v>
+        <v>4.928641166241102</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9136289907010823</v>
+        <v>1.208378376699696</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01166334881746064</v>
+        <v>0.01542610693659189</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4766929834942029</v>
+        <v>0.6304807525173224</v>
       </c>
       <c r="H23" t="n">
-        <v>4.881932017210007</v>
+        <v>6.45691100671803</v>
       </c>
       <c r="I23" t="n">
-        <v>18.37770624616028</v>
+        <v>24.30660921142409</v>
       </c>
       <c r="J23" t="n">
-        <v>40.45872110784114</v>
+        <v>53.51126576896714</v>
       </c>
       <c r="K23" t="n">
-        <v>60.63713509915076</v>
+        <v>80.19951602302541</v>
       </c>
       <c r="L23" t="n">
-        <v>75.22572799276149</v>
+        <v>99.49459135287744</v>
       </c>
       <c r="M23" t="n">
-        <v>83.70311683797652</v>
+        <v>110.7069034354574</v>
       </c>
       <c r="N23" t="n">
-        <v>85.05752077732943</v>
+        <v>112.4982568735472</v>
       </c>
       <c r="O23" t="n">
-        <v>80.31740492270895</v>
+        <v>106.2289138907031</v>
       </c>
       <c r="P23" t="n">
-        <v>68.5490468926958</v>
+        <v>90.66392031293167</v>
       </c>
       <c r="Q23" t="n">
-        <v>51.47747942130965</v>
+        <v>68.08482836340504</v>
       </c>
       <c r="R23" t="n">
-        <v>29.94406562441775</v>
+        <v>39.60443657031629</v>
       </c>
       <c r="S23" t="n">
-        <v>10.86264136137416</v>
+        <v>14.3670801479885</v>
       </c>
       <c r="T23" t="n">
-        <v>2.086723535245874</v>
+        <v>2.75992949414458</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03813543867953623</v>
+        <v>0.05043846020138578</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2550532316874881</v>
+        <v>0.3373369422549053</v>
       </c>
       <c r="H24" t="n">
-        <v>2.463277263929162</v>
+        <v>3.25796467914606</v>
       </c>
       <c r="I24" t="n">
-        <v>8.78143802081922</v>
+        <v>11.6144517399167</v>
       </c>
       <c r="J24" t="n">
-        <v>24.09693712184291</v>
+        <v>31.87094330312683</v>
       </c>
       <c r="K24" t="n">
-        <v>41.18550364490461</v>
+        <v>54.47251843420548</v>
       </c>
       <c r="L24" t="n">
-        <v>55.37899225740833</v>
+        <v>73.24502336109251</v>
       </c>
       <c r="M24" t="n">
-        <v>64.62467190607977</v>
+        <v>85.47348751783279</v>
       </c>
       <c r="N24" t="n">
-        <v>66.33509467472086</v>
+        <v>87.73571639812997</v>
       </c>
       <c r="O24" t="n">
-        <v>60.6836520146981</v>
+        <v>80.26103994079759</v>
       </c>
       <c r="P24" t="n">
-        <v>48.70398070706079</v>
+        <v>64.41656049076346</v>
       </c>
       <c r="Q24" t="n">
-        <v>32.55732129400288</v>
+        <v>43.0607647692402</v>
       </c>
       <c r="R24" t="n">
-        <v>15.83567345512317</v>
+        <v>20.94448137965106</v>
       </c>
       <c r="S24" t="n">
-        <v>4.737501913142594</v>
+        <v>6.265885747585628</v>
       </c>
       <c r="T24" t="n">
-        <v>1.028043508424568</v>
+        <v>1.359704604966043</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01677981787417685</v>
+        <v>0.02219321988519115</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2138280616534448</v>
+        <v>0.2828119605041843</v>
       </c>
       <c r="H25" t="n">
-        <v>1.901125857246084</v>
+        <v>2.514455430664477</v>
       </c>
       <c r="I25" t="n">
-        <v>6.430392981359962</v>
+        <v>8.504926957707655</v>
       </c>
       <c r="J25" t="n">
-        <v>15.11764395889855</v>
+        <v>19.99480560764583</v>
       </c>
       <c r="K25" t="n">
-        <v>24.84293298119113</v>
+        <v>32.85760777494068</v>
       </c>
       <c r="L25" t="n">
-        <v>31.79040109345852</v>
+        <v>42.04642547350392</v>
       </c>
       <c r="M25" t="n">
-        <v>33.51852060991227</v>
+        <v>44.33206031794227</v>
       </c>
       <c r="N25" t="n">
-        <v>32.72152510738582</v>
+        <v>43.27794301060853</v>
       </c>
       <c r="O25" t="n">
-        <v>30.22362456897965</v>
+        <v>39.97418510835509</v>
       </c>
       <c r="P25" t="n">
-        <v>25.86153211124936</v>
+        <v>34.2048211140697</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.90518432627164</v>
+        <v>23.68164516549129</v>
       </c>
       <c r="R25" t="n">
-        <v>9.614487208526709</v>
+        <v>12.71625415139723</v>
       </c>
       <c r="S25" t="n">
-        <v>3.726439947178669</v>
+        <v>4.928641166241102</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9136289907010823</v>
+        <v>1.208378376699696</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01166334881746064</v>
+        <v>0.01542610693659189</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4766929834942029</v>
+        <v>0.6304807525173224</v>
       </c>
       <c r="H26" t="n">
-        <v>4.881932017210007</v>
+        <v>6.45691100671803</v>
       </c>
       <c r="I26" t="n">
-        <v>18.37770624616028</v>
+        <v>24.30660921142409</v>
       </c>
       <c r="J26" t="n">
-        <v>40.45872110784114</v>
+        <v>53.51126576896714</v>
       </c>
       <c r="K26" t="n">
-        <v>60.63713509915076</v>
+        <v>80.19951602302541</v>
       </c>
       <c r="L26" t="n">
-        <v>75.22572799276149</v>
+        <v>99.49459135287744</v>
       </c>
       <c r="M26" t="n">
-        <v>83.70311683797652</v>
+        <v>110.7069034354574</v>
       </c>
       <c r="N26" t="n">
-        <v>85.05752077732943</v>
+        <v>112.4982568735472</v>
       </c>
       <c r="O26" t="n">
-        <v>80.31740492270895</v>
+        <v>106.2289138907031</v>
       </c>
       <c r="P26" t="n">
-        <v>68.5490468926958</v>
+        <v>90.66392031293167</v>
       </c>
       <c r="Q26" t="n">
-        <v>51.47747942130965</v>
+        <v>68.08482836340504</v>
       </c>
       <c r="R26" t="n">
-        <v>29.94406562441775</v>
+        <v>39.60443657031629</v>
       </c>
       <c r="S26" t="n">
-        <v>10.86264136137416</v>
+        <v>14.3670801479885</v>
       </c>
       <c r="T26" t="n">
-        <v>2.086723535245874</v>
+        <v>2.75992949414458</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03813543867953623</v>
+        <v>0.05043846020138578</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2550532316874881</v>
+        <v>0.3373369422549053</v>
       </c>
       <c r="H27" t="n">
-        <v>2.463277263929162</v>
+        <v>3.25796467914606</v>
       </c>
       <c r="I27" t="n">
-        <v>8.78143802081922</v>
+        <v>11.6144517399167</v>
       </c>
       <c r="J27" t="n">
-        <v>24.09693712184291</v>
+        <v>31.87094330312683</v>
       </c>
       <c r="K27" t="n">
-        <v>41.18550364490461</v>
+        <v>54.47251843420548</v>
       </c>
       <c r="L27" t="n">
-        <v>55.37899225740833</v>
+        <v>73.24502336109251</v>
       </c>
       <c r="M27" t="n">
-        <v>64.62467190607977</v>
+        <v>85.47348751783279</v>
       </c>
       <c r="N27" t="n">
-        <v>66.33509467472086</v>
+        <v>87.73571639812997</v>
       </c>
       <c r="O27" t="n">
-        <v>60.6836520146981</v>
+        <v>80.26103994079759</v>
       </c>
       <c r="P27" t="n">
-        <v>48.70398070706079</v>
+        <v>64.41656049076346</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.55732129400288</v>
+        <v>43.0607647692402</v>
       </c>
       <c r="R27" t="n">
-        <v>15.83567345512317</v>
+        <v>20.94448137965106</v>
       </c>
       <c r="S27" t="n">
-        <v>4.737501913142594</v>
+        <v>6.265885747585628</v>
       </c>
       <c r="T27" t="n">
-        <v>1.028043508424568</v>
+        <v>1.359704604966043</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01677981787417685</v>
+        <v>0.02219321988519115</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2138280616534448</v>
+        <v>0.2828119605041843</v>
       </c>
       <c r="H28" t="n">
-        <v>1.901125857246084</v>
+        <v>2.514455430664477</v>
       </c>
       <c r="I28" t="n">
-        <v>6.430392981359962</v>
+        <v>8.504926957707655</v>
       </c>
       <c r="J28" t="n">
-        <v>15.11764395889855</v>
+        <v>19.99480560764583</v>
       </c>
       <c r="K28" t="n">
-        <v>24.84293298119113</v>
+        <v>32.85760777494068</v>
       </c>
       <c r="L28" t="n">
-        <v>31.79040109345852</v>
+        <v>42.04642547350392</v>
       </c>
       <c r="M28" t="n">
-        <v>33.51852060991227</v>
+        <v>44.33206031794227</v>
       </c>
       <c r="N28" t="n">
-        <v>32.72152510738582</v>
+        <v>43.27794301060853</v>
       </c>
       <c r="O28" t="n">
-        <v>30.22362456897965</v>
+        <v>39.97418510835509</v>
       </c>
       <c r="P28" t="n">
-        <v>25.86153211124936</v>
+        <v>34.2048211140697</v>
       </c>
       <c r="Q28" t="n">
-        <v>17.90518432627164</v>
+        <v>23.68164516549129</v>
       </c>
       <c r="R28" t="n">
-        <v>9.614487208526709</v>
+        <v>12.71625415139723</v>
       </c>
       <c r="S28" t="n">
-        <v>3.726439947178669</v>
+        <v>4.928641166241102</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9136289907010823</v>
+        <v>1.208378376699696</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01166334881746064</v>
+        <v>0.01542610693659189</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4766929834942029</v>
+        <v>0.6304807525173224</v>
       </c>
       <c r="H29" t="n">
-        <v>4.881932017210007</v>
+        <v>6.45691100671803</v>
       </c>
       <c r="I29" t="n">
-        <v>18.37770624616028</v>
+        <v>24.30660921142409</v>
       </c>
       <c r="J29" t="n">
-        <v>40.45872110784114</v>
+        <v>53.51126576896714</v>
       </c>
       <c r="K29" t="n">
-        <v>60.63713509915076</v>
+        <v>80.19951602302541</v>
       </c>
       <c r="L29" t="n">
-        <v>75.22572799276149</v>
+        <v>99.49459135287744</v>
       </c>
       <c r="M29" t="n">
-        <v>83.70311683797652</v>
+        <v>110.7069034354574</v>
       </c>
       <c r="N29" t="n">
-        <v>85.05752077732943</v>
+        <v>112.4982568735472</v>
       </c>
       <c r="O29" t="n">
-        <v>80.31740492270895</v>
+        <v>106.2289138907031</v>
       </c>
       <c r="P29" t="n">
-        <v>68.5490468926958</v>
+        <v>90.66392031293167</v>
       </c>
       <c r="Q29" t="n">
-        <v>51.47747942130965</v>
+        <v>68.08482836340504</v>
       </c>
       <c r="R29" t="n">
-        <v>29.94406562441775</v>
+        <v>39.60443657031629</v>
       </c>
       <c r="S29" t="n">
-        <v>10.86264136137416</v>
+        <v>14.3670801479885</v>
       </c>
       <c r="T29" t="n">
-        <v>2.086723535245874</v>
+        <v>2.75992949414458</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03813543867953623</v>
+        <v>0.05043846020138578</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2550532316874881</v>
+        <v>0.3373369422549053</v>
       </c>
       <c r="H30" t="n">
-        <v>2.463277263929162</v>
+        <v>3.25796467914606</v>
       </c>
       <c r="I30" t="n">
-        <v>8.78143802081922</v>
+        <v>11.6144517399167</v>
       </c>
       <c r="J30" t="n">
-        <v>24.09693712184291</v>
+        <v>31.87094330312683</v>
       </c>
       <c r="K30" t="n">
-        <v>41.18550364490461</v>
+        <v>54.47251843420548</v>
       </c>
       <c r="L30" t="n">
-        <v>55.37899225740833</v>
+        <v>73.24502336109251</v>
       </c>
       <c r="M30" t="n">
-        <v>64.62467190607977</v>
+        <v>85.47348751783279</v>
       </c>
       <c r="N30" t="n">
-        <v>66.33509467472086</v>
+        <v>87.73571639812997</v>
       </c>
       <c r="O30" t="n">
-        <v>60.6836520146981</v>
+        <v>80.26103994079759</v>
       </c>
       <c r="P30" t="n">
-        <v>48.70398070706079</v>
+        <v>64.41656049076346</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.55732129400288</v>
+        <v>43.0607647692402</v>
       </c>
       <c r="R30" t="n">
-        <v>15.83567345512317</v>
+        <v>20.94448137965106</v>
       </c>
       <c r="S30" t="n">
-        <v>4.737501913142594</v>
+        <v>6.265885747585628</v>
       </c>
       <c r="T30" t="n">
-        <v>1.028043508424568</v>
+        <v>1.359704604966043</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01677981787417685</v>
+        <v>0.02219321988519115</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2138280616534448</v>
+        <v>0.2828119605041843</v>
       </c>
       <c r="H31" t="n">
-        <v>1.901125857246084</v>
+        <v>2.514455430664477</v>
       </c>
       <c r="I31" t="n">
-        <v>6.430392981359962</v>
+        <v>8.504926957707655</v>
       </c>
       <c r="J31" t="n">
-        <v>15.11764395889855</v>
+        <v>19.99480560764583</v>
       </c>
       <c r="K31" t="n">
-        <v>24.84293298119113</v>
+        <v>32.85760777494068</v>
       </c>
       <c r="L31" t="n">
-        <v>31.79040109345852</v>
+        <v>42.04642547350392</v>
       </c>
       <c r="M31" t="n">
-        <v>33.51852060991227</v>
+        <v>44.33206031794227</v>
       </c>
       <c r="N31" t="n">
-        <v>32.72152510738582</v>
+        <v>43.27794301060853</v>
       </c>
       <c r="O31" t="n">
-        <v>30.22362456897965</v>
+        <v>39.97418510835509</v>
       </c>
       <c r="P31" t="n">
-        <v>25.86153211124936</v>
+        <v>34.2048211140697</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.90518432627164</v>
+        <v>23.68164516549129</v>
       </c>
       <c r="R31" t="n">
-        <v>9.614487208526709</v>
+        <v>12.71625415139723</v>
       </c>
       <c r="S31" t="n">
-        <v>3.726439947178669</v>
+        <v>4.928641166241102</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9136289907010823</v>
+        <v>1.208378376699696</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01166334881746064</v>
+        <v>0.01542610693659189</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4766929834942029</v>
+        <v>0.6304807525173224</v>
       </c>
       <c r="H32" t="n">
-        <v>4.881932017210007</v>
+        <v>6.45691100671803</v>
       </c>
       <c r="I32" t="n">
-        <v>18.37770624616028</v>
+        <v>24.30660921142409</v>
       </c>
       <c r="J32" t="n">
-        <v>40.45872110784114</v>
+        <v>53.51126576896714</v>
       </c>
       <c r="K32" t="n">
-        <v>60.63713509915076</v>
+        <v>80.19951602302541</v>
       </c>
       <c r="L32" t="n">
-        <v>75.22572799276149</v>
+        <v>99.49459135287744</v>
       </c>
       <c r="M32" t="n">
-        <v>83.70311683797652</v>
+        <v>110.7069034354574</v>
       </c>
       <c r="N32" t="n">
-        <v>85.05752077732943</v>
+        <v>112.4982568735472</v>
       </c>
       <c r="O32" t="n">
-        <v>80.31740492270895</v>
+        <v>106.2289138907031</v>
       </c>
       <c r="P32" t="n">
-        <v>68.5490468926958</v>
+        <v>90.66392031293167</v>
       </c>
       <c r="Q32" t="n">
-        <v>51.47747942130965</v>
+        <v>68.08482836340504</v>
       </c>
       <c r="R32" t="n">
-        <v>29.94406562441775</v>
+        <v>39.60443657031629</v>
       </c>
       <c r="S32" t="n">
-        <v>10.86264136137416</v>
+        <v>14.3670801479885</v>
       </c>
       <c r="T32" t="n">
-        <v>2.086723535245874</v>
+        <v>2.75992949414458</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03813543867953623</v>
+        <v>0.05043846020138578</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2550532316874881</v>
+        <v>0.3373369422549053</v>
       </c>
       <c r="H33" t="n">
-        <v>2.463277263929162</v>
+        <v>3.25796467914606</v>
       </c>
       <c r="I33" t="n">
-        <v>8.78143802081922</v>
+        <v>11.6144517399167</v>
       </c>
       <c r="J33" t="n">
-        <v>24.09693712184291</v>
+        <v>31.87094330312683</v>
       </c>
       <c r="K33" t="n">
-        <v>41.18550364490461</v>
+        <v>54.47251843420548</v>
       </c>
       <c r="L33" t="n">
-        <v>55.37899225740833</v>
+        <v>73.24502336109251</v>
       </c>
       <c r="M33" t="n">
-        <v>64.62467190607977</v>
+        <v>85.47348751783279</v>
       </c>
       <c r="N33" t="n">
-        <v>66.33509467472086</v>
+        <v>87.73571639812997</v>
       </c>
       <c r="O33" t="n">
-        <v>60.6836520146981</v>
+        <v>80.26103994079759</v>
       </c>
       <c r="P33" t="n">
-        <v>48.70398070706079</v>
+        <v>64.41656049076346</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.55732129400288</v>
+        <v>43.0607647692402</v>
       </c>
       <c r="R33" t="n">
-        <v>15.83567345512317</v>
+        <v>20.94448137965106</v>
       </c>
       <c r="S33" t="n">
-        <v>4.737501913142594</v>
+        <v>6.265885747585628</v>
       </c>
       <c r="T33" t="n">
-        <v>1.028043508424568</v>
+        <v>1.359704604966043</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01677981787417685</v>
+        <v>0.02219321988519115</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2138280616534448</v>
+        <v>0.2828119605041843</v>
       </c>
       <c r="H34" t="n">
-        <v>1.901125857246084</v>
+        <v>2.514455430664477</v>
       </c>
       <c r="I34" t="n">
-        <v>6.430392981359962</v>
+        <v>8.504926957707655</v>
       </c>
       <c r="J34" t="n">
-        <v>15.11764395889855</v>
+        <v>19.99480560764583</v>
       </c>
       <c r="K34" t="n">
-        <v>24.84293298119113</v>
+        <v>32.85760777494068</v>
       </c>
       <c r="L34" t="n">
-        <v>31.79040109345852</v>
+        <v>42.04642547350392</v>
       </c>
       <c r="M34" t="n">
-        <v>33.51852060991227</v>
+        <v>44.33206031794227</v>
       </c>
       <c r="N34" t="n">
-        <v>32.72152510738582</v>
+        <v>43.27794301060853</v>
       </c>
       <c r="O34" t="n">
-        <v>30.22362456897965</v>
+        <v>39.97418510835509</v>
       </c>
       <c r="P34" t="n">
-        <v>25.86153211124936</v>
+        <v>34.2048211140697</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.90518432627164</v>
+        <v>23.68164516549129</v>
       </c>
       <c r="R34" t="n">
-        <v>9.614487208526709</v>
+        <v>12.71625415139723</v>
       </c>
       <c r="S34" t="n">
-        <v>3.726439947178669</v>
+        <v>4.928641166241102</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9136289907010823</v>
+        <v>1.208378376699696</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01166334881746064</v>
+        <v>0.01542610693659189</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4766929834942029</v>
+        <v>0.6304807525173224</v>
       </c>
       <c r="H35" t="n">
-        <v>4.881932017210007</v>
+        <v>6.45691100671803</v>
       </c>
       <c r="I35" t="n">
-        <v>18.37770624616028</v>
+        <v>24.30660921142409</v>
       </c>
       <c r="J35" t="n">
-        <v>40.45872110784114</v>
+        <v>53.51126576896714</v>
       </c>
       <c r="K35" t="n">
-        <v>60.63713509915076</v>
+        <v>80.19951602302541</v>
       </c>
       <c r="L35" t="n">
-        <v>75.22572799276149</v>
+        <v>99.49459135287744</v>
       </c>
       <c r="M35" t="n">
-        <v>83.70311683797652</v>
+        <v>110.7069034354574</v>
       </c>
       <c r="N35" t="n">
-        <v>85.05752077732943</v>
+        <v>112.4982568735472</v>
       </c>
       <c r="O35" t="n">
-        <v>80.31740492270895</v>
+        <v>106.2289138907031</v>
       </c>
       <c r="P35" t="n">
-        <v>68.5490468926958</v>
+        <v>90.66392031293167</v>
       </c>
       <c r="Q35" t="n">
-        <v>51.47747942130965</v>
+        <v>68.08482836340504</v>
       </c>
       <c r="R35" t="n">
-        <v>29.94406562441775</v>
+        <v>39.60443657031629</v>
       </c>
       <c r="S35" t="n">
-        <v>10.86264136137416</v>
+        <v>14.3670801479885</v>
       </c>
       <c r="T35" t="n">
-        <v>2.086723535245874</v>
+        <v>2.75992949414458</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03813543867953623</v>
+        <v>0.05043846020138578</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2550532316874881</v>
+        <v>0.3373369422549053</v>
       </c>
       <c r="H36" t="n">
-        <v>2.463277263929162</v>
+        <v>3.25796467914606</v>
       </c>
       <c r="I36" t="n">
-        <v>8.78143802081922</v>
+        <v>11.6144517399167</v>
       </c>
       <c r="J36" t="n">
-        <v>24.09693712184291</v>
+        <v>31.87094330312683</v>
       </c>
       <c r="K36" t="n">
-        <v>41.18550364490461</v>
+        <v>54.47251843420548</v>
       </c>
       <c r="L36" t="n">
-        <v>55.37899225740833</v>
+        <v>73.24502336109251</v>
       </c>
       <c r="M36" t="n">
-        <v>64.62467190607977</v>
+        <v>85.47348751783279</v>
       </c>
       <c r="N36" t="n">
-        <v>66.33509467472086</v>
+        <v>87.73571639812997</v>
       </c>
       <c r="O36" t="n">
-        <v>60.6836520146981</v>
+        <v>80.26103994079759</v>
       </c>
       <c r="P36" t="n">
-        <v>48.70398070706079</v>
+        <v>64.41656049076346</v>
       </c>
       <c r="Q36" t="n">
-        <v>32.55732129400288</v>
+        <v>43.0607647692402</v>
       </c>
       <c r="R36" t="n">
-        <v>15.83567345512317</v>
+        <v>20.94448137965106</v>
       </c>
       <c r="S36" t="n">
-        <v>4.737501913142594</v>
+        <v>6.265885747585628</v>
       </c>
       <c r="T36" t="n">
-        <v>1.028043508424568</v>
+        <v>1.359704604966043</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01677981787417685</v>
+        <v>0.02219321988519115</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2138280616534448</v>
+        <v>0.2828119605041843</v>
       </c>
       <c r="H37" t="n">
-        <v>1.901125857246084</v>
+        <v>2.514455430664477</v>
       </c>
       <c r="I37" t="n">
-        <v>6.430392981359962</v>
+        <v>8.504926957707655</v>
       </c>
       <c r="J37" t="n">
-        <v>15.11764395889855</v>
+        <v>19.99480560764583</v>
       </c>
       <c r="K37" t="n">
-        <v>24.84293298119113</v>
+        <v>32.85760777494068</v>
       </c>
       <c r="L37" t="n">
-        <v>31.79040109345852</v>
+        <v>42.04642547350392</v>
       </c>
       <c r="M37" t="n">
-        <v>33.51852060991227</v>
+        <v>44.33206031794227</v>
       </c>
       <c r="N37" t="n">
-        <v>32.72152510738582</v>
+        <v>43.27794301060853</v>
       </c>
       <c r="O37" t="n">
-        <v>30.22362456897965</v>
+        <v>39.97418510835509</v>
       </c>
       <c r="P37" t="n">
-        <v>25.86153211124936</v>
+        <v>34.2048211140697</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.90518432627164</v>
+        <v>23.68164516549129</v>
       </c>
       <c r="R37" t="n">
-        <v>9.614487208526709</v>
+        <v>12.71625415139723</v>
       </c>
       <c r="S37" t="n">
-        <v>3.726439947178669</v>
+        <v>4.928641166241102</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9136289907010823</v>
+        <v>1.208378376699696</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01166334881746064</v>
+        <v>0.01542610693659189</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4766929834942029</v>
+        <v>0.6304807525173224</v>
       </c>
       <c r="H38" t="n">
-        <v>4.881932017210007</v>
+        <v>6.45691100671803</v>
       </c>
       <c r="I38" t="n">
-        <v>18.37770624616028</v>
+        <v>24.30660921142409</v>
       </c>
       <c r="J38" t="n">
-        <v>40.45872110784114</v>
+        <v>53.51126576896714</v>
       </c>
       <c r="K38" t="n">
-        <v>60.63713509915076</v>
+        <v>80.19951602302541</v>
       </c>
       <c r="L38" t="n">
-        <v>75.22572799276149</v>
+        <v>99.49459135287744</v>
       </c>
       <c r="M38" t="n">
-        <v>83.70311683797652</v>
+        <v>110.7069034354574</v>
       </c>
       <c r="N38" t="n">
-        <v>85.05752077732943</v>
+        <v>112.4982568735472</v>
       </c>
       <c r="O38" t="n">
-        <v>80.31740492270895</v>
+        <v>106.2289138907031</v>
       </c>
       <c r="P38" t="n">
-        <v>68.5490468926958</v>
+        <v>90.66392031293167</v>
       </c>
       <c r="Q38" t="n">
-        <v>51.47747942130965</v>
+        <v>68.08482836340504</v>
       </c>
       <c r="R38" t="n">
-        <v>29.94406562441775</v>
+        <v>39.60443657031629</v>
       </c>
       <c r="S38" t="n">
-        <v>10.86264136137416</v>
+        <v>14.3670801479885</v>
       </c>
       <c r="T38" t="n">
-        <v>2.086723535245874</v>
+        <v>2.75992949414458</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03813543867953623</v>
+        <v>0.05043846020138578</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2550532316874881</v>
+        <v>0.3373369422549053</v>
       </c>
       <c r="H39" t="n">
-        <v>2.463277263929162</v>
+        <v>3.25796467914606</v>
       </c>
       <c r="I39" t="n">
-        <v>8.78143802081922</v>
+        <v>11.6144517399167</v>
       </c>
       <c r="J39" t="n">
-        <v>24.09693712184291</v>
+        <v>31.87094330312683</v>
       </c>
       <c r="K39" t="n">
-        <v>41.18550364490461</v>
+        <v>54.47251843420548</v>
       </c>
       <c r="L39" t="n">
-        <v>55.37899225740833</v>
+        <v>73.24502336109251</v>
       </c>
       <c r="M39" t="n">
-        <v>64.62467190607977</v>
+        <v>85.47348751783279</v>
       </c>
       <c r="N39" t="n">
-        <v>66.33509467472086</v>
+        <v>87.73571639812997</v>
       </c>
       <c r="O39" t="n">
-        <v>60.6836520146981</v>
+        <v>80.26103994079759</v>
       </c>
       <c r="P39" t="n">
-        <v>48.70398070706079</v>
+        <v>64.41656049076346</v>
       </c>
       <c r="Q39" t="n">
-        <v>32.55732129400288</v>
+        <v>43.0607647692402</v>
       </c>
       <c r="R39" t="n">
-        <v>15.83567345512317</v>
+        <v>20.94448137965106</v>
       </c>
       <c r="S39" t="n">
-        <v>4.737501913142594</v>
+        <v>6.265885747585628</v>
       </c>
       <c r="T39" t="n">
-        <v>1.028043508424568</v>
+        <v>1.359704604966043</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01677981787417685</v>
+        <v>0.02219321988519115</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2138280616534448</v>
+        <v>0.2828119605041843</v>
       </c>
       <c r="H40" t="n">
-        <v>1.901125857246084</v>
+        <v>2.514455430664477</v>
       </c>
       <c r="I40" t="n">
-        <v>6.430392981359962</v>
+        <v>8.504926957707655</v>
       </c>
       <c r="J40" t="n">
-        <v>15.11764395889855</v>
+        <v>19.99480560764583</v>
       </c>
       <c r="K40" t="n">
-        <v>24.84293298119113</v>
+        <v>32.85760777494068</v>
       </c>
       <c r="L40" t="n">
-        <v>31.79040109345852</v>
+        <v>42.04642547350392</v>
       </c>
       <c r="M40" t="n">
-        <v>33.51852060991227</v>
+        <v>44.33206031794227</v>
       </c>
       <c r="N40" t="n">
-        <v>32.72152510738582</v>
+        <v>43.27794301060853</v>
       </c>
       <c r="O40" t="n">
-        <v>30.22362456897965</v>
+        <v>39.97418510835509</v>
       </c>
       <c r="P40" t="n">
-        <v>25.86153211124936</v>
+        <v>34.2048211140697</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.90518432627164</v>
+        <v>23.68164516549129</v>
       </c>
       <c r="R40" t="n">
-        <v>9.614487208526709</v>
+        <v>12.71625415139723</v>
       </c>
       <c r="S40" t="n">
-        <v>3.726439947178669</v>
+        <v>4.928641166241102</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9136289907010823</v>
+        <v>1.208378376699696</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01166334881746064</v>
+        <v>0.01542610693659189</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4766929834942029</v>
+        <v>0.6304807525173224</v>
       </c>
       <c r="H41" t="n">
-        <v>4.881932017210007</v>
+        <v>6.45691100671803</v>
       </c>
       <c r="I41" t="n">
-        <v>18.37770624616028</v>
+        <v>24.30660921142409</v>
       </c>
       <c r="J41" t="n">
-        <v>40.45872110784114</v>
+        <v>53.51126576896714</v>
       </c>
       <c r="K41" t="n">
-        <v>60.63713509915076</v>
+        <v>80.19951602302541</v>
       </c>
       <c r="L41" t="n">
-        <v>75.22572799276149</v>
+        <v>99.49459135287744</v>
       </c>
       <c r="M41" t="n">
-        <v>83.70311683797652</v>
+        <v>110.7069034354574</v>
       </c>
       <c r="N41" t="n">
-        <v>85.05752077732943</v>
+        <v>112.4982568735472</v>
       </c>
       <c r="O41" t="n">
-        <v>80.31740492270895</v>
+        <v>106.2289138907031</v>
       </c>
       <c r="P41" t="n">
-        <v>68.5490468926958</v>
+        <v>90.66392031293167</v>
       </c>
       <c r="Q41" t="n">
-        <v>51.47747942130965</v>
+        <v>68.08482836340504</v>
       </c>
       <c r="R41" t="n">
-        <v>29.94406562441775</v>
+        <v>39.60443657031629</v>
       </c>
       <c r="S41" t="n">
-        <v>10.86264136137416</v>
+        <v>14.3670801479885</v>
       </c>
       <c r="T41" t="n">
-        <v>2.086723535245874</v>
+        <v>2.75992949414458</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03813543867953623</v>
+        <v>0.05043846020138578</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2550532316874881</v>
+        <v>0.3373369422549053</v>
       </c>
       <c r="H42" t="n">
-        <v>2.463277263929162</v>
+        <v>3.25796467914606</v>
       </c>
       <c r="I42" t="n">
-        <v>8.78143802081922</v>
+        <v>11.6144517399167</v>
       </c>
       <c r="J42" t="n">
-        <v>24.09693712184291</v>
+        <v>31.87094330312683</v>
       </c>
       <c r="K42" t="n">
-        <v>41.18550364490461</v>
+        <v>54.47251843420548</v>
       </c>
       <c r="L42" t="n">
-        <v>55.37899225740833</v>
+        <v>73.24502336109251</v>
       </c>
       <c r="M42" t="n">
-        <v>64.62467190607977</v>
+        <v>85.47348751783279</v>
       </c>
       <c r="N42" t="n">
-        <v>66.33509467472086</v>
+        <v>87.73571639812997</v>
       </c>
       <c r="O42" t="n">
-        <v>60.6836520146981</v>
+        <v>80.26103994079759</v>
       </c>
       <c r="P42" t="n">
-        <v>48.70398070706079</v>
+        <v>64.41656049076346</v>
       </c>
       <c r="Q42" t="n">
-        <v>32.55732129400288</v>
+        <v>43.0607647692402</v>
       </c>
       <c r="R42" t="n">
-        <v>15.83567345512317</v>
+        <v>20.94448137965106</v>
       </c>
       <c r="S42" t="n">
-        <v>4.737501913142594</v>
+        <v>6.265885747585628</v>
       </c>
       <c r="T42" t="n">
-        <v>1.028043508424568</v>
+        <v>1.359704604966043</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01677981787417685</v>
+        <v>0.02219321988519115</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2138280616534448</v>
+        <v>0.2828119605041843</v>
       </c>
       <c r="H43" t="n">
-        <v>1.901125857246084</v>
+        <v>2.514455430664477</v>
       </c>
       <c r="I43" t="n">
-        <v>6.430392981359962</v>
+        <v>8.504926957707655</v>
       </c>
       <c r="J43" t="n">
-        <v>15.11764395889855</v>
+        <v>19.99480560764583</v>
       </c>
       <c r="K43" t="n">
-        <v>24.84293298119113</v>
+        <v>32.85760777494068</v>
       </c>
       <c r="L43" t="n">
-        <v>31.79040109345852</v>
+        <v>42.04642547350392</v>
       </c>
       <c r="M43" t="n">
-        <v>33.51852060991227</v>
+        <v>44.33206031794227</v>
       </c>
       <c r="N43" t="n">
-        <v>32.72152510738582</v>
+        <v>43.27794301060853</v>
       </c>
       <c r="O43" t="n">
-        <v>30.22362456897965</v>
+        <v>39.97418510835509</v>
       </c>
       <c r="P43" t="n">
-        <v>25.86153211124936</v>
+        <v>34.2048211140697</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.90518432627164</v>
+        <v>23.68164516549129</v>
       </c>
       <c r="R43" t="n">
-        <v>9.614487208526709</v>
+        <v>12.71625415139723</v>
       </c>
       <c r="S43" t="n">
-        <v>3.726439947178669</v>
+        <v>4.928641166241102</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9136289907010823</v>
+        <v>1.208378376699696</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01166334881746064</v>
+        <v>0.01542610693659189</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4766929834942029</v>
+        <v>0.6304807525173224</v>
       </c>
       <c r="H44" t="n">
-        <v>4.881932017210007</v>
+        <v>6.45691100671803</v>
       </c>
       <c r="I44" t="n">
-        <v>18.37770624616028</v>
+        <v>24.30660921142409</v>
       </c>
       <c r="J44" t="n">
-        <v>40.45872110784114</v>
+        <v>53.51126576896714</v>
       </c>
       <c r="K44" t="n">
-        <v>60.63713509915076</v>
+        <v>80.19951602302541</v>
       </c>
       <c r="L44" t="n">
-        <v>75.22572799276149</v>
+        <v>99.49459135287744</v>
       </c>
       <c r="M44" t="n">
-        <v>83.70311683797652</v>
+        <v>110.7069034354574</v>
       </c>
       <c r="N44" t="n">
-        <v>85.05752077732943</v>
+        <v>112.4982568735472</v>
       </c>
       <c r="O44" t="n">
-        <v>80.31740492270895</v>
+        <v>106.2289138907031</v>
       </c>
       <c r="P44" t="n">
-        <v>68.5490468926958</v>
+        <v>90.66392031293167</v>
       </c>
       <c r="Q44" t="n">
-        <v>51.47747942130965</v>
+        <v>68.08482836340504</v>
       </c>
       <c r="R44" t="n">
-        <v>29.94406562441775</v>
+        <v>39.60443657031629</v>
       </c>
       <c r="S44" t="n">
-        <v>10.86264136137416</v>
+        <v>14.3670801479885</v>
       </c>
       <c r="T44" t="n">
-        <v>2.086723535245874</v>
+        <v>2.75992949414458</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03813543867953623</v>
+        <v>0.05043846020138578</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2550532316874881</v>
+        <v>0.3373369422549053</v>
       </c>
       <c r="H45" t="n">
-        <v>2.463277263929162</v>
+        <v>3.25796467914606</v>
       </c>
       <c r="I45" t="n">
-        <v>8.78143802081922</v>
+        <v>11.6144517399167</v>
       </c>
       <c r="J45" t="n">
-        <v>24.09693712184291</v>
+        <v>31.87094330312683</v>
       </c>
       <c r="K45" t="n">
-        <v>41.18550364490461</v>
+        <v>54.47251843420548</v>
       </c>
       <c r="L45" t="n">
-        <v>55.37899225740833</v>
+        <v>73.24502336109251</v>
       </c>
       <c r="M45" t="n">
-        <v>64.62467190607977</v>
+        <v>85.47348751783279</v>
       </c>
       <c r="N45" t="n">
-        <v>66.33509467472086</v>
+        <v>87.73571639812997</v>
       </c>
       <c r="O45" t="n">
-        <v>60.6836520146981</v>
+        <v>80.26103994079759</v>
       </c>
       <c r="P45" t="n">
-        <v>48.70398070706079</v>
+        <v>64.41656049076346</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.55732129400288</v>
+        <v>43.0607647692402</v>
       </c>
       <c r="R45" t="n">
-        <v>15.83567345512317</v>
+        <v>20.94448137965106</v>
       </c>
       <c r="S45" t="n">
-        <v>4.737501913142594</v>
+        <v>6.265885747585628</v>
       </c>
       <c r="T45" t="n">
-        <v>1.028043508424568</v>
+        <v>1.359704604966043</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01677981787417685</v>
+        <v>0.02219321988519115</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2138280616534448</v>
+        <v>0.2828119605041843</v>
       </c>
       <c r="H46" t="n">
-        <v>1.901125857246084</v>
+        <v>2.514455430664477</v>
       </c>
       <c r="I46" t="n">
-        <v>6.430392981359962</v>
+        <v>8.504926957707655</v>
       </c>
       <c r="J46" t="n">
-        <v>15.11764395889855</v>
+        <v>19.99480560764583</v>
       </c>
       <c r="K46" t="n">
-        <v>24.84293298119113</v>
+        <v>32.85760777494068</v>
       </c>
       <c r="L46" t="n">
-        <v>31.79040109345852</v>
+        <v>42.04642547350392</v>
       </c>
       <c r="M46" t="n">
-        <v>33.51852060991227</v>
+        <v>44.33206031794227</v>
       </c>
       <c r="N46" t="n">
-        <v>32.72152510738582</v>
+        <v>43.27794301060853</v>
       </c>
       <c r="O46" t="n">
-        <v>30.22362456897965</v>
+        <v>39.97418510835509</v>
       </c>
       <c r="P46" t="n">
-        <v>25.86153211124936</v>
+        <v>34.2048211140697</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.90518432627164</v>
+        <v>23.68164516549129</v>
       </c>
       <c r="R46" t="n">
-        <v>9.614487208526709</v>
+        <v>12.71625415139723</v>
       </c>
       <c r="S46" t="n">
-        <v>3.726439947178669</v>
+        <v>4.928641166241102</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9136289907010823</v>
+        <v>1.208378376699696</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01166334881746064</v>
+        <v>0.01542610693659189</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
